--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EBFE2A-7EEF-394D-BF8E-B1F30CB4F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE7DBF3-EE7A-7C48-AD47-9E7BD5B17590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17200" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -488,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C143" sqref="C143:C152"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N156" sqref="N156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2178,39 +2178,115 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="23">
-      <c r="A153" s="2"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5">
+        <v>45695</v>
+      </c>
+      <c r="B153" s="7">
+        <v>605010</v>
+      </c>
+      <c r="C153" s="8">
+        <v>17.350000000000001</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="23">
-      <c r="A154" s="2"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="5">
+        <v>45698</v>
+      </c>
+      <c r="B154" s="7">
+        <v>605010</v>
+      </c>
+      <c r="C154" s="8">
+        <v>16.7</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="23">
-      <c r="A155" s="2"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5">
+        <v>45699</v>
+      </c>
+      <c r="B155" s="7">
+        <v>604939.98109489563</v>
+      </c>
+      <c r="C155" s="8">
+        <v>16.77</v>
+      </c>
     </row>
     <row r="156" spans="1:3" ht="23">
-      <c r="A156" s="2"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="5">
+        <v>45700</v>
+      </c>
+      <c r="B156" s="7">
+        <v>604869.95728680096</v>
+      </c>
+      <c r="C156" s="8">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="23">
-      <c r="A157" s="2"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="5">
+        <v>45701</v>
+      </c>
+      <c r="B157" s="7">
+        <v>604799.92857502913</v>
+      </c>
+      <c r="C157" s="8">
+        <v>16.13</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="23">
-      <c r="A158" s="2"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="5">
+        <v>45702</v>
+      </c>
+      <c r="B158" s="7">
+        <v>598536.92233203247</v>
+      </c>
+      <c r="C158" s="8">
+        <v>16.010000000000002</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="23">
-      <c r="A159" s="2"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="5"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="1:3" ht="23">
+      <c r="A160" s="5"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="1:3" ht="23">
+      <c r="A161" s="5"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:3" ht="23">
+      <c r="A162" s="5"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" ht="23">
+      <c r="A163" s="5"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" ht="23">
+      <c r="A164" s="5"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" ht="23">
+      <c r="A165" s="5"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" ht="23">
+      <c r="A166" s="5"/>
+      <c r="B166" s="7"/>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:3" ht="23">
+      <c r="A167" s="5"/>
+      <c r="B167" s="7"/>
+      <c r="C167" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2222,8 +2298,8 @@
   <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -3908,22 +3984,70 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="40" customHeight="1">
-      <c r="A153" s="2"/>
+      <c r="A153" s="5">
+        <v>45695</v>
+      </c>
+      <c r="B153" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="C153" s="6">
+        <v>28.62</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="40" customHeight="1">
-      <c r="A154" s="2"/>
+      <c r="A154" s="5">
+        <v>45698</v>
+      </c>
+      <c r="B154" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="C154" s="6">
+        <v>29.26</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="40" customHeight="1">
-      <c r="A155" s="2"/>
+      <c r="A155" s="5">
+        <v>45699</v>
+      </c>
+      <c r="B155" s="6">
+        <v>60.49</v>
+      </c>
+      <c r="C155" s="6">
+        <v>29.32</v>
+      </c>
     </row>
     <row r="156" spans="1:3" ht="40" customHeight="1">
-      <c r="A156" s="2"/>
+      <c r="A156" s="5">
+        <v>45700</v>
+      </c>
+      <c r="B156" s="6">
+        <v>60.49</v>
+      </c>
+      <c r="C156" s="6">
+        <v>29</v>
+      </c>
     </row>
     <row r="157" spans="1:3" ht="40" customHeight="1">
-      <c r="A157" s="2"/>
+      <c r="A157" s="5">
+        <v>45701</v>
+      </c>
+      <c r="B157" s="6">
+        <v>60.49</v>
+      </c>
+      <c r="C157" s="6">
+        <v>30.02</v>
+      </c>
     </row>
     <row r="158" spans="1:3" ht="40" customHeight="1">
-      <c r="A158" s="2"/>
+      <c r="A158" s="5">
+        <v>45702</v>
+      </c>
+      <c r="B158" s="6">
+        <v>59.87</v>
+      </c>
+      <c r="C158" s="6">
+        <v>29.97</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="40" customHeight="1">
       <c r="A159" s="2"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE7DBF3-EE7A-7C48-AD47-9E7BD5B17590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD25557-B506-CB45-8DDE-61F86A14682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17200" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17200" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -128,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,9 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N156" sqref="N156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2244,29 +2247,59 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="23">
-      <c r="A159" s="5"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="8"/>
+      <c r="A159" s="5">
+        <v>45705</v>
+      </c>
+      <c r="B159" s="7">
+        <v>598325.49732750189</v>
+      </c>
+      <c r="C159" s="8">
+        <v>16.010000000000002</v>
+      </c>
     </row>
     <row r="160" spans="1:3" ht="23">
-      <c r="A160" s="5"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="8"/>
+      <c r="A160" s="5">
+        <v>45706</v>
+      </c>
+      <c r="B160" s="7">
+        <v>587419.70205032558</v>
+      </c>
+      <c r="C160" s="8">
+        <v>15.66</v>
+      </c>
     </row>
     <row r="161" spans="1:3" ht="23">
-      <c r="A161" s="5"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="8"/>
+      <c r="A161" s="5">
+        <v>45707</v>
+      </c>
+      <c r="B161" s="7">
+        <v>584752.27520094358</v>
+      </c>
+      <c r="C161" s="8">
+        <v>15.94</v>
+      </c>
     </row>
     <row r="162" spans="1:3" ht="23">
-      <c r="A162" s="5"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="8"/>
+      <c r="A162" s="5">
+        <v>45708</v>
+      </c>
+      <c r="B162" s="7">
+        <v>567939.29030915094</v>
+      </c>
+      <c r="C162" s="8">
+        <v>17.03</v>
+      </c>
     </row>
     <row r="163" spans="1:3" ht="23">
-      <c r="A163" s="5"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="8"/>
+      <c r="A163" s="5">
+        <v>45709</v>
+      </c>
+      <c r="B163" s="7">
+        <v>594436.23257032025</v>
+      </c>
+      <c r="C163" s="8">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="164" spans="1:3" ht="23">
       <c r="A164" s="5"/>
@@ -2295,11 +2328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M158" sqref="M158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4050,7 +4083,1489 @@
       </c>
     </row>
     <row r="159" spans="1:3" ht="40" customHeight="1">
-      <c r="A159" s="2"/>
+      <c r="A159" s="5">
+        <v>45705</v>
+      </c>
+      <c r="B159" s="9">
+        <v>59.832549732750181</v>
+      </c>
+      <c r="C159" s="9">
+        <v>29.971327959071754</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="40" customHeight="1">
+      <c r="A160" s="5">
+        <v>45706</v>
+      </c>
+      <c r="B160" s="9">
+        <v>58.741970205032558</v>
+      </c>
+      <c r="C160" s="9">
+        <v>30.211580543331717</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="40" customHeight="1">
+      <c r="A161" s="5">
+        <v>45707</v>
+      </c>
+      <c r="B161" s="9">
+        <v>58.47522752009435</v>
+      </c>
+      <c r="C161" s="9">
+        <v>30.475599056125596</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="40" customHeight="1">
+      <c r="A162" s="5">
+        <v>45708</v>
+      </c>
+      <c r="B162" s="9">
+        <v>56.793929030915095</v>
+      </c>
+      <c r="C162" s="9">
+        <v>0.30044686563657574</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="40" customHeight="1">
+      <c r="A163" s="5">
+        <v>45709</v>
+      </c>
+      <c r="B163" s="9">
+        <v>59.44362325703203</v>
+      </c>
+      <c r="C163" s="9">
+        <v>28.277347808841842</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="40" customHeight="1">
+      <c r="A164" s="5"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="6"/>
+    </row>
+    <row r="165" spans="1:3" ht="40" customHeight="1">
+      <c r="A165" s="5"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="6"/>
+    </row>
+    <row r="166" spans="1:3" ht="40" customHeight="1">
+      <c r="A166" s="5"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="6"/>
+    </row>
+    <row r="167" spans="1:3" ht="40" customHeight="1">
+      <c r="A167" s="5"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6"/>
+    </row>
+    <row r="168" spans="1:3" ht="40" customHeight="1">
+      <c r="A168" s="5"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+    </row>
+    <row r="169" spans="1:3" ht="40" customHeight="1">
+      <c r="A169" s="5"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+    </row>
+    <row r="170" spans="1:3" ht="40" customHeight="1">
+      <c r="A170" s="5"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+    </row>
+    <row r="171" spans="1:3" ht="40" customHeight="1">
+      <c r="A171" s="5"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+    </row>
+    <row r="172" spans="1:3" ht="40" customHeight="1">
+      <c r="A172" s="5"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="6"/>
+    </row>
+    <row r="173" spans="1:3" ht="40" customHeight="1">
+      <c r="A173" s="5"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="1:3" ht="40" customHeight="1">
+      <c r="A174" s="5"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+    </row>
+    <row r="175" spans="1:3" ht="40" customHeight="1">
+      <c r="A175" s="5"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" spans="1:3" ht="40" customHeight="1">
+      <c r="A176" s="5"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="1:3" ht="40" customHeight="1">
+      <c r="A177" s="5"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" spans="1:3" ht="40" customHeight="1">
+      <c r="A178" s="5"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+    </row>
+    <row r="179" spans="1:3" ht="40" customHeight="1">
+      <c r="A179" s="5"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" spans="1:3" ht="40" customHeight="1">
+      <c r="A180" s="5"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:3" ht="40" customHeight="1">
+      <c r="A181" s="5"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="1:3" ht="40" customHeight="1">
+      <c r="A182" s="5"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+    </row>
+    <row r="183" spans="1:3" ht="40" customHeight="1">
+      <c r="A183" s="5"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+    </row>
+    <row r="184" spans="1:3" ht="40" customHeight="1">
+      <c r="A184" s="5"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="1:3" ht="40" customHeight="1">
+      <c r="A185" s="5"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+    </row>
+    <row r="186" spans="1:3" ht="40" customHeight="1">
+      <c r="A186" s="5"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+    </row>
+    <row r="187" spans="1:3" ht="40" customHeight="1">
+      <c r="A187" s="5"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+    </row>
+    <row r="188" spans="1:3" ht="40" customHeight="1">
+      <c r="A188" s="5"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+    </row>
+    <row r="189" spans="1:3" ht="40" customHeight="1">
+      <c r="A189" s="5"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+    </row>
+    <row r="190" spans="1:3" ht="40" customHeight="1">
+      <c r="A190" s="5"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="1:3" ht="40" customHeight="1">
+      <c r="A191" s="5"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="1:3" ht="40" customHeight="1">
+      <c r="A192" s="5"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+    </row>
+    <row r="193" spans="1:3" ht="40" customHeight="1">
+      <c r="A193" s="5"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" spans="1:3" ht="40" customHeight="1">
+      <c r="A194" s="5"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" spans="1:3" ht="40" customHeight="1">
+      <c r="A195" s="5"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+    </row>
+    <row r="196" spans="1:3" ht="40" customHeight="1">
+      <c r="A196" s="5"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+    </row>
+    <row r="197" spans="1:3" ht="40" customHeight="1">
+      <c r="A197" s="5"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+    </row>
+    <row r="198" spans="1:3" ht="40" customHeight="1">
+      <c r="A198" s="5"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+    </row>
+    <row r="199" spans="1:3" ht="40" customHeight="1">
+      <c r="A199" s="5"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="1:3" ht="40" customHeight="1">
+      <c r="A200" s="5"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="1:3" ht="40" customHeight="1">
+      <c r="A201" s="5"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="1:3" ht="40" customHeight="1">
+      <c r="A202" s="5"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+    </row>
+    <row r="203" spans="1:3" ht="40" customHeight="1">
+      <c r="A203" s="5"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+    </row>
+    <row r="204" spans="1:3" ht="40" customHeight="1">
+      <c r="A204" s="5"/>
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" spans="1:3" ht="40" customHeight="1">
+      <c r="A205" s="5"/>
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="1:3" ht="40" customHeight="1">
+      <c r="A206" s="5"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+    </row>
+    <row r="207" spans="1:3" ht="40" customHeight="1">
+      <c r="A207" s="5"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+    </row>
+    <row r="208" spans="1:3" ht="40" customHeight="1">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+    </row>
+    <row r="209" spans="1:3" ht="40" customHeight="1">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="1:3" ht="40" customHeight="1">
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="1:3" ht="40" customHeight="1">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="1:3" ht="40" customHeight="1">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="1:3" ht="40" customHeight="1">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="1:3" ht="40" customHeight="1">
+      <c r="A214" s="5"/>
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="1:3" ht="40" customHeight="1">
+      <c r="A215" s="5"/>
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="1:3" ht="40" customHeight="1">
+      <c r="A216" s="5"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="1:3" ht="40" customHeight="1">
+      <c r="A217" s="5"/>
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="1:3" ht="40" customHeight="1">
+      <c r="A218" s="5"/>
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="1:3" ht="40" customHeight="1">
+      <c r="A219" s="5"/>
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="1:3" ht="40" customHeight="1">
+      <c r="A220" s="5"/>
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="1:3" ht="40" customHeight="1">
+      <c r="A221" s="5"/>
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+    </row>
+    <row r="222" spans="1:3" ht="40" customHeight="1">
+      <c r="A222" s="5"/>
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+    </row>
+    <row r="223" spans="1:3" ht="40" customHeight="1">
+      <c r="A223" s="5"/>
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+    </row>
+    <row r="224" spans="1:3" ht="40" customHeight="1">
+      <c r="A224" s="5"/>
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+    </row>
+    <row r="225" spans="1:3" ht="40" customHeight="1">
+      <c r="A225" s="5"/>
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+    </row>
+    <row r="226" spans="1:3" ht="40" customHeight="1">
+      <c r="A226" s="5"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+    </row>
+    <row r="227" spans="1:3" ht="40" customHeight="1">
+      <c r="A227" s="5"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+    </row>
+    <row r="228" spans="1:3" ht="40" customHeight="1">
+      <c r="A228" s="5"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+    </row>
+    <row r="229" spans="1:3" ht="40" customHeight="1">
+      <c r="A229" s="5"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+    </row>
+    <row r="230" spans="1:3" ht="40" customHeight="1">
+      <c r="A230" s="5"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+    </row>
+    <row r="231" spans="1:3" ht="40" customHeight="1">
+      <c r="A231" s="5"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+    </row>
+    <row r="232" spans="1:3" ht="40" customHeight="1">
+      <c r="A232" s="5"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+    </row>
+    <row r="233" spans="1:3" ht="40" customHeight="1">
+      <c r="A233" s="5"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+    </row>
+    <row r="234" spans="1:3" ht="40" customHeight="1">
+      <c r="A234" s="5"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+    </row>
+    <row r="235" spans="1:3" ht="40" customHeight="1">
+      <c r="A235" s="5"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+    </row>
+    <row r="236" spans="1:3" ht="40" customHeight="1">
+      <c r="A236" s="5"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+    </row>
+    <row r="237" spans="1:3" ht="40" customHeight="1">
+      <c r="A237" s="5"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+    </row>
+    <row r="238" spans="1:3" ht="40" customHeight="1">
+      <c r="A238" s="5"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+    </row>
+    <row r="239" spans="1:3" ht="40" customHeight="1">
+      <c r="A239" s="5"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+    </row>
+    <row r="240" spans="1:3" ht="40" customHeight="1">
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+    </row>
+    <row r="241" spans="1:3" ht="40" customHeight="1">
+      <c r="A241" s="5"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="1:3" ht="40" customHeight="1">
+      <c r="A242" s="5"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+    </row>
+    <row r="243" spans="1:3" ht="40" customHeight="1">
+      <c r="A243" s="5"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+    </row>
+    <row r="244" spans="1:3" ht="40" customHeight="1">
+      <c r="A244" s="5"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+    </row>
+    <row r="245" spans="1:3" ht="40" customHeight="1">
+      <c r="A245" s="5"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+    </row>
+    <row r="246" spans="1:3" ht="40" customHeight="1">
+      <c r="A246" s="5"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+    </row>
+    <row r="247" spans="1:3" ht="40" customHeight="1">
+      <c r="A247" s="5"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+    </row>
+    <row r="248" spans="1:3" ht="40" customHeight="1">
+      <c r="A248" s="5"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+    </row>
+    <row r="249" spans="1:3" ht="40" customHeight="1">
+      <c r="A249" s="5"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+    </row>
+    <row r="250" spans="1:3" ht="40" customHeight="1">
+      <c r="A250" s="5"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+    </row>
+    <row r="251" spans="1:3" ht="40" customHeight="1">
+      <c r="A251" s="5"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+    </row>
+    <row r="252" spans="1:3" ht="40" customHeight="1">
+      <c r="A252" s="5"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+    </row>
+    <row r="253" spans="1:3" ht="40" customHeight="1">
+      <c r="A253" s="5"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+    </row>
+    <row r="254" spans="1:3" ht="40" customHeight="1">
+      <c r="A254" s="5"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+    </row>
+    <row r="255" spans="1:3" ht="40" customHeight="1">
+      <c r="A255" s="5"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+    </row>
+    <row r="256" spans="1:3" ht="40" customHeight="1">
+      <c r="A256" s="5"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+    </row>
+    <row r="257" spans="1:3" ht="40" customHeight="1">
+      <c r="A257" s="5"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+    </row>
+    <row r="258" spans="1:3" ht="40" customHeight="1">
+      <c r="A258" s="5"/>
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+    </row>
+    <row r="259" spans="1:3" ht="40" customHeight="1">
+      <c r="A259" s="5"/>
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+    </row>
+    <row r="260" spans="1:3" ht="40" customHeight="1">
+      <c r="A260" s="5"/>
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+    </row>
+    <row r="261" spans="1:3" ht="40" customHeight="1">
+      <c r="A261" s="5"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+    </row>
+    <row r="262" spans="1:3" ht="40" customHeight="1">
+      <c r="A262" s="5"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+    </row>
+    <row r="263" spans="1:3" ht="40" customHeight="1">
+      <c r="A263" s="5"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+    </row>
+    <row r="264" spans="1:3" ht="40" customHeight="1">
+      <c r="A264" s="5"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="6"/>
+    </row>
+    <row r="265" spans="1:3" ht="40" customHeight="1">
+      <c r="A265" s="5"/>
+      <c r="B265" s="6"/>
+      <c r="C265" s="6"/>
+    </row>
+    <row r="266" spans="1:3" ht="40" customHeight="1">
+      <c r="A266" s="5"/>
+      <c r="B266" s="6"/>
+      <c r="C266" s="6"/>
+    </row>
+    <row r="267" spans="1:3" ht="40" customHeight="1">
+      <c r="A267" s="5"/>
+      <c r="B267" s="6"/>
+      <c r="C267" s="6"/>
+    </row>
+    <row r="268" spans="1:3" ht="40" customHeight="1">
+      <c r="A268" s="5"/>
+      <c r="B268" s="6"/>
+      <c r="C268" s="6"/>
+    </row>
+    <row r="269" spans="1:3" ht="40" customHeight="1">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+      <c r="C269" s="6"/>
+    </row>
+    <row r="270" spans="1:3" ht="40" customHeight="1">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+      <c r="C270" s="6"/>
+    </row>
+    <row r="271" spans="1:3" ht="40" customHeight="1">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6"/>
+      <c r="C271" s="6"/>
+    </row>
+    <row r="272" spans="1:3" ht="40" customHeight="1">
+      <c r="A272" s="5"/>
+      <c r="B272" s="6"/>
+      <c r="C272" s="6"/>
+    </row>
+    <row r="273" spans="1:3" ht="40" customHeight="1">
+      <c r="A273" s="5"/>
+      <c r="B273" s="6"/>
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" spans="1:3" ht="40" customHeight="1">
+      <c r="A274" s="5"/>
+      <c r="B274" s="6"/>
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" spans="1:3" ht="40" customHeight="1">
+      <c r="A275" s="5"/>
+      <c r="B275" s="6"/>
+      <c r="C275" s="6"/>
+    </row>
+    <row r="276" spans="1:3" ht="40" customHeight="1">
+      <c r="A276" s="5"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+    </row>
+    <row r="277" spans="1:3" ht="40" customHeight="1">
+      <c r="A277" s="5"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" spans="1:3" ht="40" customHeight="1">
+      <c r="A278" s="5"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" spans="1:3" ht="40" customHeight="1">
+      <c r="A279" s="5"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" spans="1:3" ht="40" customHeight="1">
+      <c r="A280" s="5"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" spans="1:3" ht="40" customHeight="1">
+      <c r="A281" s="5"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" spans="1:3" ht="40" customHeight="1">
+      <c r="A282" s="5"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="1:3" ht="40" customHeight="1">
+      <c r="A283" s="5"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" spans="1:3" ht="40" customHeight="1">
+      <c r="A284" s="5"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" spans="1:3" ht="40" customHeight="1">
+      <c r="A285" s="5"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" spans="1:3" ht="40" customHeight="1">
+      <c r="A286" s="5"/>
+      <c r="B286" s="6"/>
+      <c r="C286" s="6"/>
+    </row>
+    <row r="287" spans="1:3" ht="40" customHeight="1">
+      <c r="A287" s="5"/>
+      <c r="B287" s="6"/>
+      <c r="C287" s="6"/>
+    </row>
+    <row r="288" spans="1:3" ht="40" customHeight="1">
+      <c r="A288" s="5"/>
+      <c r="B288" s="6"/>
+      <c r="C288" s="6"/>
+    </row>
+    <row r="289" spans="1:3" ht="40" customHeight="1">
+      <c r="A289" s="5"/>
+      <c r="B289" s="6"/>
+      <c r="C289" s="6"/>
+    </row>
+    <row r="290" spans="1:3" ht="40" customHeight="1">
+      <c r="A290" s="5"/>
+      <c r="B290" s="6"/>
+      <c r="C290" s="6"/>
+    </row>
+    <row r="291" spans="1:3" ht="40" customHeight="1">
+      <c r="A291" s="5"/>
+      <c r="B291" s="6"/>
+      <c r="C291" s="6"/>
+    </row>
+    <row r="292" spans="1:3" ht="40" customHeight="1">
+      <c r="A292" s="5"/>
+      <c r="B292" s="6"/>
+      <c r="C292" s="6"/>
+    </row>
+    <row r="293" spans="1:3" ht="40" customHeight="1">
+      <c r="A293" s="5"/>
+      <c r="B293" s="6"/>
+      <c r="C293" s="6"/>
+    </row>
+    <row r="294" spans="1:3" ht="40" customHeight="1">
+      <c r="A294" s="5"/>
+      <c r="B294" s="6"/>
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="1:3" ht="40" customHeight="1">
+      <c r="A295" s="5"/>
+      <c r="B295" s="6"/>
+      <c r="C295" s="6"/>
+    </row>
+    <row r="296" spans="1:3" ht="40" customHeight="1">
+      <c r="A296" s="5"/>
+      <c r="B296" s="6"/>
+      <c r="C296" s="6"/>
+    </row>
+    <row r="297" spans="1:3" ht="40" customHeight="1">
+      <c r="A297" s="5"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="6"/>
+    </row>
+    <row r="298" spans="1:3" ht="40" customHeight="1">
+      <c r="A298" s="5"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="6"/>
+    </row>
+    <row r="299" spans="1:3" ht="40" customHeight="1">
+      <c r="A299" s="5"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="6"/>
+    </row>
+    <row r="300" spans="1:3" ht="40" customHeight="1">
+      <c r="A300" s="5"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="6"/>
+    </row>
+    <row r="301" spans="1:3" ht="40" customHeight="1">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="6"/>
+    </row>
+    <row r="302" spans="1:3" ht="40" customHeight="1">
+      <c r="A302" s="5"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="6"/>
+    </row>
+    <row r="303" spans="1:3" ht="40" customHeight="1">
+      <c r="A303" s="5"/>
+      <c r="B303" s="6"/>
+      <c r="C303" s="6"/>
+    </row>
+    <row r="304" spans="1:3" ht="40" customHeight="1">
+      <c r="A304" s="5"/>
+      <c r="B304" s="6"/>
+      <c r="C304" s="6"/>
+    </row>
+    <row r="305" spans="1:3" ht="40" customHeight="1">
+      <c r="A305" s="5"/>
+      <c r="B305" s="6"/>
+      <c r="C305" s="6"/>
+    </row>
+    <row r="306" spans="1:3" ht="40" customHeight="1">
+      <c r="A306" s="5"/>
+      <c r="B306" s="6"/>
+      <c r="C306" s="6"/>
+    </row>
+    <row r="307" spans="1:3" ht="40" customHeight="1">
+      <c r="A307" s="5"/>
+      <c r="B307" s="6"/>
+      <c r="C307" s="6"/>
+    </row>
+    <row r="308" spans="1:3" ht="40" customHeight="1">
+      <c r="A308" s="5"/>
+      <c r="B308" s="6"/>
+      <c r="C308" s="6"/>
+    </row>
+    <row r="309" spans="1:3" ht="40" customHeight="1">
+      <c r="A309" s="5"/>
+      <c r="B309" s="6"/>
+      <c r="C309" s="6"/>
+    </row>
+    <row r="310" spans="1:3" ht="40" customHeight="1">
+      <c r="A310" s="5"/>
+      <c r="B310" s="6"/>
+      <c r="C310" s="6"/>
+    </row>
+    <row r="311" spans="1:3" ht="40" customHeight="1">
+      <c r="A311" s="5"/>
+      <c r="B311" s="6"/>
+      <c r="C311" s="6"/>
+    </row>
+    <row r="312" spans="1:3" ht="40" customHeight="1">
+      <c r="A312" s="5"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="6"/>
+    </row>
+    <row r="313" spans="1:3" ht="40" customHeight="1">
+      <c r="A313" s="5"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+    </row>
+    <row r="314" spans="1:3" ht="40" customHeight="1">
+      <c r="A314" s="5"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+    </row>
+    <row r="315" spans="1:3" ht="40" customHeight="1">
+      <c r="A315" s="5"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="6"/>
+    </row>
+    <row r="316" spans="1:3" ht="40" customHeight="1">
+      <c r="A316" s="5"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="6"/>
+    </row>
+    <row r="317" spans="1:3" ht="40" customHeight="1">
+      <c r="A317" s="5"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="6"/>
+    </row>
+    <row r="318" spans="1:3" ht="40" customHeight="1">
+      <c r="A318" s="5"/>
+      <c r="B318" s="6"/>
+      <c r="C318" s="6"/>
+    </row>
+    <row r="319" spans="1:3" ht="40" customHeight="1">
+      <c r="A319" s="5"/>
+      <c r="B319" s="6"/>
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" spans="1:3" ht="40" customHeight="1">
+      <c r="A320" s="5"/>
+      <c r="B320" s="6"/>
+      <c r="C320" s="6"/>
+    </row>
+    <row r="321" spans="1:3" ht="40" customHeight="1">
+      <c r="A321" s="5"/>
+      <c r="B321" s="6"/>
+      <c r="C321" s="6"/>
+    </row>
+    <row r="322" spans="1:3" ht="40" customHeight="1">
+      <c r="A322" s="5"/>
+      <c r="B322" s="6"/>
+      <c r="C322" s="6"/>
+    </row>
+    <row r="323" spans="1:3" ht="40" customHeight="1">
+      <c r="A323" s="5"/>
+      <c r="B323" s="6"/>
+      <c r="C323" s="6"/>
+    </row>
+    <row r="324" spans="1:3" ht="40" customHeight="1">
+      <c r="A324" s="5"/>
+      <c r="B324" s="6"/>
+      <c r="C324" s="6"/>
+    </row>
+    <row r="325" spans="1:3" ht="40" customHeight="1">
+      <c r="A325" s="5"/>
+      <c r="B325" s="6"/>
+      <c r="C325" s="6"/>
+    </row>
+    <row r="326" spans="1:3" ht="40" customHeight="1">
+      <c r="A326" s="5"/>
+      <c r="B326" s="6"/>
+      <c r="C326" s="6"/>
+    </row>
+    <row r="327" spans="1:3" ht="40" customHeight="1">
+      <c r="A327" s="5"/>
+      <c r="B327" s="6"/>
+      <c r="C327" s="6"/>
+    </row>
+    <row r="328" spans="1:3" ht="40" customHeight="1">
+      <c r="A328" s="5"/>
+      <c r="B328" s="6"/>
+      <c r="C328" s="6"/>
+    </row>
+    <row r="329" spans="1:3" ht="40" customHeight="1">
+      <c r="A329" s="5"/>
+      <c r="B329" s="6"/>
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" spans="1:3" ht="40" customHeight="1">
+      <c r="A330" s="5"/>
+      <c r="B330" s="6"/>
+      <c r="C330" s="6"/>
+    </row>
+    <row r="331" spans="1:3" ht="40" customHeight="1">
+      <c r="A331" s="5"/>
+      <c r="B331" s="6"/>
+      <c r="C331" s="6"/>
+    </row>
+    <row r="332" spans="1:3" ht="40" customHeight="1">
+      <c r="A332" s="5"/>
+      <c r="B332" s="6"/>
+      <c r="C332" s="6"/>
+    </row>
+    <row r="333" spans="1:3" ht="40" customHeight="1">
+      <c r="A333" s="5"/>
+      <c r="B333" s="6"/>
+      <c r="C333" s="6"/>
+    </row>
+    <row r="334" spans="1:3" ht="40" customHeight="1">
+      <c r="A334" s="5"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="6"/>
+    </row>
+    <row r="335" spans="1:3" ht="40" customHeight="1">
+      <c r="A335" s="5"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="6"/>
+    </row>
+    <row r="336" spans="1:3" ht="40" customHeight="1">
+      <c r="A336" s="5"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+    </row>
+    <row r="337" spans="1:3" ht="40" customHeight="1">
+      <c r="A337" s="5"/>
+      <c r="B337" s="6"/>
+      <c r="C337" s="6"/>
+    </row>
+    <row r="338" spans="1:3" ht="40" customHeight="1">
+      <c r="A338" s="5"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="6"/>
+    </row>
+    <row r="339" spans="1:3" ht="40" customHeight="1">
+      <c r="A339" s="5"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="6"/>
+    </row>
+    <row r="340" spans="1:3" ht="40" customHeight="1">
+      <c r="A340" s="5"/>
+      <c r="B340" s="6"/>
+      <c r="C340" s="6"/>
+    </row>
+    <row r="341" spans="1:3" ht="40" customHeight="1">
+      <c r="A341" s="5"/>
+      <c r="B341" s="6"/>
+      <c r="C341" s="6"/>
+    </row>
+    <row r="342" spans="1:3" ht="40" customHeight="1">
+      <c r="A342" s="5"/>
+      <c r="B342" s="6"/>
+      <c r="C342" s="6"/>
+    </row>
+    <row r="343" spans="1:3" ht="40" customHeight="1">
+      <c r="A343" s="5"/>
+      <c r="B343" s="6"/>
+      <c r="C343" s="6"/>
+    </row>
+    <row r="344" spans="1:3" ht="40" customHeight="1">
+      <c r="A344" s="5"/>
+      <c r="B344" s="6"/>
+      <c r="C344" s="6"/>
+    </row>
+    <row r="345" spans="1:3" ht="40" customHeight="1">
+      <c r="A345" s="5"/>
+      <c r="B345" s="6"/>
+      <c r="C345" s="6"/>
+    </row>
+    <row r="346" spans="1:3" ht="40" customHeight="1">
+      <c r="A346" s="5"/>
+      <c r="B346" s="6"/>
+      <c r="C346" s="6"/>
+    </row>
+    <row r="347" spans="1:3" ht="40" customHeight="1">
+      <c r="A347" s="5"/>
+      <c r="B347" s="6"/>
+      <c r="C347" s="6"/>
+    </row>
+    <row r="348" spans="1:3" ht="40" customHeight="1">
+      <c r="A348" s="5"/>
+      <c r="B348" s="6"/>
+      <c r="C348" s="6"/>
+    </row>
+    <row r="349" spans="1:3" ht="40" customHeight="1">
+      <c r="A349" s="5"/>
+      <c r="B349" s="6"/>
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" spans="1:3" ht="40" customHeight="1">
+      <c r="A350" s="5"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="6"/>
+    </row>
+    <row r="351" spans="1:3" ht="40" customHeight="1">
+      <c r="A351" s="5"/>
+      <c r="B351" s="6"/>
+      <c r="C351" s="6"/>
+    </row>
+    <row r="352" spans="1:3" ht="40" customHeight="1">
+      <c r="A352" s="5"/>
+      <c r="B352" s="6"/>
+      <c r="C352" s="6"/>
+    </row>
+    <row r="353" spans="1:3" ht="40" customHeight="1">
+      <c r="A353" s="5"/>
+      <c r="B353" s="6"/>
+      <c r="C353" s="6"/>
+    </row>
+    <row r="354" spans="1:3" ht="40" customHeight="1">
+      <c r="A354" s="5"/>
+      <c r="B354" s="6"/>
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" spans="1:3" ht="40" customHeight="1">
+      <c r="A355" s="5"/>
+      <c r="B355" s="6"/>
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" spans="1:3" ht="40" customHeight="1">
+      <c r="A356" s="5"/>
+      <c r="B356" s="6"/>
+      <c r="C356" s="6"/>
+    </row>
+    <row r="357" spans="1:3" ht="40" customHeight="1">
+      <c r="A357" s="5"/>
+      <c r="B357" s="6"/>
+      <c r="C357" s="6"/>
+    </row>
+    <row r="358" spans="1:3" ht="40" customHeight="1">
+      <c r="A358" s="5"/>
+      <c r="B358" s="6"/>
+      <c r="C358" s="6"/>
+    </row>
+    <row r="359" spans="1:3" ht="40" customHeight="1">
+      <c r="A359" s="5"/>
+      <c r="B359" s="6"/>
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" spans="1:3" ht="40" customHeight="1">
+      <c r="A360" s="5"/>
+      <c r="B360" s="6"/>
+      <c r="C360" s="6"/>
+    </row>
+    <row r="361" spans="1:3" ht="40" customHeight="1">
+      <c r="A361" s="5"/>
+      <c r="B361" s="6"/>
+      <c r="C361" s="6"/>
+    </row>
+    <row r="362" spans="1:3" ht="40" customHeight="1">
+      <c r="A362" s="5"/>
+      <c r="B362" s="6"/>
+      <c r="C362" s="6"/>
+    </row>
+    <row r="363" spans="1:3" ht="40" customHeight="1">
+      <c r="A363" s="5"/>
+      <c r="B363" s="6"/>
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" spans="1:3" ht="40" customHeight="1">
+      <c r="A364" s="5"/>
+      <c r="B364" s="6"/>
+      <c r="C364" s="6"/>
+    </row>
+    <row r="365" spans="1:3" ht="40" customHeight="1">
+      <c r="A365" s="5"/>
+      <c r="B365" s="6"/>
+      <c r="C365" s="6"/>
+    </row>
+    <row r="366" spans="1:3" ht="40" customHeight="1">
+      <c r="A366" s="5"/>
+      <c r="B366" s="6"/>
+      <c r="C366" s="6"/>
+    </row>
+    <row r="367" spans="1:3" ht="40" customHeight="1">
+      <c r="A367" s="5"/>
+      <c r="B367" s="6"/>
+      <c r="C367" s="6"/>
+    </row>
+    <row r="368" spans="1:3" ht="40" customHeight="1">
+      <c r="A368" s="5"/>
+      <c r="B368" s="6"/>
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" spans="1:3" ht="40" customHeight="1">
+      <c r="A369" s="5"/>
+      <c r="B369" s="6"/>
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" spans="1:3" ht="40" customHeight="1">
+      <c r="A370" s="5"/>
+      <c r="B370" s="6"/>
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" spans="1:3" ht="40" customHeight="1">
+      <c r="A371" s="5"/>
+      <c r="B371" s="6"/>
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" spans="1:3" ht="40" customHeight="1">
+      <c r="A372" s="5"/>
+      <c r="B372" s="6"/>
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" spans="1:3" ht="40" customHeight="1">
+      <c r="A373" s="5"/>
+      <c r="B373" s="6"/>
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" spans="1:3" ht="40" customHeight="1">
+      <c r="A374" s="5"/>
+      <c r="B374" s="6"/>
+      <c r="C374" s="6"/>
+    </row>
+    <row r="375" spans="1:3" ht="40" customHeight="1">
+      <c r="A375" s="5"/>
+      <c r="B375" s="6"/>
+      <c r="C375" s="6"/>
+    </row>
+    <row r="376" spans="1:3" ht="40" customHeight="1">
+      <c r="A376" s="5"/>
+      <c r="B376" s="6"/>
+      <c r="C376" s="6"/>
+    </row>
+    <row r="377" spans="1:3" ht="40" customHeight="1">
+      <c r="A377" s="5"/>
+      <c r="B377" s="6"/>
+      <c r="C377" s="6"/>
+    </row>
+    <row r="378" spans="1:3" ht="40" customHeight="1">
+      <c r="A378" s="5"/>
+      <c r="B378" s="6"/>
+      <c r="C378" s="6"/>
+    </row>
+    <row r="379" spans="1:3" ht="40" customHeight="1">
+      <c r="A379" s="5"/>
+      <c r="B379" s="6"/>
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="1:3" ht="40" customHeight="1">
+      <c r="A380" s="5"/>
+      <c r="B380" s="6"/>
+      <c r="C380" s="6"/>
+    </row>
+    <row r="381" spans="1:3" ht="40" customHeight="1">
+      <c r="A381" s="5"/>
+      <c r="B381" s="6"/>
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" spans="1:3" ht="40" customHeight="1">
+      <c r="A382" s="5"/>
+      <c r="B382" s="6"/>
+      <c r="C382" s="6"/>
+    </row>
+    <row r="383" spans="1:3" ht="40" customHeight="1">
+      <c r="A383" s="5"/>
+      <c r="B383" s="6"/>
+      <c r="C383" s="6"/>
+    </row>
+    <row r="384" spans="1:3" ht="40" customHeight="1">
+      <c r="A384" s="5"/>
+      <c r="B384" s="6"/>
+      <c r="C384" s="6"/>
+    </row>
+    <row r="385" spans="1:3" ht="40" customHeight="1">
+      <c r="A385" s="5"/>
+      <c r="B385" s="6"/>
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" spans="1:3" ht="40" customHeight="1">
+      <c r="A386" s="5"/>
+      <c r="B386" s="6"/>
+      <c r="C386" s="6"/>
+    </row>
+    <row r="387" spans="1:3" ht="40" customHeight="1">
+      <c r="A387" s="5"/>
+      <c r="B387" s="6"/>
+      <c r="C387" s="6"/>
+    </row>
+    <row r="388" spans="1:3" ht="40" customHeight="1">
+      <c r="A388" s="5"/>
+      <c r="B388" s="6"/>
+      <c r="C388" s="6"/>
+    </row>
+    <row r="389" spans="1:3" ht="40" customHeight="1">
+      <c r="A389" s="5"/>
+      <c r="B389" s="6"/>
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" spans="1:3" ht="40" customHeight="1">
+      <c r="A390" s="5"/>
+      <c r="B390" s="6"/>
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" spans="1:3" ht="40" customHeight="1">
+      <c r="A391" s="5"/>
+      <c r="B391" s="6"/>
+      <c r="C391" s="6"/>
+    </row>
+    <row r="392" spans="1:3" ht="40" customHeight="1">
+      <c r="A392" s="5"/>
+      <c r="B392" s="6"/>
+      <c r="C392" s="6"/>
+    </row>
+    <row r="393" spans="1:3" ht="40" customHeight="1">
+      <c r="A393" s="5"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+    </row>
+    <row r="394" spans="1:3" ht="40" customHeight="1">
+      <c r="A394" s="5"/>
+      <c r="B394" s="6"/>
+      <c r="C394" s="6"/>
+    </row>
+    <row r="395" spans="1:3" ht="40" customHeight="1">
+      <c r="A395" s="5"/>
+      <c r="B395" s="6"/>
+      <c r="C395" s="6"/>
+    </row>
+    <row r="396" spans="1:3" ht="40" customHeight="1">
+      <c r="A396" s="5"/>
+      <c r="B396" s="6"/>
+      <c r="C396" s="6"/>
+    </row>
+    <row r="397" spans="1:3" ht="40" customHeight="1">
+      <c r="A397" s="5"/>
+      <c r="B397" s="6"/>
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" spans="1:3" ht="40" customHeight="1">
+      <c r="A398" s="5"/>
+      <c r="B398" s="6"/>
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" spans="1:3" ht="40" customHeight="1">
+      <c r="A399" s="5"/>
+      <c r="B399" s="6"/>
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" spans="1:3" ht="40" customHeight="1">
+      <c r="A400" s="5"/>
+      <c r="B400" s="6"/>
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="1:3" ht="40" customHeight="1">
+      <c r="A401" s="5"/>
+      <c r="B401" s="6"/>
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" spans="1:3" ht="40" customHeight="1">
+      <c r="A402" s="5"/>
+      <c r="B402" s="6"/>
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" spans="1:3" ht="40" customHeight="1">
+      <c r="A403" s="5"/>
+      <c r="B403" s="6"/>
+      <c r="C403" s="6"/>
+    </row>
+    <row r="404" spans="1:3" ht="40" customHeight="1">
+      <c r="A404" s="5"/>
+      <c r="B404" s="6"/>
+      <c r="C404" s="6"/>
+    </row>
+    <row r="405" spans="1:3" ht="40" customHeight="1">
+      <c r="A405" s="5"/>
+      <c r="B405" s="6"/>
+      <c r="C405" s="6"/>
+    </row>
+    <row r="406" spans="1:3" ht="40" customHeight="1">
+      <c r="A406" s="5"/>
+      <c r="B406" s="6"/>
+      <c r="C406" s="6"/>
+    </row>
+    <row r="407" spans="1:3" ht="40" customHeight="1">
+      <c r="A407" s="5"/>
+      <c r="B407" s="6"/>
+      <c r="C407" s="6"/>
+    </row>
+    <row r="408" spans="1:3" ht="40" customHeight="1">
+      <c r="A408" s="5"/>
+      <c r="B408" s="6"/>
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="1:3" ht="40" customHeight="1">
+      <c r="A409" s="5"/>
+      <c r="B409" s="6"/>
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" spans="1:3" ht="40" customHeight="1">
+      <c r="A410" s="5"/>
+      <c r="B410" s="6"/>
+      <c r="C410" s="6"/>
+    </row>
+    <row r="411" spans="1:3" ht="40" customHeight="1">
+      <c r="A411" s="5"/>
+      <c r="B411" s="6"/>
+      <c r="C411" s="6"/>
+    </row>
+    <row r="412" spans="1:3" ht="40" customHeight="1">
+      <c r="A412" s="5"/>
+      <c r="B412" s="6"/>
+      <c r="C412" s="6"/>
+    </row>
+    <row r="413" spans="1:3" ht="40" customHeight="1">
+      <c r="A413" s="5"/>
+      <c r="B413" s="6"/>
+      <c r="C413" s="6"/>
+    </row>
+    <row r="414" spans="1:3" ht="40" customHeight="1">
+      <c r="A414" s="5"/>
+      <c r="B414" s="6"/>
+      <c r="C414" s="6"/>
+    </row>
+    <row r="415" spans="1:3" ht="40" customHeight="1">
+      <c r="A415" s="5"/>
+      <c r="B415" s="6"/>
+      <c r="C415" s="6"/>
+    </row>
+    <row r="416" spans="1:3" ht="40" customHeight="1">
+      <c r="A416" s="5"/>
+      <c r="B416" s="6"/>
+      <c r="C416" s="6"/>
+    </row>
+    <row r="417" spans="1:3" ht="40" customHeight="1">
+      <c r="A417" s="5"/>
+      <c r="B417" s="6"/>
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" spans="1:3" ht="40" customHeight="1">
+      <c r="A418" s="5"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="6"/>
+    </row>
+    <row r="419" spans="1:3" ht="40" customHeight="1">
+      <c r="A419" s="5"/>
+      <c r="B419" s="6"/>
+      <c r="C419" s="6"/>
+    </row>
+    <row r="420" spans="1:3" ht="40" customHeight="1">
+      <c r="A420" s="5"/>
+      <c r="B420" s="6"/>
+      <c r="C420" s="6"/>
+    </row>
+    <row r="421" spans="1:3" ht="40" customHeight="1">
+      <c r="A421" s="5"/>
+      <c r="B421" s="6"/>
+      <c r="C421" s="6"/>
+    </row>
+    <row r="422" spans="1:3" ht="40" customHeight="1">
+      <c r="A422" s="5"/>
+      <c r="B422" s="6"/>
+      <c r="C422" s="6"/>
+    </row>
+    <row r="423" spans="1:3" ht="40" customHeight="1">
+      <c r="A423" s="5"/>
+      <c r="B423" s="6"/>
+      <c r="C423" s="6"/>
+    </row>
+    <row r="424" spans="1:3" ht="40" customHeight="1">
+      <c r="A424" s="5"/>
+      <c r="B424" s="6"/>
+      <c r="C424" s="6"/>
+    </row>
+    <row r="425" spans="1:3" ht="40" customHeight="1">
+      <c r="A425" s="5"/>
+      <c r="B425" s="6"/>
+      <c r="C425" s="6"/>
+    </row>
+    <row r="426" spans="1:3" ht="40" customHeight="1">
+      <c r="A426" s="5"/>
+      <c r="B426" s="6"/>
+      <c r="C426" s="6"/>
+    </row>
+    <row r="427" spans="1:3" ht="40" customHeight="1">
+      <c r="A427" s="5"/>
+      <c r="B427" s="6"/>
+      <c r="C427" s="6"/>
+    </row>
+    <row r="428" spans="1:3" ht="40" customHeight="1">
+      <c r="A428" s="5"/>
+      <c r="B428" s="6"/>
+      <c r="C428" s="6"/>
+    </row>
+    <row r="429" spans="1:3" ht="40" customHeight="1">
+      <c r="A429" s="5"/>
+      <c r="B429" s="6"/>
+      <c r="C429" s="6"/>
+    </row>
+    <row r="430" spans="1:3" ht="40" customHeight="1">
+      <c r="A430" s="5"/>
+      <c r="B430" s="6"/>
+      <c r="C430" s="6"/>
+    </row>
+    <row r="431" spans="1:3" ht="40" customHeight="1">
+      <c r="A431" s="5"/>
+      <c r="B431" s="6"/>
+      <c r="C431" s="6"/>
+    </row>
+    <row r="432" spans="1:3" ht="40" customHeight="1">
+      <c r="A432" s="5"/>
+      <c r="B432" s="6"/>
+      <c r="C432" s="6"/>
+    </row>
+    <row r="433" spans="1:3" ht="40" customHeight="1">
+      <c r="A433" s="5"/>
+      <c r="B433" s="6"/>
+      <c r="C433" s="6"/>
+    </row>
+    <row r="434" spans="1:3" ht="40" customHeight="1">
+      <c r="A434" s="5"/>
+      <c r="B434" s="6"/>
+      <c r="C434" s="6"/>
+    </row>
+    <row r="435" spans="1:3" ht="40" customHeight="1">
+      <c r="A435" s="5"/>
+      <c r="B435" s="6"/>
+      <c r="C435" s="6"/>
+    </row>
+    <row r="436" spans="1:3" ht="40" customHeight="1">
+      <c r="A436" s="5"/>
+      <c r="B436" s="6"/>
+      <c r="C436" s="6"/>
+    </row>
+    <row r="437" spans="1:3" ht="40" customHeight="1">
+      <c r="A437" s="5"/>
+      <c r="B437" s="6"/>
+      <c r="C437" s="6"/>
+    </row>
+    <row r="438" spans="1:3" ht="40" customHeight="1">
+      <c r="A438" s="5"/>
+      <c r="B438" s="6"/>
+      <c r="C438" s="6"/>
+    </row>
+    <row r="439" spans="1:3" ht="40" customHeight="1">
+      <c r="A439" s="5"/>
+      <c r="B439" s="6"/>
+      <c r="C439" s="6"/>
+    </row>
+    <row r="440" spans="1:3" ht="40" customHeight="1">
+      <c r="A440" s="5"/>
+      <c r="B440" s="6"/>
+      <c r="C440" s="6"/>
+    </row>
+    <row r="441" spans="1:3" ht="40" customHeight="1">
+      <c r="A441" s="5"/>
+      <c r="B441" s="6"/>
+      <c r="C441" s="6"/>
+    </row>
+    <row r="442" spans="1:3" ht="40" customHeight="1">
+      <c r="A442" s="5"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="6"/>
+    </row>
+    <row r="443" spans="1:3" ht="40" customHeight="1">
+      <c r="A443" s="5"/>
+      <c r="B443" s="6"/>
+      <c r="C443" s="6"/>
+    </row>
+    <row r="444" spans="1:3" ht="40" customHeight="1">
+      <c r="A444" s="5"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="6"/>
+    </row>
+    <row r="445" spans="1:3" ht="40" customHeight="1">
+      <c r="A445" s="5"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="6"/>
+    </row>
+    <row r="446" spans="1:3" ht="40" customHeight="1">
+      <c r="A446" s="5"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="6"/>
+    </row>
+    <row r="447" spans="1:3" ht="40" customHeight="1">
+      <c r="A447" s="5"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="6"/>
+    </row>
+    <row r="448" spans="1:3" ht="40" customHeight="1">
+      <c r="A448" s="5"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+    </row>
+    <row r="449" spans="1:3" ht="40" customHeight="1">
+      <c r="A449" s="5"/>
+      <c r="B449" s="6"/>
+      <c r="C449" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD25557-B506-CB45-8DDE-61F86A14682C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224DA5B1-3CFB-3E46-9650-F3DAC8C7690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17200" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17200" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
@@ -2330,9 +2330,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M158" sqref="M158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N159" sqref="N159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4123,7 +4123,7 @@
         <v>56.793929030915095</v>
       </c>
       <c r="C162" s="9">
-        <v>0.30044686563657574</v>
+        <v>30.044686563657574</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="40" customHeight="1">

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224DA5B1-3CFB-3E46-9650-F3DAC8C7690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEAEEA-F207-A340-82BC-CDE73FD1B370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17200" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="20720" yWindow="500" windowWidth="10000" windowHeight="17200" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
+      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2295,7 +2295,7 @@
         <v>45709</v>
       </c>
       <c r="B163" s="7">
-        <v>594436.23257032025</v>
+        <v>595255</v>
       </c>
       <c r="C163" s="8">
         <v>18.3</v>
@@ -2331,8 +2331,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N159" sqref="N159"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4131,7 +4131,7 @@
         <v>45709</v>
       </c>
       <c r="B163" s="9">
-        <v>59.44362325703203</v>
+        <v>59.526000000000003</v>
       </c>
       <c r="C163" s="9">
         <v>28.277347808841842</v>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEAEEA-F207-A340-82BC-CDE73FD1B370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB29473-4561-5D43-8C1F-994ED79D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20720" yWindow="500" windowWidth="10000" windowHeight="17200" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="14760" yWindow="500" windowWidth="15960" windowHeight="17240" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -491,11 +491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2302,24 +2302,84 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="23">
-      <c r="A164" s="5"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="8"/>
+      <c r="A164" s="5">
+        <v>45712</v>
+      </c>
+      <c r="B164" s="7">
+        <v>600944.51902298909</v>
+      </c>
+      <c r="C164" s="8">
+        <v>18.43</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="23">
-      <c r="A165" s="5"/>
-      <c r="B165" s="7"/>
-      <c r="C165" s="8"/>
+      <c r="A165" s="5">
+        <v>45713</v>
+      </c>
+      <c r="B165" s="7">
+        <v>605539.17989038711</v>
+      </c>
+      <c r="C165" s="8">
+        <v>18.48</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="23">
-      <c r="A166" s="5"/>
-      <c r="B166" s="7"/>
-      <c r="C166" s="8"/>
+      <c r="A166" s="5">
+        <v>45714</v>
+      </c>
+      <c r="B166" s="7">
+        <v>607980.05860672507</v>
+      </c>
+      <c r="C166" s="8">
+        <v>18.13</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="23">
-      <c r="A167" s="5"/>
-      <c r="B167" s="7"/>
-      <c r="C167" s="8"/>
+      <c r="A167" s="5">
+        <v>45715</v>
+      </c>
+      <c r="B167" s="7">
+        <v>622160.56315725984</v>
+      </c>
+      <c r="C167" s="8">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="23">
+      <c r="A168" s="5">
+        <v>45716</v>
+      </c>
+      <c r="B168" s="7">
+        <v>624698.34859004233</v>
+      </c>
+      <c r="C168" s="8">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="23">
+      <c r="A169" s="5"/>
+      <c r="B169" s="7"/>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:3" ht="23">
+      <c r="A170" s="5"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="1:3" ht="23">
+      <c r="A171" s="5"/>
+      <c r="B171" s="7"/>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:3" ht="23">
+      <c r="A172" s="5"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:3" ht="23">
+      <c r="A173" s="5"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,8 +2391,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B164" sqref="B164"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4138,359 +4198,389 @@
       </c>
     </row>
     <row r="164" spans="1:3" ht="40" customHeight="1">
-      <c r="A164" s="5"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
+      <c r="A164" s="5">
+        <v>45712</v>
+      </c>
+      <c r="B164" s="9">
+        <v>60.094451902298907</v>
+      </c>
+      <c r="C164" s="9">
+        <v>27.807677999735585</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="40" customHeight="1">
-      <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="A165" s="5">
+        <v>45713</v>
+      </c>
+      <c r="B165" s="9">
+        <v>60.553917989038709</v>
+      </c>
+      <c r="C165" s="9">
+        <v>27.293924598566065</v>
+      </c>
     </row>
     <row r="166" spans="1:3" ht="40" customHeight="1">
-      <c r="A166" s="5"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
+      <c r="A166" s="5">
+        <v>45714</v>
+      </c>
+      <c r="B166" s="9">
+        <v>60.798005860672511</v>
+      </c>
+      <c r="C166" s="9">
+        <v>27.306486623581023</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="40" customHeight="1">
-      <c r="A167" s="5"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
+      <c r="A167" s="5">
+        <v>45715</v>
+      </c>
+      <c r="B167" s="9">
+        <v>62.216056315725986</v>
+      </c>
+      <c r="C167" s="9">
+        <v>25.711112193735332</v>
+      </c>
     </row>
     <row r="168" spans="1:3" ht="40" customHeight="1">
-      <c r="A168" s="5"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
+      <c r="A168" s="5">
+        <v>45716</v>
+      </c>
+      <c r="B168" s="9">
+        <v>62.469834859004237</v>
+      </c>
+      <c r="C168" s="9">
+        <v>27.180795304871548</v>
+      </c>
     </row>
     <row r="169" spans="1:3" ht="40" customHeight="1">
       <c r="A169" s="5"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
     </row>
     <row r="170" spans="1:3" ht="40" customHeight="1">
       <c r="A170" s="5"/>
-      <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
     </row>
     <row r="171" spans="1:3" ht="40" customHeight="1">
       <c r="A171" s="5"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="1:3" ht="40" customHeight="1">
       <c r="A172" s="5"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
     </row>
     <row r="173" spans="1:3" ht="40" customHeight="1">
       <c r="A173" s="5"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
     </row>
     <row r="174" spans="1:3" ht="40" customHeight="1">
       <c r="A174" s="5"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="1:3" ht="40" customHeight="1">
       <c r="A175" s="5"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
     </row>
     <row r="176" spans="1:3" ht="40" customHeight="1">
       <c r="A176" s="5"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
     </row>
     <row r="177" spans="1:3" ht="40" customHeight="1">
       <c r="A177" s="5"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="1:3" ht="40" customHeight="1">
       <c r="A178" s="5"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="1:3" ht="40" customHeight="1">
       <c r="A179" s="5"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
     </row>
     <row r="180" spans="1:3" ht="40" customHeight="1">
       <c r="A180" s="5"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="1:3" ht="40" customHeight="1">
       <c r="A181" s="5"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
     </row>
     <row r="182" spans="1:3" ht="40" customHeight="1">
       <c r="A182" s="5"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="1:3" ht="40" customHeight="1">
       <c r="A183" s="5"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
     </row>
     <row r="184" spans="1:3" ht="40" customHeight="1">
       <c r="A184" s="5"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
     </row>
     <row r="185" spans="1:3" ht="40" customHeight="1">
       <c r="A185" s="5"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="1:3" ht="40" customHeight="1">
       <c r="A186" s="5"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="1:3" ht="40" customHeight="1">
       <c r="A187" s="5"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="1:3" ht="40" customHeight="1">
       <c r="A188" s="5"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="1:3" ht="40" customHeight="1">
       <c r="A189" s="5"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="1:3" ht="40" customHeight="1">
       <c r="A190" s="5"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="1:3" ht="40" customHeight="1">
       <c r="A191" s="5"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="1:3" ht="40" customHeight="1">
       <c r="A192" s="5"/>
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="1:3" ht="40" customHeight="1">
       <c r="A193" s="5"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="1:3" ht="40" customHeight="1">
       <c r="A194" s="5"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
     </row>
     <row r="195" spans="1:3" ht="40" customHeight="1">
       <c r="A195" s="5"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="1:3" ht="40" customHeight="1">
       <c r="A196" s="5"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
     </row>
     <row r="197" spans="1:3" ht="40" customHeight="1">
       <c r="A197" s="5"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
     </row>
     <row r="198" spans="1:3" ht="40" customHeight="1">
       <c r="A198" s="5"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="1:3" ht="40" customHeight="1">
       <c r="A199" s="5"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="1:3" ht="40" customHeight="1">
       <c r="A200" s="5"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
     </row>
     <row r="201" spans="1:3" ht="40" customHeight="1">
       <c r="A201" s="5"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
     </row>
     <row r="202" spans="1:3" ht="40" customHeight="1">
       <c r="A202" s="5"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="1:3" ht="40" customHeight="1">
       <c r="A203" s="5"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
     </row>
     <row r="204" spans="1:3" ht="40" customHeight="1">
       <c r="A204" s="5"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
     </row>
     <row r="205" spans="1:3" ht="40" customHeight="1">
       <c r="A205" s="5"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="1:3" ht="40" customHeight="1">
       <c r="A206" s="5"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
     </row>
     <row r="207" spans="1:3" ht="40" customHeight="1">
       <c r="A207" s="5"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="9"/>
     </row>
     <row r="208" spans="1:3" ht="40" customHeight="1">
       <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
     </row>
     <row r="209" spans="1:3" ht="40" customHeight="1">
       <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="9"/>
     </row>
     <row r="210" spans="1:3" ht="40" customHeight="1">
       <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="1:3" ht="40" customHeight="1">
       <c r="A211" s="5"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="1:3" ht="40" customHeight="1">
       <c r="A212" s="5"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" spans="1:3" ht="40" customHeight="1">
       <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
     </row>
     <row r="214" spans="1:3" ht="40" customHeight="1">
       <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
     </row>
     <row r="215" spans="1:3" ht="40" customHeight="1">
       <c r="A215" s="5"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="1:3" ht="40" customHeight="1">
       <c r="A216" s="5"/>
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="1:3" ht="40" customHeight="1">
       <c r="A217" s="5"/>
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="1:3" ht="40" customHeight="1">
       <c r="A218" s="5"/>
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="1:3" ht="40" customHeight="1">
       <c r="A219" s="5"/>
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="1:3" ht="40" customHeight="1">
       <c r="A220" s="5"/>
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" spans="1:3" ht="40" customHeight="1">
       <c r="A221" s="5"/>
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="1:3" ht="40" customHeight="1">
       <c r="A222" s="5"/>
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="1:3" ht="40" customHeight="1">
       <c r="A223" s="5"/>
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="1:3" ht="40" customHeight="1">
       <c r="A224" s="5"/>
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="1:3" ht="40" customHeight="1">
       <c r="A225" s="5"/>
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="1:3" ht="40" customHeight="1">
       <c r="A226" s="5"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="1:3" ht="40" customHeight="1">
       <c r="A227" s="5"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="1:3" ht="40" customHeight="1">
       <c r="A228" s="5"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="1:3" ht="40" customHeight="1">
       <c r="A229" s="5"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="1:3" ht="40" customHeight="1">
       <c r="A230" s="5"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="1:3" ht="40" customHeight="1">
       <c r="A231" s="5"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="1:3" ht="40" customHeight="1">
       <c r="A232" s="5"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="1:3" ht="40" customHeight="1">
       <c r="A233" s="5"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="1:3" ht="40" customHeight="1">
       <c r="A234" s="5"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="1:3" ht="40" customHeight="1">
       <c r="A235" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB29473-4561-5D43-8C1F-994ED79D33DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98600881-FCFB-3941-BCDC-BBC0A9689DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="500" windowWidth="15960" windowHeight="17240" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="14760" yWindow="500" windowWidth="15960" windowHeight="17240" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -493,9 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2350,7 +2350,7 @@
         <v>45716</v>
       </c>
       <c r="B168" s="7">
-        <v>624698.34859004233</v>
+        <v>624729</v>
       </c>
       <c r="C168" s="8">
         <v>18.829999999999998</v>
@@ -2390,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98600881-FCFB-3941-BCDC-BBC0A9689DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC8055-98C9-104B-8A46-D3792F4D6464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="500" windowWidth="15960" windowHeight="17240" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="10000" windowHeight="17240" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -493,9 +493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169:C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2357,14 +2357,26 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="23">
-      <c r="A169" s="5"/>
-      <c r="B169" s="7"/>
-      <c r="C169" s="8"/>
+      <c r="A169" s="5">
+        <v>45719</v>
+      </c>
+      <c r="B169" s="7">
+        <v>653398.86221467739</v>
+      </c>
+      <c r="C169" s="8">
+        <v>20.66</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="23">
-      <c r="A170" s="5"/>
-      <c r="B170" s="7"/>
-      <c r="C170" s="8"/>
+      <c r="A170" s="5">
+        <v>45720</v>
+      </c>
+      <c r="B170" s="7">
+        <v>668611.93104701582</v>
+      </c>
+      <c r="C170" s="8">
+        <v>21.24</v>
+      </c>
     </row>
     <row r="171" spans="1:3" ht="23">
       <c r="A171" s="5"/>
@@ -2390,9 +2402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4253,14 +4265,26 @@
       </c>
     </row>
     <row r="169" spans="1:3" ht="40" customHeight="1">
-      <c r="A169" s="5"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
+      <c r="A169" s="5">
+        <v>45719</v>
+      </c>
+      <c r="B169" s="9">
+        <v>65.339886221467737</v>
+      </c>
+      <c r="C169" s="9">
+        <v>25.446990032864019</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="40" customHeight="1">
-      <c r="A170" s="5"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
+      <c r="A170" s="5">
+        <v>45720</v>
+      </c>
+      <c r="B170" s="9">
+        <v>66.861193104701584</v>
+      </c>
+      <c r="C170" s="9">
+        <v>24.223825065134069</v>
+      </c>
     </row>
     <row r="171" spans="1:3" ht="40" customHeight="1">
       <c r="A171" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC8055-98C9-104B-8A46-D3792F4D6464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92DB3F-9200-5641-AD38-5CF3F801C05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="500" windowWidth="10000" windowHeight="17240" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="5560" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,23 +68,27 @@
       <sz val="21"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,14 +495,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A169:C170"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -507,7 +511,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -518,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -530,7 +534,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -541,7 +545,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -552,7 +556,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -563,7 +567,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -574,7 +578,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -585,7 +589,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -596,7 +600,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -607,7 +611,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -618,7 +622,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -629,7 +633,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -640,7 +644,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -651,7 +655,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -662,7 +666,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -673,7 +677,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -684,7 +688,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -695,7 +699,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -706,7 +710,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -717,7 +721,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -728,7 +732,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -739,7 +743,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -750,7 +754,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -761,7 +765,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -772,7 +776,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -783,7 +787,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -794,7 +798,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -805,7 +809,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -816,7 +820,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -827,7 +831,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -838,7 +842,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -849,7 +853,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -860,7 +864,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -871,7 +875,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -882,7 +886,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -893,7 +897,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -904,7 +908,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -915,7 +919,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -926,7 +930,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -937,7 +941,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -948,7 +952,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -959,7 +963,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -970,7 +974,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -981,7 +985,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -992,7 +996,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -1036,7 +1040,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -1102,7 +1106,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -1113,7 +1117,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -1201,7 +1205,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -1289,7 +1293,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -1344,7 +1348,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -1366,7 +1370,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -1377,7 +1381,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -1388,7 +1392,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -1421,7 +1425,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -1465,7 +1469,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -1498,7 +1502,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -1542,7 +1546,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -1553,7 +1557,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -1564,7 +1568,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -1597,7 +1601,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -1630,7 +1634,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -1641,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -1696,7 +1700,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -1718,7 +1722,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -1740,7 +1744,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -1806,7 +1810,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -1850,7 +1854,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -1861,7 +1865,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -1872,7 +1876,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -1982,7 +1986,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -1993,7 +1997,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -2015,7 +2019,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -2026,7 +2030,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -2048,7 +2052,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -2070,7 +2074,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -2081,7 +2085,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -2114,7 +2118,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -2158,7 +2162,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="23">
+    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="23">
+    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -2202,7 +2206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="23">
+    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="23">
+    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -2224,7 +2228,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="23">
+    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -2235,7 +2239,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="23">
+    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -2246,7 +2250,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="23">
+    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -2257,7 +2261,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="23">
+    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -2268,7 +2272,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="23">
+    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="23">
+    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="23">
+    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="23">
+    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="23">
+    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="23">
+    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="23">
+    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="23">
+    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="23">
+    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="23">
+    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -2378,20 +2382,92 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="23">
-      <c r="A171" s="5"/>
-      <c r="B171" s="7"/>
-      <c r="C171" s="8"/>
-    </row>
-    <row r="172" spans="1:3" ht="23">
-      <c r="A172" s="5"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="8"/>
-    </row>
-    <row r="173" spans="1:3" ht="23">
+    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>45721</v>
+      </c>
+      <c r="B171" s="7">
+        <v>665175.08508857572</v>
+      </c>
+      <c r="C171" s="8">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>45722</v>
+      </c>
+      <c r="B172" s="7">
+        <v>683232.42194259295</v>
+      </c>
+      <c r="C172" s="8">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="7"/>
       <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A174" s="5"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A183" s="5"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2403,11 +2479,11 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E172" sqref="E172"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -2415,7 +2491,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +2502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -2438,7 +2514,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -2449,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -2460,7 +2536,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -2471,7 +2547,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -2482,7 +2558,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -2493,7 +2569,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -2504,7 +2580,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -2515,7 +2591,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -2526,7 +2602,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -2537,7 +2613,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -2548,7 +2624,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -2559,7 +2635,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -2570,7 +2646,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -2581,7 +2657,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -2592,7 +2668,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -2603,7 +2679,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -2614,7 +2690,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -2625,7 +2701,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -2636,7 +2712,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -2647,7 +2723,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -2658,7 +2734,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -2669,7 +2745,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -2680,7 +2756,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -2691,7 +2767,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -2702,7 +2778,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -2713,7 +2789,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -2724,7 +2800,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -2735,7 +2811,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -2746,7 +2822,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -2757,7 +2833,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -2768,7 +2844,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -2779,7 +2855,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -2790,7 +2866,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -2801,7 +2877,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -2812,7 +2888,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -2823,7 +2899,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -2834,7 +2910,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -2845,7 +2921,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -2856,7 +2932,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -2867,7 +2943,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -2878,7 +2954,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -2889,7 +2965,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -2900,7 +2976,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -2911,7 +2987,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -2922,7 +2998,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -2933,7 +3009,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -2944,7 +3020,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -2955,7 +3031,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -2966,7 +3042,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -2977,7 +3053,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -2988,7 +3064,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -2999,7 +3075,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -3010,7 +3086,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -3021,7 +3097,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -3032,7 +3108,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -3043,7 +3119,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -3054,7 +3130,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -3065,7 +3141,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -3076,7 +3152,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -3087,7 +3163,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -3098,7 +3174,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -3109,7 +3185,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -3120,7 +3196,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -3131,7 +3207,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -3142,7 +3218,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -3153,7 +3229,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -3164,7 +3240,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -3175,7 +3251,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -3186,7 +3262,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -3197,7 +3273,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -3208,7 +3284,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -3219,7 +3295,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -3230,7 +3306,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -3241,7 +3317,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -3252,7 +3328,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -3263,7 +3339,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -3274,7 +3350,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -3285,7 +3361,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -3296,7 +3372,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -3307,7 +3383,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -3318,7 +3394,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -3329,7 +3405,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -3340,7 +3416,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -3351,7 +3427,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -3362,7 +3438,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -3373,7 +3449,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -3384,7 +3460,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -3395,7 +3471,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -3406,7 +3482,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -3417,7 +3493,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -3428,7 +3504,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -3439,7 +3515,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -3450,7 +3526,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -3461,7 +3537,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -3472,7 +3548,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -3483,7 +3559,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -3494,7 +3570,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -3505,7 +3581,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -3516,7 +3592,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -3527,7 +3603,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -3538,7 +3614,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -3549,7 +3625,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -3560,7 +3636,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -3571,7 +3647,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -3582,7 +3658,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -3593,7 +3669,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -3604,7 +3680,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -3615,7 +3691,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -3626,7 +3702,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -3637,7 +3713,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -3648,7 +3724,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -3659,7 +3735,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -3670,7 +3746,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -3681,7 +3757,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -3692,7 +3768,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -3703,7 +3779,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -3714,7 +3790,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -3725,7 +3801,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -3736,7 +3812,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -3747,7 +3823,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -3758,7 +3834,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -3769,7 +3845,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -3780,7 +3856,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -3791,7 +3867,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -3802,7 +3878,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -3813,7 +3889,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -3824,7 +3900,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -3835,7 +3911,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -3846,7 +3922,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -3857,7 +3933,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -3868,7 +3944,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -3879,7 +3955,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -3890,7 +3966,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -3901,7 +3977,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -3912,7 +3988,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -3923,7 +3999,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -3934,7 +4010,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -3945,7 +4021,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -3956,7 +4032,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -3967,7 +4043,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -3978,7 +4054,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -3989,7 +4065,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -4000,7 +4076,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -4011,7 +4087,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -4022,7 +4098,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -4033,7 +4109,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -4044,7 +4120,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -4055,7 +4131,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -4066,7 +4142,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -4077,7 +4153,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -4088,7 +4164,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1">
+    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -4099,7 +4175,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1">
+    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -4110,7 +4186,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1">
+    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -4121,7 +4197,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1">
+    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -4132,7 +4208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1">
+    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -4143,7 +4219,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1">
+    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -4154,7 +4230,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1">
+    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -4165,7 +4241,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1">
+    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -4176,7 +4252,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1">
+    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -4187,7 +4263,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1">
+    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -4198,7 +4274,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1">
+    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -4209,7 +4285,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1">
+    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -4220,7 +4296,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1">
+    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -4231,7 +4307,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1">
+    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -4242,7 +4318,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1">
+    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -4253,7 +4329,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1">
+    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -4264,7 +4340,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1">
+    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -4275,7 +4351,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1">
+    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -4286,1397 +4362,1409 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1">
-      <c r="A171" s="5"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-    </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1">
-      <c r="A172" s="5"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-    </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1">
+    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>45721</v>
+      </c>
+      <c r="B171" s="9">
+        <v>66.517508508857574</v>
+      </c>
+      <c r="C171" s="9">
+        <v>25.284763221329332</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>45722</v>
+      </c>
+      <c r="B172" s="9">
+        <v>68.323242194259294</v>
+      </c>
+      <c r="C172" s="9">
+        <v>23.473978671945069</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
     </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1">
+    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1">
+    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1">
+    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1">
+    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1">
+    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1">
+    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1">
+    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1">
+    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1">
+    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1">
+    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1">
+    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1">
+    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1">
+    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1">
+    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1">
+    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1">
+    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
     </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1">
+    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
     </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1">
+    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
     </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1">
+    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
     </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1">
+    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
     </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1">
+    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
     </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1">
+    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
     </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1">
+    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
     </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1">
+    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
     </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1">
+    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
     </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1">
+    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1">
+    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1">
+    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1">
+    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1">
+    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1">
+    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1">
+    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1">
+    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1">
+    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1">
+    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1">
+    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1">
+    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1">
+    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1">
+    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1">
+    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1">
+    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1">
+    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1">
+    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1">
+    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1">
+    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1">
+    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1">
+    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1">
+    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1">
+    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1">
+    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1">
+    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1">
+    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1">
+    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1">
+    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1">
+    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1">
+    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1">
+    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
     </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1">
+    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
     </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1">
+    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
     </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1">
+    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
     </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1">
+    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1">
+    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1">
+    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1">
+    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1">
+    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1">
+    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1">
+    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1">
+    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1">
+    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1">
+    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1">
+    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1">
+    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1">
+    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1">
+    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1">
+    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1">
+    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1">
+    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1">
+    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1">
+    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1">
+    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1">
+    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1">
+    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1">
+    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1">
+    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1">
+    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1">
+    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1">
+    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
     </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1">
+    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1">
+    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1">
+    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1">
+    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1">
+    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1">
+    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1">
+    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1">
+    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1">
+    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1">
+    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1">
+    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1">
+    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1">
+    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1">
+    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1">
+    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1">
+    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1">
+    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1">
+    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1">
+    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1">
+    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1">
+    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1">
+    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1">
+    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1">
+    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1">
+    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1">
+    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1">
+    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1">
+    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1">
+    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1">
+    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1">
+    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1">
+    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1">
+    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1">
+    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1">
+    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1">
+    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1">
+    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1">
+    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1">
+    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1">
+    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1">
+    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1">
+    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1">
+    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1">
+    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1">
+    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1">
+    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1">
+    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1">
+    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1">
+    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1">
+    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1">
+    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1">
+    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1">
+    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1">
+    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1">
+    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1">
+    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1">
+    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1">
+    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1">
+    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1">
+    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1">
+    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1">
+    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1">
+    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1">
+    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1">
+    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1">
+    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1">
+    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1">
+    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1">
+    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1">
+    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1">
+    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1">
+    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1">
+    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1">
+    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1">
+    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1">
+    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1">
+    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1">
+    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1">
+    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1">
+    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1">
+    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1">
+    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1">
+    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1">
+    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1">
+    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1">
+    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1">
+    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1">
+    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1">
+    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1">
+    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1">
+    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1">
+    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1">
+    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1">
+    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1">
+    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1">
+    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1">
+    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1">
+    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1">
+    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1">
+    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1">
+    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1">
+    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1">
+    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1">
+    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1">
+    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1">
+    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1">
+    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1">
+    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1">
+    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1">
+    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1">
+    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1">
+    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1">
+    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1">
+    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1">
+    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1">
+    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1">
+    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1">
+    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1">
+    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1">
+    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1">
+    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1">
+    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1">
+    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1">
+    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1">
+    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1">
+    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1">
+    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1">
+    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1">
+    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1">
+    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1">
+    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1">
+    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1">
+    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1">
+    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1">
+    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1">
+    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1">
+    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1">
+    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1">
+    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1">
+    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1">
+    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1">
+    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1">
+    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1">
+    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1">
+    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1">
+    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1">
+    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1">
+    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1">
+    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1">
+    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1">
+    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1">
+    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1">
+    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1">
+    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1">
+    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1">
+    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1">
+    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1">
+    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1">
+    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1">
+    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1">
+    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1">
+    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1">
+    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1">
+    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1">
+    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1">
+    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1">
+    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1">
+    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1">
+    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1">
+    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1">
+    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1">
+    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1">
+    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1">
+    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1">
+    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1">
+    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1">
+    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1">
+    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1">
+    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1">
+    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1">
+    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1">
+    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1">
+    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1">
+    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1">
+    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1">
+    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1">
+    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1">
+    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:3" ht="40" customHeight="1">
+    <row r="449" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92DB3F-9200-5641-AD38-5CF3F801C05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7EBE4-3668-3A47-861E-F658B8ACF095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,10 +499,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E174" sqref="E174"/>
+      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -511,7 +511,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -534,7 +534,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -545,7 +545,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -556,7 +556,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -567,7 +567,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -578,7 +578,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -589,7 +589,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -600,7 +600,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -611,7 +611,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -622,7 +622,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -633,7 +633,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -644,7 +644,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40" customHeight="1">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -655,7 +655,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40" customHeight="1">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40" customHeight="1">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -677,7 +677,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40" customHeight="1">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -699,7 +699,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -710,7 +710,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -732,7 +732,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -743,7 +743,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -754,7 +754,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -765,7 +765,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -776,7 +776,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -787,7 +787,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -798,7 +798,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -809,7 +809,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -820,7 +820,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -831,7 +831,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -842,7 +842,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -875,7 +875,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -886,7 +886,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -897,7 +897,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -908,7 +908,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -919,7 +919,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -930,7 +930,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -941,7 +941,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -952,7 +952,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -963,7 +963,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -974,7 +974,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -985,7 +985,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -996,7 +996,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="24">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="24">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="24">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="24">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="24">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="24">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="24">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="24">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="24">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="24">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="24">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="24">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="24">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="24">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="24">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="24">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="24">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="24">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="24">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="24">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -2404,67 +2404,73 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="8"/>
-    </row>
-    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="23">
+      <c r="A173" s="5">
+        <v>45723</v>
+      </c>
+      <c r="B173" s="7">
+        <v>675638.50300614908</v>
+      </c>
+      <c r="C173" s="8">
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="24">
       <c r="A174" s="5"/>
       <c r="B174" s="7"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="24">
       <c r="A175" s="5"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="24">
       <c r="A176" s="5"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="24">
       <c r="A177" s="5"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="24">
       <c r="A178" s="5"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="24">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="24">
       <c r="A180" s="5"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="24">
       <c r="A181" s="5"/>
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="24">
       <c r="A182" s="5"/>
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="24">
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="24">
       <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="24">
       <c r="A185" s="5"/>
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
@@ -2479,11 +2485,11 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -2491,7 +2497,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -2514,7 +2520,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40" customHeight="1">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40" customHeight="1">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40" customHeight="1">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -2657,7 +2663,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40" customHeight="1">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -2668,7 +2674,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -2712,7 +2718,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -2734,7 +2740,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -2756,7 +2762,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -2822,7 +2828,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -2833,7 +2839,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -2866,7 +2872,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -2910,7 +2916,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -2921,7 +2927,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -2976,7 +2982,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -3020,7 +3026,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -3064,7 +3070,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -3097,7 +3103,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -3130,7 +3136,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -3152,7 +3158,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -3185,7 +3191,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -3196,7 +3202,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -3240,7 +3246,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -3251,7 +3257,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -3339,7 +3345,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -3394,7 +3400,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -3416,7 +3422,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -3427,7 +3433,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -3438,7 +3444,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -3460,7 +3466,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -3471,7 +3477,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -3515,7 +3521,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -3603,7 +3609,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -3614,7 +3620,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -3647,7 +3653,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -3658,7 +3664,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -3702,7 +3708,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -3713,7 +3719,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -3746,7 +3752,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -3768,7 +3774,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -3779,7 +3785,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -3812,7 +3818,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -3878,7 +3884,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -3889,7 +3895,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -3966,7 +3972,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -3988,7 +3994,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -3999,7 +4005,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -4032,7 +4038,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -4043,7 +4049,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -4065,7 +4071,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -4087,7 +4093,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -4120,7 +4126,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -4131,7 +4137,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -4153,7 +4159,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="40" customHeight="1">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -4175,7 +4181,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="40" customHeight="1">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="40" customHeight="1">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="40" customHeight="1">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="40" customHeight="1">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="40" customHeight="1">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="40" customHeight="1">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="40" customHeight="1">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -4252,7 +4258,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="40" customHeight="1">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -4263,7 +4269,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="40" customHeight="1">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -4274,7 +4280,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="40" customHeight="1">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="40" customHeight="1">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="40" customHeight="1">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="40" customHeight="1">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="40" customHeight="1">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -4329,7 +4335,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="40" customHeight="1">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -4340,7 +4346,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="40" customHeight="1">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -4351,7 +4357,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="40" customHeight="1">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -4362,7 +4368,7 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="40" customHeight="1">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>25.284763221329332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="40" customHeight="1">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -4384,1387 +4390,1393 @@
         <v>23.473978671945069</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-    </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="40" customHeight="1">
+      <c r="A173" s="5">
+        <v>45723</v>
+      </c>
+      <c r="B173" s="9">
+        <v>67.563850300614916</v>
+      </c>
+      <c r="C173" s="9">
+        <v>23.99037201716752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="40" customHeight="1">
       <c r="A174" s="5"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="40" customHeight="1">
       <c r="A175" s="5"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="40" customHeight="1">
       <c r="A176" s="5"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="40" customHeight="1">
       <c r="A177" s="5"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="40" customHeight="1">
       <c r="A178" s="5"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="40" customHeight="1">
       <c r="A179" s="5"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="40" customHeight="1">
       <c r="A180" s="5"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="40" customHeight="1">
       <c r="A181" s="5"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="40" customHeight="1">
       <c r="A182" s="5"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="40" customHeight="1">
       <c r="A183" s="5"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="40" customHeight="1">
       <c r="A184" s="5"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="40" customHeight="1">
       <c r="A185" s="5"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="40" customHeight="1">
       <c r="A186" s="5"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="40" customHeight="1">
       <c r="A187" s="5"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="40" customHeight="1">
       <c r="A188" s="5"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="40" customHeight="1">
       <c r="A189" s="5"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
     </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="40" customHeight="1">
       <c r="A190" s="5"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
     </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="40" customHeight="1">
       <c r="A191" s="5"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
     </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="40" customHeight="1">
       <c r="A192" s="5"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
     </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="40" customHeight="1">
       <c r="A193" s="5"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
     </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="40" customHeight="1">
       <c r="A194" s="5"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
     </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="40" customHeight="1">
       <c r="A195" s="5"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
     </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="40" customHeight="1">
       <c r="A196" s="5"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
     </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="40" customHeight="1">
       <c r="A197" s="5"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
     </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="40" customHeight="1">
       <c r="A198" s="5"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
     </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="40" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="40" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="40" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="40" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="40" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="40" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="40" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="40" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="40" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="40" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="40" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="40" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="40" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="40" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="40" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="40" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="40" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="40" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="40" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="40" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="40" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="40" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="40" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="40" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="40" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="40" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="40" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="40" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="40" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="40" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="40" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="40" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
     </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="40" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
     </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="40" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
     </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="40" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
     </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="40" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="40" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="40" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="40" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="40" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="40" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="40" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="40" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="40" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="40" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="40" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="40" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="40" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="40" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="40" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="40" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="40" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="40" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="40" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="40" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="40" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="40" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="40" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="40" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="40" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="40" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="40" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
     </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="40" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="40" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="40" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="40" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="40" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="40" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="40" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="40" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="40" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="40" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="40" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="40" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="40" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="40" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="40" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="40" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="40" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="40" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="40" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="40" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="40" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="40" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="40" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="40" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="40" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="40" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="40" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="40" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="40" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="40" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="40" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="40" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="40" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="40" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="40" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="40" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="40" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="40" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="40" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="40" customHeight="1">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="40" customHeight="1">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="40" customHeight="1">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="40" customHeight="1">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="40" customHeight="1">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="40" customHeight="1">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="40" customHeight="1">
       <c r="A306" s="5"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="40" customHeight="1">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="40" customHeight="1">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="40" customHeight="1">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="40" customHeight="1">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="40" customHeight="1">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="40" customHeight="1">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="40" customHeight="1">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="40" customHeight="1">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="40" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="40" customHeight="1">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="40" customHeight="1">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="40" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="40" customHeight="1">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="40" customHeight="1">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="40" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="40" customHeight="1">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="40" customHeight="1">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="40" customHeight="1">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="40" customHeight="1">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="40" customHeight="1">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="40" customHeight="1">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="40" customHeight="1">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="40" customHeight="1">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="40" customHeight="1">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="40" customHeight="1">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="40" customHeight="1">
       <c r="A332" s="5"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="40" customHeight="1">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="40" customHeight="1">
       <c r="A334" s="5"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="40" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="40" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="40" customHeight="1">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="40" customHeight="1">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="40" customHeight="1">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="40" customHeight="1">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="40" customHeight="1">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="40" customHeight="1">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="40" customHeight="1">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="40" customHeight="1">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="40" customHeight="1">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="40" customHeight="1">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="40" customHeight="1">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="40" customHeight="1">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="40" customHeight="1">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="40" customHeight="1">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="40" customHeight="1">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="40" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="40" customHeight="1">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="40" customHeight="1">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="40" customHeight="1">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="40" customHeight="1">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="40" customHeight="1">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="40" customHeight="1">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="40" customHeight="1">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="40" customHeight="1">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="40" customHeight="1">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="40" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="40" customHeight="1">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="40" customHeight="1">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="40" customHeight="1">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="40" customHeight="1">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="40" customHeight="1">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="40" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="40" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="40" customHeight="1">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="40" customHeight="1">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="40" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="40" customHeight="1">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="40" customHeight="1">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="40" customHeight="1">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="40" customHeight="1">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="40" customHeight="1">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="40" customHeight="1">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="40" customHeight="1">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="40" customHeight="1">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="40" customHeight="1">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="40" customHeight="1">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="40" customHeight="1">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="40" customHeight="1">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="40" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="40" customHeight="1">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="40" customHeight="1">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="40" customHeight="1">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="40" customHeight="1">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="40" customHeight="1">
       <c r="A390" s="5"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="40" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="40" customHeight="1">
       <c r="A392" s="5"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="40" customHeight="1">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="40" customHeight="1">
       <c r="A394" s="5"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="40" customHeight="1">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="40" customHeight="1">
       <c r="A396" s="5"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="40" customHeight="1">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="40" customHeight="1">
       <c r="A398" s="5"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="40" customHeight="1">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="40" customHeight="1">
       <c r="A400" s="5"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="40" customHeight="1">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="40" customHeight="1">
       <c r="A402" s="5"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="40" customHeight="1">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="40" customHeight="1">
       <c r="A404" s="5"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="40" customHeight="1">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="40" customHeight="1">
       <c r="A406" s="5"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="40" customHeight="1">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="40" customHeight="1">
       <c r="A408" s="5"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="40" customHeight="1">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="40" customHeight="1">
       <c r="A410" s="5"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="40" customHeight="1">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="40" customHeight="1">
       <c r="A412" s="5"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="40" customHeight="1">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="40" customHeight="1">
       <c r="A414" s="5"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="40" customHeight="1">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="40" customHeight="1">
       <c r="A416" s="5"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="40" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="40" customHeight="1">
       <c r="A418" s="5"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="40" customHeight="1">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="40" customHeight="1">
       <c r="A420" s="5"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="40" customHeight="1">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="40" customHeight="1">
       <c r="A422" s="5"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="40" customHeight="1">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="40" customHeight="1">
       <c r="A424" s="5"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="40" customHeight="1">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="40" customHeight="1">
       <c r="A426" s="5"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="40" customHeight="1">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="40" customHeight="1">
       <c r="A428" s="5"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="40" customHeight="1">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="40" customHeight="1">
       <c r="A430" s="5"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="40" customHeight="1">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="40" customHeight="1">
       <c r="A432" s="5"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="40" customHeight="1">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" ht="40" customHeight="1">
       <c r="A434" s="5"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" ht="40" customHeight="1">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="40" customHeight="1">
       <c r="A436" s="5"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="40" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="40" customHeight="1">
       <c r="A438" s="5"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="40" customHeight="1">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="40" customHeight="1">
       <c r="A440" s="5"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="40" customHeight="1">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="40" customHeight="1">
       <c r="A442" s="5"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="40" customHeight="1">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="40" customHeight="1">
       <c r="A444" s="5"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" ht="40" customHeight="1">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" ht="40" customHeight="1">
       <c r="A446" s="5"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" ht="40" customHeight="1">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="40" customHeight="1">
       <c r="A448" s="5"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" ht="40" customHeight="1">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD7EBE4-3668-3A47-861E-F658B8ACF095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250F8B4-2E5F-0641-B6C0-17548E418AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -498,8 +498,8 @@
   <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2184,7 +2184,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24">
+    <row r="153" spans="1:3" ht="23">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24">
+    <row r="154" spans="1:3" ht="23">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24">
+    <row r="155" spans="1:3" ht="23">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24">
+    <row r="156" spans="1:3" ht="23">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24">
+    <row r="157" spans="1:3" ht="23">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24">
+    <row r="158" spans="1:3" ht="23">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24">
+    <row r="159" spans="1:3" ht="23">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24">
+    <row r="160" spans="1:3" ht="23">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24">
+    <row r="161" spans="1:3" ht="23">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24">
+    <row r="162" spans="1:3" ht="23">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24">
+    <row r="163" spans="1:3" ht="23">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24">
+    <row r="164" spans="1:3" ht="23">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24">
+    <row r="165" spans="1:3" ht="23">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24">
+    <row r="166" spans="1:3" ht="23">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24">
+    <row r="167" spans="1:3" ht="23">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24">
+    <row r="168" spans="1:3" ht="23">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24">
+    <row r="169" spans="1:3" ht="23">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24">
+    <row r="170" spans="1:3" ht="23">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24">
+    <row r="171" spans="1:3" ht="23">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24">
+    <row r="172" spans="1:3" ht="23">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -2415,62 +2415,68 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24">
-      <c r="A174" s="5"/>
-      <c r="B174" s="7"/>
-      <c r="C174" s="8"/>
-    </row>
-    <row r="175" spans="1:3" ht="24">
+    <row r="174" spans="1:3" ht="23">
+      <c r="A174" s="5">
+        <v>45726</v>
+      </c>
+      <c r="B174" s="7">
+        <v>699541.98926180799</v>
+      </c>
+      <c r="C174" s="8">
+        <v>25.33</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="23">
       <c r="A175" s="5"/>
       <c r="B175" s="7"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="1:3" ht="24">
+    <row r="176" spans="1:3" ht="23">
       <c r="A176" s="5"/>
       <c r="B176" s="7"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" ht="24">
+    <row r="177" spans="1:3" ht="23">
       <c r="A177" s="5"/>
       <c r="B177" s="7"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="1:3" ht="24">
+    <row r="178" spans="1:3" ht="23">
       <c r="A178" s="5"/>
       <c r="B178" s="7"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="1:3" ht="24">
+    <row r="179" spans="1:3" ht="23">
       <c r="A179" s="5"/>
       <c r="B179" s="7"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="1:3" ht="24">
+    <row r="180" spans="1:3" ht="23">
       <c r="A180" s="5"/>
       <c r="B180" s="7"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="1:3" ht="24">
+    <row r="181" spans="1:3" ht="23">
       <c r="A181" s="5"/>
       <c r="B181" s="7"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="1:3" ht="24">
+    <row r="182" spans="1:3" ht="23">
       <c r="A182" s="5"/>
       <c r="B182" s="7"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="1:3" ht="24">
+    <row r="183" spans="1:3" ht="23">
       <c r="A183" s="5"/>
       <c r="B183" s="7"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="1:3" ht="24">
+    <row r="184" spans="1:3" ht="23">
       <c r="A184" s="5"/>
       <c r="B184" s="7"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="1:3" ht="24">
+    <row r="185" spans="1:3" ht="23">
       <c r="A185" s="5"/>
       <c r="B185" s="7"/>
       <c r="C185" s="8"/>
@@ -4402,9 +4408,15 @@
       </c>
     </row>
     <row r="174" spans="1:3" ht="40" customHeight="1">
-      <c r="A174" s="5"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
+      <c r="A174" s="5">
+        <v>45726</v>
+      </c>
+      <c r="B174" s="9">
+        <v>69.954198926180794</v>
+      </c>
+      <c r="C174" s="9">
+        <v>21.265742554012483</v>
+      </c>
     </row>
     <row r="175" spans="1:3" ht="40" customHeight="1">
       <c r="A175" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250F8B4-2E5F-0641-B6C0-17548E418AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7E1A1-B556-B24E-A7DC-7B0036DE3FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="10900" yWindow="1840" windowWidth="10000" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -497,9 +497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2427,19 +2427,37 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="23">
-      <c r="A175" s="5"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="8"/>
+      <c r="A175" s="5">
+        <v>45727</v>
+      </c>
+      <c r="B175" s="7">
+        <v>693836.21539058757</v>
+      </c>
+      <c r="C175" s="8">
+        <v>24.61</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="23">
-      <c r="A176" s="5"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="8"/>
+      <c r="A176" s="5">
+        <v>45728</v>
+      </c>
+      <c r="B176" s="7">
+        <v>670896.81867288332</v>
+      </c>
+      <c r="C176" s="8">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="23">
-      <c r="A177" s="5"/>
-      <c r="B177" s="7"/>
-      <c r="C177" s="8"/>
+      <c r="A177" s="5">
+        <v>45729</v>
+      </c>
+      <c r="B177" s="7">
+        <v>673233.35496895725</v>
+      </c>
+      <c r="C177" s="8">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="23">
       <c r="A178" s="5"/>
@@ -2490,9 +2508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D176" sqref="D176"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4419,19 +4437,37 @@
       </c>
     </row>
     <row r="175" spans="1:3" ht="40" customHeight="1">
-      <c r="A175" s="5"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
+      <c r="A175" s="5">
+        <v>45727</v>
+      </c>
+      <c r="B175" s="9">
+        <v>69.383621539058765</v>
+      </c>
+      <c r="C175" s="9">
+        <v>20.484331598856667</v>
+      </c>
     </row>
     <row r="176" spans="1:3" ht="40" customHeight="1">
-      <c r="A176" s="5"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
+      <c r="A176" s="5">
+        <v>45728</v>
+      </c>
+      <c r="B176" s="9">
+        <v>67.089681867288334</v>
+      </c>
+      <c r="C176" s="9">
+        <v>20.980677107752204</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="40" customHeight="1">
-      <c r="A177" s="5"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
+      <c r="A177" s="5">
+        <v>45729</v>
+      </c>
+      <c r="B177" s="9">
+        <v>67.323335496895723</v>
+      </c>
+      <c r="C177" s="9">
+        <v>19.592795233061427</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="40" customHeight="1">
       <c r="A178" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7E1A1-B556-B24E-A7DC-7B0036DE3FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CEACD4-D277-324D-9F63-8DEB181DC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="1840" windowWidth="10000" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="10900" yWindow="1420" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -497,9 +497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D183" sqref="D183"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2460,9 +2460,15 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="23">
-      <c r="A178" s="5"/>
-      <c r="B178" s="7"/>
-      <c r="C178" s="8"/>
+      <c r="A178" s="5">
+        <v>45730</v>
+      </c>
+      <c r="B178" s="7">
+        <v>671810.36050178448</v>
+      </c>
+      <c r="C178" s="8">
+        <v>21.52</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="23">
       <c r="A179" s="5"/>
@@ -2508,9 +2514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4470,9 +4476,15 @@
       </c>
     </row>
     <row r="178" spans="1:3" ht="40" customHeight="1">
-      <c r="A178" s="5"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
+      <c r="A178" s="5">
+        <v>45730</v>
+      </c>
+      <c r="B178" s="9">
+        <v>67.181036050178449</v>
+      </c>
+      <c r="C178" s="9">
+        <v>21.60763840911175</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="40" customHeight="1">
       <c r="A179" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CEACD4-D277-324D-9F63-8DEB181DC2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD0F23E-2C6B-7840-9882-9E8C35AB1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="1420" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="1500" yWindow="1700" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomLeft" activeCell="A179" sqref="A179:C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2471,29 +2471,59 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="23">
-      <c r="A179" s="5"/>
-      <c r="B179" s="7"/>
-      <c r="C179" s="8"/>
+      <c r="A179" s="5">
+        <v>45733</v>
+      </c>
+      <c r="B179" s="7">
+        <v>669204.06977849174</v>
+      </c>
+      <c r="C179" s="8">
+        <v>19.920000000000002</v>
+      </c>
     </row>
     <row r="180" spans="1:3" ht="23">
-      <c r="A180" s="5"/>
-      <c r="B180" s="7"/>
-      <c r="C180" s="8"/>
+      <c r="A180" s="5">
+        <v>45734</v>
+      </c>
+      <c r="B180" s="7">
+        <v>670360.22607578372</v>
+      </c>
+      <c r="C180" s="8">
+        <v>20.48</v>
+      </c>
     </row>
     <row r="181" spans="1:3" ht="23">
-      <c r="A181" s="5"/>
-      <c r="B181" s="7"/>
-      <c r="C181" s="8"/>
+      <c r="A181" s="5">
+        <v>45735</v>
+      </c>
+      <c r="B181" s="7">
+        <v>669909.56416610384</v>
+      </c>
+      <c r="C181" s="8">
+        <v>19.75</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="23">
-      <c r="A182" s="5"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="8"/>
+      <c r="A182" s="5">
+        <v>45736</v>
+      </c>
+      <c r="B182" s="7">
+        <v>668763.61537686468</v>
+      </c>
+      <c r="C182" s="8">
+        <v>19.47</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="23">
-      <c r="A183" s="5"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="8"/>
+      <c r="A183" s="5">
+        <v>45737</v>
+      </c>
+      <c r="B183" s="7">
+        <v>668340.44441579632</v>
+      </c>
+      <c r="C183" s="8">
+        <v>19.47</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="23">
       <c r="A184" s="5"/>
@@ -2515,8 +2545,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B180" sqref="B180"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4487,29 +4517,59 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="40" customHeight="1">
-      <c r="A179" s="5"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
+      <c r="A179" s="5">
+        <v>45733</v>
+      </c>
+      <c r="B179" s="9">
+        <v>66.920406977849183</v>
+      </c>
+      <c r="C179" s="9">
+        <v>22.318756443012568</v>
+      </c>
     </row>
     <row r="180" spans="1:3" ht="40" customHeight="1">
-      <c r="A180" s="5"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
+      <c r="A180" s="5">
+        <v>45734</v>
+      </c>
+      <c r="B180" s="9">
+        <v>67.036022607578374</v>
+      </c>
+      <c r="C180" s="9">
+        <v>22.124915243940873</v>
+      </c>
     </row>
     <row r="181" spans="1:3" ht="40" customHeight="1">
-      <c r="A181" s="5"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
+      <c r="A181" s="5">
+        <v>45735</v>
+      </c>
+      <c r="B181" s="9">
+        <v>66.990956416610388</v>
+      </c>
+      <c r="C181" s="9">
+        <v>23.186421833852929</v>
+      </c>
     </row>
     <row r="182" spans="1:3" ht="40" customHeight="1">
-      <c r="A182" s="5"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
+      <c r="A182" s="5">
+        <v>45736</v>
+      </c>
+      <c r="B182" s="9">
+        <v>66.876361537686464</v>
+      </c>
+      <c r="C182" s="9">
+        <v>22.889283752002022</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="40" customHeight="1">
-      <c r="A183" s="5"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
+      <c r="A183" s="5">
+        <v>45737</v>
+      </c>
+      <c r="B183" s="9">
+        <v>66.834044441579636</v>
+      </c>
+      <c r="C183" s="9">
+        <v>22.985513310648209</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="40" customHeight="1">
       <c r="A184" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD0F23E-2C6B-7840-9882-9E8C35AB1530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EEDF89-A940-2141-BEBD-41D38D99FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1700" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="18000" yWindow="1280" windowWidth="17840" windowHeight="21120" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -163,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179:C183"/>
+      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2526,14 +2526,59 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="23">
-      <c r="A184" s="5"/>
-      <c r="B184" s="7"/>
-      <c r="C184" s="8"/>
+      <c r="A184" s="5">
+        <v>45740</v>
+      </c>
+      <c r="B184" s="7">
+        <v>665556</v>
+      </c>
+      <c r="C184" s="8">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="185" spans="1:3" ht="23">
-      <c r="A185" s="5"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="8"/>
+      <c r="A185" s="5">
+        <v>45741</v>
+      </c>
+      <c r="B185" s="7">
+        <v>663820</v>
+      </c>
+      <c r="C185" s="8">
+        <v>18.66</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="23">
+      <c r="A186" s="5">
+        <v>45742</v>
+      </c>
+      <c r="B186" s="7">
+        <v>665025</v>
+      </c>
+      <c r="C186" s="8">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="23">
+      <c r="A187" s="5">
+        <v>45743</v>
+      </c>
+      <c r="B187" s="7">
+        <v>663963</v>
+      </c>
+      <c r="C187" s="8">
+        <v>19.16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="23">
+      <c r="A188" s="5">
+        <v>45744</v>
+      </c>
+      <c r="B188" s="7">
+        <v>668687</v>
+      </c>
+      <c r="C188" s="8">
+        <v>20.55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2546,7 +2591,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B185" sqref="B185"/>
+      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4572,29 +4617,59 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="40" customHeight="1">
-      <c r="A184" s="5"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
+      <c r="A184" s="5">
+        <v>45740</v>
+      </c>
+      <c r="B184" s="9">
+        <v>66.56</v>
+      </c>
+      <c r="C184" s="9">
+        <v>24.67</v>
+      </c>
     </row>
     <row r="185" spans="1:3" ht="40" customHeight="1">
-      <c r="A185" s="5"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
+      <c r="A185" s="5">
+        <v>45741</v>
+      </c>
+      <c r="B185" s="9">
+        <v>66.38</v>
+      </c>
+      <c r="C185" s="9">
+        <v>24.86</v>
+      </c>
     </row>
     <row r="186" spans="1:3" ht="40" customHeight="1">
-      <c r="A186" s="5"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
+      <c r="A186" s="5">
+        <v>45742</v>
+      </c>
+      <c r="B186" s="9">
+        <v>66.5</v>
+      </c>
+      <c r="C186" s="9">
+        <v>23.7</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="40" customHeight="1">
-      <c r="A187" s="5"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
+      <c r="A187" s="5">
+        <v>45743</v>
+      </c>
+      <c r="B187" s="9">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="C187" s="9">
+        <v>23.35</v>
+      </c>
     </row>
     <row r="188" spans="1:3" ht="40" customHeight="1">
-      <c r="A188" s="5"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
+      <c r="A188" s="5">
+        <v>45744</v>
+      </c>
+      <c r="B188" s="9">
+        <v>66.87</v>
+      </c>
+      <c r="C188" s="9">
+        <v>21.31</v>
+      </c>
     </row>
     <row r="189" spans="1:3" ht="40" customHeight="1">
       <c r="A189" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EEDF89-A940-2141-BEBD-41D38D99FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762716B-CF44-0A41-806D-7F729482F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="1280" windowWidth="17840" windowHeight="21120" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="13220" yWindow="500" windowWidth="17840" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,14 +495,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -511,7 +511,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -534,7 +534,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -545,7 +545,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -556,7 +556,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -567,7 +567,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -578,7 +578,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -589,7 +589,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -600,7 +600,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -611,7 +611,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -622,7 +622,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -633,7 +633,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -644,7 +644,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -655,7 +655,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -677,7 +677,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -699,7 +699,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -710,7 +710,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -732,7 +732,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -743,7 +743,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -754,7 +754,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -765,7 +765,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -776,7 +776,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -787,7 +787,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -798,7 +798,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -809,7 +809,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -820,7 +820,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -831,7 +831,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -842,7 +842,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -875,7 +875,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -886,7 +886,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -897,7 +897,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -908,7 +908,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -919,7 +919,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -930,7 +930,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -941,7 +941,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -952,7 +952,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -963,7 +963,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -974,7 +974,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -985,7 +985,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -996,7 +996,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="23">
+    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="23">
+    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="23">
+    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="23">
+    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="23">
+    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="23">
+    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="23">
+    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="23">
+    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="23">
+    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="23">
+    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="23">
+    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="23">
+    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="23">
+    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="23">
+    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="23">
+    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="23">
+    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="23">
+    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="23">
+    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="23">
+    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="23">
+    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="23">
+    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>45723</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="23">
+    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>45726</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="23">
+    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>45727</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="23">
+    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>45728</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="23">
+    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>45729</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="23">
+    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>45730</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="23">
+    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>45733</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="23">
+    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>45734</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="23">
+    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>45735</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="23">
+    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>45736</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="23">
+    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>45737</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="23">
+    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>45740</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="23">
+    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>45741</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="23">
+    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>45742</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="23">
+    <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>45743</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="23">
+    <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>45744</v>
       </c>
@@ -2578,6 +2578,61 @@
       </c>
       <c r="C188" s="8">
         <v>20.55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>45747</v>
+      </c>
+      <c r="B189" s="7">
+        <v>669157.7048185789</v>
+      </c>
+      <c r="C189" s="8">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B190" s="7">
+        <v>667352.85428276402</v>
+      </c>
+      <c r="C190" s="8">
+        <v>20.51</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>45749</v>
+      </c>
+      <c r="B191" s="7">
+        <v>669886.09721040167</v>
+      </c>
+      <c r="C191" s="8">
+        <v>20.02</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>45750</v>
+      </c>
+      <c r="B192" s="7">
+        <v>711705.79906185344</v>
+      </c>
+      <c r="C192" s="8">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>45751</v>
+      </c>
+      <c r="B193" s="7">
+        <v>712382.02912433713</v>
+      </c>
+      <c r="C193" s="8">
+        <v>28.52</v>
       </c>
     </row>
   </sheetData>
@@ -2589,12 +2644,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C189" sqref="C189"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -2602,7 +2657,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2613,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -2625,7 +2680,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -2636,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -2647,7 +2702,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -2658,7 +2713,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -2669,7 +2724,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -2680,7 +2735,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -2691,7 +2746,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -2702,7 +2757,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -2713,7 +2768,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -2724,7 +2779,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -2735,7 +2790,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -2746,7 +2801,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -2757,7 +2812,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -2768,7 +2823,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -2779,7 +2834,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -2790,7 +2845,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -2801,7 +2856,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -2812,7 +2867,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -2823,7 +2878,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -2834,7 +2889,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -2845,7 +2900,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -2856,7 +2911,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -2867,7 +2922,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -2878,7 +2933,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -2889,7 +2944,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -2900,7 +2955,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -2911,7 +2966,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -2922,7 +2977,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -2933,7 +2988,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -2944,7 +2999,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -2955,7 +3010,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -2966,7 +3021,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -2977,7 +3032,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -2988,7 +3043,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -2999,7 +3054,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -3010,7 +3065,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -3021,7 +3076,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -3032,7 +3087,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -3043,7 +3098,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -3054,7 +3109,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -3065,7 +3120,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -3076,7 +3131,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -3087,7 +3142,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -3098,7 +3153,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -3109,7 +3164,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -3120,7 +3175,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -3131,7 +3186,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -3142,7 +3197,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -3153,7 +3208,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -3164,7 +3219,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -3175,7 +3230,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -3186,7 +3241,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -3197,7 +3252,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -3208,7 +3263,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -3219,7 +3274,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -3230,7 +3285,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -3241,7 +3296,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -3252,7 +3307,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -3263,7 +3318,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -3274,7 +3329,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -3285,7 +3340,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -3296,7 +3351,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -3307,7 +3362,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -3318,7 +3373,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -3329,7 +3384,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -3340,7 +3395,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -3351,7 +3406,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -3362,7 +3417,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -3373,7 +3428,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -3384,7 +3439,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -3395,7 +3450,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -3406,7 +3461,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -3417,7 +3472,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -3428,7 +3483,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -3439,7 +3494,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -3450,7 +3505,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -3461,7 +3516,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -3472,7 +3527,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -3483,7 +3538,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -3494,7 +3549,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -3505,7 +3560,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -3516,7 +3571,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -3527,7 +3582,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -3538,7 +3593,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -3549,7 +3604,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -3560,7 +3615,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -3571,7 +3626,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -3582,7 +3637,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -3593,7 +3648,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -3604,7 +3659,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -3615,7 +3670,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -3626,7 +3681,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -3637,7 +3692,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -3648,7 +3703,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -3659,7 +3714,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -3670,7 +3725,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -3681,7 +3736,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -3692,7 +3747,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -3703,7 +3758,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -3714,7 +3769,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -3725,7 +3780,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -3736,7 +3791,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -3747,7 +3802,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -3758,7 +3813,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -3769,7 +3824,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -3780,7 +3835,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -3791,7 +3846,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -3802,7 +3857,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -3813,7 +3868,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -3824,7 +3879,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -3835,7 +3890,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -3846,7 +3901,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -3857,7 +3912,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -3868,7 +3923,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -3879,7 +3934,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -3890,7 +3945,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -3901,7 +3956,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -3912,7 +3967,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -3923,7 +3978,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -3934,7 +3989,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -3945,7 +4000,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -3956,7 +4011,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -3967,7 +4022,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -3978,7 +4033,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -3989,7 +4044,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -4000,7 +4055,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -4011,7 +4066,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -4022,7 +4077,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -4033,7 +4088,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -4044,7 +4099,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -4055,7 +4110,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -4066,7 +4121,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -4077,7 +4132,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -4088,7 +4143,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -4099,7 +4154,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -4110,7 +4165,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -4121,7 +4176,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -4132,7 +4187,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -4143,7 +4198,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -4154,7 +4209,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -4165,7 +4220,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -4176,7 +4231,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -4187,7 +4242,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -4198,7 +4253,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -4209,7 +4264,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -4220,7 +4275,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -4231,7 +4286,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -4242,7 +4297,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -4253,7 +4308,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -4264,7 +4319,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -4275,7 +4330,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1">
+    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -4286,7 +4341,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1">
+    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -4297,7 +4352,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1">
+    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -4308,7 +4363,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1">
+    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -4319,7 +4374,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1">
+    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -4330,7 +4385,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1">
+    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -4341,7 +4396,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1">
+    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -4352,7 +4407,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1">
+    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -4363,7 +4418,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1">
+    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -4374,7 +4429,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1">
+    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -4385,7 +4440,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1">
+    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -4396,7 +4451,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1">
+    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -4407,7 +4462,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1">
+    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -4418,7 +4473,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1">
+    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -4429,7 +4484,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1">
+    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -4440,7 +4495,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1">
+    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -4451,7 +4506,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1">
+    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -4462,7 +4517,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1">
+    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -4473,7 +4528,7 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1">
+    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -4484,7 +4539,7 @@
         <v>25.284763221329332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1">
+    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -4495,7 +4550,7 @@
         <v>23.473978671945069</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1">
+    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>45723</v>
       </c>
@@ -4506,7 +4561,7 @@
         <v>23.99037201716752</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1">
+    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>45726</v>
       </c>
@@ -4517,7 +4572,7 @@
         <v>21.265742554012483</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1">
+    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>45727</v>
       </c>
@@ -4528,7 +4583,7 @@
         <v>20.484331598856667</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1">
+    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>45728</v>
       </c>
@@ -4539,7 +4594,7 @@
         <v>20.980677107752204</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1">
+    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>45729</v>
       </c>
@@ -4550,7 +4605,7 @@
         <v>19.592795233061427</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1">
+    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>45730</v>
       </c>
@@ -4561,7 +4616,7 @@
         <v>21.60763840911175</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1">
+    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>45733</v>
       </c>
@@ -4572,7 +4627,7 @@
         <v>22.318756443012568</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1">
+    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>45734</v>
       </c>
@@ -4583,7 +4638,7 @@
         <v>22.124915243940873</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1">
+    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>45735</v>
       </c>
@@ -4594,7 +4649,7 @@
         <v>23.186421833852929</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1">
+    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>45736</v>
       </c>
@@ -4605,7 +4660,7 @@
         <v>22.889283752002022</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1">
+    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>45737</v>
       </c>
@@ -4616,7 +4671,7 @@
         <v>22.985513310648209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1">
+    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>45740</v>
       </c>
@@ -4627,7 +4682,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1">
+    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>45741</v>
       </c>
@@ -4638,7 +4693,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1">
+    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>45742</v>
       </c>
@@ -4649,7 +4704,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1">
+    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>45743</v>
       </c>
@@ -4660,7 +4715,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1">
+    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>45744</v>
       </c>
@@ -4671,1307 +4726,1337 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1">
-      <c r="A189" s="5"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-    </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1">
-      <c r="A190" s="5"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-    </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1">
-      <c r="A191" s="5"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-    </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1">
-      <c r="A192" s="5"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-    </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1">
-      <c r="A193" s="5"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-    </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1">
+    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5">
+        <v>45747</v>
+      </c>
+      <c r="B189" s="9">
+        <v>66.915770481857891</v>
+      </c>
+      <c r="C189" s="9">
+        <v>21.842291960211625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B190" s="9">
+        <v>66.735285428276399</v>
+      </c>
+      <c r="C190" s="9">
+        <v>22.217477234020642</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5">
+        <v>45749</v>
+      </c>
+      <c r="B191" s="9">
+        <v>66.988609721040177</v>
+      </c>
+      <c r="C191" s="9">
+        <v>22.880531016766646</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5">
+        <v>45750</v>
+      </c>
+      <c r="B192" s="9">
+        <v>71.170579906185338</v>
+      </c>
+      <c r="C192" s="9">
+        <v>17.863776999885843</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5">
+        <v>45751</v>
+      </c>
+      <c r="B193" s="9">
+        <v>71.238202912433707</v>
+      </c>
+      <c r="C193" s="9">
+        <v>11.74406452790994</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
     </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1">
+    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
     </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1">
+    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
     </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1">
+    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
     </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1">
+    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
     </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1">
+    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1">
+    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1">
+    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1">
+    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1">
+    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1">
+    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1">
+    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1">
+    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1">
+    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1">
+    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1">
+    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1">
+    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1">
+    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1">
+    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1">
+    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1">
+    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1">
+    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1">
+    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1">
+    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1">
+    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1">
+    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1">
+    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1">
+    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1">
+    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1">
+    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1">
+    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1">
+    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1">
+    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1">
+    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1">
+    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1">
+    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1">
+    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
     </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1">
+    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
     </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1">
+    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
     </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1">
+    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
     </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1">
+    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1">
+    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1">
+    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1">
+    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1">
+    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1">
+    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1">
+    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1">
+    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1">
+    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1">
+    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1">
+    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1">
+    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1">
+    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1">
+    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1">
+    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1">
+    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1">
+    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1">
+    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1">
+    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1">
+    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1">
+    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1">
+    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1">
+    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1">
+    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1">
+    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1">
+    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1">
+    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
     </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1">
+    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1">
+    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1">
+    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1">
+    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1">
+    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1">
+    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1">
+    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1">
+    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1">
+    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1">
+    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1">
+    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1">
+    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1">
+    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1">
+    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1">
+    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1">
+    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1">
+    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1">
+    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1">
+    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1">
+    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1">
+    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1">
+    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1">
+    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1">
+    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1">
+    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1">
+    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1">
+    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1">
+    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1">
+    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1">
+    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1">
+    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1">
+    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1">
+    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1">
+    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1">
+    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1">
+    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1">
+    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1">
+    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1">
+    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1">
+    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1">
+    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1">
+    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1">
+    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1">
+    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1">
+    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1">
+    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1">
+    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1">
+    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1">
+    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1">
+    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1">
+    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1">
+    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1">
+    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1">
+    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1">
+    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1">
+    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1">
+    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1">
+    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1">
+    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1">
+    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1">
+    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1">
+    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1">
+    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1">
+    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1">
+    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1">
+    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1">
+    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1">
+    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1">
+    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1">
+    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1">
+    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1">
+    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1">
+    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1">
+    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1">
+    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1">
+    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1">
+    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1">
+    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1">
+    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1">
+    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1">
+    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1">
+    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1">
+    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1">
+    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1">
+    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1">
+    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1">
+    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1">
+    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1">
+    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1">
+    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1">
+    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1">
+    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1">
+    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1">
+    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1">
+    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1">
+    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1">
+    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1">
+    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1">
+    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1">
+    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1">
+    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1">
+    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1">
+    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1">
+    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1">
+    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1">
+    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1">
+    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1">
+    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1">
+    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1">
+    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1">
+    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1">
+    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1">
+    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1">
+    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1">
+    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1">
+    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1">
+    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1">
+    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1">
+    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1">
+    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1">
+    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1">
+    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1">
+    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1">
+    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1">
+    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1">
+    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1">
+    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1">
+    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1">
+    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1">
+    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1">
+    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1">
+    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1">
+    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1">
+    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1">
+    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1">
+    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1">
+    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1">
+    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1">
+    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1">
+    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1">
+    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1">
+    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1">
+    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1">
+    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1">
+    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1">
+    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1">
+    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1">
+    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1">
+    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1">
+    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1">
+    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1">
+    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1">
+    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1">
+    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1">
+    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1">
+    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1">
+    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1">
+    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1">
+    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1">
+    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1">
+    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1">
+    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1">
+    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1">
+    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1">
+    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1">
+    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1">
+    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1">
+    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1">
+    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1">
+    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1">
+    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1">
+    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1">
+    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1">
+    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1">
+    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1">
+    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1">
+    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1">
+    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1">
+    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1">
+    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1">
+    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1">
+    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1">
+    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1">
+    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1">
+    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1">
+    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1">
+    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1">
+    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:3" ht="40" customHeight="1">
+    <row r="449" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2762716B-CF44-0A41-806D-7F729482F212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD034A9A-C861-644D-9815-90CAC5EE82D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="500" windowWidth="17840" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,14 +495,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194:A198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -511,7 +511,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -534,7 +534,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -545,7 +545,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -556,7 +556,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -567,7 +567,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -578,7 +578,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -589,7 +589,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -600,7 +600,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -611,7 +611,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -622,7 +622,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -633,7 +633,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -644,7 +644,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40" customHeight="1">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -655,7 +655,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40" customHeight="1">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40" customHeight="1">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -677,7 +677,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40" customHeight="1">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -699,7 +699,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -710,7 +710,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -732,7 +732,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -743,7 +743,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -754,7 +754,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -765,7 +765,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -776,7 +776,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -787,7 +787,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -798,7 +798,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -809,7 +809,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -820,7 +820,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -831,7 +831,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -842,7 +842,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -875,7 +875,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -886,7 +886,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -897,7 +897,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -908,7 +908,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -919,7 +919,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -930,7 +930,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -941,7 +941,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -952,7 +952,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -963,7 +963,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -974,7 +974,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -985,7 +985,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -996,7 +996,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="24">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="24">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="24">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="24">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="24">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="24">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="24">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="24">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="24">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="24">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="24">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="24">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="24">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="24">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="24">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="24">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="24">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="24">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="24">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="24">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="24">
       <c r="A173" s="5">
         <v>45723</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="24">
       <c r="A174" s="5">
         <v>45726</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="24">
       <c r="A175" s="5">
         <v>45727</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="24">
       <c r="A176" s="5">
         <v>45728</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="24">
       <c r="A177" s="5">
         <v>45729</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="24">
       <c r="A178" s="5">
         <v>45730</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="24">
       <c r="A179" s="5">
         <v>45733</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="24">
       <c r="A180" s="5">
         <v>45734</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="24">
       <c r="A181" s="5">
         <v>45735</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="24">
       <c r="A182" s="5">
         <v>45736</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="24">
       <c r="A183" s="5">
         <v>45737</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="24">
       <c r="A184" s="5">
         <v>45740</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="24">
       <c r="A185" s="5">
         <v>45741</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="24">
       <c r="A186" s="5">
         <v>45742</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="24">
       <c r="A187" s="5">
         <v>45743</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="24">
       <c r="A188" s="5">
         <v>45744</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="24">
       <c r="A189" s="5">
         <v>45747</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="24">
       <c r="A190" s="5">
         <v>45748</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="24">
       <c r="A191" s="5">
         <v>45749</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="24">
       <c r="A192" s="5">
         <v>45750</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="24">
       <c r="A193" s="5">
         <v>45751</v>
       </c>
@@ -2633,6 +2633,61 @@
       </c>
       <c r="C193" s="8">
         <v>28.52</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="23">
+      <c r="A194" s="5">
+        <v>45754</v>
+      </c>
+      <c r="B194" s="7">
+        <v>712950</v>
+      </c>
+      <c r="C194" s="8">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="23">
+      <c r="A195" s="5">
+        <v>45755</v>
+      </c>
+      <c r="B195" s="7">
+        <v>713112</v>
+      </c>
+      <c r="C195" s="8">
+        <v>31.43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="23">
+      <c r="A196" s="5">
+        <v>45756</v>
+      </c>
+      <c r="B196" s="7">
+        <v>715839</v>
+      </c>
+      <c r="C196" s="8">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="23">
+      <c r="A197" s="5">
+        <v>45757</v>
+      </c>
+      <c r="B197" s="7">
+        <v>717061</v>
+      </c>
+      <c r="C197" s="8">
+        <v>29.87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="23">
+      <c r="A198" s="5">
+        <v>45758</v>
+      </c>
+      <c r="B198" s="7">
+        <v>715958</v>
+      </c>
+      <c r="C198" s="8">
+        <v>28.89</v>
       </c>
     </row>
   </sheetData>
@@ -2644,12 +2699,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -2657,7 +2712,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2668,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="5">
         <v>45138</v>
       </c>
@@ -2680,7 +2735,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="5">
         <v>45140</v>
       </c>
@@ -2691,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="5">
         <v>45146</v>
       </c>
@@ -2702,7 +2757,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="5">
         <v>45154</v>
       </c>
@@ -2713,7 +2768,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="5">
         <v>45162</v>
       </c>
@@ -2724,7 +2779,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="5">
         <v>45166</v>
       </c>
@@ -2735,7 +2790,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="5">
         <v>45167</v>
       </c>
@@ -2746,7 +2801,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="5">
         <v>45168</v>
       </c>
@@ -2757,7 +2812,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="5">
         <v>45176</v>
       </c>
@@ -2768,7 +2823,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="5">
         <v>45183</v>
       </c>
@@ -2779,7 +2834,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="5">
         <v>45184</v>
       </c>
@@ -2790,7 +2845,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40" customHeight="1">
       <c r="A13" s="5">
         <v>45188</v>
       </c>
@@ -2801,7 +2856,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40" customHeight="1">
       <c r="A14" s="5">
         <v>45190</v>
       </c>
@@ -2812,7 +2867,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40" customHeight="1">
       <c r="A15" s="5">
         <v>45191</v>
       </c>
@@ -2823,7 +2878,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40" customHeight="1">
       <c r="A16" s="5">
         <v>45195</v>
       </c>
@@ -2834,7 +2889,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="5">
         <v>45196</v>
       </c>
@@ -2845,7 +2900,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="5">
         <v>45197</v>
       </c>
@@ -2856,7 +2911,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="5">
         <v>45201</v>
       </c>
@@ -2867,7 +2922,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="5">
         <v>45202</v>
       </c>
@@ -2878,7 +2933,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="5">
         <v>45205</v>
       </c>
@@ -2889,7 +2944,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="5">
         <v>45209</v>
       </c>
@@ -2900,7 +2955,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="5">
         <v>45212</v>
       </c>
@@ -2911,7 +2966,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="5">
         <v>45216</v>
       </c>
@@ -2922,7 +2977,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="5">
         <v>45217</v>
       </c>
@@ -2933,7 +2988,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="5">
         <v>45219</v>
       </c>
@@ -2944,7 +2999,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="5">
         <v>45225</v>
       </c>
@@ -2955,7 +3010,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="5">
         <v>45231</v>
       </c>
@@ -2966,7 +3021,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="5">
         <v>45232</v>
       </c>
@@ -2977,7 +3032,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="5">
         <v>45233</v>
       </c>
@@ -2988,7 +3043,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="5">
         <v>45237</v>
       </c>
@@ -2999,7 +3054,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="5">
         <v>45243</v>
       </c>
@@ -3010,7 +3065,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="5">
         <v>45244</v>
       </c>
@@ -3021,7 +3076,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="5">
         <v>45246</v>
       </c>
@@ -3032,7 +3087,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="5">
         <v>45252</v>
       </c>
@@ -3043,7 +3098,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="5">
         <v>45260</v>
       </c>
@@ -3054,7 +3109,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="5">
         <v>45271</v>
       </c>
@@ -3065,7 +3120,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="5">
         <v>45274</v>
       </c>
@@ -3076,7 +3131,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="5">
         <v>45279</v>
       </c>
@@ -3087,7 +3142,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="5">
         <v>45281</v>
       </c>
@@ -3098,7 +3153,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="5">
         <v>45282</v>
       </c>
@@ -3109,7 +3164,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="5">
         <v>45294</v>
       </c>
@@ -3120,7 +3175,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="5">
         <v>45301</v>
       </c>
@@ -3131,7 +3186,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="5">
         <v>45308</v>
       </c>
@@ -3142,7 +3197,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="5">
         <v>45309</v>
       </c>
@@ -3153,7 +3208,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="5">
         <v>45310</v>
       </c>
@@ -3164,7 +3219,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="5">
         <v>45313</v>
       </c>
@@ -3175,7 +3230,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="5">
         <v>45314</v>
       </c>
@@ -3186,7 +3241,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="5">
         <v>45315</v>
       </c>
@@ -3197,7 +3252,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="5">
         <v>45321</v>
       </c>
@@ -3208,7 +3263,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="5">
         <v>45322</v>
       </c>
@@ -3219,7 +3274,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="5">
         <v>45324</v>
       </c>
@@ -3230,7 +3285,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="5">
         <v>45330</v>
       </c>
@@ -3241,7 +3296,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="5">
         <v>45334</v>
       </c>
@@ -3252,7 +3307,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="5">
         <v>45335</v>
       </c>
@@ -3263,7 +3318,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="5">
         <v>45337</v>
       </c>
@@ -3274,7 +3329,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="5">
         <v>45342</v>
       </c>
@@ -3285,7 +3340,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="5">
         <v>45344</v>
       </c>
@@ -3296,7 +3351,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="5">
         <v>45345</v>
       </c>
@@ -3307,7 +3362,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="5">
         <v>45355</v>
       </c>
@@ -3318,7 +3373,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="5">
         <v>45356</v>
       </c>
@@ -3329,7 +3384,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="5">
         <v>45357</v>
       </c>
@@ -3340,7 +3395,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="5">
         <v>45359</v>
       </c>
@@ -3351,7 +3406,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="5">
         <v>45362</v>
       </c>
@@ -3362,7 +3417,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="5">
         <v>45363</v>
       </c>
@@ -3373,7 +3428,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="5">
         <v>45366</v>
       </c>
@@ -3384,7 +3439,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="5">
         <v>45370</v>
       </c>
@@ -3395,7 +3450,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="5">
         <v>45372</v>
       </c>
@@ -3406,7 +3461,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="5">
         <v>45384</v>
       </c>
@@ -3417,7 +3472,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="5">
         <v>45386</v>
       </c>
@@ -3428,7 +3483,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="5">
         <v>45387</v>
       </c>
@@ -3439,7 +3494,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="5">
         <v>45393</v>
       </c>
@@ -3450,7 +3505,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="5">
         <v>45394</v>
       </c>
@@ -3461,7 +3516,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="5">
         <v>45398</v>
       </c>
@@ -3472,7 +3527,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="5">
         <v>45404</v>
       </c>
@@ -3483,7 +3538,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="5">
         <v>45405</v>
       </c>
@@ -3494,7 +3549,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="5">
         <v>45407</v>
       </c>
@@ -3505,7 +3560,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="5">
         <v>45408</v>
       </c>
@@ -3516,7 +3571,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="5">
         <v>45413</v>
       </c>
@@ -3527,7 +3582,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="5">
         <v>45415</v>
       </c>
@@ -3538,7 +3593,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="5">
         <v>45418</v>
       </c>
@@ -3549,7 +3604,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="5">
         <v>45419</v>
       </c>
@@ -3560,7 +3615,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="5">
         <v>45422</v>
       </c>
@@ -3571,7 +3626,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="5">
         <v>45427</v>
       </c>
@@ -3582,7 +3637,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="5">
         <v>45428</v>
       </c>
@@ -3593,7 +3648,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="5">
         <v>45443</v>
       </c>
@@ -3604,7 +3659,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="5">
         <v>45446</v>
       </c>
@@ -3615,7 +3670,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="5">
         <v>45448</v>
       </c>
@@ -3626,7 +3681,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="5">
         <v>45449</v>
       </c>
@@ -3637,7 +3692,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="5">
         <v>45455</v>
       </c>
@@ -3648,7 +3703,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="5">
         <v>45463</v>
       </c>
@@ -3659,7 +3714,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="5">
         <v>45471</v>
       </c>
@@ -3670,7 +3725,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="5">
         <v>45474</v>
       </c>
@@ -3681,7 +3736,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="5">
         <v>45476</v>
       </c>
@@ -3692,7 +3747,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="5">
         <v>45481</v>
       </c>
@@ -3703,7 +3758,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="5">
         <v>45484</v>
       </c>
@@ -3714,7 +3769,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="5">
         <v>45491</v>
       </c>
@@ -3725,7 +3780,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="5">
         <v>45497</v>
       </c>
@@ -3736,7 +3791,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="5">
         <v>45503</v>
       </c>
@@ -3747,7 +3802,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="5">
         <v>45504</v>
       </c>
@@ -3758,7 +3813,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="5">
         <v>45505</v>
       </c>
@@ -3769,7 +3824,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="5">
         <v>45506</v>
       </c>
@@ -3780,7 +3835,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="5">
         <v>45509</v>
       </c>
@@ -3791,7 +3846,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="5">
         <v>45510</v>
       </c>
@@ -3802,7 +3857,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="5">
         <v>45517</v>
       </c>
@@ -3813,7 +3868,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="5">
         <v>45518</v>
       </c>
@@ -3824,7 +3879,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="5">
         <v>45519</v>
       </c>
@@ -3835,7 +3890,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="5">
         <v>45523</v>
       </c>
@@ -3846,7 +3901,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="5">
         <v>45525</v>
       </c>
@@ -3857,7 +3912,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="5">
         <v>45533</v>
       </c>
@@ -3868,7 +3923,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="5">
         <v>45538</v>
       </c>
@@ -3879,7 +3934,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="5">
         <v>45539</v>
       </c>
@@ -3890,7 +3945,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="5">
         <v>45540</v>
       </c>
@@ -3901,7 +3956,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="5">
         <v>45541</v>
       </c>
@@ -3912,7 +3967,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="5">
         <v>45544</v>
       </c>
@@ -3923,7 +3978,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="5">
         <v>45546</v>
       </c>
@@ -3934,7 +3989,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="5">
         <v>45547</v>
       </c>
@@ -3945,7 +4000,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="5">
         <v>45548</v>
       </c>
@@ -3956,7 +4011,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="5">
         <v>45554</v>
       </c>
@@ -3967,7 +4022,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="5">
         <v>45562</v>
       </c>
@@ -3978,7 +4033,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="5">
         <v>45566</v>
       </c>
@@ -3989,7 +4044,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="5">
         <v>45573</v>
       </c>
@@ -4000,7 +4055,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="5">
         <v>45574</v>
       </c>
@@ -4011,7 +4066,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="5">
         <v>45576</v>
       </c>
@@ -4022,7 +4077,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="5">
         <v>45579</v>
       </c>
@@ -4033,7 +4088,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="5">
         <v>45589</v>
       </c>
@@ -4044,7 +4099,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="5">
         <v>45590</v>
       </c>
@@ -4055,7 +4110,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="5">
         <v>45596</v>
       </c>
@@ -4066,7 +4121,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="5">
         <v>45601</v>
       </c>
@@ -4077,7 +4132,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="5">
         <v>45602</v>
       </c>
@@ -4088,7 +4143,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="5">
         <v>45603</v>
       </c>
@@ -4099,7 +4154,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="5">
         <v>45611</v>
       </c>
@@ -4110,7 +4165,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="5">
         <v>45615</v>
       </c>
@@ -4121,7 +4176,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="5">
         <v>45617</v>
       </c>
@@ -4132,7 +4187,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="5">
         <v>45622</v>
       </c>
@@ -4143,7 +4198,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="5">
         <v>45625</v>
       </c>
@@ -4154,7 +4209,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="5">
         <v>45630</v>
       </c>
@@ -4165,7 +4220,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="5">
         <v>45645</v>
       </c>
@@ -4176,7 +4231,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="5">
         <v>45646</v>
       </c>
@@ -4187,7 +4242,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="5">
         <v>45663</v>
       </c>
@@ -4198,7 +4253,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="5">
         <v>45664</v>
       </c>
@@ -4209,7 +4264,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="5">
         <v>45667</v>
       </c>
@@ -4220,7 +4275,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="5">
         <v>45670</v>
       </c>
@@ -4231,7 +4286,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="5">
         <v>45672</v>
       </c>
@@ -4242,7 +4297,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="5">
         <v>45674</v>
       </c>
@@ -4253,7 +4308,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="5">
         <v>45679</v>
       </c>
@@ -4264,7 +4319,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="5">
         <v>45684</v>
       </c>
@@ -4275,7 +4330,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="5">
         <v>45685</v>
       </c>
@@ -4286,7 +4341,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="5">
         <v>45688</v>
       </c>
@@ -4297,7 +4352,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="5">
         <v>45691</v>
       </c>
@@ -4308,7 +4363,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="5">
         <v>45692</v>
       </c>
@@ -4319,7 +4374,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="5">
         <v>45694</v>
       </c>
@@ -4330,7 +4385,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="40" customHeight="1">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -4341,7 +4396,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="40" customHeight="1">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -4352,7 +4407,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="40" customHeight="1">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -4363,7 +4418,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="40" customHeight="1">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -4374,7 +4429,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="40" customHeight="1">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -4385,7 +4440,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="40" customHeight="1">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -4396,7 +4451,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="40" customHeight="1">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -4407,7 +4462,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="40" customHeight="1">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -4418,7 +4473,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="40" customHeight="1">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -4429,7 +4484,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="40" customHeight="1">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -4440,7 +4495,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="40" customHeight="1">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -4451,7 +4506,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="40" customHeight="1">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -4462,7 +4517,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="40" customHeight="1">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -4473,7 +4528,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="40" customHeight="1">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -4484,7 +4539,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="40" customHeight="1">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -4495,7 +4550,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="40" customHeight="1">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -4506,7 +4561,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="40" customHeight="1">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -4517,7 +4572,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="40" customHeight="1">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -4528,7 +4583,7 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="40" customHeight="1">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -4539,7 +4594,7 @@
         <v>25.284763221329332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="40" customHeight="1">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -4550,7 +4605,7 @@
         <v>23.473978671945069</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="40" customHeight="1">
       <c r="A173" s="5">
         <v>45723</v>
       </c>
@@ -4561,7 +4616,7 @@
         <v>23.99037201716752</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="40" customHeight="1">
       <c r="A174" s="5">
         <v>45726</v>
       </c>
@@ -4572,7 +4627,7 @@
         <v>21.265742554012483</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="40" customHeight="1">
       <c r="A175" s="5">
         <v>45727</v>
       </c>
@@ -4583,7 +4638,7 @@
         <v>20.484331598856667</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="40" customHeight="1">
       <c r="A176" s="5">
         <v>45728</v>
       </c>
@@ -4594,7 +4649,7 @@
         <v>20.980677107752204</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="40" customHeight="1">
       <c r="A177" s="5">
         <v>45729</v>
       </c>
@@ -4605,7 +4660,7 @@
         <v>19.592795233061427</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="40" customHeight="1">
       <c r="A178" s="5">
         <v>45730</v>
       </c>
@@ -4616,7 +4671,7 @@
         <v>21.60763840911175</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="40" customHeight="1">
       <c r="A179" s="5">
         <v>45733</v>
       </c>
@@ -4627,7 +4682,7 @@
         <v>22.318756443012568</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="40" customHeight="1">
       <c r="A180" s="5">
         <v>45734</v>
       </c>
@@ -4638,7 +4693,7 @@
         <v>22.124915243940873</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="40" customHeight="1">
       <c r="A181" s="5">
         <v>45735</v>
       </c>
@@ -4649,7 +4704,7 @@
         <v>23.186421833852929</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="40" customHeight="1">
       <c r="A182" s="5">
         <v>45736</v>
       </c>
@@ -4660,7 +4715,7 @@
         <v>22.889283752002022</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="40" customHeight="1">
       <c r="A183" s="5">
         <v>45737</v>
       </c>
@@ -4671,7 +4726,7 @@
         <v>22.985513310648209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="40" customHeight="1">
       <c r="A184" s="5">
         <v>45740</v>
       </c>
@@ -4682,7 +4737,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="40" customHeight="1">
       <c r="A185" s="5">
         <v>45741</v>
       </c>
@@ -4693,7 +4748,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="40" customHeight="1">
       <c r="A186" s="5">
         <v>45742</v>
       </c>
@@ -4704,7 +4759,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="40" customHeight="1">
       <c r="A187" s="5">
         <v>45743</v>
       </c>
@@ -4715,7 +4770,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="40" customHeight="1">
       <c r="A188" s="5">
         <v>45744</v>
       </c>
@@ -4726,7 +4781,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="40" customHeight="1">
       <c r="A189" s="5">
         <v>45747</v>
       </c>
@@ -4737,7 +4792,7 @@
         <v>21.842291960211625</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="40" customHeight="1">
       <c r="A190" s="5">
         <v>45748</v>
       </c>
@@ -4748,7 +4803,7 @@
         <v>22.217477234020642</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="40" customHeight="1">
       <c r="A191" s="5">
         <v>45749</v>
       </c>
@@ -4759,7 +4814,7 @@
         <v>22.880531016766646</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="40" customHeight="1">
       <c r="A192" s="5">
         <v>45750</v>
       </c>
@@ -4770,7 +4825,7 @@
         <v>17.863776999885843</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="40" customHeight="1">
       <c r="A193" s="5">
         <v>45751</v>
       </c>
@@ -4781,1282 +4836,1312 @@
         <v>11.74406452790994</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-    </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-    </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-    </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-    </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-    </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="40" customHeight="1">
+      <c r="A194" s="5">
+        <v>45754</v>
+      </c>
+      <c r="B194" s="9">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="C194" s="9">
+        <v>11.49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="40" customHeight="1">
+      <c r="A195" s="5">
+        <v>45755</v>
+      </c>
+      <c r="B195" s="9">
+        <v>71.31</v>
+      </c>
+      <c r="C195" s="9">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="40" customHeight="1">
+      <c r="A196" s="5">
+        <v>45756</v>
+      </c>
+      <c r="B196" s="9">
+        <v>71.58</v>
+      </c>
+      <c r="C196" s="9">
+        <v>18.93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="40" customHeight="1">
+      <c r="A197" s="5">
+        <v>45757</v>
+      </c>
+      <c r="B197" s="9">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="C197" s="9">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="40" customHeight="1">
+      <c r="A198" s="5">
+        <v>45758</v>
+      </c>
+      <c r="B198" s="9">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C198" s="9">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="40" customHeight="1">
       <c r="A199" s="5"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="40" customHeight="1">
       <c r="A200" s="5"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="40" customHeight="1">
       <c r="A201" s="5"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="40" customHeight="1">
       <c r="A202" s="5"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="40" customHeight="1">
       <c r="A203" s="5"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="40" customHeight="1">
       <c r="A204" s="5"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="40" customHeight="1">
       <c r="A205" s="5"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="40" customHeight="1">
       <c r="A206" s="5"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="40" customHeight="1">
       <c r="A207" s="5"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="40" customHeight="1">
       <c r="A208" s="5"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="40" customHeight="1">
       <c r="A209" s="5"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="40" customHeight="1">
       <c r="A210" s="5"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="40" customHeight="1">
       <c r="A211" s="5"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="40" customHeight="1">
       <c r="A212" s="5"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="40" customHeight="1">
       <c r="A213" s="5"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="40" customHeight="1">
       <c r="A214" s="5"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="40" customHeight="1">
       <c r="A215" s="5"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="40" customHeight="1">
       <c r="A216" s="5"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="40" customHeight="1">
       <c r="A217" s="5"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="40" customHeight="1">
       <c r="A218" s="5"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="40" customHeight="1">
       <c r="A219" s="5"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="40" customHeight="1">
       <c r="A220" s="5"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="40" customHeight="1">
       <c r="A221" s="5"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="40" customHeight="1">
       <c r="A222" s="5"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="40" customHeight="1">
       <c r="A223" s="5"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="40" customHeight="1">
       <c r="A224" s="5"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="40" customHeight="1">
       <c r="A225" s="5"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="40" customHeight="1">
       <c r="A226" s="5"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="40" customHeight="1">
       <c r="A227" s="5"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="40" customHeight="1">
       <c r="A228" s="5"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="40" customHeight="1">
       <c r="A229" s="5"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="40" customHeight="1">
       <c r="A230" s="5"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
     </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="40" customHeight="1">
       <c r="A231" s="5"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
     </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="40" customHeight="1">
       <c r="A232" s="5"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
     </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="40" customHeight="1">
       <c r="A233" s="5"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
     </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="40" customHeight="1">
       <c r="A234" s="5"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
     </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="40" customHeight="1">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="40" customHeight="1">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="40" customHeight="1">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="40" customHeight="1">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="40" customHeight="1">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="40" customHeight="1">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="40" customHeight="1">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="40" customHeight="1">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="40" customHeight="1">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="40" customHeight="1">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="40" customHeight="1">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="40" customHeight="1">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="40" customHeight="1">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="40" customHeight="1">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="40" customHeight="1">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="40" customHeight="1">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="40" customHeight="1">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="40" customHeight="1">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="40" customHeight="1">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="40" customHeight="1">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="40" customHeight="1">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="40" customHeight="1">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="40" customHeight="1">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="40" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="40" customHeight="1">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="40" customHeight="1">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
     </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="40" customHeight="1">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="40" customHeight="1">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="40" customHeight="1">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="40" customHeight="1">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="40" customHeight="1">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="40" customHeight="1">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="40" customHeight="1">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="40" customHeight="1">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="40" customHeight="1">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="40" customHeight="1">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="40" customHeight="1">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="40" customHeight="1">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="40" customHeight="1">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="40" customHeight="1">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="40" customHeight="1">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="40" customHeight="1">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="40" customHeight="1">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="40" customHeight="1">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="40" customHeight="1">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="40" customHeight="1">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="40" customHeight="1">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="40" customHeight="1">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="40" customHeight="1">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="40" customHeight="1">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="40" customHeight="1">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="40" customHeight="1">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="40" customHeight="1">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="40" customHeight="1">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="40" customHeight="1">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="40" customHeight="1">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="40" customHeight="1">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="40" customHeight="1">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="40" customHeight="1">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="40" customHeight="1">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="40" customHeight="1">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="40" customHeight="1">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="40" customHeight="1">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="40" customHeight="1">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="40" customHeight="1">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="40" customHeight="1">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="40" customHeight="1">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="40" customHeight="1">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="40" customHeight="1">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="40" customHeight="1">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="40" customHeight="1">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="40" customHeight="1">
       <c r="A306" s="5"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="40" customHeight="1">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="40" customHeight="1">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="40" customHeight="1">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="40" customHeight="1">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="40" customHeight="1">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="40" customHeight="1">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="40" customHeight="1">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="40" customHeight="1">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="40" customHeight="1">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="40" customHeight="1">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="40" customHeight="1">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="40" customHeight="1">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="40" customHeight="1">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="40" customHeight="1">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="40" customHeight="1">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="40" customHeight="1">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="40" customHeight="1">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="40" customHeight="1">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="40" customHeight="1">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="40" customHeight="1">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="40" customHeight="1">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="40" customHeight="1">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="40" customHeight="1">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="40" customHeight="1">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="40" customHeight="1">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="40" customHeight="1">
       <c r="A332" s="5"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="40" customHeight="1">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="40" customHeight="1">
       <c r="A334" s="5"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="40" customHeight="1">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="40" customHeight="1">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="40" customHeight="1">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="40" customHeight="1">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="40" customHeight="1">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="40" customHeight="1">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="40" customHeight="1">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="40" customHeight="1">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="40" customHeight="1">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="40" customHeight="1">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="40" customHeight="1">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="40" customHeight="1">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="40" customHeight="1">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="40" customHeight="1">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="40" customHeight="1">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="40" customHeight="1">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="40" customHeight="1">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="40" customHeight="1">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="40" customHeight="1">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="40" customHeight="1">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="40" customHeight="1">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="40" customHeight="1">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="40" customHeight="1">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="40" customHeight="1">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="40" customHeight="1">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="40" customHeight="1">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="40" customHeight="1">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="40" customHeight="1">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="40" customHeight="1">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="40" customHeight="1">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="40" customHeight="1">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="40" customHeight="1">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="40" customHeight="1">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="40" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="40" customHeight="1">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="40" customHeight="1">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="40" customHeight="1">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="40" customHeight="1">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="40" customHeight="1">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="40" customHeight="1">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="40" customHeight="1">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="40" customHeight="1">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="40" customHeight="1">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="40" customHeight="1">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="40" customHeight="1">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="40" customHeight="1">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="40" customHeight="1">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="40" customHeight="1">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="40" customHeight="1">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="40" customHeight="1">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="40" customHeight="1">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="40" customHeight="1">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="40" customHeight="1">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="40" customHeight="1">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="40" customHeight="1">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="40" customHeight="1">
       <c r="A390" s="5"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="40" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="40" customHeight="1">
       <c r="A392" s="5"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="40" customHeight="1">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="40" customHeight="1">
       <c r="A394" s="5"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="40" customHeight="1">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="40" customHeight="1">
       <c r="A396" s="5"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="40" customHeight="1">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="40" customHeight="1">
       <c r="A398" s="5"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="40" customHeight="1">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="40" customHeight="1">
       <c r="A400" s="5"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="40" customHeight="1">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="40" customHeight="1">
       <c r="A402" s="5"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="40" customHeight="1">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="40" customHeight="1">
       <c r="A404" s="5"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="40" customHeight="1">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="40" customHeight="1">
       <c r="A406" s="5"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="40" customHeight="1">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="40" customHeight="1">
       <c r="A408" s="5"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="40" customHeight="1">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="40" customHeight="1">
       <c r="A410" s="5"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="40" customHeight="1">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="40" customHeight="1">
       <c r="A412" s="5"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="40" customHeight="1">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="40" customHeight="1">
       <c r="A414" s="5"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="40" customHeight="1">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="40" customHeight="1">
       <c r="A416" s="5"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="40" customHeight="1">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="40" customHeight="1">
       <c r="A418" s="5"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="40" customHeight="1">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="40" customHeight="1">
       <c r="A420" s="5"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="40" customHeight="1">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="40" customHeight="1">
       <c r="A422" s="5"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="40" customHeight="1">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="40" customHeight="1">
       <c r="A424" s="5"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="40" customHeight="1">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="40" customHeight="1">
       <c r="A426" s="5"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="40" customHeight="1">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="40" customHeight="1">
       <c r="A428" s="5"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="40" customHeight="1">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="40" customHeight="1">
       <c r="A430" s="5"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="40" customHeight="1">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="40" customHeight="1">
       <c r="A432" s="5"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="40" customHeight="1">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" ht="40" customHeight="1">
       <c r="A434" s="5"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" ht="40" customHeight="1">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="40" customHeight="1">
       <c r="A436" s="5"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="40" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="40" customHeight="1">
       <c r="A438" s="5"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="40" customHeight="1">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="40" customHeight="1">
       <c r="A440" s="5"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="40" customHeight="1">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="40" customHeight="1">
       <c r="A442" s="5"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="40" customHeight="1">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="40" customHeight="1">
       <c r="A444" s="5"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" ht="40" customHeight="1">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" ht="40" customHeight="1">
       <c r="A446" s="5"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" ht="40" customHeight="1">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="40" customHeight="1">
       <c r="A448" s="5"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
     </row>
-    <row r="449" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" ht="40" customHeight="1">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD034A9A-C861-644D-9815-90CAC5EE82D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA2CF3B-4138-5D49-8C52-67DF42127B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194:A198"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2184,7 +2184,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24">
+    <row r="153" spans="1:3" ht="23">
       <c r="A153" s="5">
         <v>45695</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24">
+    <row r="154" spans="1:3" ht="23">
       <c r="A154" s="5">
         <v>45698</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24">
+    <row r="155" spans="1:3" ht="23">
       <c r="A155" s="5">
         <v>45699</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24">
+    <row r="156" spans="1:3" ht="23">
       <c r="A156" s="5">
         <v>45700</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24">
+    <row r="157" spans="1:3" ht="23">
       <c r="A157" s="5">
         <v>45701</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24">
+    <row r="158" spans="1:3" ht="23">
       <c r="A158" s="5">
         <v>45702</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24">
+    <row r="159" spans="1:3" ht="23">
       <c r="A159" s="5">
         <v>45705</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24">
+    <row r="160" spans="1:3" ht="23">
       <c r="A160" s="5">
         <v>45706</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24">
+    <row r="161" spans="1:3" ht="23">
       <c r="A161" s="5">
         <v>45707</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24">
+    <row r="162" spans="1:3" ht="23">
       <c r="A162" s="5">
         <v>45708</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24">
+    <row r="163" spans="1:3" ht="23">
       <c r="A163" s="5">
         <v>45709</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24">
+    <row r="164" spans="1:3" ht="23">
       <c r="A164" s="5">
         <v>45712</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24">
+    <row r="165" spans="1:3" ht="23">
       <c r="A165" s="5">
         <v>45713</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24">
+    <row r="166" spans="1:3" ht="23">
       <c r="A166" s="5">
         <v>45714</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24">
+    <row r="167" spans="1:3" ht="23">
       <c r="A167" s="5">
         <v>45715</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24">
+    <row r="168" spans="1:3" ht="23">
       <c r="A168" s="5">
         <v>45716</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24">
+    <row r="169" spans="1:3" ht="23">
       <c r="A169" s="5">
         <v>45719</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24">
+    <row r="170" spans="1:3" ht="23">
       <c r="A170" s="5">
         <v>45720</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24">
+    <row r="171" spans="1:3" ht="23">
       <c r="A171" s="5">
         <v>45721</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24">
+    <row r="172" spans="1:3" ht="23">
       <c r="A172" s="5">
         <v>45722</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24">
+    <row r="173" spans="1:3" ht="23">
       <c r="A173" s="5">
         <v>45723</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24">
+    <row r="174" spans="1:3" ht="23">
       <c r="A174" s="5">
         <v>45726</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="24">
+    <row r="175" spans="1:3" ht="23">
       <c r="A175" s="5">
         <v>45727</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24">
+    <row r="176" spans="1:3" ht="23">
       <c r="A176" s="5">
         <v>45728</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="24">
+    <row r="177" spans="1:3" ht="23">
       <c r="A177" s="5">
         <v>45729</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24">
+    <row r="178" spans="1:3" ht="23">
       <c r="A178" s="5">
         <v>45730</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="24">
+    <row r="179" spans="1:3" ht="23">
       <c r="A179" s="5">
         <v>45733</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="24">
+    <row r="180" spans="1:3" ht="23">
       <c r="A180" s="5">
         <v>45734</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24">
+    <row r="181" spans="1:3" ht="23">
       <c r="A181" s="5">
         <v>45735</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="24">
+    <row r="182" spans="1:3" ht="23">
       <c r="A182" s="5">
         <v>45736</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="24">
+    <row r="183" spans="1:3" ht="23">
       <c r="A183" s="5">
         <v>45737</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="24">
+    <row r="184" spans="1:3" ht="23">
       <c r="A184" s="5">
         <v>45740</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="24">
+    <row r="185" spans="1:3" ht="23">
       <c r="A185" s="5">
         <v>45741</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24">
+    <row r="186" spans="1:3" ht="23">
       <c r="A186" s="5">
         <v>45742</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="24">
+    <row r="187" spans="1:3" ht="23">
       <c r="A187" s="5">
         <v>45743</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="24">
+    <row r="188" spans="1:3" ht="23">
       <c r="A188" s="5">
         <v>45744</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="24">
+    <row r="189" spans="1:3" ht="23">
       <c r="A189" s="5">
         <v>45747</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="24">
+    <row r="190" spans="1:3" ht="23">
       <c r="A190" s="5">
         <v>45748</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="24">
+    <row r="191" spans="1:3" ht="23">
       <c r="A191" s="5">
         <v>45749</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="24">
+    <row r="192" spans="1:3" ht="23">
       <c r="A192" s="5">
         <v>45750</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="24">
+    <row r="193" spans="1:3" ht="23">
       <c r="A193" s="5">
         <v>45751</v>
       </c>
@@ -2640,10 +2640,10 @@
         <v>45754</v>
       </c>
       <c r="B194" s="7">
-        <v>712950</v>
+        <v>712949.67851524043</v>
       </c>
       <c r="C194" s="8">
-        <v>28.14</v>
+        <v>26.07</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="23">
@@ -2651,10 +2651,10 @@
         <v>45755</v>
       </c>
       <c r="B195" s="7">
-        <v>713112</v>
+        <v>713111.77204320615</v>
       </c>
       <c r="C195" s="8">
-        <v>31.43</v>
+        <v>27.91</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="23">
@@ -2662,10 +2662,10 @@
         <v>45756</v>
       </c>
       <c r="B196" s="7">
-        <v>715839</v>
+        <v>715839.00384440366</v>
       </c>
       <c r="C196" s="8">
-        <v>25.19</v>
+        <v>23.83</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="23">
@@ -2673,10 +2673,10 @@
         <v>45757</v>
       </c>
       <c r="B197" s="7">
-        <v>717061</v>
+        <v>717061.07950534357</v>
       </c>
       <c r="C197" s="8">
-        <v>29.87</v>
+        <v>27.57</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="23">
@@ -2684,10 +2684,54 @@
         <v>45758</v>
       </c>
       <c r="B198" s="7">
-        <v>715958</v>
+        <v>715957.98006496474</v>
       </c>
       <c r="C198" s="8">
-        <v>28.89</v>
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="23">
+      <c r="A199" s="5">
+        <v>45761</v>
+      </c>
+      <c r="B199" s="7">
+        <v>713668.54111218103</v>
+      </c>
+      <c r="C199" s="8">
+        <v>29.86</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="23">
+      <c r="A200" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B200" s="7">
+        <v>712813.65566683072</v>
+      </c>
+      <c r="C200" s="8">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="23">
+      <c r="A201" s="5">
+        <v>45763</v>
+      </c>
+      <c r="B201" s="7">
+        <v>714542.90245376411</v>
+      </c>
+      <c r="C201" s="8">
+        <v>31.91</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="23">
+      <c r="A202" s="5">
+        <v>45764</v>
+      </c>
+      <c r="B202" s="7">
+        <v>713778.67203379713</v>
+      </c>
+      <c r="C202" s="8">
+        <v>26.73</v>
       </c>
     </row>
   </sheetData>
@@ -2700,8 +2744,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C199" sqref="C199"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4892,24 +4936,48 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="40" customHeight="1">
-      <c r="A199" s="5"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
+      <c r="A199" s="5">
+        <v>45761</v>
+      </c>
+      <c r="B199" s="9">
+        <v>71.366854111218103</v>
+      </c>
+      <c r="C199" s="9">
+        <v>18.010923759318938</v>
+      </c>
     </row>
     <row r="200" spans="1:3" ht="40" customHeight="1">
-      <c r="A200" s="5"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
+      <c r="A200" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B200" s="9">
+        <v>71.281365566683078</v>
+      </c>
+      <c r="C200" s="9">
+        <v>17.780911697289426</v>
+      </c>
     </row>
     <row r="201" spans="1:3" ht="40" customHeight="1">
-      <c r="A201" s="5"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
+      <c r="A201" s="5">
+        <v>45763</v>
+      </c>
+      <c r="B201" s="9">
+        <v>71.454290245376413</v>
+      </c>
+      <c r="C201" s="9">
+        <v>15.498345671476349</v>
+      </c>
     </row>
     <row r="202" spans="1:3" ht="40" customHeight="1">
-      <c r="A202" s="5"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
+      <c r="A202" s="5">
+        <v>45764</v>
+      </c>
+      <c r="B202" s="9">
+        <v>71.377867203379708</v>
+      </c>
+      <c r="C202" s="9">
+        <v>15.630191054798287</v>
+      </c>
     </row>
     <row r="203" spans="1:3" ht="40" customHeight="1">
       <c r="A203" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA2CF3B-4138-5D49-8C52-67DF42127B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25853E22-4491-7B40-A976-CBE61692D918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -495,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E192" sqref="E192"/>
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2734,6 +2734,50 @@
         <v>26.73</v>
       </c>
     </row>
+    <row r="203" spans="1:3" ht="23">
+      <c r="A203" s="5">
+        <v>45769</v>
+      </c>
+      <c r="B203" s="7">
+        <v>713412.46065695025</v>
+      </c>
+      <c r="C203" s="8">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="23">
+      <c r="A204" s="5">
+        <v>45770</v>
+      </c>
+      <c r="B204" s="7">
+        <v>713071.31825294951</v>
+      </c>
+      <c r="C204" s="8">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="23">
+      <c r="A205" s="5">
+        <v>45771</v>
+      </c>
+      <c r="B205" s="7">
+        <v>712833.60762242193</v>
+      </c>
+      <c r="C205" s="8">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="23">
+      <c r="A206" s="5">
+        <v>45772</v>
+      </c>
+      <c r="B206" s="7">
+        <v>707907.14431871939</v>
+      </c>
+      <c r="C206" s="8">
+        <v>23.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2744,8 +2788,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4980,24 +5024,48 @@
       </c>
     </row>
     <row r="203" spans="1:3" ht="40" customHeight="1">
-      <c r="A203" s="5"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
+      <c r="A203" s="5">
+        <v>45769</v>
+      </c>
+      <c r="B203" s="9">
+        <v>71.341246065695032</v>
+      </c>
+      <c r="C203" s="9">
+        <v>15.667829258018443</v>
+      </c>
     </row>
     <row r="204" spans="1:3" ht="40" customHeight="1">
-      <c r="A204" s="5"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
+      <c r="A204" s="5">
+        <v>45770</v>
+      </c>
+      <c r="B204" s="9">
+        <v>71.30713182529496</v>
+      </c>
+      <c r="C204" s="9">
+        <v>17.291529372479239</v>
+      </c>
     </row>
     <row r="205" spans="1:3" ht="40" customHeight="1">
-      <c r="A205" s="5"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
+      <c r="A205" s="5">
+        <v>45771</v>
+      </c>
+      <c r="B205" s="9">
+        <v>71.283360762242197</v>
+      </c>
+      <c r="C205" s="9">
+        <v>19.298377627116025</v>
+      </c>
     </row>
     <row r="206" spans="1:3" ht="40" customHeight="1">
-      <c r="A206" s="5"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
+      <c r="A206" s="5">
+        <v>45772</v>
+      </c>
+      <c r="B206" s="9">
+        <v>70.790714431871933</v>
+      </c>
+      <c r="C206" s="9">
+        <v>19.994520027988962</v>
+      </c>
     </row>
     <row r="207" spans="1:3" ht="40" customHeight="1">
       <c r="A207" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25853E22-4491-7B40-A976-CBE61692D918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964EF00-31FF-BC48-BC9D-86F3C9347848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9964EF00-31FF-BC48-BC9D-86F3C9347848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC5E3B-197D-D049-BC4D-463156F1544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -495,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2778,6 +2778,50 @@
         <v>23.5</v>
       </c>
     </row>
+    <row r="207" spans="1:3" ht="23">
+      <c r="A207" s="5">
+        <v>45775</v>
+      </c>
+      <c r="B207" s="7">
+        <v>705653.46511954488</v>
+      </c>
+      <c r="C207" s="8">
+        <v>23.68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="23">
+      <c r="A208" s="5">
+        <v>45776</v>
+      </c>
+      <c r="B208" s="7">
+        <v>705717.87180695485</v>
+      </c>
+      <c r="C208" s="8">
+        <v>23.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="23">
+      <c r="A209" s="5">
+        <v>45777</v>
+      </c>
+      <c r="B209" s="7">
+        <v>711636.55589072884</v>
+      </c>
+      <c r="C209" s="8">
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="23">
+      <c r="A210" s="5">
+        <v>45779</v>
+      </c>
+      <c r="B210" s="7">
+        <v>712007.17140103306</v>
+      </c>
+      <c r="C210" s="8">
+        <v>22.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2787,9 +2831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -5068,24 +5112,48 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="40" customHeight="1">
-      <c r="A207" s="5"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
+      <c r="A207" s="5">
+        <v>45775</v>
+      </c>
+      <c r="B207" s="9">
+        <v>70.565346511954488</v>
+      </c>
+      <c r="C207" s="9">
+        <v>20.053064084062015</v>
+      </c>
     </row>
     <row r="208" spans="1:3" ht="40" customHeight="1">
-      <c r="A208" s="5"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
+      <c r="A208" s="5">
+        <v>45776</v>
+      </c>
+      <c r="B208" s="9">
+        <v>70.571787180695495</v>
+      </c>
+      <c r="C208" s="9">
+        <v>20.605291226534135</v>
+      </c>
     </row>
     <row r="209" spans="1:3" ht="40" customHeight="1">
-      <c r="A209" s="5"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
+      <c r="A209" s="5">
+        <v>45777</v>
+      </c>
+      <c r="B209" s="9">
+        <v>71.163655589072889</v>
+      </c>
+      <c r="C209" s="9">
+        <v>20.663478905816177</v>
+      </c>
     </row>
     <row r="210" spans="1:3" ht="40" customHeight="1">
-      <c r="A210" s="5"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
+      <c r="A210" s="5">
+        <v>45779</v>
+      </c>
+      <c r="B210" s="9">
+        <v>71.200717140103308</v>
+      </c>
+      <c r="C210" s="9">
+        <v>22.823619556327209</v>
+      </c>
     </row>
     <row r="211" spans="1:3" ht="40" customHeight="1">
       <c r="A211" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC5E3B-197D-D049-BC4D-463156F1544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA03DCD-B33D-7A4B-B7A5-3286DA7F6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -495,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B220" sqref="B220"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2822,6 +2822,271 @@
         <v>22.48</v>
       </c>
     </row>
+    <row r="211" spans="1:3" ht="23">
+      <c r="A211" s="5">
+        <v>45782</v>
+      </c>
+      <c r="B211" s="7">
+        <v>706339.12528145418</v>
+      </c>
+      <c r="C211" s="8">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="23">
+      <c r="A212" s="5">
+        <v>45783</v>
+      </c>
+      <c r="B212" s="7">
+        <v>708293.63665814267</v>
+      </c>
+      <c r="C212" s="8">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="23">
+      <c r="A213" s="5">
+        <v>45784</v>
+      </c>
+      <c r="B213" s="7">
+        <v>704498.09811239038</v>
+      </c>
+      <c r="C213" s="8">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="23">
+      <c r="A214" s="5">
+        <v>45785</v>
+      </c>
+      <c r="B214" s="7">
+        <v>702673.47616061708</v>
+      </c>
+      <c r="C214" s="8">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="23">
+      <c r="A215" s="5">
+        <v>45786</v>
+      </c>
+      <c r="B215" s="7">
+        <v>695876.64146564202</v>
+      </c>
+      <c r="C215" s="8">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="23">
+      <c r="A216" s="5"/>
+      <c r="B216" s="7"/>
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="1:3" ht="23">
+      <c r="A217" s="5"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="1:3" ht="23">
+      <c r="A218" s="5"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="1:3" ht="23">
+      <c r="A219" s="5"/>
+      <c r="B219" s="7"/>
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="1:3" ht="23">
+      <c r="A220" s="5"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="1:3" ht="23">
+      <c r="A221" s="5"/>
+      <c r="B221" s="7"/>
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="1:3" ht="23">
+      <c r="A222" s="5"/>
+      <c r="B222" s="7"/>
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:3" ht="23">
+      <c r="A223" s="5"/>
+      <c r="B223" s="7"/>
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="1:3" ht="23">
+      <c r="A224" s="5"/>
+      <c r="B224" s="7"/>
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="1:3" ht="23">
+      <c r="A225" s="5"/>
+      <c r="B225" s="7"/>
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="1:3" ht="23">
+      <c r="A226" s="5"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="1:3" ht="23">
+      <c r="A227" s="5"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="1:3" ht="23">
+      <c r="A228" s="5"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="1:3" ht="23">
+      <c r="A229" s="5"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="1:3" ht="23">
+      <c r="A230" s="5"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:3" ht="23">
+      <c r="A231" s="5"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="1:3" ht="23">
+      <c r="A232" s="5"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" spans="1:3" ht="23">
+      <c r="A233" s="5"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="1:3" ht="23">
+      <c r="A234" s="5"/>
+      <c r="B234" s="7"/>
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="1:3" ht="23">
+      <c r="A235" s="5"/>
+      <c r="B235" s="7"/>
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="1:3" ht="23">
+      <c r="A236" s="5"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="1:3" ht="23">
+      <c r="A237" s="5"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="1:3" ht="23">
+      <c r="A238" s="5"/>
+      <c r="B238" s="7"/>
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" spans="1:3" ht="23">
+      <c r="A239" s="5"/>
+      <c r="B239" s="7"/>
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="1:3" ht="23">
+      <c r="A240" s="5"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="1:3" ht="23">
+      <c r="A241" s="5"/>
+      <c r="B241" s="7"/>
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="1:3" ht="23">
+      <c r="A242" s="5"/>
+      <c r="B242" s="7"/>
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="1:3" ht="23">
+      <c r="A243" s="5"/>
+      <c r="B243" s="7"/>
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="1:3" ht="23">
+      <c r="A244" s="5"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="1:3" ht="23">
+      <c r="A245" s="5"/>
+      <c r="B245" s="7"/>
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="1:3" ht="23">
+      <c r="A246" s="5"/>
+      <c r="B246" s="7"/>
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="1:3" ht="23">
+      <c r="A247" s="5"/>
+      <c r="B247" s="7"/>
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="1:3" ht="23">
+      <c r="A248" s="5"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="1:3" ht="23">
+      <c r="A249" s="5"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="1:3" ht="23">
+      <c r="A250" s="5"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="1:3" ht="23">
+      <c r="A251" s="5"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="1:3" ht="23">
+      <c r="A252" s="5"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="1:3" ht="23">
+      <c r="A253" s="5"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="1:3" ht="23">
+      <c r="A254" s="5"/>
+      <c r="B254" s="7"/>
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="1:3" ht="23">
+      <c r="A255" s="5"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="1:3" ht="23">
+      <c r="A256" s="5"/>
+      <c r="B256" s="7"/>
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" spans="1:3" ht="23">
+      <c r="A257" s="5"/>
+      <c r="B257" s="7"/>
+      <c r="C257" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2832,8 +3097,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B213" sqref="B213"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -5156,29 +5421,59 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="40" customHeight="1">
-      <c r="A211" s="5"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
+      <c r="A211" s="5">
+        <v>45782</v>
+      </c>
+      <c r="B211" s="9">
+        <v>70.633912528145416</v>
+      </c>
+      <c r="C211" s="9">
+        <v>22.169003067598293</v>
+      </c>
     </row>
     <row r="212" spans="1:3" ht="40" customHeight="1">
-      <c r="A212" s="5"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
+      <c r="A212" s="5">
+        <v>45783</v>
+      </c>
+      <c r="B212" s="9">
+        <v>70.82936366581427</v>
+      </c>
+      <c r="C212" s="9">
+        <v>21.354659111686829</v>
+      </c>
     </row>
     <row r="213" spans="1:3" ht="40" customHeight="1">
-      <c r="A213" s="5"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
+      <c r="A213" s="5">
+        <v>45784</v>
+      </c>
+      <c r="B213" s="9">
+        <v>70.449809811239035</v>
+      </c>
+      <c r="C213" s="9">
+        <v>21.820178340343087</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="40" customHeight="1">
-      <c r="A214" s="5"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
+      <c r="A214" s="5">
+        <v>45785</v>
+      </c>
+      <c r="B214" s="9">
+        <v>70.267347616061699</v>
+      </c>
+      <c r="C214" s="9">
+        <v>22.393549116817407</v>
+      </c>
     </row>
     <row r="215" spans="1:3" ht="40" customHeight="1">
-      <c r="A215" s="5"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
+      <c r="A215" s="5">
+        <v>45786</v>
+      </c>
+      <c r="B215" s="9">
+        <v>69.587664146564194</v>
+      </c>
+      <c r="C215" s="9">
+        <v>22.279137663192934</v>
+      </c>
     </row>
     <row r="216" spans="1:3" ht="40" customHeight="1">
       <c r="A216" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA03DCD-B33D-7A4B-B7A5-3286DA7F6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DD6D19-95D3-524B-812E-2B7B243C4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -498,8 +498,8 @@
   <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2878,29 +2878,59 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="23">
-      <c r="A216" s="5"/>
-      <c r="B216" s="7"/>
-      <c r="C216" s="8"/>
+      <c r="A216" s="5">
+        <v>45789</v>
+      </c>
+      <c r="B216" s="7">
+        <v>704499.99258068635</v>
+      </c>
+      <c r="C216" s="8">
+        <v>18.57</v>
+      </c>
     </row>
     <row r="217" spans="1:3" ht="23">
-      <c r="A217" s="5"/>
-      <c r="B217" s="7"/>
-      <c r="C217" s="8"/>
+      <c r="A217" s="5">
+        <v>45790</v>
+      </c>
+      <c r="B217" s="7">
+        <v>709210.32442928734</v>
+      </c>
+      <c r="C217" s="8">
+        <v>18.440000000000001</v>
+      </c>
     </row>
     <row r="218" spans="1:3" ht="23">
-      <c r="A218" s="5"/>
-      <c r="B218" s="7"/>
-      <c r="C218" s="8"/>
+      <c r="A218" s="5">
+        <v>45791</v>
+      </c>
+      <c r="B218" s="7">
+        <v>712582.31969222159</v>
+      </c>
+      <c r="C218" s="8">
+        <v>18.78</v>
+      </c>
     </row>
     <row r="219" spans="1:3" ht="23">
-      <c r="A219" s="5"/>
-      <c r="B219" s="7"/>
-      <c r="C219" s="8"/>
+      <c r="A219" s="5">
+        <v>45792</v>
+      </c>
+      <c r="B219" s="7">
+        <v>706924.15228975273</v>
+      </c>
+      <c r="C219" s="8">
+        <v>18.23</v>
+      </c>
     </row>
     <row r="220" spans="1:3" ht="23">
-      <c r="A220" s="5"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="8"/>
+      <c r="A220" s="5">
+        <v>45793</v>
+      </c>
+      <c r="B220" s="7">
+        <v>710965.39837083139</v>
+      </c>
+      <c r="C220" s="8">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="221" spans="1:3" ht="23">
       <c r="A221" s="5"/>
@@ -3097,8 +3127,8 @@
   <dimension ref="A1:D449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -5476,29 +5506,59 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="40" customHeight="1">
-      <c r="A216" s="5"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
+      <c r="A216" s="5">
+        <v>45789</v>
+      </c>
+      <c r="B216" s="9">
+        <v>70.44999925806863</v>
+      </c>
+      <c r="C216" s="9">
+        <v>25.519480068658879</v>
+      </c>
     </row>
     <row r="217" spans="1:3" ht="40" customHeight="1">
-      <c r="A217" s="5"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
+      <c r="A217" s="5">
+        <v>45790</v>
+      </c>
+      <c r="B217" s="9">
+        <v>70.921032442928734</v>
+      </c>
+      <c r="C217" s="9">
+        <v>26.190709064034923</v>
+      </c>
     </row>
     <row r="218" spans="1:3" ht="40" customHeight="1">
-      <c r="A218" s="5"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
+      <c r="A218" s="5">
+        <v>45791</v>
+      </c>
+      <c r="B218" s="9">
+        <v>71.258231969222166</v>
+      </c>
+      <c r="C218" s="9">
+        <v>26.258431067808324</v>
+      </c>
     </row>
     <row r="219" spans="1:3" ht="40" customHeight="1">
-      <c r="A219" s="5"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
+      <c r="A219" s="5">
+        <v>45792</v>
+      </c>
+      <c r="B219" s="9">
+        <v>70.692415228975264</v>
+      </c>
+      <c r="C219" s="9">
+        <v>26.676444216862848</v>
+      </c>
     </row>
     <row r="220" spans="1:3" ht="40" customHeight="1">
-      <c r="A220" s="5"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
+      <c r="A220" s="5">
+        <v>45793</v>
+      </c>
+      <c r="B220" s="9">
+        <v>71.096539837083142</v>
+      </c>
+      <c r="C220" s="9">
+        <v>27.386009490594859</v>
+      </c>
     </row>
     <row r="221" spans="1:3" ht="40" customHeight="1">
       <c r="A221" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DD6D19-95D3-524B-812E-2B7B243C4FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2759C-F117-9641-9F54-D19213A7D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="17840" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -497,9 +497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D225" sqref="D225"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2933,29 +2933,59 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="23">
-      <c r="A221" s="5"/>
-      <c r="B221" s="7"/>
-      <c r="C221" s="8"/>
+      <c r="A221" s="5">
+        <v>45796</v>
+      </c>
+      <c r="B221" s="7">
+        <v>712192.74657673726</v>
+      </c>
+      <c r="C221" s="8">
+        <v>19.649999999999999</v>
+      </c>
     </row>
     <row r="222" spans="1:3" ht="23">
-      <c r="A222" s="5"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="8"/>
+      <c r="A222" s="5">
+        <v>45797</v>
+      </c>
+      <c r="B222" s="7">
+        <v>706297.88069845631</v>
+      </c>
+      <c r="C222" s="8">
+        <v>19.5</v>
+      </c>
     </row>
     <row r="223" spans="1:3" ht="23">
-      <c r="A223" s="5"/>
-      <c r="B223" s="7"/>
-      <c r="C223" s="8"/>
+      <c r="A223" s="5">
+        <v>45798</v>
+      </c>
+      <c r="B223" s="7">
+        <v>720911.17292803281</v>
+      </c>
+      <c r="C223" s="8">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="224" spans="1:3" ht="23">
-      <c r="A224" s="5"/>
-      <c r="B224" s="7"/>
-      <c r="C224" s="8"/>
+      <c r="A224" s="5">
+        <v>45799</v>
+      </c>
+      <c r="B224" s="7">
+        <v>717332.13882935501</v>
+      </c>
+      <c r="C224" s="8">
+        <v>21.24</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="23">
-      <c r="A225" s="5"/>
-      <c r="B225" s="7"/>
-      <c r="C225" s="8"/>
+      <c r="A225" s="5">
+        <v>45800</v>
+      </c>
+      <c r="B225" s="7">
+        <v>722361.68111230794</v>
+      </c>
+      <c r="C225" s="8">
+        <v>22.28</v>
+      </c>
     </row>
     <row r="226" spans="1:3" ht="23">
       <c r="A226" s="5"/>
@@ -3126,9 +3156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E218" sqref="E218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -5561,34 +5591,70 @@
       </c>
     </row>
     <row r="221" spans="1:3" ht="40" customHeight="1">
-      <c r="A221" s="5"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
+      <c r="A221" s="5">
+        <v>45793</v>
+      </c>
+      <c r="B221" s="9">
+        <v>71.096539837083142</v>
+      </c>
+      <c r="C221" s="9">
+        <v>27.386009490594859</v>
+      </c>
     </row>
     <row r="222" spans="1:3" ht="40" customHeight="1">
-      <c r="A222" s="5"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
+      <c r="A222" s="5">
+        <v>45796</v>
+      </c>
+      <c r="B222" s="9">
+        <v>71.219274657673722</v>
+      </c>
+      <c r="C222" s="9">
+        <v>27.503085938154136</v>
+      </c>
     </row>
     <row r="223" spans="1:3" ht="40" customHeight="1">
-      <c r="A223" s="5"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
+      <c r="A223" s="5">
+        <v>45797</v>
+      </c>
+      <c r="B223" s="9">
+        <v>70.629788069845631</v>
+      </c>
+      <c r="C223" s="9">
+        <v>27.122085246991258</v>
+      </c>
     </row>
     <row r="224" spans="1:3" ht="40" customHeight="1">
-      <c r="A224" s="5"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
+      <c r="A224" s="5">
+        <v>45798</v>
+      </c>
+      <c r="B224" s="9">
+        <v>72.09111729280329</v>
+      </c>
+      <c r="C224" s="9">
+        <v>25.4555210002809</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="40" customHeight="1">
-      <c r="A225" s="5"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
+      <c r="A225" s="5">
+        <v>45799</v>
+      </c>
+      <c r="B225" s="9">
+        <v>71.733213882935502</v>
+      </c>
+      <c r="C225" s="9">
+        <v>25.378716080990703</v>
+      </c>
     </row>
     <row r="226" spans="1:3" ht="40" customHeight="1">
-      <c r="A226" s="5"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
+      <c r="A226" s="5">
+        <v>45800</v>
+      </c>
+      <c r="B226" s="9">
+        <v>72.236168111230796</v>
+      </c>
+      <c r="C226" s="9">
+        <v>24.697698350977436</v>
+      </c>
     </row>
     <row r="227" spans="1:3" ht="40" customHeight="1">
       <c r="A227" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calogeroferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A2759C-F117-9641-9F54-D19213A7D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D646241-1C69-964B-A8E0-5E2A2EA9589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="22120" windowHeight="21900" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -132,12 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -163,7 +160,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:C257"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -507,2645 +504,2643 @@
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="40" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" ht="40" customHeight="1">
+      <c r="A2" s="4">
         <v>45138</v>
       </c>
-      <c r="B2" s="6">
-        <v>-141</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5">
+        <v>-1.4100000000000001E-2</v>
+      </c>
+      <c r="C2" s="5">
         <v>14.45</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
-      <c r="A3" s="5">
+    </row>
+    <row r="3" spans="1:3" ht="40" customHeight="1">
+      <c r="A3" s="4">
         <v>45140</v>
       </c>
-      <c r="B3" s="6">
-        <v>5284</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="5">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="C3" s="5">
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:3" ht="40" customHeight="1">
+      <c r="A4" s="4">
         <v>45146</v>
       </c>
-      <c r="B4" s="6">
-        <v>9585</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="5">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="C4" s="5">
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
-      <c r="A5" s="5">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
+      <c r="A5" s="4">
         <v>45154</v>
       </c>
-      <c r="B5" s="6">
-        <v>8579</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="5">
+        <v>0.8579</v>
+      </c>
+      <c r="C5" s="5">
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:3" ht="40" customHeight="1">
+      <c r="A6" s="4">
         <v>45162</v>
       </c>
-      <c r="B6" s="6">
-        <v>7789</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="5">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="C6" s="5">
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3" ht="40" customHeight="1">
+      <c r="A7" s="4">
         <v>45166</v>
       </c>
-      <c r="B7" s="6">
-        <v>5789</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="5">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="C7" s="5">
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3" ht="40" customHeight="1">
+      <c r="A8" s="4">
         <v>45167</v>
       </c>
-      <c r="B8" s="6">
-        <v>12765</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="5">
+        <v>1.2765</v>
+      </c>
+      <c r="C8" s="5">
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
+      <c r="A9" s="4">
         <v>45168</v>
       </c>
-      <c r="B9" s="6">
-        <v>21613</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="5">
+        <v>2.1613000000000002</v>
+      </c>
+      <c r="C9" s="5">
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3" ht="40" customHeight="1">
+      <c r="A10" s="4">
         <v>45176</v>
       </c>
-      <c r="B10" s="6">
-        <v>15663</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="5">
+        <v>1.5663</v>
+      </c>
+      <c r="C10" s="5">
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
+      <c r="A11" s="4">
         <v>45183</v>
       </c>
-      <c r="B11" s="6">
-        <v>-8269</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="5">
+        <v>-0.82690000000000008</v>
+      </c>
+      <c r="C11" s="5">
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" ht="40" customHeight="1">
+      <c r="A12" s="4">
         <v>45184</v>
       </c>
-      <c r="B12" s="6">
-        <v>-863</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="5">
+        <v>-8.6300000000000002E-2</v>
+      </c>
+      <c r="C12" s="5">
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
-      <c r="A13" s="5">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
+      <c r="A13" s="4">
         <v>45188</v>
       </c>
-      <c r="B13" s="6">
-        <v>6240</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="5">
+        <v>0.624</v>
+      </c>
+      <c r="C13" s="5">
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:3" ht="40" customHeight="1">
+      <c r="A14" s="4">
         <v>45190</v>
       </c>
-      <c r="B14" s="6">
-        <v>11106</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="5">
+        <v>1.1106</v>
+      </c>
+      <c r="C14" s="5">
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
+      <c r="A15" s="4">
         <v>45191</v>
       </c>
-      <c r="B15" s="6">
-        <v>9996</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="5">
+        <v>0.99959999999999993</v>
+      </c>
+      <c r="C15" s="5">
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:3" ht="40" customHeight="1">
+      <c r="A16" s="4">
         <v>45195</v>
       </c>
-      <c r="B16" s="6">
-        <v>12878</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="5">
+        <v>1.2878000000000001</v>
+      </c>
+      <c r="C16" s="5">
         <v>17.93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>45196</v>
       </c>
-      <c r="B17" s="6">
-        <v>23519</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="5">
+        <v>2.3519000000000001</v>
+      </c>
+      <c r="C17" s="5">
         <v>19.03</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="40" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>45197</v>
       </c>
-      <c r="B18" s="6">
-        <v>27643</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="5">
+        <v>2.7643</v>
+      </c>
+      <c r="C18" s="5">
         <v>17.43</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="40" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>45201</v>
       </c>
-      <c r="B19" s="6">
-        <v>20782</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="5">
+        <v>2.0781999999999998</v>
+      </c>
+      <c r="C19" s="5">
         <v>17.73</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="40" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>45202</v>
       </c>
-      <c r="B20" s="6">
-        <v>26024</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="5">
+        <v>2.6023999999999998</v>
+      </c>
+      <c r="C20" s="5">
         <v>19.23</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="40" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>45205</v>
       </c>
-      <c r="B21" s="6">
-        <v>22046</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="5">
+        <v>2.2046000000000001</v>
+      </c>
+      <c r="C21" s="5">
         <v>17.78</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="40" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>45209</v>
       </c>
-      <c r="B22" s="6">
-        <v>24811</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="5">
+        <v>2.4811000000000001</v>
+      </c>
+      <c r="C22" s="5">
         <v>16.88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="40" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>45212</v>
       </c>
-      <c r="B23" s="6">
-        <v>25087</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B23" s="5">
+        <v>2.5087000000000002</v>
+      </c>
+      <c r="C23" s="5">
         <v>18.43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>45216</v>
       </c>
-      <c r="B24" s="6">
-        <v>21105</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="B24" s="5">
+        <v>2.1105</v>
+      </c>
+      <c r="C24" s="5">
         <v>17.829999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" customHeight="1">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>45217</v>
       </c>
-      <c r="B25" s="6">
-        <v>26808</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="B25" s="5">
+        <v>2.6807999999999996</v>
+      </c>
+      <c r="C25" s="5">
         <v>19.329999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="40" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>45219</v>
       </c>
-      <c r="B26" s="6">
-        <v>33914</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="B26" s="5">
+        <v>3.3914</v>
+      </c>
+      <c r="C26" s="5">
         <v>20.88</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="40" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>45225</v>
       </c>
-      <c r="B27" s="6">
-        <v>42294</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B27" s="5">
+        <v>4.2294</v>
+      </c>
+      <c r="C27" s="5">
         <v>20.66</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>45231</v>
       </c>
-      <c r="B28" s="6">
-        <v>33578</v>
-      </c>
-      <c r="C28" s="6">
+      <c r="B28" s="5">
+        <v>3.3577999999999997</v>
+      </c>
+      <c r="C28" s="5">
         <v>17.93</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>45232</v>
       </c>
-      <c r="B29" s="6">
-        <v>35786</v>
-      </c>
-      <c r="C29" s="6">
+      <c r="B29" s="5">
+        <v>3.5785999999999998</v>
+      </c>
+      <c r="C29" s="5">
         <v>17.03</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>45233</v>
       </c>
-      <c r="B30" s="6">
-        <v>44682</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="5">
+        <v>4.4681999999999995</v>
+      </c>
+      <c r="C30" s="5">
         <v>16.079999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>45237</v>
       </c>
-      <c r="B31" s="6">
-        <v>39834</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="5">
+        <v>3.9834000000000001</v>
+      </c>
+      <c r="C31" s="5">
         <v>15.63</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>45243</v>
       </c>
-      <c r="B32" s="6">
-        <v>35868</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="5">
+        <v>3.5867999999999998</v>
+      </c>
+      <c r="C32" s="5">
         <v>15.88</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="40" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>45244</v>
       </c>
-      <c r="B33" s="6">
-        <v>51916</v>
-      </c>
-      <c r="C33" s="6">
+      <c r="B33" s="5">
+        <v>5.1915999999999993</v>
+      </c>
+      <c r="C33" s="5">
         <v>15.55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="40" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>45246</v>
       </c>
-      <c r="B34" s="6">
-        <v>52755</v>
-      </c>
-      <c r="C34" s="6">
+      <c r="B34" s="5">
+        <v>5.2755000000000001</v>
+      </c>
+      <c r="C34" s="5">
         <v>15.33</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="40" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>45252</v>
       </c>
-      <c r="B35" s="6">
-        <v>50745</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="5">
+        <v>5.0744999999999996</v>
+      </c>
+      <c r="C35" s="5">
         <v>14.43</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="40" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>45260</v>
       </c>
-      <c r="B36" s="6">
-        <v>45155</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="5">
+        <v>4.5155000000000003</v>
+      </c>
+      <c r="C36" s="5">
         <v>14.03</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="40" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>45271</v>
       </c>
-      <c r="B37" s="6">
-        <v>42108</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="5">
+        <v>4.2107999999999999</v>
+      </c>
+      <c r="C37" s="5">
         <v>13.04</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="40" customHeight="1">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>45274</v>
       </c>
-      <c r="B38" s="6">
-        <v>54699</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="5">
+        <v>5.4699</v>
+      </c>
+      <c r="C38" s="5">
         <v>12.23</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="40" customHeight="1">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>45279</v>
       </c>
-      <c r="B39" s="6">
-        <v>62248</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="B39" s="5">
+        <v>6.2248000000000001</v>
+      </c>
+      <c r="C39" s="5">
         <v>14.73</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="40" customHeight="1">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>45281</v>
       </c>
-      <c r="B40" s="6">
-        <v>70451</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="5">
+        <v>7.0450999999999997</v>
+      </c>
+      <c r="C40" s="5">
         <v>15.88</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="40" customHeight="1">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>45282</v>
       </c>
-      <c r="B41" s="6">
-        <v>82691</v>
-      </c>
-      <c r="C41" s="6">
+      <c r="B41" s="5">
+        <v>8.2690999999999999</v>
+      </c>
+      <c r="C41" s="5">
         <v>15.33</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="40" customHeight="1">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>45294</v>
       </c>
-      <c r="B42" s="6">
-        <v>86182</v>
-      </c>
-      <c r="C42" s="6">
+      <c r="B42" s="5">
+        <v>8.6181999999999999</v>
+      </c>
+      <c r="C42" s="5">
         <v>14.2</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="40" customHeight="1">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>45301</v>
       </c>
-      <c r="B43" s="6">
-        <v>77269</v>
-      </c>
-      <c r="C43" s="6">
+      <c r="B43" s="5">
+        <v>7.7269000000000005</v>
+      </c>
+      <c r="C43" s="5">
         <v>13.43</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="40" customHeight="1">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>45308</v>
       </c>
-      <c r="B44" s="6">
-        <v>76831</v>
-      </c>
-      <c r="C44" s="6">
+      <c r="B44" s="5">
+        <v>7.6830999999999996</v>
+      </c>
+      <c r="C44" s="5">
         <v>15.43</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="40" customHeight="1">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>45309</v>
       </c>
-      <c r="B45" s="6">
-        <v>79214</v>
-      </c>
-      <c r="C45" s="6">
+      <c r="B45" s="5">
+        <v>7.9214000000000002</v>
+      </c>
+      <c r="C45" s="5">
         <v>15.04</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="40" customHeight="1">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>45310</v>
       </c>
-      <c r="B46" s="6">
-        <v>80394</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="B46" s="5">
+        <v>8.0393999999999988</v>
+      </c>
+      <c r="C46" s="5">
         <v>14.63</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="40" customHeight="1">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>45313</v>
       </c>
-      <c r="B47" s="6">
-        <v>82501</v>
-      </c>
-      <c r="C47" s="6">
+      <c r="B47" s="5">
+        <v>8.2500999999999998</v>
+      </c>
+      <c r="C47" s="5">
         <v>14.48</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="40" customHeight="1">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>45314</v>
       </c>
-      <c r="B48" s="6">
-        <v>75479</v>
-      </c>
-      <c r="C48" s="6">
+      <c r="B48" s="5">
+        <v>7.5479000000000003</v>
+      </c>
+      <c r="C48" s="5">
         <v>13.83</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="40" customHeight="1">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>45315</v>
       </c>
-      <c r="B49" s="6">
-        <v>89207</v>
-      </c>
-      <c r="C49" s="6">
+      <c r="B49" s="5">
+        <v>8.9207000000000001</v>
+      </c>
+      <c r="C49" s="5">
         <v>13.63</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="40" customHeight="1">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>45321</v>
       </c>
-      <c r="B50" s="6">
-        <v>87196</v>
-      </c>
-      <c r="C50" s="6">
+      <c r="B50" s="5">
+        <v>8.7195999999999998</v>
+      </c>
+      <c r="C50" s="5">
         <v>14.13</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40" customHeight="1">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>45322</v>
       </c>
-      <c r="B51" s="6">
-        <v>94241</v>
-      </c>
-      <c r="C51" s="6">
+      <c r="B51" s="5">
+        <v>9.424100000000001</v>
+      </c>
+      <c r="C51" s="5">
         <v>14.63</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="40" customHeight="1">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>45324</v>
       </c>
-      <c r="B52" s="6">
-        <v>100294</v>
-      </c>
-      <c r="C52" s="6">
+      <c r="B52" s="5">
+        <v>10.029399999999999</v>
+      </c>
+      <c r="C52" s="5">
         <v>14.42</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="40" customHeight="1">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>45330</v>
       </c>
-      <c r="B53" s="6">
-        <v>90272</v>
-      </c>
-      <c r="C53" s="6">
+      <c r="B53" s="5">
+        <v>9.0272000000000006</v>
+      </c>
+      <c r="C53" s="5">
         <v>13.43</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="40" customHeight="1">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>45334</v>
       </c>
-      <c r="B54" s="6">
-        <v>101811</v>
-      </c>
-      <c r="C54" s="6">
+      <c r="B54" s="5">
+        <v>10.181100000000001</v>
+      </c>
+      <c r="C54" s="5">
         <v>14.74</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="40" customHeight="1">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>45335</v>
       </c>
-      <c r="B55" s="6">
-        <v>112664</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="B55" s="5">
+        <v>11.266400000000001</v>
+      </c>
+      <c r="C55" s="5">
         <v>15.38</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="40" customHeight="1">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>45337</v>
       </c>
-      <c r="B56" s="6">
-        <v>118549</v>
-      </c>
-      <c r="C56" s="6">
+      <c r="B56" s="5">
+        <v>11.854900000000001</v>
+      </c>
+      <c r="C56" s="5">
         <v>15.13</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="40" customHeight="1">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>45342</v>
       </c>
-      <c r="B57" s="6">
-        <v>114710</v>
-      </c>
-      <c r="C57" s="6">
+      <c r="B57" s="5">
+        <v>11.471</v>
+      </c>
+      <c r="C57" s="5">
         <v>15.58</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="40" customHeight="1">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>45344</v>
       </c>
-      <c r="B58" s="6">
-        <v>134552</v>
-      </c>
-      <c r="C58" s="6">
+      <c r="B58" s="5">
+        <v>13.455200000000001</v>
+      </c>
+      <c r="C58" s="5">
         <v>14.67</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="40" customHeight="1">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>45345</v>
       </c>
-      <c r="B59" s="6">
-        <v>141241</v>
-      </c>
-      <c r="C59" s="6">
+      <c r="B59" s="5">
+        <v>14.1241</v>
+      </c>
+      <c r="C59" s="5">
         <v>14.73</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="40" customHeight="1">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>45355</v>
       </c>
-      <c r="B60" s="6">
-        <v>136678</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="B60" s="5">
+        <v>13.6678</v>
+      </c>
+      <c r="C60" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="40" customHeight="1">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>45356</v>
       </c>
-      <c r="B61" s="6">
-        <v>144246</v>
-      </c>
-      <c r="C61" s="6">
+      <c r="B61" s="5">
+        <v>14.424600000000002</v>
+      </c>
+      <c r="C61" s="5">
         <v>14.73</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="40" customHeight="1">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>45357</v>
       </c>
-      <c r="B62" s="6">
-        <v>130482</v>
-      </c>
-      <c r="C62" s="6">
+      <c r="B62" s="5">
+        <v>13.048199999999998</v>
+      </c>
+      <c r="C62" s="5">
         <v>14.68</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="40" customHeight="1">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>45359</v>
       </c>
-      <c r="B63" s="6">
-        <v>148438</v>
-      </c>
-      <c r="C63" s="6">
+      <c r="B63" s="5">
+        <v>14.843799999999998</v>
+      </c>
+      <c r="C63" s="5">
         <v>14.37</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="40" customHeight="1">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>45362</v>
       </c>
-      <c r="B64" s="6">
-        <v>160713</v>
-      </c>
-      <c r="C64" s="6">
+      <c r="B64" s="5">
+        <v>16.071300000000001</v>
+      </c>
+      <c r="C64" s="5">
         <v>15.18</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="40" customHeight="1">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>45363</v>
       </c>
-      <c r="B65" s="6">
-        <v>158811</v>
-      </c>
-      <c r="C65" s="6">
+      <c r="B65" s="5">
+        <v>15.8811</v>
+      </c>
+      <c r="C65" s="5">
         <v>14.08</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="40" customHeight="1">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>45366</v>
       </c>
-      <c r="B66" s="6">
-        <v>154595</v>
-      </c>
-      <c r="C66" s="6">
+      <c r="B66" s="5">
+        <v>15.4595</v>
+      </c>
+      <c r="C66" s="5">
         <v>14.78</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="40" customHeight="1">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>45370</v>
       </c>
-      <c r="B67" s="6">
-        <v>153578</v>
-      </c>
-      <c r="C67" s="6">
+      <c r="B67" s="5">
+        <v>15.357799999999999</v>
+      </c>
+      <c r="C67" s="5">
         <v>14.98</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="40" customHeight="1">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>45372</v>
       </c>
-      <c r="B68" s="6">
-        <v>166349</v>
-      </c>
-      <c r="C68" s="6">
+      <c r="B68" s="5">
+        <v>16.634899999999998</v>
+      </c>
+      <c r="C68" s="5">
         <v>14.53</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="40" customHeight="1">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>45384</v>
       </c>
-      <c r="B69" s="6">
-        <v>151754</v>
-      </c>
-      <c r="C69" s="6">
+      <c r="B69" s="5">
+        <v>15.1754</v>
+      </c>
+      <c r="C69" s="5">
         <v>15.43</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="40" customHeight="1">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>45386</v>
       </c>
-      <c r="B70" s="6">
-        <v>155030</v>
-      </c>
-      <c r="C70" s="6">
+      <c r="B70" s="5">
+        <v>15.503</v>
+      </c>
+      <c r="C70" s="5">
         <v>14.58</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="40" customHeight="1">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>45387</v>
       </c>
-      <c r="B71" s="6">
-        <v>172883</v>
-      </c>
-      <c r="C71" s="6">
+      <c r="B71" s="5">
+        <v>17.2883</v>
+      </c>
+      <c r="C71" s="5">
         <v>15.78</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="40" customHeight="1">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>45393</v>
       </c>
-      <c r="B72" s="6">
-        <v>173143</v>
-      </c>
-      <c r="C72" s="6">
+      <c r="B72" s="5">
+        <v>17.314299999999999</v>
+      </c>
+      <c r="C72" s="5">
         <v>15.97</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="40" customHeight="1">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>45394</v>
       </c>
-      <c r="B73" s="6">
-        <v>179237</v>
-      </c>
-      <c r="C73" s="6">
+      <c r="B73" s="5">
+        <v>17.9237</v>
+      </c>
+      <c r="C73" s="5">
         <v>17.23</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="40" customHeight="1">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>45398</v>
       </c>
-      <c r="B74" s="6">
-        <v>192609</v>
-      </c>
-      <c r="C74" s="6">
+      <c r="B74" s="5">
+        <v>19.260899999999999</v>
+      </c>
+      <c r="C74" s="5">
         <v>18.329999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="40" customHeight="1">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>45404</v>
       </c>
-      <c r="B75" s="6">
-        <v>169685</v>
-      </c>
-      <c r="C75" s="6">
+      <c r="B75" s="5">
+        <v>16.968499999999999</v>
+      </c>
+      <c r="C75" s="5">
         <v>16.940000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="40" customHeight="1">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>45405</v>
       </c>
-      <c r="B76" s="6">
-        <v>175281</v>
-      </c>
-      <c r="C76" s="6">
+      <c r="B76" s="5">
+        <v>17.528099999999998</v>
+      </c>
+      <c r="C76" s="5">
         <v>15.98</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="40" customHeight="1">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>45407</v>
       </c>
-      <c r="B77" s="6">
-        <v>181057</v>
-      </c>
-      <c r="C77" s="6">
+      <c r="B77" s="5">
+        <v>18.105699999999999</v>
+      </c>
+      <c r="C77" s="5">
         <v>16.63</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="40" customHeight="1">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>45408</v>
       </c>
-      <c r="B78" s="6">
-        <v>191299</v>
-      </c>
-      <c r="C78" s="6">
+      <c r="B78" s="5">
+        <v>19.129899999999999</v>
+      </c>
+      <c r="C78" s="5">
         <v>15.54</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="40" customHeight="1">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>45413</v>
       </c>
-      <c r="B79" s="6">
-        <v>182872</v>
-      </c>
-      <c r="C79" s="6">
+      <c r="B79" s="5">
+        <v>18.287200000000002</v>
+      </c>
+      <c r="C79" s="5">
         <v>15.35</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="40" customHeight="1">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>45415</v>
       </c>
-      <c r="B80" s="6">
-        <v>173096</v>
-      </c>
-      <c r="C80" s="6">
+      <c r="B80" s="5">
+        <v>17.3096</v>
+      </c>
+      <c r="C80" s="5">
         <v>14.73</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="40" customHeight="1">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>45418</v>
       </c>
-      <c r="B81" s="6">
-        <v>173076</v>
-      </c>
-      <c r="C81" s="6">
+      <c r="B81" s="5">
+        <v>17.307600000000001</v>
+      </c>
+      <c r="C81" s="5">
         <v>14.33</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="40" customHeight="1">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>45419</v>
       </c>
-      <c r="B82" s="6">
-        <v>182163</v>
-      </c>
-      <c r="C82" s="6">
+      <c r="B82" s="5">
+        <v>18.2163</v>
+      </c>
+      <c r="C82" s="5">
         <v>14.18</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="40" customHeight="1">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>45422</v>
       </c>
-      <c r="B83" s="6">
-        <v>174125</v>
-      </c>
-      <c r="C83" s="6">
+      <c r="B83" s="5">
+        <v>17.412500000000001</v>
+      </c>
+      <c r="C83" s="5">
         <v>13.83</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="40" customHeight="1">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>45427</v>
       </c>
-      <c r="B84" s="6">
-        <v>160657</v>
-      </c>
-      <c r="C84" s="6">
+      <c r="B84" s="5">
+        <v>16.0657</v>
+      </c>
+      <c r="C84" s="5">
         <v>13.18</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="40" customHeight="1">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>45428</v>
       </c>
-      <c r="B85" s="6">
-        <v>161859</v>
-      </c>
-      <c r="C85" s="6">
+      <c r="B85" s="5">
+        <v>16.1859</v>
+      </c>
+      <c r="C85" s="5">
         <v>12.88</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="40" customHeight="1">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>45443</v>
       </c>
-      <c r="B86" s="6">
-        <v>147780</v>
-      </c>
-      <c r="C86" s="6">
+      <c r="B86" s="5">
+        <v>14.777999999999999</v>
+      </c>
+      <c r="C86" s="5">
         <v>14.23</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="40" customHeight="1">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>45446</v>
       </c>
-      <c r="B87" s="6">
-        <v>145596</v>
-      </c>
-      <c r="C87" s="6">
+      <c r="B87" s="5">
+        <v>14.5596</v>
+      </c>
+      <c r="C87" s="5">
         <v>13.88</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="40" customHeight="1">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>45448</v>
       </c>
-      <c r="B88" s="6">
-        <v>146593</v>
-      </c>
-      <c r="C88" s="6">
+      <c r="B88" s="5">
+        <v>14.6593</v>
+      </c>
+      <c r="C88" s="5">
         <v>13.47</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="40" customHeight="1">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>45449</v>
       </c>
-      <c r="B89" s="6">
-        <v>147584</v>
-      </c>
-      <c r="C89" s="6">
+      <c r="B89" s="5">
+        <v>14.7584</v>
+      </c>
+      <c r="C89" s="5">
         <v>13.28</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="40" customHeight="1">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>45455</v>
       </c>
-      <c r="B90" s="6">
-        <v>153675</v>
-      </c>
-      <c r="C90" s="6">
+      <c r="B90" s="5">
+        <v>15.3675</v>
+      </c>
+      <c r="C90" s="5">
         <v>12.64</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="40" customHeight="1">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>45463</v>
       </c>
-      <c r="B91" s="6">
-        <v>153041</v>
-      </c>
-      <c r="C91" s="6">
+      <c r="B91" s="5">
+        <v>15.304100000000002</v>
+      </c>
+      <c r="C91" s="5">
         <v>14.48</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="40" customHeight="1">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>45471</v>
       </c>
-      <c r="B92" s="6">
-        <v>121518</v>
-      </c>
-      <c r="C92" s="6">
+      <c r="B92" s="5">
+        <v>12.1518</v>
+      </c>
+      <c r="C92" s="5">
         <v>14.48</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="40" customHeight="1">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>45474</v>
       </c>
-      <c r="B93" s="6">
-        <v>115811</v>
-      </c>
-      <c r="C93" s="6">
+      <c r="B93" s="5">
+        <v>11.581099999999999</v>
+      </c>
+      <c r="C93" s="5">
         <v>13.87</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="40" customHeight="1">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>45476</v>
       </c>
-      <c r="B94" s="6">
-        <v>121511</v>
-      </c>
-      <c r="C94" s="6">
+      <c r="B94" s="5">
+        <v>12.1511</v>
+      </c>
+      <c r="C94" s="5">
         <v>13.18</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="40" customHeight="1">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>45481</v>
       </c>
-      <c r="B95" s="6">
-        <v>126861</v>
-      </c>
-      <c r="C95" s="6">
+      <c r="B95" s="5">
+        <v>12.6861</v>
+      </c>
+      <c r="C95" s="5">
         <v>13.03</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="40" customHeight="1">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>45484</v>
       </c>
-      <c r="B96" s="6">
-        <v>133686</v>
-      </c>
-      <c r="C96" s="6">
+      <c r="B96" s="5">
+        <v>13.368600000000001</v>
+      </c>
+      <c r="C96" s="5">
         <v>12.98</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="40" customHeight="1">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>45491</v>
       </c>
-      <c r="B97" s="6">
-        <v>161225</v>
-      </c>
-      <c r="C97" s="6">
+      <c r="B97" s="5">
+        <v>16.122500000000002</v>
+      </c>
+      <c r="C97" s="5">
         <v>15.28</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="40" customHeight="1">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>45497</v>
       </c>
-      <c r="B98" s="6">
-        <v>169019</v>
-      </c>
-      <c r="C98" s="6">
+      <c r="B98" s="5">
+        <v>16.901900000000001</v>
+      </c>
+      <c r="C98" s="5">
         <v>16.079999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="40" customHeight="1">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>45503</v>
       </c>
-      <c r="B99" s="6">
-        <v>175566</v>
-      </c>
-      <c r="C99" s="6">
+      <c r="B99" s="5">
+        <v>17.5566</v>
+      </c>
+      <c r="C99" s="5">
         <v>16.63</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="40" customHeight="1">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>45504</v>
       </c>
-      <c r="B100" s="6">
-        <v>202250</v>
-      </c>
-      <c r="C100" s="6">
+      <c r="B100" s="5">
+        <v>20.225000000000001</v>
+      </c>
+      <c r="C100" s="5">
         <v>15.73</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="40" customHeight="1">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>45505</v>
       </c>
-      <c r="B101" s="6">
-        <v>225797</v>
-      </c>
-      <c r="C101" s="6">
+      <c r="B101" s="5">
+        <v>22.579699999999999</v>
+      </c>
+      <c r="C101" s="5">
         <v>16.98</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="40" customHeight="1">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>45506</v>
       </c>
-      <c r="B102" s="6">
-        <v>299611</v>
-      </c>
-      <c r="C102" s="6">
+      <c r="B102" s="5">
+        <v>29.961100000000002</v>
+      </c>
+      <c r="C102" s="5">
         <v>19.329999999999998</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="40" customHeight="1">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>45509</v>
       </c>
-      <c r="B103" s="6">
-        <v>387441</v>
-      </c>
-      <c r="C103" s="6">
+      <c r="B103" s="5">
+        <v>38.744099999999996</v>
+      </c>
+      <c r="C103" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="40" customHeight="1">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>45510</v>
       </c>
-      <c r="B104" s="6">
-        <v>424197</v>
-      </c>
-      <c r="C104" s="6">
+      <c r="B104" s="5">
+        <v>42.419699999999999</v>
+      </c>
+      <c r="C104" s="5">
         <v>25.03</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="40" customHeight="1">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>45517</v>
       </c>
-      <c r="B105" s="6">
-        <v>340784</v>
-      </c>
-      <c r="C105" s="6">
+      <c r="B105" s="5">
+        <v>34.078399999999995</v>
+      </c>
+      <c r="C105" s="5">
         <v>18.48</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="40" customHeight="1">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>45518</v>
       </c>
-      <c r="B106" s="6">
-        <v>323043</v>
-      </c>
-      <c r="C106" s="6">
+      <c r="B106" s="5">
+        <v>32.304300000000005</v>
+      </c>
+      <c r="C106" s="5">
         <v>16.68</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="40" customHeight="1">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>45519</v>
       </c>
-      <c r="B107" s="6">
-        <v>331032</v>
-      </c>
-      <c r="C107" s="6">
+      <c r="B107" s="5">
+        <v>33.103200000000001</v>
+      </c>
+      <c r="C107" s="5">
         <v>15.13</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="40" customHeight="1">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>45523</v>
       </c>
-      <c r="B108" s="6">
-        <v>325059</v>
-      </c>
-      <c r="C108" s="6">
+      <c r="B108" s="5">
+        <v>32.505899999999997</v>
+      </c>
+      <c r="C108" s="5">
         <v>15.33</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="40" customHeight="1">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>45525</v>
       </c>
-      <c r="B109" s="6">
-        <v>370564</v>
-      </c>
-      <c r="C109" s="6">
+      <c r="B109" s="5">
+        <v>37.056400000000004</v>
+      </c>
+      <c r="C109" s="5">
         <v>16.34</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="40" customHeight="1">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>45533</v>
       </c>
-      <c r="B110" s="6">
-        <v>330956</v>
-      </c>
-      <c r="C110" s="6">
+      <c r="B110" s="5">
+        <v>33.095599999999997</v>
+      </c>
+      <c r="C110" s="5">
         <v>15.78</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="40" customHeight="1">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>45538</v>
       </c>
-      <c r="B111" s="6">
-        <v>345118</v>
-      </c>
-      <c r="C111" s="6">
+      <c r="B111" s="5">
+        <v>34.511800000000001</v>
+      </c>
+      <c r="C111" s="5">
         <v>17.25</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="40" customHeight="1">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>45539</v>
       </c>
-      <c r="B112" s="6">
-        <v>346442</v>
-      </c>
-      <c r="C112" s="6">
+      <c r="B112" s="5">
+        <v>34.644200000000005</v>
+      </c>
+      <c r="C112" s="5">
         <v>18.760000000000002</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="40" customHeight="1">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>45540</v>
       </c>
-      <c r="B113" s="6">
-        <v>350257</v>
-      </c>
-      <c r="C113" s="6">
+      <c r="B113" s="5">
+        <v>35.025700000000001</v>
+      </c>
+      <c r="C113" s="5">
         <v>19.5</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="40" customHeight="1">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>45541</v>
       </c>
-      <c r="B114" s="6">
-        <v>357433</v>
-      </c>
-      <c r="C114" s="6">
+      <c r="B114" s="5">
+        <v>35.743299999999998</v>
+      </c>
+      <c r="C114" s="5">
         <v>20.89</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="40" customHeight="1">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>45544</v>
       </c>
-      <c r="B115" s="6">
-        <v>345817</v>
-      </c>
-      <c r="C115" s="6">
+      <c r="B115" s="5">
+        <v>34.581699999999998</v>
+      </c>
+      <c r="C115" s="5">
         <v>18.899999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="40" customHeight="1">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>45546</v>
       </c>
-      <c r="B116" s="6">
-        <v>329852</v>
-      </c>
-      <c r="C116" s="6">
+      <c r="B116" s="5">
+        <v>32.985199999999999</v>
+      </c>
+      <c r="C116" s="5">
         <v>19.62</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="40" customHeight="1">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>45547</v>
       </c>
-      <c r="B117" s="6">
-        <v>380656</v>
-      </c>
-      <c r="C117" s="6">
+      <c r="B117" s="5">
+        <v>38.065599999999996</v>
+      </c>
+      <c r="C117" s="5">
         <v>17.45</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="40" customHeight="1">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>45548</v>
       </c>
-      <c r="B118" s="6">
-        <v>388962</v>
-      </c>
-      <c r="C118" s="6">
+      <c r="B118" s="5">
+        <v>38.8962</v>
+      </c>
+      <c r="C118" s="5">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="40" customHeight="1">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>45554</v>
       </c>
-      <c r="B119" s="6">
-        <v>398129</v>
-      </c>
-      <c r="C119" s="6">
+      <c r="B119" s="5">
+        <v>39.812899999999999</v>
+      </c>
+      <c r="C119" s="5">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="40" customHeight="1">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>45562</v>
       </c>
-      <c r="B120" s="6">
-        <v>391487</v>
-      </c>
-      <c r="C120" s="6">
+      <c r="B120" s="5">
+        <v>39.148699999999998</v>
+      </c>
+      <c r="C120" s="5">
         <v>18.45</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="40" customHeight="1">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>45566</v>
       </c>
-      <c r="B121" s="6">
-        <v>423915</v>
-      </c>
-      <c r="C121" s="6">
+      <c r="B121" s="5">
+        <v>42.391500000000001</v>
+      </c>
+      <c r="C121" s="5">
         <v>20.3</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="40" customHeight="1">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>45573</v>
       </c>
-      <c r="B122" s="6">
-        <v>418011</v>
-      </c>
-      <c r="C122" s="6">
+      <c r="B122" s="5">
+        <v>41.801100000000005</v>
+      </c>
+      <c r="C122" s="5">
         <v>21.35</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="40" customHeight="1">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>45574</v>
       </c>
-      <c r="B123" s="6">
-        <v>419146</v>
-      </c>
-      <c r="C123" s="6">
+      <c r="B123" s="5">
+        <v>41.9146</v>
+      </c>
+      <c r="C123" s="5">
         <v>20.85</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="40" customHeight="1">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>45576</v>
       </c>
-      <c r="B124" s="6">
-        <v>417282</v>
-      </c>
-      <c r="C124" s="6">
+      <c r="B124" s="5">
+        <v>41.728200000000001</v>
+      </c>
+      <c r="C124" s="5">
         <v>21.07</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="40" customHeight="1">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>45579</v>
       </c>
-      <c r="B125" s="6">
-        <v>407794</v>
-      </c>
-      <c r="C125" s="6">
+      <c r="B125" s="5">
+        <v>40.779399999999995</v>
+      </c>
+      <c r="C125" s="5">
         <v>20.149999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="40" customHeight="1">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>45589</v>
       </c>
-      <c r="B126" s="6">
-        <v>370475</v>
-      </c>
-      <c r="C126" s="6">
+      <c r="B126" s="5">
+        <v>37.047499999999999</v>
+      </c>
+      <c r="C126" s="5">
         <v>19.440000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40" customHeight="1">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>45590</v>
       </c>
-      <c r="B127" s="6">
-        <v>370104</v>
-      </c>
-      <c r="C127" s="6">
+      <c r="B127" s="5">
+        <v>37.010399999999997</v>
+      </c>
+      <c r="C127" s="5">
         <v>18.510000000000002</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="40" customHeight="1">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>45596</v>
       </c>
-      <c r="B128" s="6">
-        <v>392489</v>
-      </c>
-      <c r="C128" s="6">
+      <c r="B128" s="5">
+        <v>39.248899999999999</v>
+      </c>
+      <c r="C128" s="5">
         <v>20.78</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="40" customHeight="1">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>45601</v>
       </c>
-      <c r="B129" s="6">
-        <v>355309</v>
-      </c>
-      <c r="C129" s="6">
+      <c r="B129" s="5">
+        <v>35.530899999999995</v>
+      </c>
+      <c r="C129" s="5">
         <v>18.53</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="40" customHeight="1">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>45602</v>
       </c>
-      <c r="B130" s="6">
-        <v>357853</v>
-      </c>
-      <c r="C130" s="6">
+      <c r="B130" s="5">
+        <v>35.785299999999999</v>
+      </c>
+      <c r="C130" s="5">
         <v>16.43</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="40" customHeight="1">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>45603</v>
       </c>
-      <c r="B131" s="6">
-        <v>358501</v>
-      </c>
-      <c r="C131" s="6">
+      <c r="B131" s="5">
+        <v>35.850100000000005</v>
+      </c>
+      <c r="C131" s="5">
         <v>15.73</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="40" customHeight="1">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>45611</v>
       </c>
-      <c r="B132" s="6">
-        <v>344311</v>
-      </c>
-      <c r="C132" s="6">
+      <c r="B132" s="5">
+        <v>34.431100000000001</v>
+      </c>
+      <c r="C132" s="5">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="40" customHeight="1">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>45615</v>
       </c>
-      <c r="B133" s="6">
-        <v>339394</v>
-      </c>
-      <c r="C133" s="6">
+      <c r="B133" s="5">
+        <v>33.939399999999999</v>
+      </c>
+      <c r="C133" s="5">
         <v>16.18</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="40" customHeight="1">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>45617</v>
       </c>
-      <c r="B134" s="6">
-        <v>370956</v>
-      </c>
-      <c r="C134" s="6">
+      <c r="B134" s="5">
+        <v>37.095599999999997</v>
+      </c>
+      <c r="C134" s="5">
         <v>16.8</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="40" customHeight="1">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>45622</v>
       </c>
-      <c r="B135" s="6">
-        <v>318856</v>
-      </c>
-      <c r="C135" s="6">
+      <c r="B135" s="5">
+        <v>31.885599999999997</v>
+      </c>
+      <c r="C135" s="5">
         <v>15.22</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="40" customHeight="1">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>45625</v>
       </c>
-      <c r="B136" s="6">
-        <v>306639</v>
-      </c>
-      <c r="C136" s="6">
+      <c r="B136" s="5">
+        <v>30.663899999999998</v>
+      </c>
+      <c r="C136" s="5">
         <v>14.88</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="40" customHeight="1">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>45630</v>
       </c>
-      <c r="B137" s="6">
-        <v>305876</v>
-      </c>
-      <c r="C137" s="6">
+      <c r="B137" s="5">
+        <v>30.587599999999998</v>
+      </c>
+      <c r="C137" s="5">
         <v>14.42</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="40" customHeight="1">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>45645</v>
       </c>
-      <c r="B138" s="6">
-        <v>486738</v>
-      </c>
-      <c r="C138" s="6">
+      <c r="B138" s="5">
+        <v>48.6738</v>
+      </c>
+      <c r="C138" s="5">
         <v>19.329999999999998</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="40" customHeight="1">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>45646</v>
       </c>
-      <c r="B139" s="6">
-        <v>498234</v>
-      </c>
-      <c r="C139" s="6">
+      <c r="B139" s="5">
+        <v>49.823399999999999</v>
+      </c>
+      <c r="C139" s="5">
         <v>21.87</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="40" customHeight="1">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>45663</v>
       </c>
-      <c r="B140" s="6">
-        <v>477346</v>
-      </c>
-      <c r="C140" s="6">
+      <c r="B140" s="5">
+        <v>47.7346</v>
+      </c>
+      <c r="C140" s="5">
         <v>16.3</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="40" customHeight="1">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>45664</v>
       </c>
-      <c r="B141" s="6">
-        <v>506379</v>
-      </c>
-      <c r="C141" s="6">
+      <c r="B141" s="5">
+        <v>50.637900000000002</v>
+      </c>
+      <c r="C141" s="5">
         <v>18.010000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="40" customHeight="1">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>45667</v>
       </c>
-      <c r="B142" s="6">
-        <v>514303</v>
-      </c>
-      <c r="C142" s="6">
+      <c r="B142" s="5">
+        <v>51.430299999999995</v>
+      </c>
+      <c r="C142" s="5">
         <v>18.8</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="40" customHeight="1">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>45670</v>
       </c>
-      <c r="B143" s="7">
-        <v>521239</v>
-      </c>
-      <c r="C143" s="8">
+      <c r="B143" s="6">
+        <v>52.123899999999999</v>
+      </c>
+      <c r="C143" s="7">
         <v>19.25</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="40" customHeight="1">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>45672</v>
       </c>
-      <c r="B144" s="7">
-        <v>517084</v>
-      </c>
-      <c r="C144" s="8">
+      <c r="B144" s="6">
+        <v>51.708399999999997</v>
+      </c>
+      <c r="C144" s="7">
         <v>16.55</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="40" customHeight="1">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>45674</v>
       </c>
-      <c r="B145" s="7">
-        <v>518723</v>
-      </c>
-      <c r="C145" s="8">
+      <c r="B145" s="6">
+        <v>51.872300000000003</v>
+      </c>
+      <c r="C145" s="7">
         <v>15.88</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="40" customHeight="1">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>45679</v>
       </c>
-      <c r="B146" s="7">
-        <v>516725</v>
-      </c>
-      <c r="C146" s="8">
+      <c r="B146" s="6">
+        <v>51.672499999999999</v>
+      </c>
+      <c r="C146" s="7">
         <v>17.5</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="40" customHeight="1">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>45684</v>
       </c>
-      <c r="B147" s="7">
-        <v>537030</v>
-      </c>
-      <c r="C147" s="8">
+      <c r="B147" s="6">
+        <v>53.703000000000003</v>
+      </c>
+      <c r="C147" s="7">
         <v>17.829999999999998</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="40" customHeight="1">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>45685</v>
       </c>
-      <c r="B148" s="7">
-        <v>544107</v>
-      </c>
-      <c r="C148" s="8">
+      <c r="B148" s="6">
+        <v>54.410699999999999</v>
+      </c>
+      <c r="C148" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="40" customHeight="1">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>45688</v>
       </c>
-      <c r="B149" s="7">
-        <v>535703</v>
-      </c>
-      <c r="C149" s="8">
+      <c r="B149" s="6">
+        <v>53.570300000000003</v>
+      </c>
+      <c r="C149" s="7">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="40" customHeight="1">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>45691</v>
       </c>
-      <c r="B150" s="7">
-        <v>617482</v>
-      </c>
-      <c r="C150" s="8">
+      <c r="B150" s="6">
+        <v>61.748199999999997</v>
+      </c>
+      <c r="C150" s="7">
         <v>18.940000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="40" customHeight="1">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>45692</v>
       </c>
-      <c r="B151" s="7">
-        <v>620804</v>
-      </c>
-      <c r="C151" s="8">
+      <c r="B151" s="6">
+        <v>62.080400000000004</v>
+      </c>
+      <c r="C151" s="7">
         <v>17.350000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="40" customHeight="1">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>45694</v>
       </c>
-      <c r="B152" s="7">
-        <v>608028</v>
-      </c>
-      <c r="C152" s="8">
+      <c r="B152" s="6">
+        <v>60.802800000000005</v>
+      </c>
+      <c r="C152" s="7">
         <v>16.68</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="23">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>45695</v>
       </c>
-      <c r="B153" s="7">
-        <v>605010</v>
-      </c>
-      <c r="C153" s="8">
+      <c r="B153" s="6">
+        <v>60.501000000000005</v>
+      </c>
+      <c r="C153" s="7">
         <v>17.350000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="23">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>45698</v>
       </c>
-      <c r="B154" s="7">
-        <v>605010</v>
-      </c>
-      <c r="C154" s="8">
+      <c r="B154" s="6">
+        <v>60.501000000000005</v>
+      </c>
+      <c r="C154" s="7">
         <v>16.7</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="23">
-      <c r="A155" s="5">
+      <c r="A155" s="4">
         <v>45699</v>
       </c>
-      <c r="B155" s="7">
-        <v>604939.98109489563</v>
-      </c>
-      <c r="C155" s="8">
+      <c r="B155" s="6">
+        <v>60.493998109489567</v>
+      </c>
+      <c r="C155" s="7">
         <v>16.77</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="23">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>45700</v>
       </c>
-      <c r="B156" s="7">
-        <v>604869.95728680096</v>
-      </c>
-      <c r="C156" s="8">
+      <c r="B156" s="6">
+        <v>60.486995728680093</v>
+      </c>
+      <c r="C156" s="7">
         <v>16.8</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="23">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>45701</v>
       </c>
-      <c r="B157" s="7">
-        <v>604799.92857502913</v>
-      </c>
-      <c r="C157" s="8">
+      <c r="B157" s="6">
+        <v>60.479992857502921</v>
+      </c>
+      <c r="C157" s="7">
         <v>16.13</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="23">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>45702</v>
       </c>
-      <c r="B158" s="7">
-        <v>598536.92233203247</v>
-      </c>
-      <c r="C158" s="8">
+      <c r="B158" s="6">
+        <v>59.853692233203247</v>
+      </c>
+      <c r="C158" s="7">
         <v>16.010000000000002</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="23">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>45705</v>
       </c>
-      <c r="B159" s="7">
-        <v>598325.49732750189</v>
-      </c>
-      <c r="C159" s="8">
+      <c r="B159" s="6">
+        <v>59.832549732750181</v>
+      </c>
+      <c r="C159" s="7">
         <v>16.010000000000002</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="23">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>45706</v>
       </c>
-      <c r="B160" s="7">
-        <v>587419.70205032558</v>
-      </c>
-      <c r="C160" s="8">
+      <c r="B160" s="6">
+        <v>58.741970205032558</v>
+      </c>
+      <c r="C160" s="7">
         <v>15.66</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="23">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>45707</v>
       </c>
-      <c r="B161" s="7">
-        <v>584752.27520094358</v>
-      </c>
-      <c r="C161" s="8">
+      <c r="B161" s="6">
+        <v>58.47522752009435</v>
+      </c>
+      <c r="C161" s="7">
         <v>15.94</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="23">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>45708</v>
       </c>
-      <c r="B162" s="7">
-        <v>567939.29030915094</v>
-      </c>
-      <c r="C162" s="8">
+      <c r="B162" s="6">
+        <v>56.793929030915095</v>
+      </c>
+      <c r="C162" s="7">
         <v>17.03</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="23">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>45709</v>
       </c>
-      <c r="B163" s="7">
-        <v>595255</v>
-      </c>
-      <c r="C163" s="8">
+      <c r="B163" s="6">
+        <v>59.525500000000001</v>
+      </c>
+      <c r="C163" s="7">
         <v>18.3</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="23">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>45712</v>
       </c>
-      <c r="B164" s="7">
-        <v>600944.51902298909</v>
-      </c>
-      <c r="C164" s="8">
+      <c r="B164" s="6">
+        <v>60.094451902298907</v>
+      </c>
+      <c r="C164" s="7">
         <v>18.43</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="23">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>45713</v>
       </c>
-      <c r="B165" s="7">
-        <v>605539.17989038711</v>
-      </c>
-      <c r="C165" s="8">
+      <c r="B165" s="6">
+        <v>60.553917989038709</v>
+      </c>
+      <c r="C165" s="7">
         <v>18.48</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="23">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>45714</v>
       </c>
-      <c r="B166" s="7">
-        <v>607980.05860672507</v>
-      </c>
-      <c r="C166" s="8">
+      <c r="B166" s="6">
+        <v>60.798005860672511</v>
+      </c>
+      <c r="C166" s="7">
         <v>18.13</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="23">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>45715</v>
       </c>
-      <c r="B167" s="7">
-        <v>622160.56315725984</v>
-      </c>
-      <c r="C167" s="8">
+      <c r="B167" s="6">
+        <v>62.216056315725986</v>
+      </c>
+      <c r="C167" s="7">
         <v>19.309999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="23">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>45716</v>
       </c>
-      <c r="B168" s="7">
-        <v>624729</v>
-      </c>
-      <c r="C168" s="8">
+      <c r="B168" s="6">
+        <v>62.472899999999996</v>
+      </c>
+      <c r="C168" s="7">
         <v>18.829999999999998</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="23">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>45719</v>
       </c>
-      <c r="B169" s="7">
-        <v>653398.86221467739</v>
-      </c>
-      <c r="C169" s="8">
+      <c r="B169" s="6">
+        <v>65.339886221467737</v>
+      </c>
+      <c r="C169" s="7">
         <v>20.66</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="23">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>45720</v>
       </c>
-      <c r="B170" s="7">
-        <v>668611.93104701582</v>
-      </c>
-      <c r="C170" s="8">
+      <c r="B170" s="6">
+        <v>66.861193104701584</v>
+      </c>
+      <c r="C170" s="7">
         <v>21.24</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="23">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>45721</v>
       </c>
-      <c r="B171" s="7">
-        <v>665175.08508857572</v>
-      </c>
-      <c r="C171" s="8">
+      <c r="B171" s="6">
+        <v>66.517508508857574</v>
+      </c>
+      <c r="C171" s="7">
         <v>20.13</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="23">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>45722</v>
       </c>
-      <c r="B172" s="7">
-        <v>683232.42194259295</v>
-      </c>
-      <c r="C172" s="8">
+      <c r="B172" s="6">
+        <v>68.323242194259294</v>
+      </c>
+      <c r="C172" s="7">
         <v>22.83</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="23">
-      <c r="A173" s="5">
+      <c r="A173" s="4">
         <v>45723</v>
       </c>
-      <c r="B173" s="7">
-        <v>675638.50300614908</v>
-      </c>
-      <c r="C173" s="8">
+      <c r="B173" s="6">
+        <v>67.563850300614916</v>
+      </c>
+      <c r="C173" s="7">
         <v>21.63</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="23">
-      <c r="A174" s="5">
+      <c r="A174" s="4">
         <v>45726</v>
       </c>
-      <c r="B174" s="7">
-        <v>699541.98926180799</v>
-      </c>
-      <c r="C174" s="8">
+      <c r="B174" s="6">
+        <v>69.954198926180794</v>
+      </c>
+      <c r="C174" s="7">
         <v>25.33</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="23">
-      <c r="A175" s="5">
+      <c r="A175" s="4">
         <v>45727</v>
       </c>
-      <c r="B175" s="7">
-        <v>693836.21539058757</v>
-      </c>
-      <c r="C175" s="8">
+      <c r="B175" s="6">
+        <v>69.383621539058765</v>
+      </c>
+      <c r="C175" s="7">
         <v>24.61</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="23">
-      <c r="A176" s="5">
+      <c r="A176" s="4">
         <v>45728</v>
       </c>
-      <c r="B176" s="7">
-        <v>670896.81867288332</v>
-      </c>
-      <c r="C176" s="8">
+      <c r="B176" s="6">
+        <v>67.089681867288334</v>
+      </c>
+      <c r="C176" s="7">
         <v>22.98</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="23">
-      <c r="A177" s="5">
+      <c r="A177" s="4">
         <v>45729</v>
       </c>
-      <c r="B177" s="7">
-        <v>673233.35496895725</v>
-      </c>
-      <c r="C177" s="8">
+      <c r="B177" s="6">
+        <v>67.323335496895723</v>
+      </c>
+      <c r="C177" s="7">
         <v>24.41</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="23">
-      <c r="A178" s="5">
+      <c r="A178" s="4">
         <v>45730</v>
       </c>
-      <c r="B178" s="7">
-        <v>671810.36050178448</v>
-      </c>
-      <c r="C178" s="8">
+      <c r="B178" s="6">
+        <v>67.181036050178449</v>
+      </c>
+      <c r="C178" s="7">
         <v>21.52</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="23">
-      <c r="A179" s="5">
+      <c r="A179" s="4">
         <v>45733</v>
       </c>
-      <c r="B179" s="7">
-        <v>669204.06977849174</v>
-      </c>
-      <c r="C179" s="8">
+      <c r="B179" s="6">
+        <v>66.920406977849183</v>
+      </c>
+      <c r="C179" s="7">
         <v>19.920000000000002</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="23">
-      <c r="A180" s="5">
+      <c r="A180" s="4">
         <v>45734</v>
       </c>
-      <c r="B180" s="7">
-        <v>670360.22607578372</v>
-      </c>
-      <c r="C180" s="8">
+      <c r="B180" s="6">
+        <v>67.036022607578374</v>
+      </c>
+      <c r="C180" s="7">
         <v>20.48</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="23">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>45735</v>
       </c>
-      <c r="B181" s="7">
-        <v>669909.56416610384</v>
-      </c>
-      <c r="C181" s="8">
+      <c r="B181" s="6">
+        <v>66.990956416610388</v>
+      </c>
+      <c r="C181" s="7">
         <v>19.75</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="23">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <v>45736</v>
       </c>
-      <c r="B182" s="7">
-        <v>668763.61537686468</v>
-      </c>
-      <c r="C182" s="8">
+      <c r="B182" s="6">
+        <v>66.876361537686464</v>
+      </c>
+      <c r="C182" s="7">
         <v>19.47</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="23">
-      <c r="A183" s="5">
+      <c r="A183" s="4">
         <v>45737</v>
       </c>
-      <c r="B183" s="7">
-        <v>668340.44441579632</v>
-      </c>
-      <c r="C183" s="8">
+      <c r="B183" s="6">
+        <v>66.834044441579636</v>
+      </c>
+      <c r="C183" s="7">
         <v>19.47</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="23">
-      <c r="A184" s="5">
+      <c r="A184" s="4">
         <v>45740</v>
       </c>
-      <c r="B184" s="7">
-        <v>665556</v>
-      </c>
-      <c r="C184" s="8">
+      <c r="B184" s="6">
+        <v>66.555599999999998</v>
+      </c>
+      <c r="C184" s="7">
         <v>18.5</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="23">
-      <c r="A185" s="5">
+      <c r="A185" s="4">
         <v>45741</v>
       </c>
-      <c r="B185" s="7">
-        <v>663820</v>
-      </c>
-      <c r="C185" s="8">
+      <c r="B185" s="6">
+        <v>66.381999999999991</v>
+      </c>
+      <c r="C185" s="7">
         <v>18.66</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="23">
-      <c r="A186" s="5">
+      <c r="A186" s="4">
         <v>45742</v>
       </c>
-      <c r="B186" s="7">
-        <v>665025</v>
-      </c>
-      <c r="C186" s="8">
+      <c r="B186" s="6">
+        <v>66.502499999999998</v>
+      </c>
+      <c r="C186" s="7">
         <v>19.149999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="23">
-      <c r="A187" s="5">
+      <c r="A187" s="4">
         <v>45743</v>
       </c>
-      <c r="B187" s="7">
-        <v>663963</v>
-      </c>
-      <c r="C187" s="8">
+      <c r="B187" s="6">
+        <v>66.396299999999997</v>
+      </c>
+      <c r="C187" s="7">
         <v>19.16</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="23">
-      <c r="A188" s="5">
+      <c r="A188" s="4">
         <v>45744</v>
       </c>
-      <c r="B188" s="7">
-        <v>668687</v>
-      </c>
-      <c r="C188" s="8">
+      <c r="B188" s="6">
+        <v>66.868700000000004</v>
+      </c>
+      <c r="C188" s="7">
         <v>20.55</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="23">
-      <c r="A189" s="5">
+      <c r="A189" s="4">
         <v>45747</v>
       </c>
-      <c r="B189" s="7">
-        <v>669157.7048185789</v>
-      </c>
-      <c r="C189" s="8">
+      <c r="B189" s="6">
+        <v>66.915770481857891</v>
+      </c>
+      <c r="C189" s="7">
         <v>20.49</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="23">
-      <c r="A190" s="5">
+      <c r="A190" s="4">
         <v>45748</v>
       </c>
-      <c r="B190" s="7">
-        <v>667352.85428276402</v>
-      </c>
-      <c r="C190" s="8">
+      <c r="B190" s="6">
+        <v>66.735285428276399</v>
+      </c>
+      <c r="C190" s="7">
         <v>20.51</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="23">
-      <c r="A191" s="5">
+      <c r="A191" s="4">
         <v>45749</v>
       </c>
-      <c r="B191" s="7">
-        <v>669886.09721040167</v>
-      </c>
-      <c r="C191" s="8">
+      <c r="B191" s="6">
+        <v>66.988609721040177</v>
+      </c>
+      <c r="C191" s="7">
         <v>20.02</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="23">
-      <c r="A192" s="5">
+      <c r="A192" s="4">
         <v>45750</v>
       </c>
-      <c r="B192" s="7">
-        <v>711705.79906185344</v>
-      </c>
-      <c r="C192" s="8">
+      <c r="B192" s="6">
+        <v>71.170579906185338</v>
+      </c>
+      <c r="C192" s="7">
         <v>24.19</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="23">
-      <c r="A193" s="5">
+      <c r="A193" s="4">
         <v>45751</v>
       </c>
-      <c r="B193" s="7">
-        <v>712382.02912433713</v>
-      </c>
-      <c r="C193" s="8">
+      <c r="B193" s="6">
+        <v>71.238202912433707</v>
+      </c>
+      <c r="C193" s="7">
         <v>28.52</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="23">
-      <c r="A194" s="5">
+      <c r="A194" s="4">
         <v>45754</v>
       </c>
-      <c r="B194" s="7">
-        <v>712949.67851524043</v>
-      </c>
-      <c r="C194" s="8">
+      <c r="B194" s="6">
+        <v>71.294967851524035</v>
+      </c>
+      <c r="C194" s="7">
         <v>26.07</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="23">
-      <c r="A195" s="5">
+      <c r="A195" s="4">
         <v>45755</v>
       </c>
-      <c r="B195" s="7">
-        <v>713111.77204320615</v>
-      </c>
-      <c r="C195" s="8">
+      <c r="B195" s="6">
+        <v>71.311177204320614</v>
+      </c>
+      <c r="C195" s="7">
         <v>27.91</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="23">
-      <c r="A196" s="5">
+      <c r="A196" s="4">
         <v>45756</v>
       </c>
-      <c r="B196" s="7">
-        <v>715839.00384440366</v>
-      </c>
-      <c r="C196" s="8">
+      <c r="B196" s="6">
+        <v>71.583900384440369</v>
+      </c>
+      <c r="C196" s="7">
         <v>23.83</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="23">
-      <c r="A197" s="5">
+      <c r="A197" s="4">
         <v>45757</v>
       </c>
-      <c r="B197" s="7">
-        <v>717061.07950534357</v>
-      </c>
-      <c r="C197" s="8">
+      <c r="B197" s="6">
+        <v>71.70610795053436</v>
+      </c>
+      <c r="C197" s="7">
         <v>27.57</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="23">
-      <c r="A198" s="5">
+      <c r="A198" s="4">
         <v>45758</v>
       </c>
-      <c r="B198" s="7">
-        <v>715957.98006496474</v>
-      </c>
-      <c r="C198" s="8">
+      <c r="B198" s="6">
+        <v>71.595798006496466</v>
+      </c>
+      <c r="C198" s="7">
         <v>27.14</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="23">
-      <c r="A199" s="5">
+      <c r="A199" s="4">
         <v>45761</v>
       </c>
-      <c r="B199" s="7">
-        <v>713668.54111218103</v>
-      </c>
-      <c r="C199" s="8">
+      <c r="B199" s="6">
+        <v>71.366854111218103</v>
+      </c>
+      <c r="C199" s="7">
         <v>29.86</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="23">
-      <c r="A200" s="5">
+      <c r="A200" s="4">
         <v>45762</v>
       </c>
-      <c r="B200" s="7">
-        <v>712813.65566683072</v>
-      </c>
-      <c r="C200" s="8">
+      <c r="B200" s="6">
+        <v>71.281365566683078</v>
+      </c>
+      <c r="C200" s="7">
         <v>29.9</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="23">
-      <c r="A201" s="5">
+      <c r="A201" s="4">
         <v>45763</v>
       </c>
-      <c r="B201" s="7">
-        <v>714542.90245376411</v>
-      </c>
-      <c r="C201" s="8">
+      <c r="B201" s="6">
+        <v>71.454290245376413</v>
+      </c>
+      <c r="C201" s="7">
         <v>31.91</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="23">
-      <c r="A202" s="5">
+      <c r="A202" s="4">
         <v>45764</v>
       </c>
-      <c r="B202" s="7">
-        <v>713778.67203379713</v>
-      </c>
-      <c r="C202" s="8">
+      <c r="B202" s="6">
+        <v>71.377867203379708</v>
+      </c>
+      <c r="C202" s="7">
         <v>26.73</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="23">
-      <c r="A203" s="5">
+      <c r="A203" s="4">
         <v>45769</v>
       </c>
-      <c r="B203" s="7">
-        <v>713412.46065695025</v>
-      </c>
-      <c r="C203" s="8">
+      <c r="B203" s="6">
+        <v>71.341246065695032</v>
+      </c>
+      <c r="C203" s="7">
         <v>26.54</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="23">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>45770</v>
       </c>
-      <c r="B204" s="7">
-        <v>713071.31825294951</v>
-      </c>
-      <c r="C204" s="8">
+      <c r="B204" s="6">
+        <v>71.30713182529496</v>
+      </c>
+      <c r="C204" s="7">
         <v>25.44</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="23">
-      <c r="A205" s="5">
+      <c r="A205" s="4">
         <v>45771</v>
       </c>
-      <c r="B205" s="7">
-        <v>712833.60762242193</v>
-      </c>
-      <c r="C205" s="8">
+      <c r="B205" s="6">
+        <v>71.283360762242197</v>
+      </c>
+      <c r="C205" s="7">
         <v>24.57</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="23">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>45772</v>
       </c>
-      <c r="B206" s="7">
-        <v>707907.14431871939</v>
-      </c>
-      <c r="C206" s="8">
+      <c r="B206" s="6">
+        <v>70.790714431871933</v>
+      </c>
+      <c r="C206" s="7">
         <v>23.5</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="23">
-      <c r="A207" s="5">
+      <c r="A207" s="4">
         <v>45775</v>
       </c>
-      <c r="B207" s="7">
-        <v>705653.46511954488</v>
-      </c>
-      <c r="C207" s="8">
+      <c r="B207" s="6">
+        <v>70.565346511954488</v>
+      </c>
+      <c r="C207" s="7">
         <v>23.68</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="23">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>45776</v>
       </c>
-      <c r="B208" s="7">
-        <v>705717.87180695485</v>
-      </c>
-      <c r="C208" s="8">
+      <c r="B208" s="6">
+        <v>70.571787180695495</v>
+      </c>
+      <c r="C208" s="7">
         <v>23.38</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="23">
-      <c r="A209" s="5">
+      <c r="A209" s="4">
         <v>45777</v>
       </c>
-      <c r="B209" s="7">
-        <v>711636.55589072884</v>
-      </c>
-      <c r="C209" s="8">
+      <c r="B209" s="6">
+        <v>71.163655589072889</v>
+      </c>
+      <c r="C209" s="7">
         <v>24.01</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="23">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>45779</v>
       </c>
-      <c r="B210" s="7">
-        <v>712007.17140103306</v>
-      </c>
-      <c r="C210" s="8">
+      <c r="B210" s="6">
+        <v>71.200717140103308</v>
+      </c>
+      <c r="C210" s="7">
         <v>22.48</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="23">
-      <c r="A211" s="5">
+      <c r="A211" s="4">
         <v>45782</v>
       </c>
-      <c r="B211" s="7">
-        <v>706339.12528145418</v>
-      </c>
-      <c r="C211" s="8">
+      <c r="B211" s="6">
+        <v>70.633912528145416</v>
+      </c>
+      <c r="C211" s="7">
         <v>23.18</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="23">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>45783</v>
       </c>
-      <c r="B212" s="7">
-        <v>708293.63665814267</v>
-      </c>
-      <c r="C212" s="8">
+      <c r="B212" s="6">
+        <v>70.82936366581427</v>
+      </c>
+      <c r="C212" s="7">
         <v>24.11</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="23">
-      <c r="A213" s="5">
+      <c r="A213" s="4">
         <v>45784</v>
       </c>
-      <c r="B213" s="7">
-        <v>704498.09811239038</v>
-      </c>
-      <c r="C213" s="8">
+      <c r="B213" s="6">
+        <v>70.449809811239035</v>
+      </c>
+      <c r="C213" s="7">
         <v>23.32</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="23">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>45785</v>
       </c>
-      <c r="B214" s="7">
-        <v>702673.47616061708</v>
-      </c>
-      <c r="C214" s="8">
+      <c r="B214" s="6">
+        <v>70.267347616061699</v>
+      </c>
+      <c r="C214" s="7">
         <v>22.29</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="23">
-      <c r="A215" s="5">
+      <c r="A215" s="4">
         <v>45786</v>
       </c>
-      <c r="B215" s="7">
-        <v>695876.64146564202</v>
-      </c>
-      <c r="C215" s="8">
+      <c r="B215" s="6">
+        <v>69.587664146564194</v>
+      </c>
+      <c r="C215" s="7">
         <v>22.01</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="23">
-      <c r="A216" s="5">
+      <c r="A216" s="4">
         <v>45789</v>
       </c>
-      <c r="B216" s="7">
-        <v>704499.99258068635</v>
-      </c>
-      <c r="C216" s="8">
+      <c r="B216" s="6">
+        <v>70.44999925806863</v>
+      </c>
+      <c r="C216" s="7">
         <v>18.57</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="23">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>45790</v>
       </c>
-      <c r="B217" s="7">
-        <v>709210.32442928734</v>
-      </c>
-      <c r="C217" s="8">
+      <c r="B217" s="6">
+        <v>70.921032442928734</v>
+      </c>
+      <c r="C217" s="7">
         <v>18.440000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="23">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>45791</v>
       </c>
-      <c r="B218" s="7">
-        <v>712582.31969222159</v>
-      </c>
-      <c r="C218" s="8">
+      <c r="B218" s="6">
+        <v>71.258231969222166</v>
+      </c>
+      <c r="C218" s="7">
         <v>18.78</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="23">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>45792</v>
       </c>
-      <c r="B219" s="7">
-        <v>706924.15228975273</v>
-      </c>
-      <c r="C219" s="8">
+      <c r="B219" s="6">
+        <v>70.692415228975264</v>
+      </c>
+      <c r="C219" s="7">
         <v>18.23</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="23">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>45793</v>
       </c>
-      <c r="B220" s="7">
-        <v>710965.39837083139</v>
-      </c>
-      <c r="C220" s="8">
+      <c r="B220" s="6">
+        <v>71.096539837083142</v>
+      </c>
+      <c r="C220" s="7">
         <v>17.93</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="23">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>45796</v>
       </c>
-      <c r="B221" s="7">
-        <v>712192.74657673726</v>
-      </c>
-      <c r="C221" s="8">
+      <c r="B221" s="6">
+        <v>71.219274657673722</v>
+      </c>
+      <c r="C221" s="7">
         <v>19.649999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="23">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>45797</v>
       </c>
-      <c r="B222" s="7">
-        <v>706297.88069845631</v>
-      </c>
-      <c r="C222" s="8">
+      <c r="B222" s="6">
+        <v>70.629788069845631</v>
+      </c>
+      <c r="C222" s="7">
         <v>19.5</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="23">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>45798</v>
       </c>
-      <c r="B223" s="7">
-        <v>720911.17292803281</v>
-      </c>
-      <c r="C223" s="8">
+      <c r="B223" s="6">
+        <v>72.09111729280329</v>
+      </c>
+      <c r="C223" s="7">
         <v>20.79</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="23">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>45799</v>
       </c>
-      <c r="B224" s="7">
-        <v>717332.13882935501</v>
-      </c>
-      <c r="C224" s="8">
+      <c r="B224" s="6">
+        <v>71.733213882935502</v>
+      </c>
+      <c r="C224" s="7">
         <v>21.24</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="23">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>45800</v>
       </c>
-      <c r="B225" s="7">
-        <v>722361.68111230794</v>
-      </c>
-      <c r="C225" s="8">
+      <c r="B225" s="6">
+        <v>72.236168111230796</v>
+      </c>
+      <c r="C225" s="7">
         <v>22.28</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="23">
-      <c r="A226" s="5"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="8"/>
+      <c r="A226" s="4"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
     </row>
     <row r="227" spans="1:3" ht="23">
-      <c r="A227" s="5"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="8"/>
+      <c r="A227" s="4"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="7"/>
     </row>
     <row r="228" spans="1:3" ht="23">
-      <c r="A228" s="5"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="8"/>
+      <c r="A228" s="4"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
     </row>
     <row r="229" spans="1:3" ht="23">
-      <c r="A229" s="5"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="8"/>
+      <c r="A229" s="4"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
     </row>
     <row r="230" spans="1:3" ht="23">
-      <c r="A230" s="5"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="8"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
     </row>
     <row r="231" spans="1:3" ht="23">
-      <c r="A231" s="5"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="8"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="7"/>
     </row>
     <row r="232" spans="1:3" ht="23">
-      <c r="A232" s="5"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="8"/>
+      <c r="A232" s="4"/>
+      <c r="B232" s="6"/>
+      <c r="C232" s="7"/>
     </row>
     <row r="233" spans="1:3" ht="23">
-      <c r="A233" s="5"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="8"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="6"/>
+      <c r="C233" s="7"/>
     </row>
     <row r="234" spans="1:3" ht="23">
-      <c r="A234" s="5"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="8"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="7"/>
     </row>
     <row r="235" spans="1:3" ht="23">
-      <c r="A235" s="5"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="8"/>
+      <c r="A235" s="4"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="7"/>
     </row>
     <row r="236" spans="1:3" ht="23">
-      <c r="A236" s="5"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="8"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="7"/>
     </row>
     <row r="237" spans="1:3" ht="23">
-      <c r="A237" s="5"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="8"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="7"/>
     </row>
     <row r="238" spans="1:3" ht="23">
-      <c r="A238" s="5"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="8"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="7"/>
     </row>
     <row r="239" spans="1:3" ht="23">
-      <c r="A239" s="5"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="8"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="7"/>
     </row>
     <row r="240" spans="1:3" ht="23">
-      <c r="A240" s="5"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="8"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="6"/>
+      <c r="C240" s="7"/>
     </row>
     <row r="241" spans="1:3" ht="23">
-      <c r="A241" s="5"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="8"/>
+      <c r="A241" s="4"/>
+      <c r="B241" s="6"/>
+      <c r="C241" s="7"/>
     </row>
     <row r="242" spans="1:3" ht="23">
-      <c r="A242" s="5"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="8"/>
+      <c r="A242" s="4"/>
+      <c r="B242" s="6"/>
+      <c r="C242" s="7"/>
     </row>
     <row r="243" spans="1:3" ht="23">
-      <c r="A243" s="5"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="8"/>
+      <c r="A243" s="4"/>
+      <c r="B243" s="6"/>
+      <c r="C243" s="7"/>
     </row>
     <row r="244" spans="1:3" ht="23">
-      <c r="A244" s="5"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="8"/>
+      <c r="A244" s="4"/>
+      <c r="B244" s="6"/>
+      <c r="C244" s="7"/>
     </row>
     <row r="245" spans="1:3" ht="23">
-      <c r="A245" s="5"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="8"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="6"/>
+      <c r="C245" s="7"/>
     </row>
     <row r="246" spans="1:3" ht="23">
-      <c r="A246" s="5"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="8"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="6"/>
+      <c r="C246" s="7"/>
     </row>
     <row r="247" spans="1:3" ht="23">
-      <c r="A247" s="5"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="8"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="6"/>
+      <c r="C247" s="7"/>
     </row>
     <row r="248" spans="1:3" ht="23">
-      <c r="A248" s="5"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="8"/>
+      <c r="A248" s="4"/>
+      <c r="B248" s="6"/>
+      <c r="C248" s="7"/>
     </row>
     <row r="249" spans="1:3" ht="23">
-      <c r="A249" s="5"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="8"/>
+      <c r="A249" s="4"/>
+      <c r="B249" s="6"/>
+      <c r="C249" s="7"/>
     </row>
     <row r="250" spans="1:3" ht="23">
-      <c r="A250" s="5"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="8"/>
+      <c r="A250" s="4"/>
+      <c r="B250" s="6"/>
+      <c r="C250" s="7"/>
     </row>
     <row r="251" spans="1:3" ht="23">
-      <c r="A251" s="5"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="8"/>
+      <c r="A251" s="4"/>
+      <c r="B251" s="6"/>
+      <c r="C251" s="7"/>
     </row>
     <row r="252" spans="1:3" ht="23">
-      <c r="A252" s="5"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="8"/>
+      <c r="A252" s="4"/>
+      <c r="B252" s="6"/>
+      <c r="C252" s="7"/>
     </row>
     <row r="253" spans="1:3" ht="23">
-      <c r="A253" s="5"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="8"/>
+      <c r="A253" s="4"/>
+      <c r="B253" s="6"/>
+      <c r="C253" s="7"/>
     </row>
     <row r="254" spans="1:3" ht="23">
-      <c r="A254" s="5"/>
-      <c r="B254" s="7"/>
-      <c r="C254" s="8"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="6"/>
+      <c r="C254" s="7"/>
     </row>
     <row r="255" spans="1:3" ht="23">
-      <c r="A255" s="5"/>
-      <c r="B255" s="7"/>
-      <c r="C255" s="8"/>
+      <c r="A255" s="4"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="7"/>
     </row>
     <row r="256" spans="1:3" ht="23">
-      <c r="A256" s="5"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="8"/>
+      <c r="A256" s="4"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="7"/>
     </row>
     <row r="257" spans="1:3" ht="23">
-      <c r="A257" s="5"/>
-      <c r="B257" s="7"/>
-      <c r="C257" s="8"/>
+      <c r="A257" s="4"/>
+      <c r="B257" s="6"/>
+      <c r="C257" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3156,7 +3151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
     </sheetView>
@@ -3170,3606 +3165,3606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45138</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="40" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>45140</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.52837999999999996</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>45146</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.95852999999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>-1.2456</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>45154</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.85787000000000002</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>-2.0286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>45162</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0.77890000000000004</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>-3.0272999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>45166</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>0.57889999999999997</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>-2.5295000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>45167</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1.2764800000000001</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>-1.5078</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>45168</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2.16134</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>-0.45219999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>45176</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1.5662799999999999</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>-2.1015999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>45183</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>-0.81132000000000004</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>9.35E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>45184</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>-8.6269999999999999E-2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>-0.7621</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="40" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>45188</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>0.62402999999999997</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>-1.6418999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="40" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>45190</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1.1106499999999999</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>-3.2090000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>45191</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>0.99956999999999996</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>-3.4251</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="40" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>45195</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1.2878099999999999</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>-4.5069999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>45196</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>2.3519199999999998</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>-5.3798000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="40" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>45197</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2.7643300000000002</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>-4.4207000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="40" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>45201</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2.07823</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>-5.1189</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="40" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>45202</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>2.6023499999999999</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>-6.3071999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="40" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>45205</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>2.2045699999999999</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>-4.9684999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="40" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>45209</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>2.4811200000000002</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>-3.2317</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="40" customHeight="1">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>45212</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>2.5087000000000002</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>-3.9274</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40" customHeight="1">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>45216</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>2.1104699999999998</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>-2.8403999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40" customHeight="1">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>45217</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>2.6808299999999998</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>-3.8610000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="40" customHeight="1">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>45219</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>3.39141</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>-6.3483000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="40" customHeight="1">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>45225</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>4.2293500000000002</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>-8.4063999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="40" customHeight="1">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <v>45231</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>3.3577499999999998</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>-7.3262</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="40" customHeight="1">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <v>45232</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>3.57857</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>-5.1478999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="40" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <v>45233</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>4.46821</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>-3.6587999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="40" customHeight="1">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <v>45237</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>3.9833599999999998</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>-3.3113000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="40" customHeight="1">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <v>45243</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>3.5868199999999999</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>-2.7271999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="40" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <v>45244</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>5.1916000000000002</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>-0.56830000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="40" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <v>45246</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>5.2755000000000001</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>-0.81030000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="40" customHeight="1">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <v>45252</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>5.0744499999999997</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>0.60340000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="40" customHeight="1">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>45260</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>4.5154500000000004</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>0.5706</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="40" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <v>45271</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>4.21075</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>1.4257</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="40" customHeight="1">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <v>45274</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>5.4698500000000001</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>5.0162000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="40" customHeight="1">
-      <c r="A39" s="5">
+      <c r="A39" s="4">
         <v>45279</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>6.22478</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>5.7617000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="40" customHeight="1">
-      <c r="A40" s="5">
+      <c r="A40" s="4">
         <v>45281</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>7.0450799999999996</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>4.7279999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="40" customHeight="1">
-      <c r="A41" s="5">
+      <c r="A41" s="4">
         <v>45282</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>8.2691300000000005</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>5.6628999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="40" customHeight="1">
-      <c r="A42" s="5">
+      <c r="A42" s="4">
         <v>45294</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>8.6181800000000006</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>4.5598999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="40" customHeight="1">
-      <c r="A43" s="5">
+      <c r="A43" s="4">
         <v>45301</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>7.7268800000000004</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>5.4307999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="40" customHeight="1">
-      <c r="A44" s="5">
+      <c r="A44" s="4">
         <v>45308</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>7.6831199999999997</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>4.9009999999999998</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="40" customHeight="1">
-      <c r="A45" s="5">
+      <c r="A45" s="4">
         <v>45309</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>7.92136</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>5.3244999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="40" customHeight="1">
-      <c r="A46" s="5">
+      <c r="A46" s="4">
         <v>45310</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>8.0393799999999995</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>6.1246</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="40" customHeight="1">
-      <c r="A47" s="5">
+      <c r="A47" s="4">
         <v>45313</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>8.2501200000000008</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>7.1440000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="40" customHeight="1">
-      <c r="A48" s="5">
+      <c r="A48" s="4">
         <v>45314</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>7.5479099999999999</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>7.0568999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="40" customHeight="1">
-      <c r="A49" s="5">
+      <c r="A49" s="4">
         <v>45315</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>8.9207099999999997</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>8.0669000000000004</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="40" customHeight="1">
-      <c r="A50" s="5">
+      <c r="A50" s="4">
         <v>45321</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="5">
         <v>8.7196099999999994</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>8.5023999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="40" customHeight="1">
-      <c r="A51" s="5">
+      <c r="A51" s="4">
         <v>45322</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
         <v>9.4240999999999993</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="5">
         <v>7.6855000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="40" customHeight="1">
-      <c r="A52" s="5">
+      <c r="A52" s="4">
         <v>45324</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5">
         <v>10.029400000000001</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>8.7094000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="40" customHeight="1">
-      <c r="A53" s="5">
+      <c r="A53" s="4">
         <v>45330</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
         <v>9.0272000000000006</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="5">
         <v>9.8277000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="40" customHeight="1">
-      <c r="A54" s="5">
+      <c r="A54" s="4">
         <v>45334</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5">
         <v>10.181100000000001</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>10.5977</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="40" customHeight="1">
-      <c r="A55" s="5">
+      <c r="A55" s="4">
         <v>45335</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5">
         <v>11.266400000000001</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="5">
         <v>9.1773000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="40" customHeight="1">
-      <c r="A56" s="5">
+      <c r="A56" s="4">
         <v>45337</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>11.85486</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>10.046900000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="40" customHeight="1">
-      <c r="A57" s="5">
+      <c r="A57" s="4">
         <v>45342</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="5">
         <v>11.47104</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="5">
         <v>9.1170000000000009</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="40" customHeight="1">
-      <c r="A58" s="5">
+      <c r="A58" s="4">
         <v>45344</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="5">
         <v>13.45524</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="5">
         <v>10.9582</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="40" customHeight="1">
-      <c r="A59" s="5">
+      <c r="A59" s="4">
         <v>45345</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="5">
         <v>14.124140000000001</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="5">
         <v>12.8368</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="40" customHeight="1">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>45355</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5">
         <v>13.667820000000001</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>13.5024</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="40" customHeight="1">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>45356</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>14.42456</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>12.6159</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="40" customHeight="1">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>45357</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>13.04824</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>13.2926</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="40" customHeight="1">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>45359</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>14.84376</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>14.451599999999999</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="40" customHeight="1">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>45362</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>16.071339999999999</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>13.0746</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="40" customHeight="1">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>45363</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>15.881080000000001</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>14.0412</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="40" customHeight="1">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>45366</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>15.459540000000001</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>13.119</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="40" customHeight="1">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>45370</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>15.35778</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>13.926399999999999</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="40" customHeight="1">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>45372</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>16.634920000000001</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>15.7384</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="40" customHeight="1">
-      <c r="A69" s="5">
+      <c r="A69" s="4">
         <v>45384</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>15.17544</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>14.2514</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="40" customHeight="1">
-      <c r="A70" s="5">
+      <c r="A70" s="4">
         <v>45386</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>15.503019999999999</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>15.3805</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="40" customHeight="1">
-      <c r="A71" s="5">
+      <c r="A71" s="4">
         <v>45387</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>17.288319999999999</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>14.3849</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="40" customHeight="1">
-      <c r="A72" s="5">
+      <c r="A72" s="4">
         <v>45393</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>17.31428</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>13.36</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="40" customHeight="1">
-      <c r="A73" s="5">
+      <c r="A73" s="4">
         <v>45394</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>17.923739999999999</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>13.2926</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="40" customHeight="1">
-      <c r="A74" s="5">
+      <c r="A74" s="4">
         <v>45398</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="5">
         <v>19.26088</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="5">
         <v>11.327400000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="40" customHeight="1">
-      <c r="A75" s="5">
+      <c r="A75" s="4">
         <v>45404</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
         <v>16.96846</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>9.8026999999999997</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="40" customHeight="1">
-      <c r="A76" s="5">
+      <c r="A76" s="4">
         <v>45405</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="5">
         <v>17.528099999999998</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>11.631500000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="40" customHeight="1">
-      <c r="A77" s="5">
+      <c r="A77" s="4">
         <v>45407</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
         <v>18.10568</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>10.3102</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="40" customHeight="1">
-      <c r="A78" s="5">
+      <c r="A78" s="4">
         <v>45408</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5">
         <v>19.12988</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="5">
         <v>12.246700000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="40" customHeight="1">
-      <c r="A79" s="5">
+      <c r="A79" s="4">
         <v>45413</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="5">
         <v>18.287240000000001</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="5">
         <v>10.7065</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="40" customHeight="1">
-      <c r="A80" s="5">
+      <c r="A80" s="4">
         <v>45415</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="5">
         <v>17.3096</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <v>12.2126</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="40" customHeight="1">
-      <c r="A81" s="5">
+      <c r="A81" s="4">
         <v>45418</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="5">
         <v>17.30762</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="5">
         <v>13.181800000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="40" customHeight="1">
-      <c r="A82" s="5">
+      <c r="A82" s="4">
         <v>45419</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="5">
         <v>18.2163</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <v>13.912100000000001</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="40" customHeight="1">
-      <c r="A83" s="5">
+      <c r="A83" s="4">
         <v>45422</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="5">
         <v>17.412479999999999</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <v>14.513400000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="40" customHeight="1">
-      <c r="A84" s="5">
+      <c r="A84" s="4">
         <v>45427</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="5">
         <v>16.065719999999999</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <v>15.517200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="40" customHeight="1">
-      <c r="A85" s="5">
+      <c r="A85" s="4">
         <v>45428</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="5">
         <v>16.185870000000001</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <v>16.2821</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="40" customHeight="1">
-      <c r="A86" s="5">
+      <c r="A86" s="4">
         <v>45443</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>14.77801</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>14.079499999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="40" customHeight="1">
-      <c r="A87" s="5">
+      <c r="A87" s="4">
         <v>45446</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>14.559559999999999</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <v>15.035500000000001</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="40" customHeight="1">
-      <c r="A88" s="5">
+      <c r="A88" s="4">
         <v>45448</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>14.659269999999999</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <v>15.945</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="40" customHeight="1">
-      <c r="A89" s="5">
+      <c r="A89" s="4">
         <v>45449</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>14.75839</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>16.5809</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="40" customHeight="1">
-      <c r="A90" s="5">
+      <c r="A90" s="4">
         <v>45455</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>15.367509999999999</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>18.098199999999999</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="40" customHeight="1">
-      <c r="A91" s="5">
+      <c r="A91" s="4">
         <v>45463</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>15.30405</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <v>20.316400000000002</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="40" customHeight="1">
-      <c r="A92" s="5">
+      <c r="A92" s="4">
         <v>45471</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>12.15178</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>20.1206</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="40" customHeight="1">
-      <c r="A93" s="5">
+      <c r="A93" s="4">
         <v>45474</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>11.581049999999999</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>19.330100000000002</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="40" customHeight="1">
-      <c r="A94" s="5">
+      <c r="A94" s="4">
         <v>45476</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>12.15113</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>20.4709</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="40" customHeight="1">
-      <c r="A95" s="5">
+      <c r="A95" s="4">
         <v>45481</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>12.736649999999999</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <v>21.372399999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="40" customHeight="1">
-      <c r="A96" s="5">
+      <c r="A96" s="4">
         <v>45484</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>13.449669999999999</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <v>21.913</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="40" customHeight="1">
-      <c r="A97" s="5">
+      <c r="A97" s="4">
         <v>45491</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>16.14997</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="5">
         <v>20.962800000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="40" customHeight="1">
-      <c r="A98" s="5">
+      <c r="A98" s="4">
         <v>45497</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="5">
         <v>16.749919999999999</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="5">
         <v>19.348299999999998</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="40" customHeight="1">
-      <c r="A99" s="5">
+      <c r="A99" s="4">
         <v>45503</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="5">
         <v>17.556619999999999</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="5">
         <v>18.364100000000001</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="40" customHeight="1">
-      <c r="A100" s="5">
+      <c r="A100" s="4">
         <v>45504</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="5">
         <v>20.225020000000001</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="5">
         <v>20.178999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="40" customHeight="1">
-      <c r="A101" s="5">
+      <c r="A101" s="4">
         <v>45505</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="5">
         <v>22.579730000000001</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="5">
         <v>19.343699999999998</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="40" customHeight="1">
-      <c r="A102" s="5">
+      <c r="A102" s="4">
         <v>45506</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="5">
         <v>29.961069999999999</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="5">
         <v>17.222100000000001</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="40" customHeight="1">
-      <c r="A103" s="5">
+      <c r="A103" s="4">
         <v>45509</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="5">
         <v>38.744109999999999</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="5">
         <v>13.5562</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="40" customHeight="1">
-      <c r="A104" s="5">
+      <c r="A104" s="4">
         <v>45510</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="5">
         <v>42.419690000000003</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="5">
         <v>15.361599999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="40" customHeight="1">
-      <c r="A105" s="5">
+      <c r="A105" s="4">
         <v>45517</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="5">
         <v>34.078400000000002</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="5">
         <v>17.434899999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="40" customHeight="1">
-      <c r="A106" s="5">
+      <c r="A106" s="4">
         <v>45518</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="5">
         <v>32.304340000000003</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="5">
         <v>18.364100000000001</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="40" customHeight="1">
-      <c r="A107" s="5">
+      <c r="A107" s="4">
         <v>45519</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="5">
         <v>33.103180000000002</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="5">
         <v>20.053100000000001</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="40" customHeight="1">
-      <c r="A108" s="5">
+      <c r="A108" s="4">
         <v>45523</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="5">
         <v>32.505920000000003</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="5">
         <v>20.949400000000001</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="40" customHeight="1">
-      <c r="A109" s="5">
+      <c r="A109" s="4">
         <v>45525</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="5">
         <v>37.056399999999996</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="5">
         <v>21.479900000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="40" customHeight="1">
-      <c r="A110" s="5">
+      <c r="A110" s="4">
         <v>45533</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>33.095590000000001</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="5">
         <v>21.815799999999999</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="40" customHeight="1">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>45538</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>34.511780000000002</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="5">
         <v>20.439499999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="40" customHeight="1">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>45539</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>34.644199999999998</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="5">
         <v>19.8187</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="40" customHeight="1">
-      <c r="A113" s="5">
+      <c r="A113" s="4">
         <v>45540</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>35.025730000000003</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="5">
         <v>19.0304</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="40" customHeight="1">
-      <c r="A114" s="5">
+      <c r="A114" s="4">
         <v>45541</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>35.743290000000002</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="5">
         <v>17.813099999999999</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="40" customHeight="1">
-      <c r="A115" s="5">
+      <c r="A115" s="4">
         <v>45544</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>34.581679999999999</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="5">
         <v>18.766200000000001</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="40" customHeight="1">
-      <c r="A116" s="5">
+      <c r="A116" s="4">
         <v>45546</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>32.985219999999998</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="5">
         <v>17.886800000000001</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="40" customHeight="1">
-      <c r="A117" s="5">
+      <c r="A117" s="4">
         <v>45547</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>38.065570000000001</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <v>21.3324</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="40" customHeight="1">
-      <c r="A118" s="5">
+      <c r="A118" s="4">
         <v>45548</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>38.896210000000004</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="5">
         <v>22.613199999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="40" customHeight="1">
-      <c r="A119" s="5">
+      <c r="A119" s="4">
         <v>45554</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>39.812869999999997</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="5">
         <v>23.851800000000001</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="40" customHeight="1">
-      <c r="A120" s="5">
+      <c r="A120" s="4">
         <v>45562</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>39.14</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="5">
         <v>24.68</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="40" customHeight="1">
-      <c r="A121" s="5">
+      <c r="A121" s="4">
         <v>45566</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>42.39</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="5">
         <v>23.55</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="40" customHeight="1">
-      <c r="A122" s="5">
+      <c r="A122" s="4">
         <v>45573</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="5">
         <v>41.8</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="5">
         <v>24.18</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="40" customHeight="1">
-      <c r="A123" s="5">
+      <c r="A123" s="4">
         <v>45574</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="5">
         <v>41.91</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="5">
         <v>24.88</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="40" customHeight="1">
-      <c r="A124" s="5">
+      <c r="A124" s="4">
         <v>45576</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="5">
         <v>41.72</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="5">
         <v>25.41</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="40" customHeight="1">
-      <c r="A125" s="5">
+      <c r="A125" s="4">
         <v>45579</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="5">
         <v>40.770000000000003</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="5">
         <v>26.11</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="40" customHeight="1">
-      <c r="A126" s="5">
+      <c r="A126" s="4">
         <v>45589</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="5">
         <v>37.04</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="5">
         <v>25.02</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="40" customHeight="1">
-      <c r="A127" s="5">
+      <c r="A127" s="4">
         <v>45590</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="5">
         <v>37.01</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="5">
         <v>25.94</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="40" customHeight="1">
-      <c r="A128" s="5">
+      <c r="A128" s="4">
         <v>45596</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="5">
         <v>39.24</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="5">
         <v>23.62</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="40" customHeight="1">
-      <c r="A129" s="5">
+      <c r="A129" s="4">
         <v>45601</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="5">
         <v>35.53</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="5">
         <v>24.19</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="40" customHeight="1">
-      <c r="A130" s="5">
+      <c r="A130" s="4">
         <v>45602</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="5">
         <v>35.78</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="5">
         <v>26.4</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="40" customHeight="1">
-      <c r="A131" s="5">
+      <c r="A131" s="4">
         <v>45603</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="5">
         <v>35.85</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="5">
         <v>27.69</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="40" customHeight="1">
-      <c r="A132" s="5">
+      <c r="A132" s="4">
         <v>45611</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="5">
         <v>34.43</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="5">
         <v>26.11</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="40" customHeight="1">
-      <c r="A133" s="5">
+      <c r="A133" s="4">
         <v>45615</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="5">
         <v>33.93</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="5">
         <v>26.54</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="40" customHeight="1">
-      <c r="A134" s="5">
+      <c r="A134" s="4">
         <v>45617</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>37.090000000000003</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="5">
         <v>27.21</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="40" customHeight="1">
-      <c r="A135" s="5">
+      <c r="A135" s="4">
         <v>45622</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="5">
         <v>31.88</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="5">
         <v>28.26</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="40" customHeight="1">
-      <c r="A136" s="5">
+      <c r="A136" s="4">
         <v>45625</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="5">
         <v>30.66</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="5">
         <v>28.62</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="40" customHeight="1">
-      <c r="A137" s="5">
+      <c r="A137" s="4">
         <v>45630</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="5">
         <v>30.58</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="5">
         <v>29.23</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="40" customHeight="1">
-      <c r="A138" s="5">
+      <c r="A138" s="4">
         <v>45645</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="5">
         <v>48.67</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="5">
         <v>25.7</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="40" customHeight="1">
-      <c r="A139" s="5">
+      <c r="A139" s="4">
         <v>45646</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="5">
         <v>49.82</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="5">
         <v>24.86</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="40" customHeight="1">
-      <c r="A140" s="5">
+      <c r="A140" s="4">
         <v>45663</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="5">
         <v>47.73</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="5">
         <v>28.74</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="40" customHeight="1">
-      <c r="A141" s="5">
+      <c r="A141" s="4">
         <v>45664</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="5">
         <v>50.63</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="5">
         <v>26.82</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="40" customHeight="1">
-      <c r="A142" s="5">
+      <c r="A142" s="4">
         <v>45667</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>51.43</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="5">
         <v>25.78</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="40" customHeight="1">
-      <c r="A143" s="5">
+      <c r="A143" s="4">
         <v>45670</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>52.12</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="5">
         <v>25.07</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="40" customHeight="1">
-      <c r="A144" s="5">
+      <c r="A144" s="4">
         <v>45672</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="5">
         <v>51.7</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="5">
         <v>27.42</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="40" customHeight="1">
-      <c r="A145" s="5">
+      <c r="A145" s="4">
         <v>45674</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>51.87</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="5">
         <v>28.49</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="40" customHeight="1">
-      <c r="A146" s="5">
+      <c r="A146" s="4">
         <v>45679</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="5">
         <v>51.67</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="5">
         <v>29.97</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="40" customHeight="1">
-      <c r="A147" s="5">
+      <c r="A147" s="4">
         <v>45684</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="5">
         <v>53.7</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="5">
         <v>28.32</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="40" customHeight="1">
-      <c r="A148" s="5">
+      <c r="A148" s="4">
         <v>45685</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="5">
         <v>54.41</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="5">
         <v>29.1</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="40" customHeight="1">
-      <c r="A149" s="5">
+      <c r="A149" s="4">
         <v>45688</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="5">
         <v>53.57</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="5">
         <v>30.04</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="40" customHeight="1">
-      <c r="A150" s="5">
+      <c r="A150" s="4">
         <v>45691</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="5">
         <v>61.74</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="5">
         <v>27.17</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="40" customHeight="1">
-      <c r="A151" s="5">
+      <c r="A151" s="4">
         <v>45692</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="5">
         <v>62.08</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="5">
         <v>28.72</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="40" customHeight="1">
-      <c r="A152" s="5">
+      <c r="A152" s="4">
         <v>45694</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B152" s="5">
         <v>60.8</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="5">
         <v>29.38</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="40" customHeight="1">
-      <c r="A153" s="5">
+      <c r="A153" s="4">
         <v>45695</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="5">
         <v>60.5</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C153" s="5">
         <v>28.62</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="40" customHeight="1">
-      <c r="A154" s="5">
+      <c r="A154" s="4">
         <v>45698</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B154" s="5">
         <v>60.5</v>
       </c>
-      <c r="C154" s="6">
+      <c r="C154" s="5">
         <v>29.26</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="40" customHeight="1">
-      <c r="A155" s="5">
+      <c r="A155" s="4">
         <v>45699</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="5">
         <v>60.49</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="5">
         <v>29.32</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="40" customHeight="1">
-      <c r="A156" s="5">
+      <c r="A156" s="4">
         <v>45700</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="5">
         <v>60.49</v>
       </c>
-      <c r="C156" s="6">
+      <c r="C156" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="40" customHeight="1">
-      <c r="A157" s="5">
+      <c r="A157" s="4">
         <v>45701</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="5">
         <v>60.49</v>
       </c>
-      <c r="C157" s="6">
+      <c r="C157" s="5">
         <v>30.02</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="40" customHeight="1">
-      <c r="A158" s="5">
+      <c r="A158" s="4">
         <v>45702</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="5">
         <v>59.87</v>
       </c>
-      <c r="C158" s="6">
+      <c r="C158" s="5">
         <v>29.97</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="40" customHeight="1">
-      <c r="A159" s="5">
+      <c r="A159" s="4">
         <v>45705</v>
       </c>
-      <c r="B159" s="9">
+      <c r="B159" s="8">
         <v>59.832549732750181</v>
       </c>
-      <c r="C159" s="9">
+      <c r="C159" s="8">
         <v>29.971327959071754</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="40" customHeight="1">
-      <c r="A160" s="5">
+      <c r="A160" s="4">
         <v>45706</v>
       </c>
-      <c r="B160" s="9">
+      <c r="B160" s="8">
         <v>58.741970205032558</v>
       </c>
-      <c r="C160" s="9">
+      <c r="C160" s="8">
         <v>30.211580543331717</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="40" customHeight="1">
-      <c r="A161" s="5">
+      <c r="A161" s="4">
         <v>45707</v>
       </c>
-      <c r="B161" s="9">
+      <c r="B161" s="8">
         <v>58.47522752009435</v>
       </c>
-      <c r="C161" s="9">
+      <c r="C161" s="8">
         <v>30.475599056125596</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="40" customHeight="1">
-      <c r="A162" s="5">
+      <c r="A162" s="4">
         <v>45708</v>
       </c>
-      <c r="B162" s="9">
+      <c r="B162" s="8">
         <v>56.793929030915095</v>
       </c>
-      <c r="C162" s="9">
+      <c r="C162" s="8">
         <v>30.044686563657574</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="40" customHeight="1">
-      <c r="A163" s="5">
+      <c r="A163" s="4">
         <v>45709</v>
       </c>
-      <c r="B163" s="9">
+      <c r="B163" s="8">
         <v>59.526000000000003</v>
       </c>
-      <c r="C163" s="9">
+      <c r="C163" s="8">
         <v>28.277347808841842</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="40" customHeight="1">
-      <c r="A164" s="5">
+      <c r="A164" s="4">
         <v>45712</v>
       </c>
-      <c r="B164" s="9">
+      <c r="B164" s="8">
         <v>60.094451902298907</v>
       </c>
-      <c r="C164" s="9">
+      <c r="C164" s="8">
         <v>27.807677999735585</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="40" customHeight="1">
-      <c r="A165" s="5">
+      <c r="A165" s="4">
         <v>45713</v>
       </c>
-      <c r="B165" s="9">
+      <c r="B165" s="8">
         <v>60.553917989038709</v>
       </c>
-      <c r="C165" s="9">
+      <c r="C165" s="8">
         <v>27.293924598566065</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="40" customHeight="1">
-      <c r="A166" s="5">
+      <c r="A166" s="4">
         <v>45714</v>
       </c>
-      <c r="B166" s="9">
+      <c r="B166" s="8">
         <v>60.798005860672511</v>
       </c>
-      <c r="C166" s="9">
+      <c r="C166" s="8">
         <v>27.306486623581023</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="40" customHeight="1">
-      <c r="A167" s="5">
+      <c r="A167" s="4">
         <v>45715</v>
       </c>
-      <c r="B167" s="9">
+      <c r="B167" s="8">
         <v>62.216056315725986</v>
       </c>
-      <c r="C167" s="9">
+      <c r="C167" s="8">
         <v>25.711112193735332</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="40" customHeight="1">
-      <c r="A168" s="5">
+      <c r="A168" s="4">
         <v>45716</v>
       </c>
-      <c r="B168" s="9">
+      <c r="B168" s="8">
         <v>62.469834859004237</v>
       </c>
-      <c r="C168" s="9">
+      <c r="C168" s="8">
         <v>27.180795304871548</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="40" customHeight="1">
-      <c r="A169" s="5">
+      <c r="A169" s="4">
         <v>45719</v>
       </c>
-      <c r="B169" s="9">
+      <c r="B169" s="8">
         <v>65.339886221467737</v>
       </c>
-      <c r="C169" s="9">
+      <c r="C169" s="8">
         <v>25.446990032864019</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="40" customHeight="1">
-      <c r="A170" s="5">
+      <c r="A170" s="4">
         <v>45720</v>
       </c>
-      <c r="B170" s="9">
+      <c r="B170" s="8">
         <v>66.861193104701584</v>
       </c>
-      <c r="C170" s="9">
+      <c r="C170" s="8">
         <v>24.223825065134069</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="40" customHeight="1">
-      <c r="A171" s="5">
+      <c r="A171" s="4">
         <v>45721</v>
       </c>
-      <c r="B171" s="9">
+      <c r="B171" s="8">
         <v>66.517508508857574</v>
       </c>
-      <c r="C171" s="9">
+      <c r="C171" s="8">
         <v>25.284763221329332</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="40" customHeight="1">
-      <c r="A172" s="5">
+      <c r="A172" s="4">
         <v>45722</v>
       </c>
-      <c r="B172" s="9">
+      <c r="B172" s="8">
         <v>68.323242194259294</v>
       </c>
-      <c r="C172" s="9">
+      <c r="C172" s="8">
         <v>23.473978671945069</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="40" customHeight="1">
-      <c r="A173" s="5">
+      <c r="A173" s="4">
         <v>45723</v>
       </c>
-      <c r="B173" s="9">
+      <c r="B173" s="8">
         <v>67.563850300614916</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C173" s="8">
         <v>23.99037201716752</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="40" customHeight="1">
-      <c r="A174" s="5">
+      <c r="A174" s="4">
         <v>45726</v>
       </c>
-      <c r="B174" s="9">
+      <c r="B174" s="8">
         <v>69.954198926180794</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C174" s="8">
         <v>21.265742554012483</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="40" customHeight="1">
-      <c r="A175" s="5">
+      <c r="A175" s="4">
         <v>45727</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B175" s="8">
         <v>69.383621539058765</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C175" s="8">
         <v>20.484331598856667</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="40" customHeight="1">
-      <c r="A176" s="5">
+      <c r="A176" s="4">
         <v>45728</v>
       </c>
-      <c r="B176" s="9">
+      <c r="B176" s="8">
         <v>67.089681867288334</v>
       </c>
-      <c r="C176" s="9">
+      <c r="C176" s="8">
         <v>20.980677107752204</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="40" customHeight="1">
-      <c r="A177" s="5">
+      <c r="A177" s="4">
         <v>45729</v>
       </c>
-      <c r="B177" s="9">
+      <c r="B177" s="8">
         <v>67.323335496895723</v>
       </c>
-      <c r="C177" s="9">
+      <c r="C177" s="8">
         <v>19.592795233061427</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="40" customHeight="1">
-      <c r="A178" s="5">
+      <c r="A178" s="4">
         <v>45730</v>
       </c>
-      <c r="B178" s="9">
+      <c r="B178" s="8">
         <v>67.181036050178449</v>
       </c>
-      <c r="C178" s="9">
+      <c r="C178" s="8">
         <v>21.60763840911175</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="40" customHeight="1">
-      <c r="A179" s="5">
+      <c r="A179" s="4">
         <v>45733</v>
       </c>
-      <c r="B179" s="9">
+      <c r="B179" s="8">
         <v>66.920406977849183</v>
       </c>
-      <c r="C179" s="9">
+      <c r="C179" s="8">
         <v>22.318756443012568</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="40" customHeight="1">
-      <c r="A180" s="5">
+      <c r="A180" s="4">
         <v>45734</v>
       </c>
-      <c r="B180" s="9">
+      <c r="B180" s="8">
         <v>67.036022607578374</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="8">
         <v>22.124915243940873</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="40" customHeight="1">
-      <c r="A181" s="5">
+      <c r="A181" s="4">
         <v>45735</v>
       </c>
-      <c r="B181" s="9">
+      <c r="B181" s="8">
         <v>66.990956416610388</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="8">
         <v>23.186421833852929</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="40" customHeight="1">
-      <c r="A182" s="5">
+      <c r="A182" s="4">
         <v>45736</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="8">
         <v>66.876361537686464</v>
       </c>
-      <c r="C182" s="9">
+      <c r="C182" s="8">
         <v>22.889283752002022</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="40" customHeight="1">
-      <c r="A183" s="5">
+      <c r="A183" s="4">
         <v>45737</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="8">
         <v>66.834044441579636</v>
       </c>
-      <c r="C183" s="9">
+      <c r="C183" s="8">
         <v>22.985513310648209</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="40" customHeight="1">
-      <c r="A184" s="5">
+      <c r="A184" s="4">
         <v>45740</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="8">
         <v>66.56</v>
       </c>
-      <c r="C184" s="9">
+      <c r="C184" s="8">
         <v>24.67</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="40" customHeight="1">
-      <c r="A185" s="5">
+      <c r="A185" s="4">
         <v>45741</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="8">
         <v>66.38</v>
       </c>
-      <c r="C185" s="9">
+      <c r="C185" s="8">
         <v>24.86</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="40" customHeight="1">
-      <c r="A186" s="5">
+      <c r="A186" s="4">
         <v>45742</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="8">
         <v>66.5</v>
       </c>
-      <c r="C186" s="9">
+      <c r="C186" s="8">
         <v>23.7</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="40" customHeight="1">
-      <c r="A187" s="5">
+      <c r="A187" s="4">
         <v>45743</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="8">
         <v>66.400000000000006</v>
       </c>
-      <c r="C187" s="9">
+      <c r="C187" s="8">
         <v>23.35</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="40" customHeight="1">
-      <c r="A188" s="5">
+      <c r="A188" s="4">
         <v>45744</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="8">
         <v>66.87</v>
       </c>
-      <c r="C188" s="9">
+      <c r="C188" s="8">
         <v>21.31</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="40" customHeight="1">
-      <c r="A189" s="5">
+      <c r="A189" s="4">
         <v>45747</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="8">
         <v>66.915770481857891</v>
       </c>
-      <c r="C189" s="9">
+      <c r="C189" s="8">
         <v>21.842291960211625</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="40" customHeight="1">
-      <c r="A190" s="5">
+      <c r="A190" s="4">
         <v>45748</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="8">
         <v>66.735285428276399</v>
       </c>
-      <c r="C190" s="9">
+      <c r="C190" s="8">
         <v>22.217477234020642</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="40" customHeight="1">
-      <c r="A191" s="5">
+      <c r="A191" s="4">
         <v>45749</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="8">
         <v>66.988609721040177</v>
       </c>
-      <c r="C191" s="9">
+      <c r="C191" s="8">
         <v>22.880531016766646</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="40" customHeight="1">
-      <c r="A192" s="5">
+      <c r="A192" s="4">
         <v>45750</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="8">
         <v>71.170579906185338</v>
       </c>
-      <c r="C192" s="9">
+      <c r="C192" s="8">
         <v>17.863776999885843</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="40" customHeight="1">
-      <c r="A193" s="5">
+      <c r="A193" s="4">
         <v>45751</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="8">
         <v>71.238202912433707</v>
       </c>
-      <c r="C193" s="9">
+      <c r="C193" s="8">
         <v>11.74406452790994</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="40" customHeight="1">
-      <c r="A194" s="5">
+      <c r="A194" s="4">
         <v>45754</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="8">
         <v>71.290000000000006</v>
       </c>
-      <c r="C194" s="9">
+      <c r="C194" s="8">
         <v>11.49</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="40" customHeight="1">
-      <c r="A195" s="5">
+      <c r="A195" s="4">
         <v>45755</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="8">
         <v>71.31</v>
       </c>
-      <c r="C195" s="9">
+      <c r="C195" s="8">
         <v>9.9700000000000006</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="40" customHeight="1">
-      <c r="A196" s="5">
+      <c r="A196" s="4">
         <v>45756</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="8">
         <v>71.58</v>
       </c>
-      <c r="C196" s="9">
+      <c r="C196" s="8">
         <v>18.93</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="40" customHeight="1">
-      <c r="A197" s="5">
+      <c r="A197" s="4">
         <v>45757</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="8">
         <v>71.709999999999994</v>
       </c>
-      <c r="C197" s="9">
+      <c r="C197" s="8">
         <v>15.43</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="40" customHeight="1">
-      <c r="A198" s="5">
+      <c r="A198" s="4">
         <v>45758</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="8">
         <v>71.599999999999994</v>
       </c>
-      <c r="C198" s="9">
+      <c r="C198" s="8">
         <v>17.100000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="40" customHeight="1">
-      <c r="A199" s="5">
+      <c r="A199" s="4">
         <v>45761</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="8">
         <v>71.366854111218103</v>
       </c>
-      <c r="C199" s="9">
+      <c r="C199" s="8">
         <v>18.010923759318938</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="40" customHeight="1">
-      <c r="A200" s="5">
+      <c r="A200" s="4">
         <v>45762</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="8">
         <v>71.281365566683078</v>
       </c>
-      <c r="C200" s="9">
+      <c r="C200" s="8">
         <v>17.780911697289426</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="40" customHeight="1">
-      <c r="A201" s="5">
+      <c r="A201" s="4">
         <v>45763</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="8">
         <v>71.454290245376413</v>
       </c>
-      <c r="C201" s="9">
+      <c r="C201" s="8">
         <v>15.498345671476349</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="40" customHeight="1">
-      <c r="A202" s="5">
+      <c r="A202" s="4">
         <v>45764</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="8">
         <v>71.377867203379708</v>
       </c>
-      <c r="C202" s="9">
+      <c r="C202" s="8">
         <v>15.630191054798287</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="40" customHeight="1">
-      <c r="A203" s="5">
+      <c r="A203" s="4">
         <v>45769</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="8">
         <v>71.341246065695032</v>
       </c>
-      <c r="C203" s="9">
+      <c r="C203" s="8">
         <v>15.667829258018443</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="40" customHeight="1">
-      <c r="A204" s="5">
+      <c r="A204" s="4">
         <v>45770</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="8">
         <v>71.30713182529496</v>
       </c>
-      <c r="C204" s="9">
+      <c r="C204" s="8">
         <v>17.291529372479239</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="40" customHeight="1">
-      <c r="A205" s="5">
+      <c r="A205" s="4">
         <v>45771</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="8">
         <v>71.283360762242197</v>
       </c>
-      <c r="C205" s="9">
+      <c r="C205" s="8">
         <v>19.298377627116025</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="40" customHeight="1">
-      <c r="A206" s="5">
+      <c r="A206" s="4">
         <v>45772</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="8">
         <v>70.790714431871933</v>
       </c>
-      <c r="C206" s="9">
+      <c r="C206" s="8">
         <v>19.994520027988962</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="40" customHeight="1">
-      <c r="A207" s="5">
+      <c r="A207" s="4">
         <v>45775</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="8">
         <v>70.565346511954488</v>
       </c>
-      <c r="C207" s="9">
+      <c r="C207" s="8">
         <v>20.053064084062015</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="40" customHeight="1">
-      <c r="A208" s="5">
+      <c r="A208" s="4">
         <v>45776</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="8">
         <v>70.571787180695495</v>
       </c>
-      <c r="C208" s="9">
+      <c r="C208" s="8">
         <v>20.605291226534135</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="40" customHeight="1">
-      <c r="A209" s="5">
+      <c r="A209" s="4">
         <v>45777</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="8">
         <v>71.163655589072889</v>
       </c>
-      <c r="C209" s="9">
+      <c r="C209" s="8">
         <v>20.663478905816177</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="40" customHeight="1">
-      <c r="A210" s="5">
+      <c r="A210" s="4">
         <v>45779</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="8">
         <v>71.200717140103308</v>
       </c>
-      <c r="C210" s="9">
+      <c r="C210" s="8">
         <v>22.823619556327209</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="40" customHeight="1">
-      <c r="A211" s="5">
+      <c r="A211" s="4">
         <v>45782</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="8">
         <v>70.633912528145416</v>
       </c>
-      <c r="C211" s="9">
+      <c r="C211" s="8">
         <v>22.169003067598293</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="40" customHeight="1">
-      <c r="A212" s="5">
+      <c r="A212" s="4">
         <v>45783</v>
       </c>
-      <c r="B212" s="9">
+      <c r="B212" s="8">
         <v>70.82936366581427</v>
       </c>
-      <c r="C212" s="9">
+      <c r="C212" s="8">
         <v>21.354659111686829</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="40" customHeight="1">
-      <c r="A213" s="5">
+      <c r="A213" s="4">
         <v>45784</v>
       </c>
-      <c r="B213" s="9">
+      <c r="B213" s="8">
         <v>70.449809811239035</v>
       </c>
-      <c r="C213" s="9">
+      <c r="C213" s="8">
         <v>21.820178340343087</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="40" customHeight="1">
-      <c r="A214" s="5">
+      <c r="A214" s="4">
         <v>45785</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B214" s="8">
         <v>70.267347616061699</v>
       </c>
-      <c r="C214" s="9">
+      <c r="C214" s="8">
         <v>22.393549116817407</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="40" customHeight="1">
-      <c r="A215" s="5">
+      <c r="A215" s="4">
         <v>45786</v>
       </c>
-      <c r="B215" s="9">
+      <c r="B215" s="8">
         <v>69.587664146564194</v>
       </c>
-      <c r="C215" s="9">
+      <c r="C215" s="8">
         <v>22.279137663192934</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="40" customHeight="1">
-      <c r="A216" s="5">
+      <c r="A216" s="4">
         <v>45789</v>
       </c>
-      <c r="B216" s="9">
+      <c r="B216" s="8">
         <v>70.44999925806863</v>
       </c>
-      <c r="C216" s="9">
+      <c r="C216" s="8">
         <v>25.519480068658879</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="40" customHeight="1">
-      <c r="A217" s="5">
+      <c r="A217" s="4">
         <v>45790</v>
       </c>
-      <c r="B217" s="9">
+      <c r="B217" s="8">
         <v>70.921032442928734</v>
       </c>
-      <c r="C217" s="9">
+      <c r="C217" s="8">
         <v>26.190709064034923</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="40" customHeight="1">
-      <c r="A218" s="5">
+      <c r="A218" s="4">
         <v>45791</v>
       </c>
-      <c r="B218" s="9">
+      <c r="B218" s="8">
         <v>71.258231969222166</v>
       </c>
-      <c r="C218" s="9">
+      <c r="C218" s="8">
         <v>26.258431067808324</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="40" customHeight="1">
-      <c r="A219" s="5">
+      <c r="A219" s="4">
         <v>45792</v>
       </c>
-      <c r="B219" s="9">
+      <c r="B219" s="8">
         <v>70.692415228975264</v>
       </c>
-      <c r="C219" s="9">
+      <c r="C219" s="8">
         <v>26.676444216862848</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="40" customHeight="1">
-      <c r="A220" s="5">
+      <c r="A220" s="4">
         <v>45793</v>
       </c>
-      <c r="B220" s="9">
+      <c r="B220" s="8">
         <v>71.096539837083142</v>
       </c>
-      <c r="C220" s="9">
+      <c r="C220" s="8">
         <v>27.386009490594859</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="40" customHeight="1">
-      <c r="A221" s="5">
+      <c r="A221" s="4">
         <v>45793</v>
       </c>
-      <c r="B221" s="9">
+      <c r="B221" s="8">
         <v>71.096539837083142</v>
       </c>
-      <c r="C221" s="9">
+      <c r="C221" s="8">
         <v>27.386009490594859</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="40" customHeight="1">
-      <c r="A222" s="5">
+      <c r="A222" s="4">
         <v>45796</v>
       </c>
-      <c r="B222" s="9">
+      <c r="B222" s="8">
         <v>71.219274657673722</v>
       </c>
-      <c r="C222" s="9">
+      <c r="C222" s="8">
         <v>27.503085938154136</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="40" customHeight="1">
-      <c r="A223" s="5">
+      <c r="A223" s="4">
         <v>45797</v>
       </c>
-      <c r="B223" s="9">
+      <c r="B223" s="8">
         <v>70.629788069845631</v>
       </c>
-      <c r="C223" s="9">
+      <c r="C223" s="8">
         <v>27.122085246991258</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="40" customHeight="1">
-      <c r="A224" s="5">
+      <c r="A224" s="4">
         <v>45798</v>
       </c>
-      <c r="B224" s="9">
+      <c r="B224" s="8">
         <v>72.09111729280329</v>
       </c>
-      <c r="C224" s="9">
+      <c r="C224" s="8">
         <v>25.4555210002809</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="40" customHeight="1">
-      <c r="A225" s="5">
+      <c r="A225" s="4">
         <v>45799</v>
       </c>
-      <c r="B225" s="9">
+      <c r="B225" s="8">
         <v>71.733213882935502</v>
       </c>
-      <c r="C225" s="9">
+      <c r="C225" s="8">
         <v>25.378716080990703</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="40" customHeight="1">
-      <c r="A226" s="5">
+      <c r="A226" s="4">
         <v>45800</v>
       </c>
-      <c r="B226" s="9">
+      <c r="B226" s="8">
         <v>72.236168111230796</v>
       </c>
-      <c r="C226" s="9">
+      <c r="C226" s="8">
         <v>24.697698350977436</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="40" customHeight="1">
-      <c r="A227" s="5"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
+      <c r="A227" s="4"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
     </row>
     <row r="228" spans="1:3" ht="40" customHeight="1">
-      <c r="A228" s="5"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
+      <c r="A228" s="4"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
     </row>
     <row r="229" spans="1:3" ht="40" customHeight="1">
-      <c r="A229" s="5"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
+      <c r="A229" s="4"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
     </row>
     <row r="230" spans="1:3" ht="40" customHeight="1">
-      <c r="A230" s="5"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
+      <c r="A230" s="4"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
     </row>
     <row r="231" spans="1:3" ht="40" customHeight="1">
-      <c r="A231" s="5"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
+      <c r="A231" s="4"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
     </row>
     <row r="232" spans="1:3" ht="40" customHeight="1">
-      <c r="A232" s="5"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
+      <c r="A232" s="4"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
     </row>
     <row r="233" spans="1:3" ht="40" customHeight="1">
-      <c r="A233" s="5"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
+      <c r="A233" s="4"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
     </row>
     <row r="234" spans="1:3" ht="40" customHeight="1">
-      <c r="A234" s="5"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
+      <c r="A234" s="4"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
     </row>
     <row r="235" spans="1:3" ht="40" customHeight="1">
-      <c r="A235" s="5"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" spans="1:3" ht="40" customHeight="1">
-      <c r="A236" s="5"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="1:3" ht="40" customHeight="1">
-      <c r="A237" s="5"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" spans="1:3" ht="40" customHeight="1">
-      <c r="A238" s="5"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" spans="1:3" ht="40" customHeight="1">
-      <c r="A239" s="5"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" spans="1:3" ht="40" customHeight="1">
-      <c r="A240" s="5"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" spans="1:3" ht="40" customHeight="1">
-      <c r="A241" s="5"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" spans="1:3" ht="40" customHeight="1">
-      <c r="A242" s="5"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" spans="1:3" ht="40" customHeight="1">
-      <c r="A243" s="5"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" spans="1:3" ht="40" customHeight="1">
-      <c r="A244" s="5"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" spans="1:3" ht="40" customHeight="1">
-      <c r="A245" s="5"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" spans="1:3" ht="40" customHeight="1">
-      <c r="A246" s="5"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
+      <c r="A246" s="4"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" spans="1:3" ht="40" customHeight="1">
-      <c r="A247" s="5"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
+      <c r="A247" s="4"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" spans="1:3" ht="40" customHeight="1">
-      <c r="A248" s="5"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
+      <c r="A248" s="4"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" spans="1:3" ht="40" customHeight="1">
-      <c r="A249" s="5"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
+      <c r="A249" s="4"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" spans="1:3" ht="40" customHeight="1">
-      <c r="A250" s="5"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
+      <c r="A250" s="4"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" spans="1:3" ht="40" customHeight="1">
-      <c r="A251" s="5"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
+      <c r="A251" s="4"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" spans="1:3" ht="40" customHeight="1">
-      <c r="A252" s="5"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
+      <c r="A252" s="4"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" spans="1:3" ht="40" customHeight="1">
-      <c r="A253" s="5"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
+      <c r="A253" s="4"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" spans="1:3" ht="40" customHeight="1">
-      <c r="A254" s="5"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
+      <c r="A254" s="4"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" spans="1:3" ht="40" customHeight="1">
-      <c r="A255" s="5"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
+      <c r="A255" s="4"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" spans="1:3" ht="40" customHeight="1">
-      <c r="A256" s="5"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
+      <c r="A256" s="4"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" spans="1:3" ht="40" customHeight="1">
-      <c r="A257" s="5"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
+      <c r="A257" s="4"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" spans="1:3" ht="40" customHeight="1">
-      <c r="A258" s="5"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
+      <c r="A258" s="4"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" spans="1:3" ht="40" customHeight="1">
-      <c r="A259" s="5"/>
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
+      <c r="A259" s="4"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" spans="1:3" ht="40" customHeight="1">
-      <c r="A260" s="5"/>
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
+      <c r="A260" s="4"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" spans="1:3" ht="40" customHeight="1">
-      <c r="A261" s="5"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
+      <c r="A261" s="4"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" spans="1:3" ht="40" customHeight="1">
-      <c r="A262" s="5"/>
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
+      <c r="A262" s="4"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" spans="1:3" ht="40" customHeight="1">
-      <c r="A263" s="5"/>
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
+      <c r="A263" s="4"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" spans="1:3" ht="40" customHeight="1">
-      <c r="A264" s="5"/>
-      <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
+      <c r="A264" s="4"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" spans="1:3" ht="40" customHeight="1">
-      <c r="A265" s="5"/>
-      <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
+      <c r="A265" s="4"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" spans="1:3" ht="40" customHeight="1">
-      <c r="A266" s="5"/>
-      <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
+      <c r="A266" s="4"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" spans="1:3" ht="40" customHeight="1">
-      <c r="A267" s="5"/>
-      <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
+      <c r="A267" s="4"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" spans="1:3" ht="40" customHeight="1">
-      <c r="A268" s="5"/>
-      <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
+      <c r="A268" s="4"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" spans="1:3" ht="40" customHeight="1">
-      <c r="A269" s="5"/>
-      <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
+      <c r="A269" s="4"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" spans="1:3" ht="40" customHeight="1">
-      <c r="A270" s="5"/>
-      <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
+      <c r="A270" s="4"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" spans="1:3" ht="40" customHeight="1">
-      <c r="A271" s="5"/>
-      <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
+      <c r="A271" s="4"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" spans="1:3" ht="40" customHeight="1">
-      <c r="A272" s="5"/>
-      <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
+      <c r="A272" s="4"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" spans="1:3" ht="40" customHeight="1">
-      <c r="A273" s="5"/>
-      <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
+      <c r="A273" s="4"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
     </row>
     <row r="274" spans="1:3" ht="40" customHeight="1">
-      <c r="A274" s="5"/>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
+      <c r="A274" s="4"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
     </row>
     <row r="275" spans="1:3" ht="40" customHeight="1">
-      <c r="A275" s="5"/>
-      <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
+      <c r="A275" s="4"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="5"/>
     </row>
     <row r="276" spans="1:3" ht="40" customHeight="1">
-      <c r="A276" s="5"/>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
+      <c r="A276" s="4"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="5"/>
     </row>
     <row r="277" spans="1:3" ht="40" customHeight="1">
-      <c r="A277" s="5"/>
-      <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
+      <c r="A277" s="4"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="5"/>
     </row>
     <row r="278" spans="1:3" ht="40" customHeight="1">
-      <c r="A278" s="5"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
+      <c r="A278" s="4"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279" spans="1:3" ht="40" customHeight="1">
-      <c r="A279" s="5"/>
-      <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
+      <c r="A279" s="4"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
     </row>
     <row r="280" spans="1:3" ht="40" customHeight="1">
-      <c r="A280" s="5"/>
-      <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
+      <c r="A280" s="4"/>
+      <c r="B280" s="5"/>
+      <c r="C280" s="5"/>
     </row>
     <row r="281" spans="1:3" ht="40" customHeight="1">
-      <c r="A281" s="5"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
+      <c r="A281" s="4"/>
+      <c r="B281" s="5"/>
+      <c r="C281" s="5"/>
     </row>
     <row r="282" spans="1:3" ht="40" customHeight="1">
-      <c r="A282" s="5"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
+      <c r="A282" s="4"/>
+      <c r="B282" s="5"/>
+      <c r="C282" s="5"/>
     </row>
     <row r="283" spans="1:3" ht="40" customHeight="1">
-      <c r="A283" s="5"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
+      <c r="A283" s="4"/>
+      <c r="B283" s="5"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284" spans="1:3" ht="40" customHeight="1">
-      <c r="A284" s="5"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
+      <c r="A284" s="4"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285" spans="1:3" ht="40" customHeight="1">
-      <c r="A285" s="5"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
+      <c r="A285" s="4"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="5"/>
     </row>
     <row r="286" spans="1:3" ht="40" customHeight="1">
-      <c r="A286" s="5"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
+      <c r="A286" s="4"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="5"/>
     </row>
     <row r="287" spans="1:3" ht="40" customHeight="1">
-      <c r="A287" s="5"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="6"/>
+      <c r="A287" s="4"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="5"/>
     </row>
     <row r="288" spans="1:3" ht="40" customHeight="1">
-      <c r="A288" s="5"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
+      <c r="A288" s="4"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="5"/>
     </row>
     <row r="289" spans="1:3" ht="40" customHeight="1">
-      <c r="A289" s="5"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
+      <c r="A289" s="4"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="5"/>
     </row>
     <row r="290" spans="1:3" ht="40" customHeight="1">
-      <c r="A290" s="5"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
+      <c r="A290" s="4"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291" spans="1:3" ht="40" customHeight="1">
-      <c r="A291" s="5"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
+      <c r="A291" s="4"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292" spans="1:3" ht="40" customHeight="1">
-      <c r="A292" s="5"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
+      <c r="A292" s="4"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293" spans="1:3" ht="40" customHeight="1">
-      <c r="A293" s="5"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
+      <c r="A293" s="4"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294" spans="1:3" ht="40" customHeight="1">
-      <c r="A294" s="5"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
+      <c r="A294" s="4"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295" spans="1:3" ht="40" customHeight="1">
-      <c r="A295" s="5"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
+      <c r="A295" s="4"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296" spans="1:3" ht="40" customHeight="1">
-      <c r="A296" s="5"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
+      <c r="A296" s="4"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" spans="1:3" ht="40" customHeight="1">
-      <c r="A297" s="5"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
+      <c r="A297" s="4"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" spans="1:3" ht="40" customHeight="1">
-      <c r="A298" s="5"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
+      <c r="A298" s="4"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" spans="1:3" ht="40" customHeight="1">
-      <c r="A299" s="5"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
+      <c r="A299" s="4"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" spans="1:3" ht="40" customHeight="1">
-      <c r="A300" s="5"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
+      <c r="A300" s="4"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" spans="1:3" ht="40" customHeight="1">
-      <c r="A301" s="5"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
+      <c r="A301" s="4"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" spans="1:3" ht="40" customHeight="1">
-      <c r="A302" s="5"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
+      <c r="A302" s="4"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" spans="1:3" ht="40" customHeight="1">
-      <c r="A303" s="5"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
+      <c r="A303" s="4"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" spans="1:3" ht="40" customHeight="1">
-      <c r="A304" s="5"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
+      <c r="A304" s="4"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" spans="1:3" ht="40" customHeight="1">
-      <c r="A305" s="5"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
+      <c r="A305" s="4"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" spans="1:3" ht="40" customHeight="1">
-      <c r="A306" s="5"/>
-      <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
+      <c r="A306" s="4"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" spans="1:3" ht="40" customHeight="1">
-      <c r="A307" s="5"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
+      <c r="A307" s="4"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" spans="1:3" ht="40" customHeight="1">
-      <c r="A308" s="5"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
+      <c r="A308" s="4"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" spans="1:3" ht="40" customHeight="1">
-      <c r="A309" s="5"/>
-      <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
+      <c r="A309" s="4"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" spans="1:3" ht="40" customHeight="1">
-      <c r="A310" s="5"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
+      <c r="A310" s="4"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" spans="1:3" ht="40" customHeight="1">
-      <c r="A311" s="5"/>
-      <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
+      <c r="A311" s="4"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" spans="1:3" ht="40" customHeight="1">
-      <c r="A312" s="5"/>
-      <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
+      <c r="A312" s="4"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" spans="1:3" ht="40" customHeight="1">
-      <c r="A313" s="5"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
+      <c r="A313" s="4"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" spans="1:3" ht="40" customHeight="1">
-      <c r="A314" s="5"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
+      <c r="A314" s="4"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" spans="1:3" ht="40" customHeight="1">
-      <c r="A315" s="5"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
+      <c r="A315" s="4"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" spans="1:3" ht="40" customHeight="1">
-      <c r="A316" s="5"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
+      <c r="A316" s="4"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" spans="1:3" ht="40" customHeight="1">
-      <c r="A317" s="5"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
+      <c r="A317" s="4"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" spans="1:3" ht="40" customHeight="1">
-      <c r="A318" s="5"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
+      <c r="A318" s="4"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" spans="1:3" ht="40" customHeight="1">
-      <c r="A319" s="5"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
+      <c r="A319" s="4"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" spans="1:3" ht="40" customHeight="1">
-      <c r="A320" s="5"/>
-      <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" spans="1:3" ht="40" customHeight="1">
-      <c r="A321" s="5"/>
-      <c r="B321" s="6"/>
-      <c r="C321" s="6"/>
+      <c r="A321" s="4"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" spans="1:3" ht="40" customHeight="1">
-      <c r="A322" s="5"/>
-      <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
+      <c r="A322" s="4"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" spans="1:3" ht="40" customHeight="1">
-      <c r="A323" s="5"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
+      <c r="A323" s="4"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" spans="1:3" ht="40" customHeight="1">
-      <c r="A324" s="5"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
+      <c r="A324" s="4"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" spans="1:3" ht="40" customHeight="1">
-      <c r="A325" s="5"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
+      <c r="A325" s="4"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326" spans="1:3" ht="40" customHeight="1">
-      <c r="A326" s="5"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
+      <c r="A326" s="4"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327" spans="1:3" ht="40" customHeight="1">
-      <c r="A327" s="5"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
+      <c r="A327" s="4"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328" spans="1:3" ht="40" customHeight="1">
-      <c r="A328" s="5"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
+      <c r="A328" s="4"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329" spans="1:3" ht="40" customHeight="1">
-      <c r="A329" s="5"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
+      <c r="A329" s="4"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330" spans="1:3" ht="40" customHeight="1">
-      <c r="A330" s="5"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
+      <c r="A330" s="4"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331" spans="1:3" ht="40" customHeight="1">
-      <c r="A331" s="5"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
+      <c r="A331" s="4"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332" spans="1:3" ht="40" customHeight="1">
-      <c r="A332" s="5"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
+      <c r="A332" s="4"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333" spans="1:3" ht="40" customHeight="1">
-      <c r="A333" s="5"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="6"/>
+      <c r="A333" s="4"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" spans="1:3" ht="40" customHeight="1">
-      <c r="A334" s="5"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
+      <c r="A334" s="4"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" spans="1:3" ht="40" customHeight="1">
-      <c r="A335" s="5"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
+      <c r="A335" s="4"/>
+      <c r="B335" s="5"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" spans="1:3" ht="40" customHeight="1">
-      <c r="A336" s="5"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
+      <c r="A336" s="4"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" spans="1:3" ht="40" customHeight="1">
-      <c r="A337" s="5"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
+      <c r="A337" s="4"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" spans="1:3" ht="40" customHeight="1">
-      <c r="A338" s="5"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
+      <c r="A338" s="4"/>
+      <c r="B338" s="5"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" spans="1:3" ht="40" customHeight="1">
-      <c r="A339" s="5"/>
-      <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
+      <c r="A339" s="4"/>
+      <c r="B339" s="5"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" spans="1:3" ht="40" customHeight="1">
-      <c r="A340" s="5"/>
-      <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
+      <c r="A340" s="4"/>
+      <c r="B340" s="5"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" spans="1:3" ht="40" customHeight="1">
-      <c r="A341" s="5"/>
-      <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
+      <c r="A341" s="4"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" spans="1:3" ht="40" customHeight="1">
-      <c r="A342" s="5"/>
-      <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
+      <c r="A342" s="4"/>
+      <c r="B342" s="5"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" spans="1:3" ht="40" customHeight="1">
-      <c r="A343" s="5"/>
-      <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
+      <c r="A343" s="4"/>
+      <c r="B343" s="5"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" spans="1:3" ht="40" customHeight="1">
-      <c r="A344" s="5"/>
-      <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
+      <c r="A344" s="4"/>
+      <c r="B344" s="5"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" spans="1:3" ht="40" customHeight="1">
-      <c r="A345" s="5"/>
-      <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
+      <c r="A345" s="4"/>
+      <c r="B345" s="5"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" spans="1:3" ht="40" customHeight="1">
-      <c r="A346" s="5"/>
-      <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
+      <c r="A346" s="4"/>
+      <c r="B346" s="5"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" spans="1:3" ht="40" customHeight="1">
-      <c r="A347" s="5"/>
-      <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
+      <c r="A347" s="4"/>
+      <c r="B347" s="5"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" spans="1:3" ht="40" customHeight="1">
-      <c r="A348" s="5"/>
-      <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
+      <c r="A348" s="4"/>
+      <c r="B348" s="5"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" spans="1:3" ht="40" customHeight="1">
-      <c r="A349" s="5"/>
-      <c r="B349" s="6"/>
-      <c r="C349" s="6"/>
+      <c r="A349" s="4"/>
+      <c r="B349" s="5"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" spans="1:3" ht="40" customHeight="1">
-      <c r="A350" s="5"/>
-      <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
+      <c r="A350" s="4"/>
+      <c r="B350" s="5"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" spans="1:3" ht="40" customHeight="1">
-      <c r="A351" s="5"/>
-      <c r="B351" s="6"/>
-      <c r="C351" s="6"/>
+      <c r="A351" s="4"/>
+      <c r="B351" s="5"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" spans="1:3" ht="40" customHeight="1">
-      <c r="A352" s="5"/>
-      <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
+      <c r="A352" s="4"/>
+      <c r="B352" s="5"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" spans="1:3" ht="40" customHeight="1">
-      <c r="A353" s="5"/>
-      <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
+      <c r="A353" s="4"/>
+      <c r="B353" s="5"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" spans="1:3" ht="40" customHeight="1">
-      <c r="A354" s="5"/>
-      <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
+      <c r="A354" s="4"/>
+      <c r="B354" s="5"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355" spans="1:3" ht="40" customHeight="1">
-      <c r="A355" s="5"/>
-      <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
+      <c r="A355" s="4"/>
+      <c r="B355" s="5"/>
+      <c r="C355" s="5"/>
     </row>
     <row r="356" spans="1:3" ht="40" customHeight="1">
-      <c r="A356" s="5"/>
-      <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
+      <c r="A356" s="4"/>
+      <c r="B356" s="5"/>
+      <c r="C356" s="5"/>
     </row>
     <row r="357" spans="1:3" ht="40" customHeight="1">
-      <c r="A357" s="5"/>
-      <c r="B357" s="6"/>
-      <c r="C357" s="6"/>
+      <c r="A357" s="4"/>
+      <c r="B357" s="5"/>
+      <c r="C357" s="5"/>
     </row>
     <row r="358" spans="1:3" ht="40" customHeight="1">
-      <c r="A358" s="5"/>
-      <c r="B358" s="6"/>
-      <c r="C358" s="6"/>
+      <c r="A358" s="4"/>
+      <c r="B358" s="5"/>
+      <c r="C358" s="5"/>
     </row>
     <row r="359" spans="1:3" ht="40" customHeight="1">
-      <c r="A359" s="5"/>
-      <c r="B359" s="6"/>
-      <c r="C359" s="6"/>
+      <c r="A359" s="4"/>
+      <c r="B359" s="5"/>
+      <c r="C359" s="5"/>
     </row>
     <row r="360" spans="1:3" ht="40" customHeight="1">
-      <c r="A360" s="5"/>
-      <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
+      <c r="A360" s="4"/>
+      <c r="B360" s="5"/>
+      <c r="C360" s="5"/>
     </row>
     <row r="361" spans="1:3" ht="40" customHeight="1">
-      <c r="A361" s="5"/>
-      <c r="B361" s="6"/>
-      <c r="C361" s="6"/>
+      <c r="A361" s="4"/>
+      <c r="B361" s="5"/>
+      <c r="C361" s="5"/>
     </row>
     <row r="362" spans="1:3" ht="40" customHeight="1">
-      <c r="A362" s="5"/>
-      <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
+      <c r="A362" s="4"/>
+      <c r="B362" s="5"/>
+      <c r="C362" s="5"/>
     </row>
     <row r="363" spans="1:3" ht="40" customHeight="1">
-      <c r="A363" s="5"/>
-      <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
+      <c r="A363" s="4"/>
+      <c r="B363" s="5"/>
+      <c r="C363" s="5"/>
     </row>
     <row r="364" spans="1:3" ht="40" customHeight="1">
-      <c r="A364" s="5"/>
-      <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
+      <c r="A364" s="4"/>
+      <c r="B364" s="5"/>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" spans="1:3" ht="40" customHeight="1">
-      <c r="A365" s="5"/>
-      <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
+      <c r="A365" s="4"/>
+      <c r="B365" s="5"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" spans="1:3" ht="40" customHeight="1">
-      <c r="A366" s="5"/>
-      <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
+      <c r="A366" s="4"/>
+      <c r="B366" s="5"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" spans="1:3" ht="40" customHeight="1">
-      <c r="A367" s="5"/>
-      <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
+      <c r="A367" s="4"/>
+      <c r="B367" s="5"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" spans="1:3" ht="40" customHeight="1">
-      <c r="A368" s="5"/>
-      <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
+      <c r="A368" s="4"/>
+      <c r="B368" s="5"/>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" spans="1:3" ht="40" customHeight="1">
-      <c r="A369" s="5"/>
-      <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
+      <c r="A369" s="4"/>
+      <c r="B369" s="5"/>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" spans="1:3" ht="40" customHeight="1">
-      <c r="A370" s="5"/>
-      <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
+      <c r="A370" s="4"/>
+      <c r="B370" s="5"/>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" spans="1:3" ht="40" customHeight="1">
-      <c r="A371" s="5"/>
-      <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
+      <c r="A371" s="4"/>
+      <c r="B371" s="5"/>
+      <c r="C371" s="5"/>
     </row>
     <row r="372" spans="1:3" ht="40" customHeight="1">
-      <c r="A372" s="5"/>
-      <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
+      <c r="A372" s="4"/>
+      <c r="B372" s="5"/>
+      <c r="C372" s="5"/>
     </row>
     <row r="373" spans="1:3" ht="40" customHeight="1">
-      <c r="A373" s="5"/>
-      <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
+      <c r="A373" s="4"/>
+      <c r="B373" s="5"/>
+      <c r="C373" s="5"/>
     </row>
     <row r="374" spans="1:3" ht="40" customHeight="1">
-      <c r="A374" s="5"/>
-      <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
+      <c r="A374" s="4"/>
+      <c r="B374" s="5"/>
+      <c r="C374" s="5"/>
     </row>
     <row r="375" spans="1:3" ht="40" customHeight="1">
-      <c r="A375" s="5"/>
-      <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
+      <c r="A375" s="4"/>
+      <c r="B375" s="5"/>
+      <c r="C375" s="5"/>
     </row>
     <row r="376" spans="1:3" ht="40" customHeight="1">
-      <c r="A376" s="5"/>
-      <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
+      <c r="A376" s="4"/>
+      <c r="B376" s="5"/>
+      <c r="C376" s="5"/>
     </row>
     <row r="377" spans="1:3" ht="40" customHeight="1">
-      <c r="A377" s="5"/>
-      <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
+      <c r="A377" s="4"/>
+      <c r="B377" s="5"/>
+      <c r="C377" s="5"/>
     </row>
     <row r="378" spans="1:3" ht="40" customHeight="1">
-      <c r="A378" s="5"/>
-      <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
+      <c r="A378" s="4"/>
+      <c r="B378" s="5"/>
+      <c r="C378" s="5"/>
     </row>
     <row r="379" spans="1:3" ht="40" customHeight="1">
-      <c r="A379" s="5"/>
-      <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
+      <c r="A379" s="4"/>
+      <c r="B379" s="5"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380" spans="1:3" ht="40" customHeight="1">
-      <c r="A380" s="5"/>
-      <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
+      <c r="A380" s="4"/>
+      <c r="B380" s="5"/>
+      <c r="C380" s="5"/>
     </row>
     <row r="381" spans="1:3" ht="40" customHeight="1">
-      <c r="A381" s="5"/>
-      <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
+      <c r="A381" s="4"/>
+      <c r="B381" s="5"/>
+      <c r="C381" s="5"/>
     </row>
     <row r="382" spans="1:3" ht="40" customHeight="1">
-      <c r="A382" s="5"/>
-      <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
+      <c r="A382" s="4"/>
+      <c r="B382" s="5"/>
+      <c r="C382" s="5"/>
     </row>
     <row r="383" spans="1:3" ht="40" customHeight="1">
-      <c r="A383" s="5"/>
-      <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
+      <c r="A383" s="4"/>
+      <c r="B383" s="5"/>
+      <c r="C383" s="5"/>
     </row>
     <row r="384" spans="1:3" ht="40" customHeight="1">
-      <c r="A384" s="5"/>
-      <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
+      <c r="A384" s="4"/>
+      <c r="B384" s="5"/>
+      <c r="C384" s="5"/>
     </row>
     <row r="385" spans="1:3" ht="40" customHeight="1">
-      <c r="A385" s="5"/>
-      <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
+      <c r="A385" s="4"/>
+      <c r="B385" s="5"/>
+      <c r="C385" s="5"/>
     </row>
     <row r="386" spans="1:3" ht="40" customHeight="1">
-      <c r="A386" s="5"/>
-      <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
+      <c r="A386" s="4"/>
+      <c r="B386" s="5"/>
+      <c r="C386" s="5"/>
     </row>
     <row r="387" spans="1:3" ht="40" customHeight="1">
-      <c r="A387" s="5"/>
-      <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
+      <c r="A387" s="4"/>
+      <c r="B387" s="5"/>
+      <c r="C387" s="5"/>
     </row>
     <row r="388" spans="1:3" ht="40" customHeight="1">
-      <c r="A388" s="5"/>
-      <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
+      <c r="A388" s="4"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="5"/>
     </row>
     <row r="389" spans="1:3" ht="40" customHeight="1">
-      <c r="A389" s="5"/>
-      <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
+      <c r="A389" s="4"/>
+      <c r="B389" s="5"/>
+      <c r="C389" s="5"/>
     </row>
     <row r="390" spans="1:3" ht="40" customHeight="1">
-      <c r="A390" s="5"/>
-      <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
+      <c r="A390" s="4"/>
+      <c r="B390" s="5"/>
+      <c r="C390" s="5"/>
     </row>
     <row r="391" spans="1:3" ht="40" customHeight="1">
-      <c r="A391" s="5"/>
-      <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
+      <c r="A391" s="4"/>
+      <c r="B391" s="5"/>
+      <c r="C391" s="5"/>
     </row>
     <row r="392" spans="1:3" ht="40" customHeight="1">
-      <c r="A392" s="5"/>
-      <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
+      <c r="A392" s="4"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="5"/>
     </row>
     <row r="393" spans="1:3" ht="40" customHeight="1">
-      <c r="A393" s="5"/>
-      <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
+      <c r="A393" s="4"/>
+      <c r="B393" s="5"/>
+      <c r="C393" s="5"/>
     </row>
     <row r="394" spans="1:3" ht="40" customHeight="1">
-      <c r="A394" s="5"/>
-      <c r="B394" s="6"/>
-      <c r="C394" s="6"/>
+      <c r="A394" s="4"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
     </row>
     <row r="395" spans="1:3" ht="40" customHeight="1">
-      <c r="A395" s="5"/>
-      <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
+      <c r="A395" s="4"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
     </row>
     <row r="396" spans="1:3" ht="40" customHeight="1">
-      <c r="A396" s="5"/>
-      <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
+      <c r="A396" s="4"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
     </row>
     <row r="397" spans="1:3" ht="40" customHeight="1">
-      <c r="A397" s="5"/>
-      <c r="B397" s="6"/>
-      <c r="C397" s="6"/>
+      <c r="A397" s="4"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398" spans="1:3" ht="40" customHeight="1">
-      <c r="A398" s="5"/>
-      <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
+      <c r="A398" s="4"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399" spans="1:3" ht="40" customHeight="1">
-      <c r="A399" s="5"/>
-      <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
+      <c r="A399" s="4"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400" spans="1:3" ht="40" customHeight="1">
-      <c r="A400" s="5"/>
-      <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
+      <c r="A400" s="4"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401" spans="1:3" ht="40" customHeight="1">
-      <c r="A401" s="5"/>
-      <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
+      <c r="A401" s="4"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
     </row>
     <row r="402" spans="1:3" ht="40" customHeight="1">
-      <c r="A402" s="5"/>
-      <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
+      <c r="A402" s="4"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
     </row>
     <row r="403" spans="1:3" ht="40" customHeight="1">
-      <c r="A403" s="5"/>
-      <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
+      <c r="A403" s="4"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
     </row>
     <row r="404" spans="1:3" ht="40" customHeight="1">
-      <c r="A404" s="5"/>
-      <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
+      <c r="A404" s="4"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
     </row>
     <row r="405" spans="1:3" ht="40" customHeight="1">
-      <c r="A405" s="5"/>
-      <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
+      <c r="A405" s="4"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
     </row>
     <row r="406" spans="1:3" ht="40" customHeight="1">
-      <c r="A406" s="5"/>
-      <c r="B406" s="6"/>
-      <c r="C406" s="6"/>
+      <c r="A406" s="4"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407" spans="1:3" ht="40" customHeight="1">
-      <c r="A407" s="5"/>
-      <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
+      <c r="A407" s="4"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
     </row>
     <row r="408" spans="1:3" ht="40" customHeight="1">
-      <c r="A408" s="5"/>
-      <c r="B408" s="6"/>
-      <c r="C408" s="6"/>
+      <c r="A408" s="4"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
     </row>
     <row r="409" spans="1:3" ht="40" customHeight="1">
-      <c r="A409" s="5"/>
-      <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
+      <c r="A409" s="4"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
     </row>
     <row r="410" spans="1:3" ht="40" customHeight="1">
-      <c r="A410" s="5"/>
-      <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
+      <c r="A410" s="4"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
     </row>
     <row r="411" spans="1:3" ht="40" customHeight="1">
-      <c r="A411" s="5"/>
-      <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
+      <c r="A411" s="4"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
     </row>
     <row r="412" spans="1:3" ht="40" customHeight="1">
-      <c r="A412" s="5"/>
-      <c r="B412" s="6"/>
-      <c r="C412" s="6"/>
+      <c r="A412" s="4"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
     </row>
     <row r="413" spans="1:3" ht="40" customHeight="1">
-      <c r="A413" s="5"/>
-      <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
+      <c r="A413" s="4"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
     </row>
     <row r="414" spans="1:3" ht="40" customHeight="1">
-      <c r="A414" s="5"/>
-      <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
+      <c r="A414" s="4"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
     </row>
     <row r="415" spans="1:3" ht="40" customHeight="1">
-      <c r="A415" s="5"/>
-      <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
+      <c r="A415" s="4"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
     </row>
     <row r="416" spans="1:3" ht="40" customHeight="1">
-      <c r="A416" s="5"/>
-      <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
+      <c r="A416" s="4"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
     </row>
     <row r="417" spans="1:3" ht="40" customHeight="1">
-      <c r="A417" s="5"/>
-      <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
+      <c r="A417" s="4"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
     </row>
     <row r="418" spans="1:3" ht="40" customHeight="1">
-      <c r="A418" s="5"/>
-      <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
+      <c r="A418" s="4"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
     </row>
     <row r="419" spans="1:3" ht="40" customHeight="1">
-      <c r="A419" s="5"/>
-      <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
+      <c r="A419" s="4"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
     </row>
     <row r="420" spans="1:3" ht="40" customHeight="1">
-      <c r="A420" s="5"/>
-      <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
+      <c r="A420" s="4"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
     </row>
     <row r="421" spans="1:3" ht="40" customHeight="1">
-      <c r="A421" s="5"/>
-      <c r="B421" s="6"/>
-      <c r="C421" s="6"/>
+      <c r="A421" s="4"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
     </row>
     <row r="422" spans="1:3" ht="40" customHeight="1">
-      <c r="A422" s="5"/>
-      <c r="B422" s="6"/>
-      <c r="C422" s="6"/>
+      <c r="A422" s="4"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
     </row>
     <row r="423" spans="1:3" ht="40" customHeight="1">
-      <c r="A423" s="5"/>
-      <c r="B423" s="6"/>
-      <c r="C423" s="6"/>
+      <c r="A423" s="4"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
     </row>
     <row r="424" spans="1:3" ht="40" customHeight="1">
-      <c r="A424" s="5"/>
-      <c r="B424" s="6"/>
-      <c r="C424" s="6"/>
+      <c r="A424" s="4"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
     </row>
     <row r="425" spans="1:3" ht="40" customHeight="1">
-      <c r="A425" s="5"/>
-      <c r="B425" s="6"/>
-      <c r="C425" s="6"/>
+      <c r="A425" s="4"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
     </row>
     <row r="426" spans="1:3" ht="40" customHeight="1">
-      <c r="A426" s="5"/>
-      <c r="B426" s="6"/>
-      <c r="C426" s="6"/>
+      <c r="A426" s="4"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
     </row>
     <row r="427" spans="1:3" ht="40" customHeight="1">
-      <c r="A427" s="5"/>
-      <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
+      <c r="A427" s="4"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
     </row>
     <row r="428" spans="1:3" ht="40" customHeight="1">
-      <c r="A428" s="5"/>
-      <c r="B428" s="6"/>
-      <c r="C428" s="6"/>
+      <c r="A428" s="4"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
     </row>
     <row r="429" spans="1:3" ht="40" customHeight="1">
-      <c r="A429" s="5"/>
-      <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
+      <c r="A429" s="4"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
     </row>
     <row r="430" spans="1:3" ht="40" customHeight="1">
-      <c r="A430" s="5"/>
-      <c r="B430" s="6"/>
-      <c r="C430" s="6"/>
+      <c r="A430" s="4"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
     </row>
     <row r="431" spans="1:3" ht="40" customHeight="1">
-      <c r="A431" s="5"/>
-      <c r="B431" s="6"/>
-      <c r="C431" s="6"/>
+      <c r="A431" s="4"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
     </row>
     <row r="432" spans="1:3" ht="40" customHeight="1">
-      <c r="A432" s="5"/>
-      <c r="B432" s="6"/>
-      <c r="C432" s="6"/>
+      <c r="A432" s="4"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
     </row>
     <row r="433" spans="1:3" ht="40" customHeight="1">
-      <c r="A433" s="5"/>
-      <c r="B433" s="6"/>
-      <c r="C433" s="6"/>
+      <c r="A433" s="4"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
     </row>
     <row r="434" spans="1:3" ht="40" customHeight="1">
-      <c r="A434" s="5"/>
-      <c r="B434" s="6"/>
-      <c r="C434" s="6"/>
+      <c r="A434" s="4"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
     </row>
     <row r="435" spans="1:3" ht="40" customHeight="1">
-      <c r="A435" s="5"/>
-      <c r="B435" s="6"/>
-      <c r="C435" s="6"/>
+      <c r="A435" s="4"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
     </row>
     <row r="436" spans="1:3" ht="40" customHeight="1">
-      <c r="A436" s="5"/>
-      <c r="B436" s="6"/>
-      <c r="C436" s="6"/>
+      <c r="A436" s="4"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
     </row>
     <row r="437" spans="1:3" ht="40" customHeight="1">
-      <c r="A437" s="5"/>
-      <c r="B437" s="6"/>
-      <c r="C437" s="6"/>
+      <c r="A437" s="4"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
     </row>
     <row r="438" spans="1:3" ht="40" customHeight="1">
-      <c r="A438" s="5"/>
-      <c r="B438" s="6"/>
-      <c r="C438" s="6"/>
+      <c r="A438" s="4"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
     </row>
     <row r="439" spans="1:3" ht="40" customHeight="1">
-      <c r="A439" s="5"/>
-      <c r="B439" s="6"/>
-      <c r="C439" s="6"/>
+      <c r="A439" s="4"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
     </row>
     <row r="440" spans="1:3" ht="40" customHeight="1">
-      <c r="A440" s="5"/>
-      <c r="B440" s="6"/>
-      <c r="C440" s="6"/>
+      <c r="A440" s="4"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
     </row>
     <row r="441" spans="1:3" ht="40" customHeight="1">
-      <c r="A441" s="5"/>
-      <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
+      <c r="A441" s="4"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
     </row>
     <row r="442" spans="1:3" ht="40" customHeight="1">
-      <c r="A442" s="5"/>
-      <c r="B442" s="6"/>
-      <c r="C442" s="6"/>
+      <c r="A442" s="4"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
     </row>
     <row r="443" spans="1:3" ht="40" customHeight="1">
-      <c r="A443" s="5"/>
-      <c r="B443" s="6"/>
-      <c r="C443" s="6"/>
+      <c r="A443" s="4"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
     </row>
     <row r="444" spans="1:3" ht="40" customHeight="1">
-      <c r="A444" s="5"/>
-      <c r="B444" s="6"/>
-      <c r="C444" s="6"/>
+      <c r="A444" s="4"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
     </row>
     <row r="445" spans="1:3" ht="40" customHeight="1">
-      <c r="A445" s="5"/>
-      <c r="B445" s="6"/>
-      <c r="C445" s="6"/>
+      <c r="A445" s="4"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
     </row>
     <row r="446" spans="1:3" ht="40" customHeight="1">
-      <c r="A446" s="5"/>
-      <c r="B446" s="6"/>
-      <c r="C446" s="6"/>
+      <c r="A446" s="4"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
     </row>
     <row r="447" spans="1:3" ht="40" customHeight="1">
-      <c r="A447" s="5"/>
-      <c r="B447" s="6"/>
-      <c r="C447" s="6"/>
+      <c r="A447" s="4"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
     </row>
     <row r="448" spans="1:3" ht="40" customHeight="1">
-      <c r="A448" s="5"/>
-      <c r="B448" s="6"/>
-      <c r="C448" s="6"/>
+      <c r="A448" s="4"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
     </row>
     <row r="449" spans="1:3" ht="40" customHeight="1">
-      <c r="A449" s="5"/>
-      <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
+      <c r="A449" s="4"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D646241-1C69-964B-A8E0-5E2A2EA9589B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC53AB9-73E5-9F40-8991-44241CDEA989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="22120" windowHeight="21900" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2360" yWindow="500" windowWidth="22120" windowHeight="21900" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,30 +79,17 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Times"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Times"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -132,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,10 +136,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,17 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:C257"/>
+  <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -523,7 +507,7 @@
         <v>45138</v>
       </c>
       <c r="B2" s="5">
-        <v>-1.4100000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>14.45</v>
@@ -534,7 +518,7 @@
         <v>45140</v>
       </c>
       <c r="B3" s="5">
-        <v>0.52839999999999998</v>
+        <v>0.52837999999999996</v>
       </c>
       <c r="C3" s="5">
         <v>17.13</v>
@@ -545,7 +529,7 @@
         <v>45146</v>
       </c>
       <c r="B4" s="5">
-        <v>0.95850000000000002</v>
+        <v>0.95852999999999999</v>
       </c>
       <c r="C4" s="5">
         <v>18.329999999999998</v>
@@ -556,7 +540,7 @@
         <v>45154</v>
       </c>
       <c r="B5" s="5">
-        <v>0.8579</v>
+        <v>0.85787000000000002</v>
       </c>
       <c r="C5" s="5">
         <v>17.829999999999998</v>
@@ -589,7 +573,7 @@
         <v>45167</v>
       </c>
       <c r="B8" s="5">
-        <v>1.2765</v>
+        <v>1.2764800000000001</v>
       </c>
       <c r="C8" s="5">
         <v>16.38</v>
@@ -600,7 +584,7 @@
         <v>45168</v>
       </c>
       <c r="B9" s="5">
-        <v>2.1613000000000002</v>
+        <v>2.16134</v>
       </c>
       <c r="C9" s="5">
         <v>15.88</v>
@@ -611,7 +595,7 @@
         <v>45176</v>
       </c>
       <c r="B10" s="5">
-        <v>1.5663</v>
+        <v>1.5662799999999999</v>
       </c>
       <c r="C10" s="5">
         <v>15.73</v>
@@ -622,7 +606,7 @@
         <v>45183</v>
       </c>
       <c r="B11" s="5">
-        <v>-0.82690000000000008</v>
+        <v>-0.81132000000000004</v>
       </c>
       <c r="C11" s="5">
         <v>13.58</v>
@@ -633,7 +617,7 @@
         <v>45184</v>
       </c>
       <c r="B12" s="5">
-        <v>-8.6300000000000002E-2</v>
+        <v>-8.6269999999999999E-2</v>
       </c>
       <c r="C12" s="5">
         <v>13.83</v>
@@ -644,7 +628,7 @@
         <v>45188</v>
       </c>
       <c r="B13" s="5">
-        <v>0.624</v>
+        <v>0.62402999999999997</v>
       </c>
       <c r="C13" s="5">
         <v>15.93</v>
@@ -655,7 +639,7 @@
         <v>45190</v>
       </c>
       <c r="B14" s="5">
-        <v>1.1106</v>
+        <v>1.1106499999999999</v>
       </c>
       <c r="C14" s="5">
         <v>17.13</v>
@@ -666,7 +650,7 @@
         <v>45191</v>
       </c>
       <c r="B15" s="5">
-        <v>0.99959999999999993</v>
+        <v>0.99956999999999996</v>
       </c>
       <c r="C15" s="5">
         <v>16.829999999999998</v>
@@ -677,7 +661,7 @@
         <v>45195</v>
       </c>
       <c r="B16" s="5">
-        <v>1.2878000000000001</v>
+        <v>1.2878099999999999</v>
       </c>
       <c r="C16" s="5">
         <v>17.93</v>
@@ -688,7 +672,7 @@
         <v>45196</v>
       </c>
       <c r="B17" s="5">
-        <v>2.3519000000000001</v>
+        <v>2.3519199999999998</v>
       </c>
       <c r="C17" s="5">
         <v>19.03</v>
@@ -699,7 +683,7 @@
         <v>45197</v>
       </c>
       <c r="B18" s="5">
-        <v>2.7643</v>
+        <v>2.7643300000000002</v>
       </c>
       <c r="C18" s="5">
         <v>17.43</v>
@@ -710,7 +694,7 @@
         <v>45201</v>
       </c>
       <c r="B19" s="5">
-        <v>2.0781999999999998</v>
+        <v>2.07823</v>
       </c>
       <c r="C19" s="5">
         <v>17.73</v>
@@ -721,7 +705,7 @@
         <v>45202</v>
       </c>
       <c r="B20" s="5">
-        <v>2.6023999999999998</v>
+        <v>2.6023499999999999</v>
       </c>
       <c r="C20" s="5">
         <v>19.23</v>
@@ -732,7 +716,7 @@
         <v>45205</v>
       </c>
       <c r="B21" s="5">
-        <v>2.2046000000000001</v>
+        <v>2.2045699999999999</v>
       </c>
       <c r="C21" s="5">
         <v>17.78</v>
@@ -743,7 +727,7 @@
         <v>45209</v>
       </c>
       <c r="B22" s="5">
-        <v>2.4811000000000001</v>
+        <v>2.4811200000000002</v>
       </c>
       <c r="C22" s="5">
         <v>16.88</v>
@@ -765,7 +749,7 @@
         <v>45216</v>
       </c>
       <c r="B24" s="5">
-        <v>2.1105</v>
+        <v>2.1104699999999998</v>
       </c>
       <c r="C24" s="5">
         <v>17.829999999999998</v>
@@ -776,7 +760,7 @@
         <v>45217</v>
       </c>
       <c r="B25" s="5">
-        <v>2.6807999999999996</v>
+        <v>2.6808299999999998</v>
       </c>
       <c r="C25" s="5">
         <v>19.329999999999998</v>
@@ -787,7 +771,7 @@
         <v>45219</v>
       </c>
       <c r="B26" s="5">
-        <v>3.3914</v>
+        <v>3.39141</v>
       </c>
       <c r="C26" s="5">
         <v>20.88</v>
@@ -798,7 +782,7 @@
         <v>45225</v>
       </c>
       <c r="B27" s="5">
-        <v>4.2294</v>
+        <v>4.2293500000000002</v>
       </c>
       <c r="C27" s="5">
         <v>20.66</v>
@@ -809,7 +793,7 @@
         <v>45231</v>
       </c>
       <c r="B28" s="5">
-        <v>3.3577999999999997</v>
+        <v>3.3577499999999998</v>
       </c>
       <c r="C28" s="5">
         <v>17.93</v>
@@ -820,7 +804,7 @@
         <v>45232</v>
       </c>
       <c r="B29" s="5">
-        <v>3.5785999999999998</v>
+        <v>3.57857</v>
       </c>
       <c r="C29" s="5">
         <v>17.03</v>
@@ -831,7 +815,7 @@
         <v>45233</v>
       </c>
       <c r="B30" s="5">
-        <v>4.4681999999999995</v>
+        <v>4.46821</v>
       </c>
       <c r="C30" s="5">
         <v>16.079999999999998</v>
@@ -842,7 +826,7 @@
         <v>45237</v>
       </c>
       <c r="B31" s="5">
-        <v>3.9834000000000001</v>
+        <v>3.9833599999999998</v>
       </c>
       <c r="C31" s="5">
         <v>15.63</v>
@@ -853,7 +837,7 @@
         <v>45243</v>
       </c>
       <c r="B32" s="5">
-        <v>3.5867999999999998</v>
+        <v>3.5868199999999999</v>
       </c>
       <c r="C32" s="5">
         <v>15.88</v>
@@ -864,7 +848,7 @@
         <v>45244</v>
       </c>
       <c r="B33" s="5">
-        <v>5.1915999999999993</v>
+        <v>5.1916000000000002</v>
       </c>
       <c r="C33" s="5">
         <v>15.55</v>
@@ -886,7 +870,7 @@
         <v>45252</v>
       </c>
       <c r="B35" s="5">
-        <v>5.0744999999999996</v>
+        <v>5.0744499999999997</v>
       </c>
       <c r="C35" s="5">
         <v>14.43</v>
@@ -897,7 +881,7 @@
         <v>45260</v>
       </c>
       <c r="B36" s="5">
-        <v>4.5155000000000003</v>
+        <v>4.5154500000000004</v>
       </c>
       <c r="C36" s="5">
         <v>14.03</v>
@@ -908,7 +892,7 @@
         <v>45271</v>
       </c>
       <c r="B37" s="5">
-        <v>4.2107999999999999</v>
+        <v>4.21075</v>
       </c>
       <c r="C37" s="5">
         <v>13.04</v>
@@ -919,7 +903,7 @@
         <v>45274</v>
       </c>
       <c r="B38" s="5">
-        <v>5.4699</v>
+        <v>5.4698500000000001</v>
       </c>
       <c r="C38" s="5">
         <v>12.23</v>
@@ -930,7 +914,7 @@
         <v>45279</v>
       </c>
       <c r="B39" s="5">
-        <v>6.2248000000000001</v>
+        <v>6.22478</v>
       </c>
       <c r="C39" s="5">
         <v>14.73</v>
@@ -941,7 +925,7 @@
         <v>45281</v>
       </c>
       <c r="B40" s="5">
-        <v>7.0450999999999997</v>
+        <v>7.0450799999999996</v>
       </c>
       <c r="C40" s="5">
         <v>15.88</v>
@@ -952,7 +936,7 @@
         <v>45282</v>
       </c>
       <c r="B41" s="5">
-        <v>8.2690999999999999</v>
+        <v>8.2691300000000005</v>
       </c>
       <c r="C41" s="5">
         <v>15.33</v>
@@ -963,7 +947,7 @@
         <v>45294</v>
       </c>
       <c r="B42" s="5">
-        <v>8.6181999999999999</v>
+        <v>8.6181800000000006</v>
       </c>
       <c r="C42" s="5">
         <v>14.2</v>
@@ -974,7 +958,7 @@
         <v>45301</v>
       </c>
       <c r="B43" s="5">
-        <v>7.7269000000000005</v>
+        <v>7.7268800000000004</v>
       </c>
       <c r="C43" s="5">
         <v>13.43</v>
@@ -985,7 +969,7 @@
         <v>45308</v>
       </c>
       <c r="B44" s="5">
-        <v>7.6830999999999996</v>
+        <v>7.6831199999999997</v>
       </c>
       <c r="C44" s="5">
         <v>15.43</v>
@@ -996,7 +980,7 @@
         <v>45309</v>
       </c>
       <c r="B45" s="5">
-        <v>7.9214000000000002</v>
+        <v>7.92136</v>
       </c>
       <c r="C45" s="5">
         <v>15.04</v>
@@ -1007,7 +991,7 @@
         <v>45310</v>
       </c>
       <c r="B46" s="5">
-        <v>8.0393999999999988</v>
+        <v>8.0393799999999995</v>
       </c>
       <c r="C46" s="5">
         <v>14.63</v>
@@ -1018,7 +1002,7 @@
         <v>45313</v>
       </c>
       <c r="B47" s="5">
-        <v>8.2500999999999998</v>
+        <v>8.2501200000000008</v>
       </c>
       <c r="C47" s="5">
         <v>14.48</v>
@@ -1029,7 +1013,7 @@
         <v>45314</v>
       </c>
       <c r="B48" s="5">
-        <v>7.5479000000000003</v>
+        <v>7.5479099999999999</v>
       </c>
       <c r="C48" s="5">
         <v>13.83</v>
@@ -1040,7 +1024,7 @@
         <v>45315</v>
       </c>
       <c r="B49" s="5">
-        <v>8.9207000000000001</v>
+        <v>8.9207099999999997</v>
       </c>
       <c r="C49" s="5">
         <v>13.63</v>
@@ -1051,7 +1035,7 @@
         <v>45321</v>
       </c>
       <c r="B50" s="5">
-        <v>8.7195999999999998</v>
+        <v>8.7196099999999994</v>
       </c>
       <c r="C50" s="5">
         <v>14.13</v>
@@ -1062,7 +1046,7 @@
         <v>45322</v>
       </c>
       <c r="B51" s="5">
-        <v>9.424100000000001</v>
+        <v>9.4240999999999993</v>
       </c>
       <c r="C51" s="5">
         <v>14.63</v>
@@ -1073,7 +1057,7 @@
         <v>45324</v>
       </c>
       <c r="B52" s="5">
-        <v>10.029399999999999</v>
+        <v>10.029400000000001</v>
       </c>
       <c r="C52" s="5">
         <v>14.42</v>
@@ -1117,7 +1101,7 @@
         <v>45337</v>
       </c>
       <c r="B56" s="5">
-        <v>11.854900000000001</v>
+        <v>11.85486</v>
       </c>
       <c r="C56" s="5">
         <v>15.13</v>
@@ -1128,7 +1112,7 @@
         <v>45342</v>
       </c>
       <c r="B57" s="5">
-        <v>11.471</v>
+        <v>11.47104</v>
       </c>
       <c r="C57" s="5">
         <v>15.58</v>
@@ -1139,7 +1123,7 @@
         <v>45344</v>
       </c>
       <c r="B58" s="5">
-        <v>13.455200000000001</v>
+        <v>13.45524</v>
       </c>
       <c r="C58" s="5">
         <v>14.67</v>
@@ -1150,7 +1134,7 @@
         <v>45345</v>
       </c>
       <c r="B59" s="5">
-        <v>14.1241</v>
+        <v>14.124140000000001</v>
       </c>
       <c r="C59" s="5">
         <v>14.73</v>
@@ -1161,7 +1145,7 @@
         <v>45355</v>
       </c>
       <c r="B60" s="5">
-        <v>13.6678</v>
+        <v>13.667820000000001</v>
       </c>
       <c r="C60" s="5">
         <v>14</v>
@@ -1172,7 +1156,7 @@
         <v>45356</v>
       </c>
       <c r="B61" s="5">
-        <v>14.424600000000002</v>
+        <v>14.42456</v>
       </c>
       <c r="C61" s="5">
         <v>14.73</v>
@@ -1183,7 +1167,7 @@
         <v>45357</v>
       </c>
       <c r="B62" s="5">
-        <v>13.048199999999998</v>
+        <v>13.04824</v>
       </c>
       <c r="C62" s="5">
         <v>14.68</v>
@@ -1194,7 +1178,7 @@
         <v>45359</v>
       </c>
       <c r="B63" s="5">
-        <v>14.843799999999998</v>
+        <v>14.84376</v>
       </c>
       <c r="C63" s="5">
         <v>14.37</v>
@@ -1205,7 +1189,7 @@
         <v>45362</v>
       </c>
       <c r="B64" s="5">
-        <v>16.071300000000001</v>
+        <v>16.071339999999999</v>
       </c>
       <c r="C64" s="5">
         <v>15.18</v>
@@ -1216,7 +1200,7 @@
         <v>45363</v>
       </c>
       <c r="B65" s="5">
-        <v>15.8811</v>
+        <v>15.881080000000001</v>
       </c>
       <c r="C65" s="5">
         <v>14.08</v>
@@ -1227,7 +1211,7 @@
         <v>45366</v>
       </c>
       <c r="B66" s="5">
-        <v>15.4595</v>
+        <v>15.459540000000001</v>
       </c>
       <c r="C66" s="5">
         <v>14.78</v>
@@ -1238,7 +1222,7 @@
         <v>45370</v>
       </c>
       <c r="B67" s="5">
-        <v>15.357799999999999</v>
+        <v>15.35778</v>
       </c>
       <c r="C67" s="5">
         <v>14.98</v>
@@ -1249,7 +1233,7 @@
         <v>45372</v>
       </c>
       <c r="B68" s="5">
-        <v>16.634899999999998</v>
+        <v>16.634920000000001</v>
       </c>
       <c r="C68" s="5">
         <v>14.53</v>
@@ -1260,7 +1244,7 @@
         <v>45384</v>
       </c>
       <c r="B69" s="5">
-        <v>15.1754</v>
+        <v>15.17544</v>
       </c>
       <c r="C69" s="5">
         <v>15.43</v>
@@ -1271,7 +1255,7 @@
         <v>45386</v>
       </c>
       <c r="B70" s="5">
-        <v>15.503</v>
+        <v>15.503019999999999</v>
       </c>
       <c r="C70" s="5">
         <v>14.58</v>
@@ -1282,7 +1266,7 @@
         <v>45387</v>
       </c>
       <c r="B71" s="5">
-        <v>17.2883</v>
+        <v>17.288319999999999</v>
       </c>
       <c r="C71" s="5">
         <v>15.78</v>
@@ -1293,7 +1277,7 @@
         <v>45393</v>
       </c>
       <c r="B72" s="5">
-        <v>17.314299999999999</v>
+        <v>17.31428</v>
       </c>
       <c r="C72" s="5">
         <v>15.97</v>
@@ -1304,7 +1288,7 @@
         <v>45394</v>
       </c>
       <c r="B73" s="5">
-        <v>17.9237</v>
+        <v>17.923739999999999</v>
       </c>
       <c r="C73" s="5">
         <v>17.23</v>
@@ -1315,7 +1299,7 @@
         <v>45398</v>
       </c>
       <c r="B74" s="5">
-        <v>19.260899999999999</v>
+        <v>19.26088</v>
       </c>
       <c r="C74" s="5">
         <v>18.329999999999998</v>
@@ -1326,7 +1310,7 @@
         <v>45404</v>
       </c>
       <c r="B75" s="5">
-        <v>16.968499999999999</v>
+        <v>16.96846</v>
       </c>
       <c r="C75" s="5">
         <v>16.940000000000001</v>
@@ -1348,7 +1332,7 @@
         <v>45407</v>
       </c>
       <c r="B77" s="5">
-        <v>18.105699999999999</v>
+        <v>18.10568</v>
       </c>
       <c r="C77" s="5">
         <v>16.63</v>
@@ -1359,7 +1343,7 @@
         <v>45408</v>
       </c>
       <c r="B78" s="5">
-        <v>19.129899999999999</v>
+        <v>19.12988</v>
       </c>
       <c r="C78" s="5">
         <v>15.54</v>
@@ -1370,7 +1354,7 @@
         <v>45413</v>
       </c>
       <c r="B79" s="5">
-        <v>18.287200000000002</v>
+        <v>18.287240000000001</v>
       </c>
       <c r="C79" s="5">
         <v>15.35</v>
@@ -1392,7 +1376,7 @@
         <v>45418</v>
       </c>
       <c r="B81" s="5">
-        <v>17.307600000000001</v>
+        <v>17.30762</v>
       </c>
       <c r="C81" s="5">
         <v>14.33</v>
@@ -1414,7 +1398,7 @@
         <v>45422</v>
       </c>
       <c r="B83" s="5">
-        <v>17.412500000000001</v>
+        <v>17.412479999999999</v>
       </c>
       <c r="C83" s="5">
         <v>13.83</v>
@@ -1425,7 +1409,7 @@
         <v>45427</v>
       </c>
       <c r="B84" s="5">
-        <v>16.0657</v>
+        <v>16.065719999999999</v>
       </c>
       <c r="C84" s="5">
         <v>13.18</v>
@@ -1436,7 +1420,7 @@
         <v>45428</v>
       </c>
       <c r="B85" s="5">
-        <v>16.1859</v>
+        <v>16.185870000000001</v>
       </c>
       <c r="C85" s="5">
         <v>12.88</v>
@@ -1447,7 +1431,7 @@
         <v>45443</v>
       </c>
       <c r="B86" s="5">
-        <v>14.777999999999999</v>
+        <v>14.77801</v>
       </c>
       <c r="C86" s="5">
         <v>14.23</v>
@@ -1458,7 +1442,7 @@
         <v>45446</v>
       </c>
       <c r="B87" s="5">
-        <v>14.5596</v>
+        <v>14.559559999999999</v>
       </c>
       <c r="C87" s="5">
         <v>13.88</v>
@@ -1469,7 +1453,7 @@
         <v>45448</v>
       </c>
       <c r="B88" s="5">
-        <v>14.6593</v>
+        <v>14.659269999999999</v>
       </c>
       <c r="C88" s="5">
         <v>13.47</v>
@@ -1480,7 +1464,7 @@
         <v>45449</v>
       </c>
       <c r="B89" s="5">
-        <v>14.7584</v>
+        <v>14.75839</v>
       </c>
       <c r="C89" s="5">
         <v>13.28</v>
@@ -1491,7 +1475,7 @@
         <v>45455</v>
       </c>
       <c r="B90" s="5">
-        <v>15.3675</v>
+        <v>15.367509999999999</v>
       </c>
       <c r="C90" s="5">
         <v>12.64</v>
@@ -1502,7 +1486,7 @@
         <v>45463</v>
       </c>
       <c r="B91" s="5">
-        <v>15.304100000000002</v>
+        <v>15.30405</v>
       </c>
       <c r="C91" s="5">
         <v>14.48</v>
@@ -1513,7 +1497,7 @@
         <v>45471</v>
       </c>
       <c r="B92" s="5">
-        <v>12.1518</v>
+        <v>12.15178</v>
       </c>
       <c r="C92" s="5">
         <v>14.48</v>
@@ -1524,7 +1508,7 @@
         <v>45474</v>
       </c>
       <c r="B93" s="5">
-        <v>11.581099999999999</v>
+        <v>11.581049999999999</v>
       </c>
       <c r="C93" s="5">
         <v>13.87</v>
@@ -1535,7 +1519,7 @@
         <v>45476</v>
       </c>
       <c r="B94" s="5">
-        <v>12.1511</v>
+        <v>12.15113</v>
       </c>
       <c r="C94" s="5">
         <v>13.18</v>
@@ -1546,7 +1530,7 @@
         <v>45481</v>
       </c>
       <c r="B95" s="5">
-        <v>12.6861</v>
+        <v>12.736649999999999</v>
       </c>
       <c r="C95" s="5">
         <v>13.03</v>
@@ -1557,7 +1541,7 @@
         <v>45484</v>
       </c>
       <c r="B96" s="5">
-        <v>13.368600000000001</v>
+        <v>13.449669999999999</v>
       </c>
       <c r="C96" s="5">
         <v>12.98</v>
@@ -1568,7 +1552,7 @@
         <v>45491</v>
       </c>
       <c r="B97" s="5">
-        <v>16.122500000000002</v>
+        <v>16.14997</v>
       </c>
       <c r="C97" s="5">
         <v>15.28</v>
@@ -1579,7 +1563,7 @@
         <v>45497</v>
       </c>
       <c r="B98" s="5">
-        <v>16.901900000000001</v>
+        <v>16.749919999999999</v>
       </c>
       <c r="C98" s="5">
         <v>16.079999999999998</v>
@@ -1590,7 +1574,7 @@
         <v>45503</v>
       </c>
       <c r="B99" s="5">
-        <v>17.5566</v>
+        <v>17.556619999999999</v>
       </c>
       <c r="C99" s="5">
         <v>16.63</v>
@@ -1601,7 +1585,7 @@
         <v>45504</v>
       </c>
       <c r="B100" s="5">
-        <v>20.225000000000001</v>
+        <v>20.225020000000001</v>
       </c>
       <c r="C100" s="5">
         <v>15.73</v>
@@ -1612,7 +1596,7 @@
         <v>45505</v>
       </c>
       <c r="B101" s="5">
-        <v>22.579699999999999</v>
+        <v>22.579730000000001</v>
       </c>
       <c r="C101" s="5">
         <v>16.98</v>
@@ -1623,7 +1607,7 @@
         <v>45506</v>
       </c>
       <c r="B102" s="5">
-        <v>29.961100000000002</v>
+        <v>29.961069999999999</v>
       </c>
       <c r="C102" s="5">
         <v>19.329999999999998</v>
@@ -1634,7 +1618,7 @@
         <v>45509</v>
       </c>
       <c r="B103" s="5">
-        <v>38.744099999999996</v>
+        <v>38.744109999999999</v>
       </c>
       <c r="C103" s="5">
         <v>29</v>
@@ -1645,7 +1629,7 @@
         <v>45510</v>
       </c>
       <c r="B104" s="5">
-        <v>42.419699999999999</v>
+        <v>42.419690000000003</v>
       </c>
       <c r="C104" s="5">
         <v>25.03</v>
@@ -1656,7 +1640,7 @@
         <v>45517</v>
       </c>
       <c r="B105" s="5">
-        <v>34.078399999999995</v>
+        <v>34.078400000000002</v>
       </c>
       <c r="C105" s="5">
         <v>18.48</v>
@@ -1667,7 +1651,7 @@
         <v>45518</v>
       </c>
       <c r="B106" s="5">
-        <v>32.304300000000005</v>
+        <v>32.304340000000003</v>
       </c>
       <c r="C106" s="5">
         <v>16.68</v>
@@ -1678,7 +1662,7 @@
         <v>45519</v>
       </c>
       <c r="B107" s="5">
-        <v>33.103200000000001</v>
+        <v>33.103180000000002</v>
       </c>
       <c r="C107" s="5">
         <v>15.13</v>
@@ -1689,7 +1673,7 @@
         <v>45523</v>
       </c>
       <c r="B108" s="5">
-        <v>32.505899999999997</v>
+        <v>32.505920000000003</v>
       </c>
       <c r="C108" s="5">
         <v>15.33</v>
@@ -1700,7 +1684,7 @@
         <v>45525</v>
       </c>
       <c r="B109" s="5">
-        <v>37.056400000000004</v>
+        <v>37.056399999999996</v>
       </c>
       <c r="C109" s="5">
         <v>16.34</v>
@@ -1711,7 +1695,7 @@
         <v>45533</v>
       </c>
       <c r="B110" s="5">
-        <v>33.095599999999997</v>
+        <v>33.095590000000001</v>
       </c>
       <c r="C110" s="5">
         <v>15.78</v>
@@ -1722,7 +1706,7 @@
         <v>45538</v>
       </c>
       <c r="B111" s="5">
-        <v>34.511800000000001</v>
+        <v>34.511780000000002</v>
       </c>
       <c r="C111" s="5">
         <v>17.25</v>
@@ -1733,7 +1717,7 @@
         <v>45539</v>
       </c>
       <c r="B112" s="5">
-        <v>34.644200000000005</v>
+        <v>34.644199999999998</v>
       </c>
       <c r="C112" s="5">
         <v>18.760000000000002</v>
@@ -1744,7 +1728,7 @@
         <v>45540</v>
       </c>
       <c r="B113" s="5">
-        <v>35.025700000000001</v>
+        <v>35.025730000000003</v>
       </c>
       <c r="C113" s="5">
         <v>19.5</v>
@@ -1755,7 +1739,7 @@
         <v>45541</v>
       </c>
       <c r="B114" s="5">
-        <v>35.743299999999998</v>
+        <v>35.743290000000002</v>
       </c>
       <c r="C114" s="5">
         <v>20.89</v>
@@ -1766,7 +1750,7 @@
         <v>45544</v>
       </c>
       <c r="B115" s="5">
-        <v>34.581699999999998</v>
+        <v>34.581679999999999</v>
       </c>
       <c r="C115" s="5">
         <v>18.899999999999999</v>
@@ -1777,7 +1761,7 @@
         <v>45546</v>
       </c>
       <c r="B116" s="5">
-        <v>32.985199999999999</v>
+        <v>32.985219999999998</v>
       </c>
       <c r="C116" s="5">
         <v>19.62</v>
@@ -1788,7 +1772,7 @@
         <v>45547</v>
       </c>
       <c r="B117" s="5">
-        <v>38.065599999999996</v>
+        <v>38.065570000000001</v>
       </c>
       <c r="C117" s="5">
         <v>17.45</v>
@@ -1799,7 +1783,7 @@
         <v>45548</v>
       </c>
       <c r="B118" s="5">
-        <v>38.8962</v>
+        <v>38.896210000000004</v>
       </c>
       <c r="C118" s="5">
         <v>16.399999999999999</v>
@@ -1810,7 +1794,7 @@
         <v>45554</v>
       </c>
       <c r="B119" s="5">
-        <v>39.812899999999999</v>
+        <v>39.812869999999997</v>
       </c>
       <c r="C119" s="5">
         <v>16.600000000000001</v>
@@ -1821,7 +1805,7 @@
         <v>45562</v>
       </c>
       <c r="B120" s="5">
-        <v>39.148699999999998</v>
+        <v>39.14</v>
       </c>
       <c r="C120" s="5">
         <v>18.45</v>
@@ -1832,7 +1816,7 @@
         <v>45566</v>
       </c>
       <c r="B121" s="5">
-        <v>42.391500000000001</v>
+        <v>42.39</v>
       </c>
       <c r="C121" s="5">
         <v>20.3</v>
@@ -1843,7 +1827,7 @@
         <v>45573</v>
       </c>
       <c r="B122" s="5">
-        <v>41.801100000000005</v>
+        <v>41.8</v>
       </c>
       <c r="C122" s="5">
         <v>21.35</v>
@@ -1854,7 +1838,7 @@
         <v>45574</v>
       </c>
       <c r="B123" s="5">
-        <v>41.9146</v>
+        <v>41.91</v>
       </c>
       <c r="C123" s="5">
         <v>20.85</v>
@@ -1865,7 +1849,7 @@
         <v>45576</v>
       </c>
       <c r="B124" s="5">
-        <v>41.728200000000001</v>
+        <v>41.72</v>
       </c>
       <c r="C124" s="5">
         <v>21.07</v>
@@ -1876,7 +1860,7 @@
         <v>45579</v>
       </c>
       <c r="B125" s="5">
-        <v>40.779399999999995</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="C125" s="5">
         <v>20.149999999999999</v>
@@ -1887,7 +1871,7 @@
         <v>45589</v>
       </c>
       <c r="B126" s="5">
-        <v>37.047499999999999</v>
+        <v>37.04</v>
       </c>
       <c r="C126" s="5">
         <v>19.440000000000001</v>
@@ -1898,7 +1882,7 @@
         <v>45590</v>
       </c>
       <c r="B127" s="5">
-        <v>37.010399999999997</v>
+        <v>37.01</v>
       </c>
       <c r="C127" s="5">
         <v>18.510000000000002</v>
@@ -1909,7 +1893,7 @@
         <v>45596</v>
       </c>
       <c r="B128" s="5">
-        <v>39.248899999999999</v>
+        <v>39.24</v>
       </c>
       <c r="C128" s="5">
         <v>20.78</v>
@@ -1920,7 +1904,7 @@
         <v>45601</v>
       </c>
       <c r="B129" s="5">
-        <v>35.530899999999995</v>
+        <v>35.53</v>
       </c>
       <c r="C129" s="5">
         <v>18.53</v>
@@ -1931,7 +1915,7 @@
         <v>45602</v>
       </c>
       <c r="B130" s="5">
-        <v>35.785299999999999</v>
+        <v>35.78</v>
       </c>
       <c r="C130" s="5">
         <v>16.43</v>
@@ -1942,7 +1926,7 @@
         <v>45603</v>
       </c>
       <c r="B131" s="5">
-        <v>35.850100000000005</v>
+        <v>35.85</v>
       </c>
       <c r="C131" s="5">
         <v>15.73</v>
@@ -1953,7 +1937,7 @@
         <v>45611</v>
       </c>
       <c r="B132" s="5">
-        <v>34.431100000000001</v>
+        <v>34.43</v>
       </c>
       <c r="C132" s="5">
         <v>16.399999999999999</v>
@@ -1964,7 +1948,7 @@
         <v>45615</v>
       </c>
       <c r="B133" s="5">
-        <v>33.939399999999999</v>
+        <v>33.93</v>
       </c>
       <c r="C133" s="5">
         <v>16.18</v>
@@ -1975,7 +1959,7 @@
         <v>45617</v>
       </c>
       <c r="B134" s="5">
-        <v>37.095599999999997</v>
+        <v>37.090000000000003</v>
       </c>
       <c r="C134" s="5">
         <v>16.8</v>
@@ -1986,7 +1970,7 @@
         <v>45622</v>
       </c>
       <c r="B135" s="5">
-        <v>31.885599999999997</v>
+        <v>31.88</v>
       </c>
       <c r="C135" s="5">
         <v>15.22</v>
@@ -1997,7 +1981,7 @@
         <v>45625</v>
       </c>
       <c r="B136" s="5">
-        <v>30.663899999999998</v>
+        <v>30.66</v>
       </c>
       <c r="C136" s="5">
         <v>14.88</v>
@@ -2008,7 +1992,7 @@
         <v>45630</v>
       </c>
       <c r="B137" s="5">
-        <v>30.587599999999998</v>
+        <v>30.58</v>
       </c>
       <c r="C137" s="5">
         <v>14.42</v>
@@ -2019,7 +2003,7 @@
         <v>45645</v>
       </c>
       <c r="B138" s="5">
-        <v>48.6738</v>
+        <v>48.67</v>
       </c>
       <c r="C138" s="5">
         <v>19.329999999999998</v>
@@ -2030,7 +2014,7 @@
         <v>45646</v>
       </c>
       <c r="B139" s="5">
-        <v>49.823399999999999</v>
+        <v>49.82</v>
       </c>
       <c r="C139" s="5">
         <v>21.87</v>
@@ -2041,7 +2025,7 @@
         <v>45663</v>
       </c>
       <c r="B140" s="5">
-        <v>47.7346</v>
+        <v>47.73</v>
       </c>
       <c r="C140" s="5">
         <v>16.3</v>
@@ -2052,7 +2036,7 @@
         <v>45664</v>
       </c>
       <c r="B141" s="5">
-        <v>50.637900000000002</v>
+        <v>50.63</v>
       </c>
       <c r="C141" s="5">
         <v>18.010000000000002</v>
@@ -2063,7 +2047,7 @@
         <v>45667</v>
       </c>
       <c r="B142" s="5">
-        <v>51.430299999999995</v>
+        <v>51.43</v>
       </c>
       <c r="C142" s="5">
         <v>18.8</v>
@@ -2073,10 +2057,10 @@
       <c r="A143" s="4">
         <v>45670</v>
       </c>
-      <c r="B143" s="6">
-        <v>52.123899999999999</v>
-      </c>
-      <c r="C143" s="7">
+      <c r="B143" s="5">
+        <v>52.12</v>
+      </c>
+      <c r="C143" s="6">
         <v>19.25</v>
       </c>
     </row>
@@ -2084,10 +2068,10 @@
       <c r="A144" s="4">
         <v>45672</v>
       </c>
-      <c r="B144" s="6">
-        <v>51.708399999999997</v>
-      </c>
-      <c r="C144" s="7">
+      <c r="B144" s="5">
+        <v>51.7</v>
+      </c>
+      <c r="C144" s="6">
         <v>16.55</v>
       </c>
     </row>
@@ -2095,10 +2079,10 @@
       <c r="A145" s="4">
         <v>45674</v>
       </c>
-      <c r="B145" s="6">
-        <v>51.872300000000003</v>
-      </c>
-      <c r="C145" s="7">
+      <c r="B145" s="5">
+        <v>51.87</v>
+      </c>
+      <c r="C145" s="6">
         <v>15.88</v>
       </c>
     </row>
@@ -2106,10 +2090,10 @@
       <c r="A146" s="4">
         <v>45679</v>
       </c>
-      <c r="B146" s="6">
-        <v>51.672499999999999</v>
-      </c>
-      <c r="C146" s="7">
+      <c r="B146" s="5">
+        <v>51.67</v>
+      </c>
+      <c r="C146" s="6">
         <v>17.5</v>
       </c>
     </row>
@@ -2117,10 +2101,10 @@
       <c r="A147" s="4">
         <v>45684</v>
       </c>
-      <c r="B147" s="6">
-        <v>53.703000000000003</v>
-      </c>
-      <c r="C147" s="7">
+      <c r="B147" s="5">
+        <v>53.7</v>
+      </c>
+      <c r="C147" s="6">
         <v>17.829999999999998</v>
       </c>
     </row>
@@ -2128,10 +2112,10 @@
       <c r="A148" s="4">
         <v>45685</v>
       </c>
-      <c r="B148" s="6">
-        <v>54.410699999999999</v>
-      </c>
-      <c r="C148" s="7">
+      <c r="B148" s="5">
+        <v>54.41</v>
+      </c>
+      <c r="C148" s="6">
         <v>17.100000000000001</v>
       </c>
     </row>
@@ -2139,10 +2123,10 @@
       <c r="A149" s="4">
         <v>45688</v>
       </c>
-      <c r="B149" s="6">
-        <v>53.570300000000003</v>
-      </c>
-      <c r="C149" s="7">
+      <c r="B149" s="5">
+        <v>53.57</v>
+      </c>
+      <c r="C149" s="6">
         <v>16.600000000000001</v>
       </c>
     </row>
@@ -2150,10 +2134,10 @@
       <c r="A150" s="4">
         <v>45691</v>
       </c>
-      <c r="B150" s="6">
-        <v>61.748199999999997</v>
-      </c>
-      <c r="C150" s="7">
+      <c r="B150" s="5">
+        <v>61.74</v>
+      </c>
+      <c r="C150" s="6">
         <v>18.940000000000001</v>
       </c>
     </row>
@@ -2161,10 +2145,10 @@
       <c r="A151" s="4">
         <v>45692</v>
       </c>
-      <c r="B151" s="6">
-        <v>62.080400000000004</v>
-      </c>
-      <c r="C151" s="7">
+      <c r="B151" s="5">
+        <v>62.08</v>
+      </c>
+      <c r="C151" s="6">
         <v>17.350000000000001</v>
       </c>
     </row>
@@ -2172,10 +2156,10 @@
       <c r="A152" s="4">
         <v>45694</v>
       </c>
-      <c r="B152" s="6">
-        <v>60.802800000000005</v>
-      </c>
-      <c r="C152" s="7">
+      <c r="B152" s="5">
+        <v>60.8</v>
+      </c>
+      <c r="C152" s="6">
         <v>16.68</v>
       </c>
     </row>
@@ -2183,10 +2167,10 @@
       <c r="A153" s="4">
         <v>45695</v>
       </c>
-      <c r="B153" s="6">
-        <v>60.501000000000005</v>
-      </c>
-      <c r="C153" s="7">
+      <c r="B153" s="5">
+        <v>60.5</v>
+      </c>
+      <c r="C153" s="6">
         <v>17.350000000000001</v>
       </c>
     </row>
@@ -2194,10 +2178,10 @@
       <c r="A154" s="4">
         <v>45698</v>
       </c>
-      <c r="B154" s="6">
-        <v>60.501000000000005</v>
-      </c>
-      <c r="C154" s="7">
+      <c r="B154" s="5">
+        <v>60.5</v>
+      </c>
+      <c r="C154" s="6">
         <v>16.7</v>
       </c>
     </row>
@@ -2205,10 +2189,10 @@
       <c r="A155" s="4">
         <v>45699</v>
       </c>
-      <c r="B155" s="6">
-        <v>60.493998109489567</v>
-      </c>
-      <c r="C155" s="7">
+      <c r="B155" s="5">
+        <v>60.49</v>
+      </c>
+      <c r="C155" s="6">
         <v>16.77</v>
       </c>
     </row>
@@ -2216,10 +2200,10 @@
       <c r="A156" s="4">
         <v>45700</v>
       </c>
-      <c r="B156" s="6">
-        <v>60.486995728680093</v>
-      </c>
-      <c r="C156" s="7">
+      <c r="B156" s="5">
+        <v>60.49</v>
+      </c>
+      <c r="C156" s="6">
         <v>16.8</v>
       </c>
     </row>
@@ -2227,10 +2211,10 @@
       <c r="A157" s="4">
         <v>45701</v>
       </c>
-      <c r="B157" s="6">
-        <v>60.479992857502921</v>
-      </c>
-      <c r="C157" s="7">
+      <c r="B157" s="5">
+        <v>60.49</v>
+      </c>
+      <c r="C157" s="6">
         <v>16.13</v>
       </c>
     </row>
@@ -2238,10 +2222,10 @@
       <c r="A158" s="4">
         <v>45702</v>
       </c>
-      <c r="B158" s="6">
-        <v>59.853692233203247</v>
-      </c>
-      <c r="C158" s="7">
+      <c r="B158" s="5">
+        <v>59.87</v>
+      </c>
+      <c r="C158" s="6">
         <v>16.010000000000002</v>
       </c>
     </row>
@@ -2249,10 +2233,10 @@
       <c r="A159" s="4">
         <v>45705</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="7">
         <v>59.832549732750181</v>
       </c>
-      <c r="C159" s="7">
+      <c r="C159" s="6">
         <v>16.010000000000002</v>
       </c>
     </row>
@@ -2260,10 +2244,10 @@
       <c r="A160" s="4">
         <v>45706</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="7">
         <v>58.741970205032558</v>
       </c>
-      <c r="C160" s="7">
+      <c r="C160" s="6">
         <v>15.66</v>
       </c>
     </row>
@@ -2271,10 +2255,10 @@
       <c r="A161" s="4">
         <v>45707</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="7">
         <v>58.47522752009435</v>
       </c>
-      <c r="C161" s="7">
+      <c r="C161" s="6">
         <v>15.94</v>
       </c>
     </row>
@@ -2282,10 +2266,10 @@
       <c r="A162" s="4">
         <v>45708</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B162" s="7">
         <v>56.793929030915095</v>
       </c>
-      <c r="C162" s="7">
+      <c r="C162" s="6">
         <v>17.03</v>
       </c>
     </row>
@@ -2293,10 +2277,10 @@
       <c r="A163" s="4">
         <v>45709</v>
       </c>
-      <c r="B163" s="6">
-        <v>59.525500000000001</v>
-      </c>
-      <c r="C163" s="7">
+      <c r="B163" s="7">
+        <v>59.526000000000003</v>
+      </c>
+      <c r="C163" s="6">
         <v>18.3</v>
       </c>
     </row>
@@ -2304,10 +2288,10 @@
       <c r="A164" s="4">
         <v>45712</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B164" s="7">
         <v>60.094451902298907</v>
       </c>
-      <c r="C164" s="7">
+      <c r="C164" s="6">
         <v>18.43</v>
       </c>
     </row>
@@ -2315,10 +2299,10 @@
       <c r="A165" s="4">
         <v>45713</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="7">
         <v>60.553917989038709</v>
       </c>
-      <c r="C165" s="7">
+      <c r="C165" s="6">
         <v>18.48</v>
       </c>
     </row>
@@ -2326,10 +2310,10 @@
       <c r="A166" s="4">
         <v>45714</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B166" s="7">
         <v>60.798005860672511</v>
       </c>
-      <c r="C166" s="7">
+      <c r="C166" s="6">
         <v>18.13</v>
       </c>
     </row>
@@ -2337,10 +2321,10 @@
       <c r="A167" s="4">
         <v>45715</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="7">
         <v>62.216056315725986</v>
       </c>
-      <c r="C167" s="7">
+      <c r="C167" s="6">
         <v>19.309999999999999</v>
       </c>
     </row>
@@ -2348,10 +2332,10 @@
       <c r="A168" s="4">
         <v>45716</v>
       </c>
-      <c r="B168" s="6">
-        <v>62.472899999999996</v>
-      </c>
-      <c r="C168" s="7">
+      <c r="B168" s="7">
+        <v>62.469834859004237</v>
+      </c>
+      <c r="C168" s="6">
         <v>18.829999999999998</v>
       </c>
     </row>
@@ -2359,10 +2343,10 @@
       <c r="A169" s="4">
         <v>45719</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="7">
         <v>65.339886221467737</v>
       </c>
-      <c r="C169" s="7">
+      <c r="C169" s="6">
         <v>20.66</v>
       </c>
     </row>
@@ -2370,10 +2354,10 @@
       <c r="A170" s="4">
         <v>45720</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B170" s="7">
         <v>66.861193104701584</v>
       </c>
-      <c r="C170" s="7">
+      <c r="C170" s="6">
         <v>21.24</v>
       </c>
     </row>
@@ -2381,10 +2365,10 @@
       <c r="A171" s="4">
         <v>45721</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="7">
         <v>66.517508508857574</v>
       </c>
-      <c r="C171" s="7">
+      <c r="C171" s="6">
         <v>20.13</v>
       </c>
     </row>
@@ -2392,10 +2376,10 @@
       <c r="A172" s="4">
         <v>45722</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B172" s="7">
         <v>68.323242194259294</v>
       </c>
-      <c r="C172" s="7">
+      <c r="C172" s="6">
         <v>22.83</v>
       </c>
     </row>
@@ -2403,10 +2387,10 @@
       <c r="A173" s="4">
         <v>45723</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="7">
         <v>67.563850300614916</v>
       </c>
-      <c r="C173" s="7">
+      <c r="C173" s="6">
         <v>21.63</v>
       </c>
     </row>
@@ -2414,10 +2398,10 @@
       <c r="A174" s="4">
         <v>45726</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B174" s="7">
         <v>69.954198926180794</v>
       </c>
-      <c r="C174" s="7">
+      <c r="C174" s="6">
         <v>25.33</v>
       </c>
     </row>
@@ -2425,10 +2409,10 @@
       <c r="A175" s="4">
         <v>45727</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="7">
         <v>69.383621539058765</v>
       </c>
-      <c r="C175" s="7">
+      <c r="C175" s="6">
         <v>24.61</v>
       </c>
     </row>
@@ -2436,10 +2420,10 @@
       <c r="A176" s="4">
         <v>45728</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B176" s="7">
         <v>67.089681867288334</v>
       </c>
-      <c r="C176" s="7">
+      <c r="C176" s="6">
         <v>22.98</v>
       </c>
     </row>
@@ -2447,10 +2431,10 @@
       <c r="A177" s="4">
         <v>45729</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="7">
         <v>67.323335496895723</v>
       </c>
-      <c r="C177" s="7">
+      <c r="C177" s="6">
         <v>24.41</v>
       </c>
     </row>
@@ -2458,10 +2442,10 @@
       <c r="A178" s="4">
         <v>45730</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B178" s="7">
         <v>67.181036050178449</v>
       </c>
-      <c r="C178" s="7">
+      <c r="C178" s="6">
         <v>21.52</v>
       </c>
     </row>
@@ -2469,10 +2453,10 @@
       <c r="A179" s="4">
         <v>45733</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="7">
         <v>66.920406977849183</v>
       </c>
-      <c r="C179" s="7">
+      <c r="C179" s="6">
         <v>19.920000000000002</v>
       </c>
     </row>
@@ -2480,10 +2464,10 @@
       <c r="A180" s="4">
         <v>45734</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B180" s="7">
         <v>67.036022607578374</v>
       </c>
-      <c r="C180" s="7">
+      <c r="C180" s="6">
         <v>20.48</v>
       </c>
     </row>
@@ -2491,10 +2475,10 @@
       <c r="A181" s="4">
         <v>45735</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="7">
         <v>66.990956416610388</v>
       </c>
-      <c r="C181" s="7">
+      <c r="C181" s="6">
         <v>19.75</v>
       </c>
     </row>
@@ -2502,10 +2486,10 @@
       <c r="A182" s="4">
         <v>45736</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B182" s="7">
         <v>66.876361537686464</v>
       </c>
-      <c r="C182" s="7">
+      <c r="C182" s="6">
         <v>19.47</v>
       </c>
     </row>
@@ -2513,10 +2497,10 @@
       <c r="A183" s="4">
         <v>45737</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="7">
         <v>66.834044441579636</v>
       </c>
-      <c r="C183" s="7">
+      <c r="C183" s="6">
         <v>19.47</v>
       </c>
     </row>
@@ -2524,10 +2508,10 @@
       <c r="A184" s="4">
         <v>45740</v>
       </c>
-      <c r="B184" s="6">
-        <v>66.555599999999998</v>
-      </c>
-      <c r="C184" s="7">
+      <c r="B184" s="7">
+        <v>66.56</v>
+      </c>
+      <c r="C184" s="6">
         <v>18.5</v>
       </c>
     </row>
@@ -2535,10 +2519,10 @@
       <c r="A185" s="4">
         <v>45741</v>
       </c>
-      <c r="B185" s="6">
-        <v>66.381999999999991</v>
-      </c>
-      <c r="C185" s="7">
+      <c r="B185" s="7">
+        <v>66.38</v>
+      </c>
+      <c r="C185" s="6">
         <v>18.66</v>
       </c>
     </row>
@@ -2546,10 +2530,10 @@
       <c r="A186" s="4">
         <v>45742</v>
       </c>
-      <c r="B186" s="6">
-        <v>66.502499999999998</v>
-      </c>
-      <c r="C186" s="7">
+      <c r="B186" s="7">
+        <v>66.5</v>
+      </c>
+      <c r="C186" s="6">
         <v>19.149999999999999</v>
       </c>
     </row>
@@ -2557,10 +2541,10 @@
       <c r="A187" s="4">
         <v>45743</v>
       </c>
-      <c r="B187" s="6">
-        <v>66.396299999999997</v>
-      </c>
-      <c r="C187" s="7">
+      <c r="B187" s="7">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="C187" s="6">
         <v>19.16</v>
       </c>
     </row>
@@ -2568,10 +2552,10 @@
       <c r="A188" s="4">
         <v>45744</v>
       </c>
-      <c r="B188" s="6">
-        <v>66.868700000000004</v>
-      </c>
-      <c r="C188" s="7">
+      <c r="B188" s="7">
+        <v>66.87</v>
+      </c>
+      <c r="C188" s="6">
         <v>20.55</v>
       </c>
     </row>
@@ -2579,10 +2563,10 @@
       <c r="A189" s="4">
         <v>45747</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="7">
         <v>66.915770481857891</v>
       </c>
-      <c r="C189" s="7">
+      <c r="C189" s="6">
         <v>20.49</v>
       </c>
     </row>
@@ -2590,10 +2574,10 @@
       <c r="A190" s="4">
         <v>45748</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B190" s="7">
         <v>66.735285428276399</v>
       </c>
-      <c r="C190" s="7">
+      <c r="C190" s="6">
         <v>20.51</v>
       </c>
     </row>
@@ -2601,10 +2585,10 @@
       <c r="A191" s="4">
         <v>45749</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="7">
         <v>66.988609721040177</v>
       </c>
-      <c r="C191" s="7">
+      <c r="C191" s="6">
         <v>20.02</v>
       </c>
     </row>
@@ -2612,10 +2596,10 @@
       <c r="A192" s="4">
         <v>45750</v>
       </c>
-      <c r="B192" s="6">
+      <c r="B192" s="7">
         <v>71.170579906185338</v>
       </c>
-      <c r="C192" s="7">
+      <c r="C192" s="6">
         <v>24.19</v>
       </c>
     </row>
@@ -2623,10 +2607,10 @@
       <c r="A193" s="4">
         <v>45751</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="7">
         <v>71.238202912433707</v>
       </c>
-      <c r="C193" s="7">
+      <c r="C193" s="6">
         <v>28.52</v>
       </c>
     </row>
@@ -2634,10 +2618,10 @@
       <c r="A194" s="4">
         <v>45754</v>
       </c>
-      <c r="B194" s="6">
-        <v>71.294967851524035</v>
-      </c>
-      <c r="C194" s="7">
+      <c r="B194" s="7">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="C194" s="6">
         <v>26.07</v>
       </c>
     </row>
@@ -2645,10 +2629,10 @@
       <c r="A195" s="4">
         <v>45755</v>
       </c>
-      <c r="B195" s="6">
-        <v>71.311177204320614</v>
-      </c>
-      <c r="C195" s="7">
+      <c r="B195" s="7">
+        <v>71.31</v>
+      </c>
+      <c r="C195" s="6">
         <v>27.91</v>
       </c>
     </row>
@@ -2656,10 +2640,10 @@
       <c r="A196" s="4">
         <v>45756</v>
       </c>
-      <c r="B196" s="6">
-        <v>71.583900384440369</v>
-      </c>
-      <c r="C196" s="7">
+      <c r="B196" s="7">
+        <v>71.58</v>
+      </c>
+      <c r="C196" s="6">
         <v>23.83</v>
       </c>
     </row>
@@ -2667,10 +2651,10 @@
       <c r="A197" s="4">
         <v>45757</v>
       </c>
-      <c r="B197" s="6">
-        <v>71.70610795053436</v>
-      </c>
-      <c r="C197" s="7">
+      <c r="B197" s="7">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="C197" s="6">
         <v>27.57</v>
       </c>
     </row>
@@ -2678,10 +2662,10 @@
       <c r="A198" s="4">
         <v>45758</v>
       </c>
-      <c r="B198" s="6">
-        <v>71.595798006496466</v>
-      </c>
-      <c r="C198" s="7">
+      <c r="B198" s="7">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C198" s="6">
         <v>27.14</v>
       </c>
     </row>
@@ -2689,10 +2673,10 @@
       <c r="A199" s="4">
         <v>45761</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="7">
         <v>71.366854111218103</v>
       </c>
-      <c r="C199" s="7">
+      <c r="C199" s="6">
         <v>29.86</v>
       </c>
     </row>
@@ -2700,10 +2684,10 @@
       <c r="A200" s="4">
         <v>45762</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B200" s="7">
         <v>71.281365566683078</v>
       </c>
-      <c r="C200" s="7">
+      <c r="C200" s="6">
         <v>29.9</v>
       </c>
     </row>
@@ -2711,10 +2695,10 @@
       <c r="A201" s="4">
         <v>45763</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="7">
         <v>71.454290245376413</v>
       </c>
-      <c r="C201" s="7">
+      <c r="C201" s="6">
         <v>31.91</v>
       </c>
     </row>
@@ -2722,10 +2706,10 @@
       <c r="A202" s="4">
         <v>45764</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B202" s="7">
         <v>71.377867203379708</v>
       </c>
-      <c r="C202" s="7">
+      <c r="C202" s="6">
         <v>26.73</v>
       </c>
     </row>
@@ -2733,10 +2717,10 @@
       <c r="A203" s="4">
         <v>45769</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="7">
         <v>71.341246065695032</v>
       </c>
-      <c r="C203" s="7">
+      <c r="C203" s="6">
         <v>26.54</v>
       </c>
     </row>
@@ -2744,10 +2728,10 @@
       <c r="A204" s="4">
         <v>45770</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B204" s="7">
         <v>71.30713182529496</v>
       </c>
-      <c r="C204" s="7">
+      <c r="C204" s="6">
         <v>25.44</v>
       </c>
     </row>
@@ -2755,10 +2739,10 @@
       <c r="A205" s="4">
         <v>45771</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="7">
         <v>71.283360762242197</v>
       </c>
-      <c r="C205" s="7">
+      <c r="C205" s="6">
         <v>24.57</v>
       </c>
     </row>
@@ -2766,10 +2750,10 @@
       <c r="A206" s="4">
         <v>45772</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B206" s="7">
         <v>70.790714431871933</v>
       </c>
-      <c r="C206" s="7">
+      <c r="C206" s="6">
         <v>23.5</v>
       </c>
     </row>
@@ -2777,10 +2761,10 @@
       <c r="A207" s="4">
         <v>45775</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="7">
         <v>70.565346511954488</v>
       </c>
-      <c r="C207" s="7">
+      <c r="C207" s="6">
         <v>23.68</v>
       </c>
     </row>
@@ -2788,10 +2772,10 @@
       <c r="A208" s="4">
         <v>45776</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="7">
         <v>70.571787180695495</v>
       </c>
-      <c r="C208" s="7">
+      <c r="C208" s="6">
         <v>23.38</v>
       </c>
     </row>
@@ -2799,10 +2783,10 @@
       <c r="A209" s="4">
         <v>45777</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="7">
         <v>71.163655589072889</v>
       </c>
-      <c r="C209" s="7">
+      <c r="C209" s="6">
         <v>24.01</v>
       </c>
     </row>
@@ -2810,10 +2794,10 @@
       <c r="A210" s="4">
         <v>45779</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B210" s="7">
         <v>71.200717140103308</v>
       </c>
-      <c r="C210" s="7">
+      <c r="C210" s="6">
         <v>22.48</v>
       </c>
     </row>
@@ -2821,10 +2805,10 @@
       <c r="A211" s="4">
         <v>45782</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="7">
         <v>70.633912528145416</v>
       </c>
-      <c r="C211" s="7">
+      <c r="C211" s="6">
         <v>23.18</v>
       </c>
     </row>
@@ -2832,10 +2816,10 @@
       <c r="A212" s="4">
         <v>45783</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B212" s="7">
         <v>70.82936366581427</v>
       </c>
-      <c r="C212" s="7">
+      <c r="C212" s="6">
         <v>24.11</v>
       </c>
     </row>
@@ -2843,10 +2827,10 @@
       <c r="A213" s="4">
         <v>45784</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="7">
         <v>70.449809811239035</v>
       </c>
-      <c r="C213" s="7">
+      <c r="C213" s="6">
         <v>23.32</v>
       </c>
     </row>
@@ -2854,10 +2838,10 @@
       <c r="A214" s="4">
         <v>45785</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B214" s="7">
         <v>70.267347616061699</v>
       </c>
-      <c r="C214" s="7">
+      <c r="C214" s="6">
         <v>22.29</v>
       </c>
     </row>
@@ -2865,10 +2849,10 @@
       <c r="A215" s="4">
         <v>45786</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="7">
         <v>69.587664146564194</v>
       </c>
-      <c r="C215" s="7">
+      <c r="C215" s="6">
         <v>22.01</v>
       </c>
     </row>
@@ -2876,10 +2860,10 @@
       <c r="A216" s="4">
         <v>45789</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B216" s="7">
         <v>70.44999925806863</v>
       </c>
-      <c r="C216" s="7">
+      <c r="C216" s="6">
         <v>18.57</v>
       </c>
     </row>
@@ -2887,10 +2871,10 @@
       <c r="A217" s="4">
         <v>45790</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="7">
         <v>70.921032442928734</v>
       </c>
-      <c r="C217" s="7">
+      <c r="C217" s="6">
         <v>18.440000000000001</v>
       </c>
     </row>
@@ -2898,10 +2882,10 @@
       <c r="A218" s="4">
         <v>45791</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B218" s="7">
         <v>71.258231969222166</v>
       </c>
-      <c r="C218" s="7">
+      <c r="C218" s="6">
         <v>18.78</v>
       </c>
     </row>
@@ -2909,10 +2893,10 @@
       <c r="A219" s="4">
         <v>45792</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="7">
         <v>70.692415228975264</v>
       </c>
-      <c r="C219" s="7">
+      <c r="C219" s="6">
         <v>18.23</v>
       </c>
     </row>
@@ -2920,10 +2904,10 @@
       <c r="A220" s="4">
         <v>45793</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B220" s="7">
         <v>71.096539837083142</v>
       </c>
-      <c r="C220" s="7">
+      <c r="C220" s="6">
         <v>17.93</v>
       </c>
     </row>
@@ -2931,10 +2915,10 @@
       <c r="A221" s="4">
         <v>45796</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="7">
         <v>71.219274657673722</v>
       </c>
-      <c r="C221" s="7">
+      <c r="C221" s="6">
         <v>19.649999999999999</v>
       </c>
     </row>
@@ -2942,10 +2926,10 @@
       <c r="A222" s="4">
         <v>45797</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B222" s="7">
         <v>70.629788069845631</v>
       </c>
-      <c r="C222" s="7">
+      <c r="C222" s="6">
         <v>19.5</v>
       </c>
     </row>
@@ -2953,10 +2937,10 @@
       <c r="A223" s="4">
         <v>45798</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="7">
         <v>72.09111729280329</v>
       </c>
-      <c r="C223" s="7">
+      <c r="C223" s="6">
         <v>20.79</v>
       </c>
     </row>
@@ -2964,10 +2948,10 @@
       <c r="A224" s="4">
         <v>45799</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B224" s="7">
         <v>71.733213882935502</v>
       </c>
-      <c r="C224" s="7">
+      <c r="C224" s="6">
         <v>21.24</v>
       </c>
     </row>
@@ -2975,172 +2959,745 @@
       <c r="A225" s="4">
         <v>45800</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="7">
         <v>72.236168111230796</v>
       </c>
-      <c r="C225" s="7">
+      <c r="C225" s="6">
         <v>22.28</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="23">
       <c r="A226" s="4"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="7"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="6"/>
     </row>
     <row r="227" spans="1:3" ht="23">
       <c r="A227" s="4"/>
-      <c r="B227" s="6"/>
-      <c r="C227" s="7"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="6"/>
     </row>
     <row r="228" spans="1:3" ht="23">
       <c r="A228" s="4"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="6"/>
     </row>
     <row r="229" spans="1:3" ht="23">
       <c r="A229" s="4"/>
-      <c r="B229" s="6"/>
-      <c r="C229" s="7"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="6"/>
     </row>
     <row r="230" spans="1:3" ht="23">
       <c r="A230" s="4"/>
-      <c r="B230" s="6"/>
-      <c r="C230" s="7"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="6"/>
     </row>
     <row r="231" spans="1:3" ht="23">
       <c r="A231" s="4"/>
-      <c r="B231" s="6"/>
-      <c r="C231" s="7"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="6"/>
     </row>
     <row r="232" spans="1:3" ht="23">
       <c r="A232" s="4"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="7"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="6"/>
     </row>
     <row r="233" spans="1:3" ht="23">
       <c r="A233" s="4"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="7"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="6"/>
     </row>
     <row r="234" spans="1:3" ht="23">
       <c r="A234" s="4"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="7"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
     </row>
     <row r="235" spans="1:3" ht="23">
       <c r="A235" s="4"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="7"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
     </row>
     <row r="236" spans="1:3" ht="23">
       <c r="A236" s="4"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="7"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
     </row>
     <row r="237" spans="1:3" ht="23">
       <c r="A237" s="4"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="7"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
     </row>
     <row r="238" spans="1:3" ht="23">
       <c r="A238" s="4"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="7"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
     </row>
     <row r="239" spans="1:3" ht="23">
       <c r="A239" s="4"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="7"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
     </row>
     <row r="240" spans="1:3" ht="23">
       <c r="A240" s="4"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="7"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
     </row>
     <row r="241" spans="1:3" ht="23">
       <c r="A241" s="4"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="7"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
     </row>
     <row r="242" spans="1:3" ht="23">
       <c r="A242" s="4"/>
-      <c r="B242" s="6"/>
-      <c r="C242" s="7"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
     </row>
     <row r="243" spans="1:3" ht="23">
       <c r="A243" s="4"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="7"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
     </row>
     <row r="244" spans="1:3" ht="23">
       <c r="A244" s="4"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="7"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
     </row>
     <row r="245" spans="1:3" ht="23">
       <c r="A245" s="4"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="7"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
     </row>
     <row r="246" spans="1:3" ht="23">
       <c r="A246" s="4"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="7"/>
+      <c r="B246" s="5"/>
+      <c r="C246" s="6"/>
     </row>
     <row r="247" spans="1:3" ht="23">
       <c r="A247" s="4"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="7"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
     </row>
     <row r="248" spans="1:3" ht="23">
       <c r="A248" s="4"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="7"/>
+      <c r="B248" s="5"/>
+      <c r="C248" s="6"/>
     </row>
     <row r="249" spans="1:3" ht="23">
       <c r="A249" s="4"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="7"/>
+      <c r="B249" s="5"/>
+      <c r="C249" s="6"/>
     </row>
     <row r="250" spans="1:3" ht="23">
       <c r="A250" s="4"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="7"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="6"/>
     </row>
     <row r="251" spans="1:3" ht="23">
       <c r="A251" s="4"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="7"/>
+      <c r="B251" s="5"/>
+      <c r="C251" s="6"/>
     </row>
     <row r="252" spans="1:3" ht="23">
       <c r="A252" s="4"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="6"/>
     </row>
     <row r="253" spans="1:3" ht="23">
       <c r="A253" s="4"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="7"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="6"/>
     </row>
     <row r="254" spans="1:3" ht="23">
       <c r="A254" s="4"/>
-      <c r="B254" s="6"/>
-      <c r="C254" s="7"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="6"/>
     </row>
     <row r="255" spans="1:3" ht="23">
       <c r="A255" s="4"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="7"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="6"/>
     </row>
     <row r="256" spans="1:3" ht="23">
       <c r="A256" s="4"/>
-      <c r="B256" s="6"/>
-      <c r="C256" s="7"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="6"/>
     </row>
     <row r="257" spans="1:3" ht="23">
       <c r="A257" s="4"/>
-      <c r="B257" s="6"/>
-      <c r="C257" s="7"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="6"/>
+    </row>
+    <row r="258" spans="1:3" ht="23">
+      <c r="B258" s="5"/>
+    </row>
+    <row r="259" spans="1:3" ht="23">
+      <c r="B259" s="5"/>
+    </row>
+    <row r="260" spans="1:3" ht="23">
+      <c r="B260" s="5"/>
+    </row>
+    <row r="261" spans="1:3" ht="23">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="1:3" ht="23">
+      <c r="B262" s="5"/>
+    </row>
+    <row r="263" spans="1:3" ht="23">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="1:3" ht="23">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="1:3" ht="23">
+      <c r="B265" s="5"/>
+    </row>
+    <row r="266" spans="1:3" ht="23">
+      <c r="B266" s="5"/>
+    </row>
+    <row r="267" spans="1:3" ht="23">
+      <c r="B267" s="5"/>
+    </row>
+    <row r="268" spans="1:3" ht="23">
+      <c r="B268" s="5"/>
+    </row>
+    <row r="269" spans="1:3" ht="23">
+      <c r="B269" s="5"/>
+    </row>
+    <row r="270" spans="1:3" ht="23">
+      <c r="B270" s="5"/>
+    </row>
+    <row r="271" spans="1:3" ht="23">
+      <c r="B271" s="5"/>
+    </row>
+    <row r="272" spans="1:3" ht="23">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="2:2" ht="23">
+      <c r="B273" s="5"/>
+    </row>
+    <row r="274" spans="2:2" ht="23">
+      <c r="B274" s="5"/>
+    </row>
+    <row r="275" spans="2:2" ht="23">
+      <c r="B275" s="5"/>
+    </row>
+    <row r="276" spans="2:2" ht="23">
+      <c r="B276" s="5"/>
+    </row>
+    <row r="277" spans="2:2" ht="23">
+      <c r="B277" s="5"/>
+    </row>
+    <row r="278" spans="2:2" ht="23">
+      <c r="B278" s="5"/>
+    </row>
+    <row r="279" spans="2:2" ht="23">
+      <c r="B279" s="5"/>
+    </row>
+    <row r="280" spans="2:2" ht="23">
+      <c r="B280" s="5"/>
+    </row>
+    <row r="281" spans="2:2" ht="23">
+      <c r="B281" s="5"/>
+    </row>
+    <row r="282" spans="2:2" ht="23">
+      <c r="B282" s="5"/>
+    </row>
+    <row r="283" spans="2:2" ht="23">
+      <c r="B283" s="5"/>
+    </row>
+    <row r="284" spans="2:2" ht="23">
+      <c r="B284" s="5"/>
+    </row>
+    <row r="285" spans="2:2" ht="23">
+      <c r="B285" s="5"/>
+    </row>
+    <row r="286" spans="2:2" ht="23">
+      <c r="B286" s="5"/>
+    </row>
+    <row r="287" spans="2:2" ht="23">
+      <c r="B287" s="5"/>
+    </row>
+    <row r="288" spans="2:2" ht="23">
+      <c r="B288" s="5"/>
+    </row>
+    <row r="289" spans="2:2" ht="23">
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="2:2" ht="23">
+      <c r="B290" s="5"/>
+    </row>
+    <row r="291" spans="2:2" ht="23">
+      <c r="B291" s="5"/>
+    </row>
+    <row r="292" spans="2:2" ht="23">
+      <c r="B292" s="5"/>
+    </row>
+    <row r="293" spans="2:2" ht="23">
+      <c r="B293" s="5"/>
+    </row>
+    <row r="294" spans="2:2" ht="23">
+      <c r="B294" s="5"/>
+    </row>
+    <row r="295" spans="2:2" ht="23">
+      <c r="B295" s="5"/>
+    </row>
+    <row r="296" spans="2:2" ht="23">
+      <c r="B296" s="5"/>
+    </row>
+    <row r="297" spans="2:2" ht="23">
+      <c r="B297" s="5"/>
+    </row>
+    <row r="298" spans="2:2" ht="23">
+      <c r="B298" s="5"/>
+    </row>
+    <row r="299" spans="2:2" ht="23">
+      <c r="B299" s="5"/>
+    </row>
+    <row r="300" spans="2:2" ht="23">
+      <c r="B300" s="5"/>
+    </row>
+    <row r="301" spans="2:2" ht="23">
+      <c r="B301" s="5"/>
+    </row>
+    <row r="302" spans="2:2" ht="23">
+      <c r="B302" s="5"/>
+    </row>
+    <row r="303" spans="2:2" ht="23">
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="2:2" ht="23">
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="2:2" ht="23">
+      <c r="B305" s="5"/>
+    </row>
+    <row r="306" spans="2:2" ht="23">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="2:2" ht="23">
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="2:2" ht="23">
+      <c r="B308" s="5"/>
+    </row>
+    <row r="309" spans="2:2" ht="23">
+      <c r="B309" s="5"/>
+    </row>
+    <row r="310" spans="2:2" ht="23">
+      <c r="B310" s="5"/>
+    </row>
+    <row r="311" spans="2:2" ht="23">
+      <c r="B311" s="5"/>
+    </row>
+    <row r="312" spans="2:2" ht="23">
+      <c r="B312" s="5"/>
+    </row>
+    <row r="313" spans="2:2" ht="23">
+      <c r="B313" s="5"/>
+    </row>
+    <row r="314" spans="2:2" ht="23">
+      <c r="B314" s="5"/>
+    </row>
+    <row r="315" spans="2:2" ht="23">
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="2:2" ht="23">
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="2:2" ht="23">
+      <c r="B317" s="5"/>
+    </row>
+    <row r="318" spans="2:2" ht="23">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="2:2" ht="23">
+      <c r="B319" s="5"/>
+    </row>
+    <row r="320" spans="2:2" ht="23">
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="2:2" ht="23">
+      <c r="B321" s="5"/>
+    </row>
+    <row r="322" spans="2:2" ht="23">
+      <c r="B322" s="5"/>
+    </row>
+    <row r="323" spans="2:2" ht="23">
+      <c r="B323" s="5"/>
+    </row>
+    <row r="324" spans="2:2" ht="23">
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="2:2" ht="23">
+      <c r="B325" s="5"/>
+    </row>
+    <row r="326" spans="2:2" ht="23">
+      <c r="B326" s="5"/>
+    </row>
+    <row r="327" spans="2:2" ht="23">
+      <c r="B327" s="5"/>
+    </row>
+    <row r="328" spans="2:2" ht="23">
+      <c r="B328" s="5"/>
+    </row>
+    <row r="329" spans="2:2" ht="23">
+      <c r="B329" s="5"/>
+    </row>
+    <row r="330" spans="2:2" ht="23">
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="2:2" ht="23">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="2:2" ht="23">
+      <c r="B332" s="5"/>
+    </row>
+    <row r="333" spans="2:2" ht="23">
+      <c r="B333" s="5"/>
+    </row>
+    <row r="334" spans="2:2" ht="23">
+      <c r="B334" s="5"/>
+    </row>
+    <row r="335" spans="2:2" ht="23">
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="2:2" ht="23">
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="2:2" ht="23">
+      <c r="B337" s="5"/>
+    </row>
+    <row r="338" spans="2:2" ht="23">
+      <c r="B338" s="5"/>
+    </row>
+    <row r="339" spans="2:2" ht="23">
+      <c r="B339" s="5"/>
+    </row>
+    <row r="340" spans="2:2" ht="23">
+      <c r="B340" s="5"/>
+    </row>
+    <row r="341" spans="2:2" ht="23">
+      <c r="B341" s="5"/>
+    </row>
+    <row r="342" spans="2:2" ht="23">
+      <c r="B342" s="5"/>
+    </row>
+    <row r="343" spans="2:2" ht="23">
+      <c r="B343" s="5"/>
+    </row>
+    <row r="344" spans="2:2" ht="23">
+      <c r="B344" s="5"/>
+    </row>
+    <row r="345" spans="2:2" ht="23">
+      <c r="B345" s="5"/>
+    </row>
+    <row r="346" spans="2:2" ht="23">
+      <c r="B346" s="5"/>
+    </row>
+    <row r="347" spans="2:2" ht="23">
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="2:2" ht="23">
+      <c r="B348" s="5"/>
+    </row>
+    <row r="349" spans="2:2" ht="23">
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="2:2" ht="23">
+      <c r="B350" s="5"/>
+    </row>
+    <row r="351" spans="2:2" ht="23">
+      <c r="B351" s="5"/>
+    </row>
+    <row r="352" spans="2:2" ht="23">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="2:2" ht="23">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="2:2" ht="23">
+      <c r="B354" s="5"/>
+    </row>
+    <row r="355" spans="2:2" ht="23">
+      <c r="B355" s="5"/>
+    </row>
+    <row r="356" spans="2:2" ht="23">
+      <c r="B356" s="5"/>
+    </row>
+    <row r="357" spans="2:2" ht="23">
+      <c r="B357" s="5"/>
+    </row>
+    <row r="358" spans="2:2" ht="23">
+      <c r="B358" s="5"/>
+    </row>
+    <row r="359" spans="2:2" ht="23">
+      <c r="B359" s="5"/>
+    </row>
+    <row r="360" spans="2:2" ht="23">
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="2:2" ht="23">
+      <c r="B361" s="5"/>
+    </row>
+    <row r="362" spans="2:2" ht="23">
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="2:2" ht="23">
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="2:2" ht="23">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="2:2" ht="23">
+      <c r="B365" s="5"/>
+    </row>
+    <row r="366" spans="2:2" ht="23">
+      <c r="B366" s="5"/>
+    </row>
+    <row r="367" spans="2:2" ht="23">
+      <c r="B367" s="5"/>
+    </row>
+    <row r="368" spans="2:2" ht="23">
+      <c r="B368" s="5"/>
+    </row>
+    <row r="369" spans="2:2" ht="23">
+      <c r="B369" s="5"/>
+    </row>
+    <row r="370" spans="2:2" ht="23">
+      <c r="B370" s="5"/>
+    </row>
+    <row r="371" spans="2:2" ht="23">
+      <c r="B371" s="5"/>
+    </row>
+    <row r="372" spans="2:2" ht="23">
+      <c r="B372" s="5"/>
+    </row>
+    <row r="373" spans="2:2" ht="23">
+      <c r="B373" s="5"/>
+    </row>
+    <row r="374" spans="2:2" ht="23">
+      <c r="B374" s="5"/>
+    </row>
+    <row r="375" spans="2:2" ht="23">
+      <c r="B375" s="5"/>
+    </row>
+    <row r="376" spans="2:2" ht="23">
+      <c r="B376" s="5"/>
+    </row>
+    <row r="377" spans="2:2" ht="23">
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="2:2" ht="23">
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="2:2" ht="23">
+      <c r="B379" s="5"/>
+    </row>
+    <row r="380" spans="2:2" ht="23">
+      <c r="B380" s="5"/>
+    </row>
+    <row r="381" spans="2:2" ht="23">
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="2:2" ht="23">
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="2:2" ht="23">
+      <c r="B383" s="5"/>
+    </row>
+    <row r="384" spans="2:2" ht="23">
+      <c r="B384" s="5"/>
+    </row>
+    <row r="385" spans="2:2" ht="23">
+      <c r="B385" s="5"/>
+    </row>
+    <row r="386" spans="2:2" ht="23">
+      <c r="B386" s="5"/>
+    </row>
+    <row r="387" spans="2:2" ht="23">
+      <c r="B387" s="5"/>
+    </row>
+    <row r="388" spans="2:2" ht="23">
+      <c r="B388" s="5"/>
+    </row>
+    <row r="389" spans="2:2" ht="23">
+      <c r="B389" s="5"/>
+    </row>
+    <row r="390" spans="2:2" ht="23">
+      <c r="B390" s="5"/>
+    </row>
+    <row r="391" spans="2:2" ht="23">
+      <c r="B391" s="5"/>
+    </row>
+    <row r="392" spans="2:2" ht="23">
+      <c r="B392" s="5"/>
+    </row>
+    <row r="393" spans="2:2" ht="23">
+      <c r="B393" s="5"/>
+    </row>
+    <row r="394" spans="2:2" ht="23">
+      <c r="B394" s="5"/>
+    </row>
+    <row r="395" spans="2:2" ht="23">
+      <c r="B395" s="5"/>
+    </row>
+    <row r="396" spans="2:2" ht="23">
+      <c r="B396" s="5"/>
+    </row>
+    <row r="397" spans="2:2" ht="23">
+      <c r="B397" s="5"/>
+    </row>
+    <row r="398" spans="2:2" ht="23">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="2:2" ht="23">
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="2:2" ht="23">
+      <c r="B400" s="5"/>
+    </row>
+    <row r="401" spans="2:2" ht="23">
+      <c r="B401" s="5"/>
+    </row>
+    <row r="402" spans="2:2" ht="23">
+      <c r="B402" s="5"/>
+    </row>
+    <row r="403" spans="2:2" ht="23">
+      <c r="B403" s="5"/>
+    </row>
+    <row r="404" spans="2:2" ht="23">
+      <c r="B404" s="5"/>
+    </row>
+    <row r="405" spans="2:2" ht="23">
+      <c r="B405" s="5"/>
+    </row>
+    <row r="406" spans="2:2" ht="23">
+      <c r="B406" s="5"/>
+    </row>
+    <row r="407" spans="2:2" ht="23">
+      <c r="B407" s="5"/>
+    </row>
+    <row r="408" spans="2:2" ht="23">
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="2:2" ht="23">
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="2:2" ht="23">
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="2:2" ht="23">
+      <c r="B411" s="5"/>
+    </row>
+    <row r="412" spans="2:2" ht="23">
+      <c r="B412" s="5"/>
+    </row>
+    <row r="413" spans="2:2" ht="23">
+      <c r="B413" s="5"/>
+    </row>
+    <row r="414" spans="2:2" ht="23">
+      <c r="B414" s="5"/>
+    </row>
+    <row r="415" spans="2:2" ht="23">
+      <c r="B415" s="5"/>
+    </row>
+    <row r="416" spans="2:2" ht="23">
+      <c r="B416" s="5"/>
+    </row>
+    <row r="417" spans="2:2" ht="23">
+      <c r="B417" s="5"/>
+    </row>
+    <row r="418" spans="2:2" ht="23">
+      <c r="B418" s="5"/>
+    </row>
+    <row r="419" spans="2:2" ht="23">
+      <c r="B419" s="5"/>
+    </row>
+    <row r="420" spans="2:2" ht="23">
+      <c r="B420" s="5"/>
+    </row>
+    <row r="421" spans="2:2" ht="23">
+      <c r="B421" s="5"/>
+    </row>
+    <row r="422" spans="2:2" ht="23">
+      <c r="B422" s="5"/>
+    </row>
+    <row r="423" spans="2:2" ht="23">
+      <c r="B423" s="5"/>
+    </row>
+    <row r="424" spans="2:2" ht="23">
+      <c r="B424" s="5"/>
+    </row>
+    <row r="425" spans="2:2" ht="23">
+      <c r="B425" s="5"/>
+    </row>
+    <row r="426" spans="2:2" ht="23">
+      <c r="B426" s="5"/>
+    </row>
+    <row r="427" spans="2:2" ht="23">
+      <c r="B427" s="5"/>
+    </row>
+    <row r="428" spans="2:2" ht="23">
+      <c r="B428" s="5"/>
+    </row>
+    <row r="429" spans="2:2" ht="23">
+      <c r="B429" s="5"/>
+    </row>
+    <row r="430" spans="2:2" ht="23">
+      <c r="B430" s="5"/>
+    </row>
+    <row r="431" spans="2:2" ht="23">
+      <c r="B431" s="5"/>
+    </row>
+    <row r="432" spans="2:2" ht="23">
+      <c r="B432" s="5"/>
+    </row>
+    <row r="433" spans="2:2" ht="23">
+      <c r="B433" s="5"/>
+    </row>
+    <row r="434" spans="2:2" ht="23">
+      <c r="B434" s="5"/>
+    </row>
+    <row r="435" spans="2:2" ht="23">
+      <c r="B435" s="5"/>
+    </row>
+    <row r="436" spans="2:2" ht="23">
+      <c r="B436" s="5"/>
+    </row>
+    <row r="437" spans="2:2" ht="23">
+      <c r="B437" s="5"/>
+    </row>
+    <row r="438" spans="2:2" ht="23">
+      <c r="B438" s="5"/>
+    </row>
+    <row r="439" spans="2:2" ht="23">
+      <c r="B439" s="5"/>
+    </row>
+    <row r="440" spans="2:2" ht="23">
+      <c r="B440" s="5"/>
+    </row>
+    <row r="441" spans="2:2" ht="23">
+      <c r="B441" s="5"/>
+    </row>
+    <row r="442" spans="2:2" ht="23">
+      <c r="B442" s="5"/>
+    </row>
+    <row r="443" spans="2:2" ht="23">
+      <c r="B443" s="5"/>
+    </row>
+    <row r="444" spans="2:2" ht="23">
+      <c r="B444" s="5"/>
+    </row>
+    <row r="445" spans="2:2" ht="23">
+      <c r="B445" s="5"/>
+    </row>
+    <row r="446" spans="2:2" ht="23">
+      <c r="B446" s="5"/>
+    </row>
+    <row r="447" spans="2:2" ht="23">
+      <c r="B447" s="5"/>
+    </row>
+    <row r="448" spans="2:2" ht="23">
+      <c r="B448" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3149,11 +3706,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
-  <dimension ref="A1:D449"/>
+  <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -4907,10 +5464,10 @@
       <c r="A159" s="4">
         <v>45705</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159" s="7">
         <v>59.832549732750181</v>
       </c>
-      <c r="C159" s="8">
+      <c r="C159" s="7">
         <v>29.971327959071754</v>
       </c>
     </row>
@@ -4918,10 +5475,10 @@
       <c r="A160" s="4">
         <v>45706</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160" s="7">
         <v>58.741970205032558</v>
       </c>
-      <c r="C160" s="8">
+      <c r="C160" s="7">
         <v>30.211580543331717</v>
       </c>
     </row>
@@ -4929,10 +5486,10 @@
       <c r="A161" s="4">
         <v>45707</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161" s="7">
         <v>58.47522752009435</v>
       </c>
-      <c r="C161" s="8">
+      <c r="C161" s="7">
         <v>30.475599056125596</v>
       </c>
     </row>
@@ -4940,10 +5497,10 @@
       <c r="A162" s="4">
         <v>45708</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162" s="7">
         <v>56.793929030915095</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="7">
         <v>30.044686563657574</v>
       </c>
     </row>
@@ -4951,10 +5508,10 @@
       <c r="A163" s="4">
         <v>45709</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163" s="7">
         <v>59.526000000000003</v>
       </c>
-      <c r="C163" s="8">
+      <c r="C163" s="7">
         <v>28.277347808841842</v>
       </c>
     </row>
@@ -4962,10 +5519,10 @@
       <c r="A164" s="4">
         <v>45712</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164" s="7">
         <v>60.094451902298907</v>
       </c>
-      <c r="C164" s="8">
+      <c r="C164" s="7">
         <v>27.807677999735585</v>
       </c>
     </row>
@@ -4973,10 +5530,10 @@
       <c r="A165" s="4">
         <v>45713</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165" s="7">
         <v>60.553917989038709</v>
       </c>
-      <c r="C165" s="8">
+      <c r="C165" s="7">
         <v>27.293924598566065</v>
       </c>
     </row>
@@ -4984,10 +5541,10 @@
       <c r="A166" s="4">
         <v>45714</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166" s="7">
         <v>60.798005860672511</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="7">
         <v>27.306486623581023</v>
       </c>
     </row>
@@ -4995,10 +5552,10 @@
       <c r="A167" s="4">
         <v>45715</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167" s="7">
         <v>62.216056315725986</v>
       </c>
-      <c r="C167" s="8">
+      <c r="C167" s="7">
         <v>25.711112193735332</v>
       </c>
     </row>
@@ -5006,10 +5563,10 @@
       <c r="A168" s="4">
         <v>45716</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168" s="7">
         <v>62.469834859004237</v>
       </c>
-      <c r="C168" s="8">
+      <c r="C168" s="7">
         <v>27.180795304871548</v>
       </c>
     </row>
@@ -5017,10 +5574,10 @@
       <c r="A169" s="4">
         <v>45719</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169" s="7">
         <v>65.339886221467737</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C169" s="7">
         <v>25.446990032864019</v>
       </c>
     </row>
@@ -5028,10 +5585,10 @@
       <c r="A170" s="4">
         <v>45720</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170" s="7">
         <v>66.861193104701584</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="7">
         <v>24.223825065134069</v>
       </c>
     </row>
@@ -5039,10 +5596,10 @@
       <c r="A171" s="4">
         <v>45721</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="7">
         <v>66.517508508857574</v>
       </c>
-      <c r="C171" s="8">
+      <c r="C171" s="7">
         <v>25.284763221329332</v>
       </c>
     </row>
@@ -5050,10 +5607,10 @@
       <c r="A172" s="4">
         <v>45722</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="7">
         <v>68.323242194259294</v>
       </c>
-      <c r="C172" s="8">
+      <c r="C172" s="7">
         <v>23.473978671945069</v>
       </c>
     </row>
@@ -5061,10 +5618,10 @@
       <c r="A173" s="4">
         <v>45723</v>
       </c>
-      <c r="B173" s="8">
+      <c r="B173" s="7">
         <v>67.563850300614916</v>
       </c>
-      <c r="C173" s="8">
+      <c r="C173" s="7">
         <v>23.99037201716752</v>
       </c>
     </row>
@@ -5072,10 +5629,10 @@
       <c r="A174" s="4">
         <v>45726</v>
       </c>
-      <c r="B174" s="8">
+      <c r="B174" s="7">
         <v>69.954198926180794</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="7">
         <v>21.265742554012483</v>
       </c>
     </row>
@@ -5083,10 +5640,10 @@
       <c r="A175" s="4">
         <v>45727</v>
       </c>
-      <c r="B175" s="8">
+      <c r="B175" s="7">
         <v>69.383621539058765</v>
       </c>
-      <c r="C175" s="8">
+      <c r="C175" s="7">
         <v>20.484331598856667</v>
       </c>
     </row>
@@ -5094,10 +5651,10 @@
       <c r="A176" s="4">
         <v>45728</v>
       </c>
-      <c r="B176" s="8">
+      <c r="B176" s="7">
         <v>67.089681867288334</v>
       </c>
-      <c r="C176" s="8">
+      <c r="C176" s="7">
         <v>20.980677107752204</v>
       </c>
     </row>
@@ -5105,10 +5662,10 @@
       <c r="A177" s="4">
         <v>45729</v>
       </c>
-      <c r="B177" s="8">
+      <c r="B177" s="7">
         <v>67.323335496895723</v>
       </c>
-      <c r="C177" s="8">
+      <c r="C177" s="7">
         <v>19.592795233061427</v>
       </c>
     </row>
@@ -5116,10 +5673,10 @@
       <c r="A178" s="4">
         <v>45730</v>
       </c>
-      <c r="B178" s="8">
+      <c r="B178" s="7">
         <v>67.181036050178449</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="7">
         <v>21.60763840911175</v>
       </c>
     </row>
@@ -5127,10 +5684,10 @@
       <c r="A179" s="4">
         <v>45733</v>
       </c>
-      <c r="B179" s="8">
+      <c r="B179" s="7">
         <v>66.920406977849183</v>
       </c>
-      <c r="C179" s="8">
+      <c r="C179" s="7">
         <v>22.318756443012568</v>
       </c>
     </row>
@@ -5138,10 +5695,10 @@
       <c r="A180" s="4">
         <v>45734</v>
       </c>
-      <c r="B180" s="8">
+      <c r="B180" s="7">
         <v>67.036022607578374</v>
       </c>
-      <c r="C180" s="8">
+      <c r="C180" s="7">
         <v>22.124915243940873</v>
       </c>
     </row>
@@ -5149,10 +5706,10 @@
       <c r="A181" s="4">
         <v>45735</v>
       </c>
-      <c r="B181" s="8">
+      <c r="B181" s="7">
         <v>66.990956416610388</v>
       </c>
-      <c r="C181" s="8">
+      <c r="C181" s="7">
         <v>23.186421833852929</v>
       </c>
     </row>
@@ -5160,10 +5717,10 @@
       <c r="A182" s="4">
         <v>45736</v>
       </c>
-      <c r="B182" s="8">
+      <c r="B182" s="7">
         <v>66.876361537686464</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="7">
         <v>22.889283752002022</v>
       </c>
     </row>
@@ -5171,10 +5728,10 @@
       <c r="A183" s="4">
         <v>45737</v>
       </c>
-      <c r="B183" s="8">
+      <c r="B183" s="7">
         <v>66.834044441579636</v>
       </c>
-      <c r="C183" s="8">
+      <c r="C183" s="7">
         <v>22.985513310648209</v>
       </c>
     </row>
@@ -5182,10 +5739,10 @@
       <c r="A184" s="4">
         <v>45740</v>
       </c>
-      <c r="B184" s="8">
+      <c r="B184" s="7">
         <v>66.56</v>
       </c>
-      <c r="C184" s="8">
+      <c r="C184" s="7">
         <v>24.67</v>
       </c>
     </row>
@@ -5193,10 +5750,10 @@
       <c r="A185" s="4">
         <v>45741</v>
       </c>
-      <c r="B185" s="8">
+      <c r="B185" s="7">
         <v>66.38</v>
       </c>
-      <c r="C185" s="8">
+      <c r="C185" s="7">
         <v>24.86</v>
       </c>
     </row>
@@ -5204,10 +5761,10 @@
       <c r="A186" s="4">
         <v>45742</v>
       </c>
-      <c r="B186" s="8">
+      <c r="B186" s="7">
         <v>66.5</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="7">
         <v>23.7</v>
       </c>
     </row>
@@ -5215,10 +5772,10 @@
       <c r="A187" s="4">
         <v>45743</v>
       </c>
-      <c r="B187" s="8">
+      <c r="B187" s="7">
         <v>66.400000000000006</v>
       </c>
-      <c r="C187" s="8">
+      <c r="C187" s="7">
         <v>23.35</v>
       </c>
     </row>
@@ -5226,10 +5783,10 @@
       <c r="A188" s="4">
         <v>45744</v>
       </c>
-      <c r="B188" s="8">
+      <c r="B188" s="7">
         <v>66.87</v>
       </c>
-      <c r="C188" s="8">
+      <c r="C188" s="7">
         <v>21.31</v>
       </c>
     </row>
@@ -5237,10 +5794,10 @@
       <c r="A189" s="4">
         <v>45747</v>
       </c>
-      <c r="B189" s="8">
+      <c r="B189" s="7">
         <v>66.915770481857891</v>
       </c>
-      <c r="C189" s="8">
+      <c r="C189" s="7">
         <v>21.842291960211625</v>
       </c>
     </row>
@@ -5248,10 +5805,10 @@
       <c r="A190" s="4">
         <v>45748</v>
       </c>
-      <c r="B190" s="8">
+      <c r="B190" s="7">
         <v>66.735285428276399</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="7">
         <v>22.217477234020642</v>
       </c>
     </row>
@@ -5259,10 +5816,10 @@
       <c r="A191" s="4">
         <v>45749</v>
       </c>
-      <c r="B191" s="8">
+      <c r="B191" s="7">
         <v>66.988609721040177</v>
       </c>
-      <c r="C191" s="8">
+      <c r="C191" s="7">
         <v>22.880531016766646</v>
       </c>
     </row>
@@ -5270,10 +5827,10 @@
       <c r="A192" s="4">
         <v>45750</v>
       </c>
-      <c r="B192" s="8">
+      <c r="B192" s="7">
         <v>71.170579906185338</v>
       </c>
-      <c r="C192" s="8">
+      <c r="C192" s="7">
         <v>17.863776999885843</v>
       </c>
     </row>
@@ -5281,10 +5838,10 @@
       <c r="A193" s="4">
         <v>45751</v>
       </c>
-      <c r="B193" s="8">
+      <c r="B193" s="7">
         <v>71.238202912433707</v>
       </c>
-      <c r="C193" s="8">
+      <c r="C193" s="7">
         <v>11.74406452790994</v>
       </c>
     </row>
@@ -5292,10 +5849,10 @@
       <c r="A194" s="4">
         <v>45754</v>
       </c>
-      <c r="B194" s="8">
+      <c r="B194" s="7">
         <v>71.290000000000006</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="7">
         <v>11.49</v>
       </c>
     </row>
@@ -5303,10 +5860,10 @@
       <c r="A195" s="4">
         <v>45755</v>
       </c>
-      <c r="B195" s="8">
+      <c r="B195" s="7">
         <v>71.31</v>
       </c>
-      <c r="C195" s="8">
+      <c r="C195" s="7">
         <v>9.9700000000000006</v>
       </c>
     </row>
@@ -5314,10 +5871,10 @@
       <c r="A196" s="4">
         <v>45756</v>
       </c>
-      <c r="B196" s="8">
+      <c r="B196" s="7">
         <v>71.58</v>
       </c>
-      <c r="C196" s="8">
+      <c r="C196" s="7">
         <v>18.93</v>
       </c>
     </row>
@@ -5325,10 +5882,10 @@
       <c r="A197" s="4">
         <v>45757</v>
       </c>
-      <c r="B197" s="8">
+      <c r="B197" s="7">
         <v>71.709999999999994</v>
       </c>
-      <c r="C197" s="8">
+      <c r="C197" s="7">
         <v>15.43</v>
       </c>
     </row>
@@ -5336,10 +5893,10 @@
       <c r="A198" s="4">
         <v>45758</v>
       </c>
-      <c r="B198" s="8">
+      <c r="B198" s="7">
         <v>71.599999999999994</v>
       </c>
-      <c r="C198" s="8">
+      <c r="C198" s="7">
         <v>17.100000000000001</v>
       </c>
     </row>
@@ -5347,10 +5904,10 @@
       <c r="A199" s="4">
         <v>45761</v>
       </c>
-      <c r="B199" s="8">
+      <c r="B199" s="7">
         <v>71.366854111218103</v>
       </c>
-      <c r="C199" s="8">
+      <c r="C199" s="7">
         <v>18.010923759318938</v>
       </c>
     </row>
@@ -5358,10 +5915,10 @@
       <c r="A200" s="4">
         <v>45762</v>
       </c>
-      <c r="B200" s="8">
+      <c r="B200" s="7">
         <v>71.281365566683078</v>
       </c>
-      <c r="C200" s="8">
+      <c r="C200" s="7">
         <v>17.780911697289426</v>
       </c>
     </row>
@@ -5369,10 +5926,10 @@
       <c r="A201" s="4">
         <v>45763</v>
       </c>
-      <c r="B201" s="8">
+      <c r="B201" s="7">
         <v>71.454290245376413</v>
       </c>
-      <c r="C201" s="8">
+      <c r="C201" s="7">
         <v>15.498345671476349</v>
       </c>
     </row>
@@ -5380,10 +5937,10 @@
       <c r="A202" s="4">
         <v>45764</v>
       </c>
-      <c r="B202" s="8">
+      <c r="B202" s="7">
         <v>71.377867203379708</v>
       </c>
-      <c r="C202" s="8">
+      <c r="C202" s="7">
         <v>15.630191054798287</v>
       </c>
     </row>
@@ -5391,10 +5948,10 @@
       <c r="A203" s="4">
         <v>45769</v>
       </c>
-      <c r="B203" s="8">
+      <c r="B203" s="7">
         <v>71.341246065695032</v>
       </c>
-      <c r="C203" s="8">
+      <c r="C203" s="7">
         <v>15.667829258018443</v>
       </c>
     </row>
@@ -5402,10 +5959,10 @@
       <c r="A204" s="4">
         <v>45770</v>
       </c>
-      <c r="B204" s="8">
+      <c r="B204" s="7">
         <v>71.30713182529496</v>
       </c>
-      <c r="C204" s="8">
+      <c r="C204" s="7">
         <v>17.291529372479239</v>
       </c>
     </row>
@@ -5413,10 +5970,10 @@
       <c r="A205" s="4">
         <v>45771</v>
       </c>
-      <c r="B205" s="8">
+      <c r="B205" s="7">
         <v>71.283360762242197</v>
       </c>
-      <c r="C205" s="8">
+      <c r="C205" s="7">
         <v>19.298377627116025</v>
       </c>
     </row>
@@ -5424,10 +5981,10 @@
       <c r="A206" s="4">
         <v>45772</v>
       </c>
-      <c r="B206" s="8">
+      <c r="B206" s="7">
         <v>70.790714431871933</v>
       </c>
-      <c r="C206" s="8">
+      <c r="C206" s="7">
         <v>19.994520027988962</v>
       </c>
     </row>
@@ -5435,10 +5992,10 @@
       <c r="A207" s="4">
         <v>45775</v>
       </c>
-      <c r="B207" s="8">
+      <c r="B207" s="7">
         <v>70.565346511954488</v>
       </c>
-      <c r="C207" s="8">
+      <c r="C207" s="7">
         <v>20.053064084062015</v>
       </c>
     </row>
@@ -5446,10 +6003,10 @@
       <c r="A208" s="4">
         <v>45776</v>
       </c>
-      <c r="B208" s="8">
+      <c r="B208" s="7">
         <v>70.571787180695495</v>
       </c>
-      <c r="C208" s="8">
+      <c r="C208" s="7">
         <v>20.605291226534135</v>
       </c>
     </row>
@@ -5457,10 +6014,10 @@
       <c r="A209" s="4">
         <v>45777</v>
       </c>
-      <c r="B209" s="8">
+      <c r="B209" s="7">
         <v>71.163655589072889</v>
       </c>
-      <c r="C209" s="8">
+      <c r="C209" s="7">
         <v>20.663478905816177</v>
       </c>
     </row>
@@ -5468,10 +6025,10 @@
       <c r="A210" s="4">
         <v>45779</v>
       </c>
-      <c r="B210" s="8">
+      <c r="B210" s="7">
         <v>71.200717140103308</v>
       </c>
-      <c r="C210" s="8">
+      <c r="C210" s="7">
         <v>22.823619556327209</v>
       </c>
     </row>
@@ -5479,10 +6036,10 @@
       <c r="A211" s="4">
         <v>45782</v>
       </c>
-      <c r="B211" s="8">
+      <c r="B211" s="7">
         <v>70.633912528145416</v>
       </c>
-      <c r="C211" s="8">
+      <c r="C211" s="7">
         <v>22.169003067598293</v>
       </c>
     </row>
@@ -5490,10 +6047,10 @@
       <c r="A212" s="4">
         <v>45783</v>
       </c>
-      <c r="B212" s="8">
+      <c r="B212" s="7">
         <v>70.82936366581427</v>
       </c>
-      <c r="C212" s="8">
+      <c r="C212" s="7">
         <v>21.354659111686829</v>
       </c>
     </row>
@@ -5501,10 +6058,10 @@
       <c r="A213" s="4">
         <v>45784</v>
       </c>
-      <c r="B213" s="8">
+      <c r="B213" s="7">
         <v>70.449809811239035</v>
       </c>
-      <c r="C213" s="8">
+      <c r="C213" s="7">
         <v>21.820178340343087</v>
       </c>
     </row>
@@ -5512,10 +6069,10 @@
       <c r="A214" s="4">
         <v>45785</v>
       </c>
-      <c r="B214" s="8">
+      <c r="B214" s="7">
         <v>70.267347616061699</v>
       </c>
-      <c r="C214" s="8">
+      <c r="C214" s="7">
         <v>22.393549116817407</v>
       </c>
     </row>
@@ -5523,10 +6080,10 @@
       <c r="A215" s="4">
         <v>45786</v>
       </c>
-      <c r="B215" s="8">
+      <c r="B215" s="7">
         <v>69.587664146564194</v>
       </c>
-      <c r="C215" s="8">
+      <c r="C215" s="7">
         <v>22.279137663192934</v>
       </c>
     </row>
@@ -5534,10 +6091,10 @@
       <c r="A216" s="4">
         <v>45789</v>
       </c>
-      <c r="B216" s="8">
+      <c r="B216" s="7">
         <v>70.44999925806863</v>
       </c>
-      <c r="C216" s="8">
+      <c r="C216" s="7">
         <v>25.519480068658879</v>
       </c>
     </row>
@@ -5545,10 +6102,10 @@
       <c r="A217" s="4">
         <v>45790</v>
       </c>
-      <c r="B217" s="8">
+      <c r="B217" s="7">
         <v>70.921032442928734</v>
       </c>
-      <c r="C217" s="8">
+      <c r="C217" s="7">
         <v>26.190709064034923</v>
       </c>
     </row>
@@ -5556,10 +6113,10 @@
       <c r="A218" s="4">
         <v>45791</v>
       </c>
-      <c r="B218" s="8">
+      <c r="B218" s="7">
         <v>71.258231969222166</v>
       </c>
-      <c r="C218" s="8">
+      <c r="C218" s="7">
         <v>26.258431067808324</v>
       </c>
     </row>
@@ -5567,10 +6124,10 @@
       <c r="A219" s="4">
         <v>45792</v>
       </c>
-      <c r="B219" s="8">
+      <c r="B219" s="7">
         <v>70.692415228975264</v>
       </c>
-      <c r="C219" s="8">
+      <c r="C219" s="7">
         <v>26.676444216862848</v>
       </c>
     </row>
@@ -5578,118 +6135,112 @@
       <c r="A220" s="4">
         <v>45793</v>
       </c>
-      <c r="B220" s="8">
+      <c r="B220" s="7">
         <v>71.096539837083142</v>
       </c>
-      <c r="C220" s="8">
+      <c r="C220" s="7">
         <v>27.386009490594859</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="40" customHeight="1">
       <c r="A221" s="4">
-        <v>45793</v>
-      </c>
-      <c r="B221" s="8">
-        <v>71.096539837083142</v>
-      </c>
-      <c r="C221" s="8">
-        <v>27.386009490594859</v>
+        <v>45796</v>
+      </c>
+      <c r="B221" s="7">
+        <v>71.219274657673722</v>
+      </c>
+      <c r="C221" s="7">
+        <v>27.503085938154136</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="40" customHeight="1">
       <c r="A222" s="4">
-        <v>45796</v>
-      </c>
-      <c r="B222" s="8">
-        <v>71.219274657673722</v>
-      </c>
-      <c r="C222" s="8">
-        <v>27.503085938154136</v>
+        <v>45797</v>
+      </c>
+      <c r="B222" s="7">
+        <v>70.629788069845631</v>
+      </c>
+      <c r="C222" s="7">
+        <v>27.122085246991258</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="40" customHeight="1">
       <c r="A223" s="4">
-        <v>45797</v>
-      </c>
-      <c r="B223" s="8">
-        <v>70.629788069845631</v>
-      </c>
-      <c r="C223" s="8">
-        <v>27.122085246991258</v>
+        <v>45798</v>
+      </c>
+      <c r="B223" s="7">
+        <v>72.09111729280329</v>
+      </c>
+      <c r="C223" s="7">
+        <v>25.4555210002809</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="40" customHeight="1">
       <c r="A224" s="4">
-        <v>45798</v>
-      </c>
-      <c r="B224" s="8">
-        <v>72.09111729280329</v>
-      </c>
-      <c r="C224" s="8">
-        <v>25.4555210002809</v>
+        <v>45799</v>
+      </c>
+      <c r="B224" s="7">
+        <v>71.733213882935502</v>
+      </c>
+      <c r="C224" s="7">
+        <v>25.378716080990703</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="40" customHeight="1">
       <c r="A225" s="4">
-        <v>45799</v>
-      </c>
-      <c r="B225" s="8">
-        <v>71.733213882935502</v>
-      </c>
-      <c r="C225" s="8">
-        <v>25.378716080990703</v>
+        <v>45800</v>
+      </c>
+      <c r="B225" s="7">
+        <v>72.236168111230796</v>
+      </c>
+      <c r="C225" s="7">
+        <v>24.697698350977436</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="40" customHeight="1">
-      <c r="A226" s="4">
-        <v>45800</v>
-      </c>
-      <c r="B226" s="8">
-        <v>72.236168111230796</v>
-      </c>
-      <c r="C226" s="8">
-        <v>24.697698350977436</v>
-      </c>
+      <c r="A226" s="4"/>
+      <c r="B226" s="7"/>
+      <c r="C226" s="7"/>
     </row>
     <row r="227" spans="1:3" ht="40" customHeight="1">
       <c r="A227" s="4"/>
-      <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
     </row>
     <row r="228" spans="1:3" ht="40" customHeight="1">
       <c r="A228" s="4"/>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
     </row>
     <row r="229" spans="1:3" ht="40" customHeight="1">
       <c r="A229" s="4"/>
-      <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
+      <c r="B229" s="7"/>
+      <c r="C229" s="7"/>
     </row>
     <row r="230" spans="1:3" ht="40" customHeight="1">
       <c r="A230" s="4"/>
-      <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
+      <c r="B230" s="7"/>
+      <c r="C230" s="7"/>
     </row>
     <row r="231" spans="1:3" ht="40" customHeight="1">
       <c r="A231" s="4"/>
-      <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
     </row>
     <row r="232" spans="1:3" ht="40" customHeight="1">
       <c r="A232" s="4"/>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
+      <c r="B232" s="7"/>
+      <c r="C232" s="7"/>
     </row>
     <row r="233" spans="1:3" ht="40" customHeight="1">
       <c r="A233" s="4"/>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
     </row>
     <row r="234" spans="1:3" ht="40" customHeight="1">
       <c r="A234" s="4"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" spans="1:3" ht="40" customHeight="1">
       <c r="A235" s="4"/>
@@ -6760,11 +7311,6 @@
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
-    </row>
-    <row r="449" spans="1:3" ht="40" customHeight="1">
-      <c r="A449" s="4"/>
-      <c r="B449" s="5"/>
-      <c r="C449" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC53AB9-73E5-9F40-8991-44241CDEA989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3989739B-AB43-5743-B8E7-E2E6C2E13616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="500" windowWidth="22120" windowHeight="21900" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="A226" sqref="A226:XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2967,24 +2967,48 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="23">
-      <c r="A226" s="4"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="6"/>
+      <c r="A226" s="4">
+        <v>45803</v>
+      </c>
+      <c r="B226" s="7">
+        <v>72.22</v>
+      </c>
+      <c r="C226" s="6">
+        <v>20.93</v>
+      </c>
     </row>
     <row r="227" spans="1:3" ht="23">
-      <c r="A227" s="4"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="6"/>
+      <c r="A227" s="4">
+        <v>45804</v>
+      </c>
+      <c r="B227" s="7">
+        <v>71.38</v>
+      </c>
+      <c r="C227" s="6">
+        <v>20.52</v>
+      </c>
     </row>
     <row r="228" spans="1:3" ht="23">
-      <c r="A228" s="4"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="6"/>
+      <c r="A228" s="4">
+        <v>45805</v>
+      </c>
+      <c r="B228" s="7">
+        <v>71.33</v>
+      </c>
+      <c r="C228" s="6">
+        <v>20.79</v>
+      </c>
     </row>
     <row r="229" spans="1:3" ht="23">
-      <c r="A229" s="4"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="6"/>
+      <c r="A229" s="4">
+        <v>45807</v>
+      </c>
+      <c r="B229" s="7">
+        <v>70.59</v>
+      </c>
+      <c r="C229" s="6">
+        <v>21.04</v>
+      </c>
     </row>
     <row r="230" spans="1:3" ht="23">
       <c r="A230" s="4"/>
@@ -3709,8 +3733,8 @@
   <dimension ref="A1:D448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -6198,24 +6222,48 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="40" customHeight="1">
-      <c r="A226" s="4"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
+      <c r="A226" s="4">
+        <v>45803</v>
+      </c>
+      <c r="B226" s="7">
+        <v>72.22</v>
+      </c>
+      <c r="C226" s="7">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="227" spans="1:3" ht="40" customHeight="1">
-      <c r="A227" s="4"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
+      <c r="A227" s="4">
+        <v>45804</v>
+      </c>
+      <c r="B227" s="7">
+        <v>71.38</v>
+      </c>
+      <c r="C227" s="7">
+        <v>26.69</v>
+      </c>
     </row>
     <row r="228" spans="1:3" ht="40" customHeight="1">
-      <c r="A228" s="4"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
+      <c r="A228" s="4">
+        <v>45805</v>
+      </c>
+      <c r="B228" s="7">
+        <v>71.33</v>
+      </c>
+      <c r="C228" s="7">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="229" spans="1:3" ht="40" customHeight="1">
-      <c r="A229" s="4"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
+      <c r="A229" s="4">
+        <v>45807</v>
+      </c>
+      <c r="B229" s="7">
+        <v>70.59</v>
+      </c>
+      <c r="C229" s="7">
+        <v>26.39</v>
+      </c>
     </row>
     <row r="230" spans="1:3" ht="40" customHeight="1">
       <c r="A230" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3989739B-AB43-5743-B8E7-E2E6C2E13616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834280B-D34A-3E43-8182-EF6EC4ED30B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="500" windowWidth="22120" windowHeight="21900" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="15080" yWindow="500" windowWidth="22120" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -55,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,12 +477,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A226" sqref="A226:XFD229"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -491,7 +490,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40" customHeight="1">
+    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1">
+    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -513,7 +512,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1">
+    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -524,7 +523,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40" customHeight="1">
+    <row r="4" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -535,7 +534,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1">
+    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -546,7 +545,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40" customHeight="1">
+    <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -557,7 +556,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40" customHeight="1">
+    <row r="7" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -568,7 +567,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40" customHeight="1">
+    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -579,7 +578,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1">
+    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -590,7 +589,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="40" customHeight="1">
+    <row r="10" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -601,7 +600,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1">
+    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -612,7 +611,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" customHeight="1">
+    <row r="12" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -623,7 +622,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1">
+    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -634,7 +633,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40" customHeight="1">
+    <row r="14" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -645,7 +644,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1">
+    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -656,7 +655,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="40" customHeight="1">
+    <row r="16" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -667,7 +666,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -678,7 +677,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -689,7 +688,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -700,7 +699,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -711,7 +710,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -722,7 +721,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -733,7 +732,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -744,7 +743,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -755,7 +754,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -766,7 +765,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -777,7 +776,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -788,7 +787,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -799,7 +798,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -810,7 +809,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -821,7 +820,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -832,7 +831,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -843,7 +842,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -854,7 +853,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -865,7 +864,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -876,7 +875,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -887,7 +886,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -898,7 +897,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -909,7 +908,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -920,7 +919,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -931,7 +930,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -942,7 +941,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -953,7 +952,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -964,7 +963,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -975,7 +974,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -986,7 +985,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -997,7 +996,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -1173,7 +1172,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -1184,7 +1183,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -1195,7 +1194,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -1217,7 +1216,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -1316,7 +1315,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -1349,7 +1348,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -1426,7 +1425,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -1437,7 +1436,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -1448,7 +1447,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -1459,7 +1458,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -1470,7 +1469,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -1547,7 +1546,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -1624,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -1635,7 +1634,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -1701,7 +1700,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -1712,7 +1711,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -1756,7 +1755,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -1789,7 +1788,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -1855,7 +1854,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -1866,7 +1865,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -1877,7 +1876,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -1932,7 +1931,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -1998,7 +1997,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -2064,7 +2063,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="23">
+    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="23">
+    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="23">
+    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="23">
+    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="23">
+    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -2218,7 +2217,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="23">
+    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="23">
+    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="23">
+    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="23">
+    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="23">
+    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -2273,7 +2272,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="23">
+    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="23">
+    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -2295,7 +2294,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="23">
+    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="23">
+    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="23">
+    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="23">
+    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="23">
+    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="23">
+    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="23">
+    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="23">
+    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="23">
+    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="23">
+    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -2405,7 +2404,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="23">
+    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="23">
+    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="23">
+    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="23">
+    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="23">
+    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="23">
+    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="23">
+    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -2482,7 +2481,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="23">
+    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="23">
+    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="23">
+    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="23">
+    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="23">
+    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -2537,7 +2536,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="23">
+    <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="23">
+    <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -2559,7 +2558,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="23">
+    <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -2570,7 +2569,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="23">
+    <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="23">
+    <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="23">
+    <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="23">
+    <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="23">
+    <row r="194" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="23">
+    <row r="195" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="23">
+    <row r="196" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="23">
+    <row r="197" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="23">
+    <row r="198" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="23">
+    <row r="199" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -2680,7 +2679,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="23">
+    <row r="200" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="23">
+    <row r="201" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>31.91</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="23">
+    <row r="202" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="23">
+    <row r="203" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="23">
+    <row r="204" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="23">
+    <row r="205" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="23">
+    <row r="206" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -2757,7 +2756,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="23">
+    <row r="207" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="23">
+    <row r="208" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -2779,7 +2778,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="23">
+    <row r="209" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="23">
+    <row r="210" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="23">
+    <row r="211" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="23">
+    <row r="212" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="23">
+    <row r="213" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -2834,7 +2833,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="23">
+    <row r="214" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="23">
+    <row r="215" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="23">
+    <row r="216" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="23">
+    <row r="217" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -2878,7 +2877,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="23">
+    <row r="218" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="23">
+    <row r="219" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="23">
+    <row r="220" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -2911,7 +2910,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="23">
+    <row r="221" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="23">
+    <row r="222" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="23">
+    <row r="223" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -2944,7 +2943,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="23">
+    <row r="224" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -2955,7 +2954,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="23">
+    <row r="225" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -2966,7 +2965,7 @@
         <v>22.28</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="23">
+    <row r="226" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="23">
+    <row r="227" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="23">
+    <row r="228" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -2999,7 +2998,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="23">
+    <row r="229" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -3010,717 +3009,747 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="23">
-      <c r="A230" s="4"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="6"/>
-    </row>
-    <row r="231" spans="1:3" ht="23">
-      <c r="A231" s="4"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="6"/>
-    </row>
-    <row r="232" spans="1:3" ht="23">
-      <c r="A232" s="4"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="6"/>
-    </row>
-    <row r="233" spans="1:3" ht="23">
-      <c r="A233" s="4"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="6"/>
-    </row>
-    <row r="234" spans="1:3" ht="23">
-      <c r="A234" s="4"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="6"/>
-    </row>
-    <row r="235" spans="1:3" ht="23">
+    <row r="230" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>45810</v>
+      </c>
+      <c r="B230" s="7">
+        <v>69.784929775655684</v>
+      </c>
+      <c r="C230" s="6">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>45811</v>
+      </c>
+      <c r="B231" s="7">
+        <v>69.436469039223695</v>
+      </c>
+      <c r="C231" s="6">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>45812</v>
+      </c>
+      <c r="B232" s="7">
+        <v>68.802273898021213</v>
+      </c>
+      <c r="C232" s="6">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>45813</v>
+      </c>
+      <c r="B233" s="7">
+        <v>68.960218220338447</v>
+      </c>
+      <c r="C233" s="6">
+        <v>20.89</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>45814</v>
+      </c>
+      <c r="B234" s="7">
+        <v>67.790875652764669</v>
+      </c>
+      <c r="C234" s="6">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="6"/>
     </row>
-    <row r="236" spans="1:3" ht="23">
+    <row r="236" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="6"/>
     </row>
-    <row r="237" spans="1:3" ht="23">
+    <row r="237" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
     </row>
-    <row r="238" spans="1:3" ht="23">
+    <row r="238" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="6"/>
     </row>
-    <row r="239" spans="1:3" ht="23">
+    <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="6"/>
     </row>
-    <row r="240" spans="1:3" ht="23">
+    <row r="240" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="6"/>
     </row>
-    <row r="241" spans="1:3" ht="23">
+    <row r="241" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="6"/>
     </row>
-    <row r="242" spans="1:3" ht="23">
+    <row r="242" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="6"/>
     </row>
-    <row r="243" spans="1:3" ht="23">
+    <row r="243" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="6"/>
     </row>
-    <row r="244" spans="1:3" ht="23">
+    <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="6"/>
     </row>
-    <row r="245" spans="1:3" ht="23">
+    <row r="245" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
     </row>
-    <row r="246" spans="1:3" ht="23">
+    <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="6"/>
     </row>
-    <row r="247" spans="1:3" ht="23">
+    <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="6"/>
     </row>
-    <row r="248" spans="1:3" ht="23">
+    <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="6"/>
     </row>
-    <row r="249" spans="1:3" ht="23">
+    <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="6"/>
     </row>
-    <row r="250" spans="1:3" ht="23">
+    <row r="250" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="6"/>
     </row>
-    <row r="251" spans="1:3" ht="23">
+    <row r="251" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="6"/>
     </row>
-    <row r="252" spans="1:3" ht="23">
+    <row r="252" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="6"/>
     </row>
-    <row r="253" spans="1:3" ht="23">
+    <row r="253" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="6"/>
     </row>
-    <row r="254" spans="1:3" ht="23">
+    <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
     </row>
-    <row r="255" spans="1:3" ht="23">
+    <row r="255" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="6"/>
     </row>
-    <row r="256" spans="1:3" ht="23">
+    <row r="256" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="6"/>
     </row>
-    <row r="257" spans="1:3" ht="23">
+    <row r="257" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
     </row>
-    <row r="258" spans="1:3" ht="23">
+    <row r="258" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B258" s="5"/>
     </row>
-    <row r="259" spans="1:3" ht="23">
+    <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="1:3" ht="23">
+    <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:3" ht="23">
+    <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:3" ht="23">
+    <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B262" s="5"/>
     </row>
-    <row r="263" spans="1:3" ht="23">
+    <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:3" ht="23">
+    <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:3" ht="23">
+    <row r="265" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B265" s="5"/>
     </row>
-    <row r="266" spans="1:3" ht="23">
+    <row r="266" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B266" s="5"/>
     </row>
-    <row r="267" spans="1:3" ht="23">
+    <row r="267" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="1:3" ht="23">
+    <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:3" ht="23">
+    <row r="269" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:3" ht="23">
+    <row r="270" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:3" ht="23">
+    <row r="271" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:3" ht="23">
+    <row r="272" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B272" s="5"/>
     </row>
-    <row r="273" spans="2:2" ht="23">
+    <row r="273" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B273" s="5"/>
     </row>
-    <row r="274" spans="2:2" ht="23">
+    <row r="274" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B274" s="5"/>
     </row>
-    <row r="275" spans="2:2" ht="23">
+    <row r="275" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B275" s="5"/>
     </row>
-    <row r="276" spans="2:2" ht="23">
+    <row r="276" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B276" s="5"/>
     </row>
-    <row r="277" spans="2:2" ht="23">
+    <row r="277" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="2:2" ht="23">
+    <row r="278" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="2:2" ht="23">
+    <row r="279" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="2:2" ht="23">
+    <row r="280" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B280" s="5"/>
     </row>
-    <row r="281" spans="2:2" ht="23">
+    <row r="281" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B281" s="5"/>
     </row>
-    <row r="282" spans="2:2" ht="23">
+    <row r="282" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B282" s="5"/>
     </row>
-    <row r="283" spans="2:2" ht="23">
+    <row r="283" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B283" s="5"/>
     </row>
-    <row r="284" spans="2:2" ht="23">
+    <row r="284" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B284" s="5"/>
     </row>
-    <row r="285" spans="2:2" ht="23">
+    <row r="285" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B285" s="5"/>
     </row>
-    <row r="286" spans="2:2" ht="23">
+    <row r="286" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B286" s="5"/>
     </row>
-    <row r="287" spans="2:2" ht="23">
+    <row r="287" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B287" s="5"/>
     </row>
-    <row r="288" spans="2:2" ht="23">
+    <row r="288" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B288" s="5"/>
     </row>
-    <row r="289" spans="2:2" ht="23">
+    <row r="289" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B289" s="5"/>
     </row>
-    <row r="290" spans="2:2" ht="23">
+    <row r="290" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B290" s="5"/>
     </row>
-    <row r="291" spans="2:2" ht="23">
+    <row r="291" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B291" s="5"/>
     </row>
-    <row r="292" spans="2:2" ht="23">
+    <row r="292" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B292" s="5"/>
     </row>
-    <row r="293" spans="2:2" ht="23">
+    <row r="293" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B293" s="5"/>
     </row>
-    <row r="294" spans="2:2" ht="23">
+    <row r="294" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="2:2" ht="23">
+    <row r="295" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B295" s="5"/>
     </row>
-    <row r="296" spans="2:2" ht="23">
+    <row r="296" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B296" s="5"/>
     </row>
-    <row r="297" spans="2:2" ht="23">
+    <row r="297" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B297" s="5"/>
     </row>
-    <row r="298" spans="2:2" ht="23">
+    <row r="298" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B298" s="5"/>
     </row>
-    <row r="299" spans="2:2" ht="23">
+    <row r="299" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="2:2" ht="23">
+    <row r="300" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="2:2" ht="23">
+    <row r="301" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B301" s="5"/>
     </row>
-    <row r="302" spans="2:2" ht="23">
+    <row r="302" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="2:2" ht="23">
+    <row r="303" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="2:2" ht="23">
+    <row r="304" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B304" s="5"/>
     </row>
-    <row r="305" spans="2:2" ht="23">
+    <row r="305" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B305" s="5"/>
     </row>
-    <row r="306" spans="2:2" ht="23">
+    <row r="306" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="2:2" ht="23">
+    <row r="307" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="2:2" ht="23">
+    <row r="308" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B308" s="5"/>
     </row>
-    <row r="309" spans="2:2" ht="23">
+    <row r="309" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B309" s="5"/>
     </row>
-    <row r="310" spans="2:2" ht="23">
+    <row r="310" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="2:2" ht="23">
+    <row r="311" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="2:2" ht="23">
+    <row r="312" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B312" s="5"/>
     </row>
-    <row r="313" spans="2:2" ht="23">
+    <row r="313" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="2:2" ht="23">
+    <row r="314" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="2:2" ht="23">
+    <row r="315" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="2:2" ht="23">
+    <row r="316" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="2:2" ht="23">
+    <row r="317" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="2:2" ht="23">
+    <row r="318" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="2:2" ht="23">
+    <row r="319" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="2:2" ht="23">
+    <row r="320" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B320" s="5"/>
     </row>
-    <row r="321" spans="2:2" ht="23">
+    <row r="321" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B321" s="5"/>
     </row>
-    <row r="322" spans="2:2" ht="23">
+    <row r="322" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B322" s="5"/>
     </row>
-    <row r="323" spans="2:2" ht="23">
+    <row r="323" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B323" s="5"/>
     </row>
-    <row r="324" spans="2:2" ht="23">
+    <row r="324" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B324" s="5"/>
     </row>
-    <row r="325" spans="2:2" ht="23">
+    <row r="325" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="2:2" ht="23">
+    <row r="326" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B326" s="5"/>
     </row>
-    <row r="327" spans="2:2" ht="23">
+    <row r="327" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="2:2" ht="23">
+    <row r="328" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="2:2" ht="23">
+    <row r="329" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="2:2" ht="23">
+    <row r="330" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B330" s="5"/>
     </row>
-    <row r="331" spans="2:2" ht="23">
+    <row r="331" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="2:2" ht="23">
+    <row r="332" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="2:2" ht="23">
+    <row r="333" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B333" s="5"/>
     </row>
-    <row r="334" spans="2:2" ht="23">
+    <row r="334" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="2:2" ht="23">
+    <row r="335" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B335" s="5"/>
     </row>
-    <row r="336" spans="2:2" ht="23">
+    <row r="336" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B336" s="5"/>
     </row>
-    <row r="337" spans="2:2" ht="23">
+    <row r="337" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B337" s="5"/>
     </row>
-    <row r="338" spans="2:2" ht="23">
+    <row r="338" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B338" s="5"/>
     </row>
-    <row r="339" spans="2:2" ht="23">
+    <row r="339" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B339" s="5"/>
     </row>
-    <row r="340" spans="2:2" ht="23">
+    <row r="340" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B340" s="5"/>
     </row>
-    <row r="341" spans="2:2" ht="23">
+    <row r="341" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B341" s="5"/>
     </row>
-    <row r="342" spans="2:2" ht="23">
+    <row r="342" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B342" s="5"/>
     </row>
-    <row r="343" spans="2:2" ht="23">
+    <row r="343" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B343" s="5"/>
     </row>
-    <row r="344" spans="2:2" ht="23">
+    <row r="344" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B344" s="5"/>
     </row>
-    <row r="345" spans="2:2" ht="23">
+    <row r="345" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B345" s="5"/>
     </row>
-    <row r="346" spans="2:2" ht="23">
+    <row r="346" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B346" s="5"/>
     </row>
-    <row r="347" spans="2:2" ht="23">
+    <row r="347" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B347" s="5"/>
     </row>
-    <row r="348" spans="2:2" ht="23">
+    <row r="348" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B348" s="5"/>
     </row>
-    <row r="349" spans="2:2" ht="23">
+    <row r="349" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B349" s="5"/>
     </row>
-    <row r="350" spans="2:2" ht="23">
+    <row r="350" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B350" s="5"/>
     </row>
-    <row r="351" spans="2:2" ht="23">
+    <row r="351" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B351" s="5"/>
     </row>
-    <row r="352" spans="2:2" ht="23">
+    <row r="352" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="2:2" ht="23">
+    <row r="353" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="2:2" ht="23">
+    <row r="354" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B354" s="5"/>
     </row>
-    <row r="355" spans="2:2" ht="23">
+    <row r="355" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B355" s="5"/>
     </row>
-    <row r="356" spans="2:2" ht="23">
+    <row r="356" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B356" s="5"/>
     </row>
-    <row r="357" spans="2:2" ht="23">
+    <row r="357" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B357" s="5"/>
     </row>
-    <row r="358" spans="2:2" ht="23">
+    <row r="358" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B358" s="5"/>
     </row>
-    <row r="359" spans="2:2" ht="23">
+    <row r="359" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B359" s="5"/>
     </row>
-    <row r="360" spans="2:2" ht="23">
+    <row r="360" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="2:2" ht="23">
+    <row r="361" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B361" s="5"/>
     </row>
-    <row r="362" spans="2:2" ht="23">
+    <row r="362" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B362" s="5"/>
     </row>
-    <row r="363" spans="2:2" ht="23">
+    <row r="363" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B363" s="5"/>
     </row>
-    <row r="364" spans="2:2" ht="23">
+    <row r="364" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B364" s="5"/>
     </row>
-    <row r="365" spans="2:2" ht="23">
+    <row r="365" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B365" s="5"/>
     </row>
-    <row r="366" spans="2:2" ht="23">
+    <row r="366" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B366" s="5"/>
     </row>
-    <row r="367" spans="2:2" ht="23">
+    <row r="367" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B367" s="5"/>
     </row>
-    <row r="368" spans="2:2" ht="23">
+    <row r="368" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B368" s="5"/>
     </row>
-    <row r="369" spans="2:2" ht="23">
+    <row r="369" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B369" s="5"/>
     </row>
-    <row r="370" spans="2:2" ht="23">
+    <row r="370" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B370" s="5"/>
     </row>
-    <row r="371" spans="2:2" ht="23">
+    <row r="371" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B371" s="5"/>
     </row>
-    <row r="372" spans="2:2" ht="23">
+    <row r="372" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B372" s="5"/>
     </row>
-    <row r="373" spans="2:2" ht="23">
+    <row r="373" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B373" s="5"/>
     </row>
-    <row r="374" spans="2:2" ht="23">
+    <row r="374" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B374" s="5"/>
     </row>
-    <row r="375" spans="2:2" ht="23">
+    <row r="375" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B375" s="5"/>
     </row>
-    <row r="376" spans="2:2" ht="23">
+    <row r="376" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B376" s="5"/>
     </row>
-    <row r="377" spans="2:2" ht="23">
+    <row r="377" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B377" s="5"/>
     </row>
-    <row r="378" spans="2:2" ht="23">
+    <row r="378" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B378" s="5"/>
     </row>
-    <row r="379" spans="2:2" ht="23">
+    <row r="379" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B379" s="5"/>
     </row>
-    <row r="380" spans="2:2" ht="23">
+    <row r="380" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B380" s="5"/>
     </row>
-    <row r="381" spans="2:2" ht="23">
+    <row r="381" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B381" s="5"/>
     </row>
-    <row r="382" spans="2:2" ht="23">
+    <row r="382" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B382" s="5"/>
     </row>
-    <row r="383" spans="2:2" ht="23">
+    <row r="383" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B383" s="5"/>
     </row>
-    <row r="384" spans="2:2" ht="23">
+    <row r="384" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B384" s="5"/>
     </row>
-    <row r="385" spans="2:2" ht="23">
+    <row r="385" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B385" s="5"/>
     </row>
-    <row r="386" spans="2:2" ht="23">
+    <row r="386" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B386" s="5"/>
     </row>
-    <row r="387" spans="2:2" ht="23">
+    <row r="387" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B387" s="5"/>
     </row>
-    <row r="388" spans="2:2" ht="23">
+    <row r="388" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B388" s="5"/>
     </row>
-    <row r="389" spans="2:2" ht="23">
+    <row r="389" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B389" s="5"/>
     </row>
-    <row r="390" spans="2:2" ht="23">
+    <row r="390" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B390" s="5"/>
     </row>
-    <row r="391" spans="2:2" ht="23">
+    <row r="391" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B391" s="5"/>
     </row>
-    <row r="392" spans="2:2" ht="23">
+    <row r="392" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B392" s="5"/>
     </row>
-    <row r="393" spans="2:2" ht="23">
+    <row r="393" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B393" s="5"/>
     </row>
-    <row r="394" spans="2:2" ht="23">
+    <row r="394" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B394" s="5"/>
     </row>
-    <row r="395" spans="2:2" ht="23">
+    <row r="395" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B395" s="5"/>
     </row>
-    <row r="396" spans="2:2" ht="23">
+    <row r="396" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B396" s="5"/>
     </row>
-    <row r="397" spans="2:2" ht="23">
+    <row r="397" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B397" s="5"/>
     </row>
-    <row r="398" spans="2:2" ht="23">
+    <row r="398" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="2:2" ht="23">
+    <row r="399" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="2:2" ht="23">
+    <row r="400" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B400" s="5"/>
     </row>
-    <row r="401" spans="2:2" ht="23">
+    <row r="401" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B401" s="5"/>
     </row>
-    <row r="402" spans="2:2" ht="23">
+    <row r="402" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B402" s="5"/>
     </row>
-    <row r="403" spans="2:2" ht="23">
+    <row r="403" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B403" s="5"/>
     </row>
-    <row r="404" spans="2:2" ht="23">
+    <row r="404" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B404" s="5"/>
     </row>
-    <row r="405" spans="2:2" ht="23">
+    <row r="405" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B405" s="5"/>
     </row>
-    <row r="406" spans="2:2" ht="23">
+    <row r="406" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="2:2" ht="23">
+    <row r="407" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B407" s="5"/>
     </row>
-    <row r="408" spans="2:2" ht="23">
+    <row r="408" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B408" s="5"/>
     </row>
-    <row r="409" spans="2:2" ht="23">
+    <row r="409" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B409" s="5"/>
     </row>
-    <row r="410" spans="2:2" ht="23">
+    <row r="410" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B410" s="5"/>
     </row>
-    <row r="411" spans="2:2" ht="23">
+    <row r="411" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B411" s="5"/>
     </row>
-    <row r="412" spans="2:2" ht="23">
+    <row r="412" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B412" s="5"/>
     </row>
-    <row r="413" spans="2:2" ht="23">
+    <row r="413" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B413" s="5"/>
     </row>
-    <row r="414" spans="2:2" ht="23">
+    <row r="414" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B414" s="5"/>
     </row>
-    <row r="415" spans="2:2" ht="23">
+    <row r="415" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B415" s="5"/>
     </row>
-    <row r="416" spans="2:2" ht="23">
+    <row r="416" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B416" s="5"/>
     </row>
-    <row r="417" spans="2:2" ht="23">
+    <row r="417" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B417" s="5"/>
     </row>
-    <row r="418" spans="2:2" ht="23">
+    <row r="418" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B418" s="5"/>
     </row>
-    <row r="419" spans="2:2" ht="23">
+    <row r="419" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B419" s="5"/>
     </row>
-    <row r="420" spans="2:2" ht="23">
+    <row r="420" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B420" s="5"/>
     </row>
-    <row r="421" spans="2:2" ht="23">
+    <row r="421" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B421" s="5"/>
     </row>
-    <row r="422" spans="2:2" ht="23">
+    <row r="422" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B422" s="5"/>
     </row>
-    <row r="423" spans="2:2" ht="23">
+    <row r="423" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B423" s="5"/>
     </row>
-    <row r="424" spans="2:2" ht="23">
+    <row r="424" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B424" s="5"/>
     </row>
-    <row r="425" spans="2:2" ht="23">
+    <row r="425" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B425" s="5"/>
     </row>
-    <row r="426" spans="2:2" ht="23">
+    <row r="426" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B426" s="5"/>
     </row>
-    <row r="427" spans="2:2" ht="23">
+    <row r="427" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B427" s="5"/>
     </row>
-    <row r="428" spans="2:2" ht="23">
+    <row r="428" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B428" s="5"/>
     </row>
-    <row r="429" spans="2:2" ht="23">
+    <row r="429" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B429" s="5"/>
     </row>
-    <row r="430" spans="2:2" ht="23">
+    <row r="430" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B430" s="5"/>
     </row>
-    <row r="431" spans="2:2" ht="23">
+    <row r="431" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B431" s="5"/>
     </row>
-    <row r="432" spans="2:2" ht="23">
+    <row r="432" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B432" s="5"/>
     </row>
-    <row r="433" spans="2:2" ht="23">
+    <row r="433" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B433" s="5"/>
     </row>
-    <row r="434" spans="2:2" ht="23">
+    <row r="434" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B434" s="5"/>
     </row>
-    <row r="435" spans="2:2" ht="23">
+    <row r="435" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B435" s="5"/>
     </row>
-    <row r="436" spans="2:2" ht="23">
+    <row r="436" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B436" s="5"/>
     </row>
-    <row r="437" spans="2:2" ht="23">
+    <row r="437" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B437" s="5"/>
     </row>
-    <row r="438" spans="2:2" ht="23">
+    <row r="438" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B438" s="5"/>
     </row>
-    <row r="439" spans="2:2" ht="23">
+    <row r="439" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B439" s="5"/>
     </row>
-    <row r="440" spans="2:2" ht="23">
+    <row r="440" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B440" s="5"/>
     </row>
-    <row r="441" spans="2:2" ht="23">
+    <row r="441" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B441" s="5"/>
     </row>
-    <row r="442" spans="2:2" ht="23">
+    <row r="442" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B442" s="5"/>
     </row>
-    <row r="443" spans="2:2" ht="23">
+    <row r="443" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B443" s="5"/>
     </row>
-    <row r="444" spans="2:2" ht="23">
+    <row r="444" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B444" s="5"/>
     </row>
-    <row r="445" spans="2:2" ht="23">
+    <row r="445" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B445" s="5"/>
     </row>
-    <row r="446" spans="2:2" ht="23">
+    <row r="446" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B446" s="5"/>
     </row>
-    <row r="447" spans="2:2" ht="23">
+    <row r="447" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B447" s="5"/>
     </row>
-    <row r="448" spans="2:2" ht="23">
+    <row r="448" spans="2:2" ht="24" x14ac:dyDescent="0.2">
       <c r="B448" s="5"/>
     </row>
   </sheetData>
@@ -3732,12 +3761,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G227" sqref="G227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -3745,7 +3774,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -3768,7 +3797,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -3779,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -3790,7 +3819,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -3801,7 +3830,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -3812,7 +3841,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -3823,7 +3852,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -3834,7 +3863,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -3845,7 +3874,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -3856,7 +3885,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -3867,7 +3896,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -3878,7 +3907,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -3889,7 +3918,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -3900,7 +3929,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -3911,7 +3940,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -3922,7 +3951,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -3933,7 +3962,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -3944,7 +3973,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -3955,7 +3984,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -3966,7 +3995,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -3977,7 +4006,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -3988,7 +4017,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -3999,7 +4028,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -4010,7 +4039,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -4021,7 +4050,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -4032,7 +4061,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -4043,7 +4072,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -4054,7 +4083,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -4065,7 +4094,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -4076,7 +4105,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -4087,7 +4116,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -4098,7 +4127,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -4109,7 +4138,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -4120,7 +4149,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -4131,7 +4160,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -4142,7 +4171,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -4153,7 +4182,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -4164,7 +4193,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -4175,7 +4204,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -4186,7 +4215,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -4197,7 +4226,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -4208,7 +4237,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -4219,7 +4248,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -4230,7 +4259,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -4241,7 +4270,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -4252,7 +4281,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -4263,7 +4292,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -4274,7 +4303,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -4285,7 +4314,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -4296,7 +4325,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -4307,7 +4336,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -4318,7 +4347,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -4329,7 +4358,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -4340,7 +4369,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -4351,7 +4380,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -4362,7 +4391,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -4373,7 +4402,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -4384,7 +4413,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -4395,7 +4424,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -4406,7 +4435,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -4417,7 +4446,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -4428,7 +4457,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -4439,7 +4468,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -4450,7 +4479,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -4461,7 +4490,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -4472,7 +4501,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -4483,7 +4512,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -4494,7 +4523,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -4505,7 +4534,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -4516,7 +4545,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -4527,7 +4556,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -4538,7 +4567,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -4549,7 +4578,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -4560,7 +4589,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -4571,7 +4600,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -4582,7 +4611,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -4593,7 +4622,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -4604,7 +4633,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -4615,7 +4644,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -4626,7 +4655,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -4637,7 +4666,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -4648,7 +4677,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -4659,7 +4688,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -4670,7 +4699,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -4681,7 +4710,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -4692,7 +4721,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -4703,7 +4732,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -4714,7 +4743,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -4725,7 +4754,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -4736,7 +4765,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -4747,7 +4776,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -4758,7 +4787,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -4769,7 +4798,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -4780,7 +4809,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -4791,7 +4820,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -4802,7 +4831,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -4813,7 +4842,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -4824,7 +4853,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -4835,7 +4864,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -4846,7 +4875,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -4857,7 +4886,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -4868,7 +4897,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -4879,7 +4908,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -4890,7 +4919,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -4901,7 +4930,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -4912,7 +4941,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -4923,7 +4952,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -4934,7 +4963,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -4945,7 +4974,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -4956,7 +4985,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -4967,7 +4996,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -4978,7 +5007,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -4989,7 +5018,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -5000,7 +5029,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -5011,7 +5040,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -5022,7 +5051,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -5033,7 +5062,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -5044,7 +5073,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -5055,7 +5084,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -5066,7 +5095,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -5077,7 +5106,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -5088,7 +5117,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -5099,7 +5128,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -5110,7 +5139,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -5121,7 +5150,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -5132,7 +5161,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -5143,7 +5172,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -5154,7 +5183,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -5165,7 +5194,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -5176,7 +5205,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -5187,7 +5216,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -5198,7 +5227,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -5209,7 +5238,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -5220,7 +5249,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -5231,7 +5260,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -5242,7 +5271,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -5253,7 +5282,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -5264,7 +5293,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -5275,7 +5304,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -5286,7 +5315,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -5297,7 +5326,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -5308,7 +5337,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -5319,7 +5348,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -5330,7 +5359,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -5341,7 +5370,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -5352,7 +5381,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -5363,7 +5392,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -5374,7 +5403,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -5385,7 +5414,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -5396,7 +5425,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -5407,7 +5436,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -5418,7 +5447,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1">
+    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -5429,7 +5458,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1">
+    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -5440,7 +5469,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1">
+    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -5451,7 +5480,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1">
+    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -5462,7 +5491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1">
+    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -5473,7 +5502,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1">
+    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -5484,7 +5513,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1">
+    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -5495,7 +5524,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1">
+    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -5506,7 +5535,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1">
+    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -5517,7 +5546,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1">
+    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -5528,7 +5557,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1">
+    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -5539,7 +5568,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1">
+    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -5550,7 +5579,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1">
+    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -5561,7 +5590,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1">
+    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -5572,7 +5601,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1">
+    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -5583,7 +5612,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1">
+    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -5594,7 +5623,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1">
+    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -5605,7 +5634,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1">
+    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -5616,7 +5645,7 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1">
+    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -5627,7 +5656,7 @@
         <v>25.284763221329332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1">
+    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -5638,7 +5667,7 @@
         <v>23.473978671945069</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1">
+    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -5649,7 +5678,7 @@
         <v>23.99037201716752</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1">
+    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -5660,7 +5689,7 @@
         <v>21.265742554012483</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1">
+    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -5671,7 +5700,7 @@
         <v>20.484331598856667</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1">
+    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -5682,7 +5711,7 @@
         <v>20.980677107752204</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1">
+    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -5693,7 +5722,7 @@
         <v>19.592795233061427</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1">
+    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -5704,7 +5733,7 @@
         <v>21.60763840911175</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1">
+    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -5715,7 +5744,7 @@
         <v>22.318756443012568</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1">
+    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -5726,7 +5755,7 @@
         <v>22.124915243940873</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1">
+    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -5737,7 +5766,7 @@
         <v>23.186421833852929</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1">
+    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -5748,7 +5777,7 @@
         <v>22.889283752002022</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1">
+    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -5759,7 +5788,7 @@
         <v>22.985513310648209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1">
+    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -5770,7 +5799,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1">
+    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -5781,7 +5810,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1">
+    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -5792,7 +5821,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1">
+    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -5803,7 +5832,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1">
+    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -5814,7 +5843,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1">
+    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -5825,7 +5854,7 @@
         <v>21.842291960211625</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1">
+    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -5836,7 +5865,7 @@
         <v>22.217477234020642</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1">
+    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -5847,7 +5876,7 @@
         <v>22.880531016766646</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1">
+    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -5858,7 +5887,7 @@
         <v>17.863776999885843</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1">
+    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -5869,7 +5898,7 @@
         <v>11.74406452790994</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1">
+    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -5880,7 +5909,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1">
+    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -5891,7 +5920,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1">
+    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -5902,7 +5931,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1">
+    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -5913,7 +5942,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1">
+    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -5924,7 +5953,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1">
+    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -5935,7 +5964,7 @@
         <v>18.010923759318938</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1">
+    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -5946,7 +5975,7 @@
         <v>17.780911697289426</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1">
+    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -5957,7 +5986,7 @@
         <v>15.498345671476349</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1">
+    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -5968,7 +5997,7 @@
         <v>15.630191054798287</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1">
+    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -5979,7 +6008,7 @@
         <v>15.667829258018443</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1">
+    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -5990,7 +6019,7 @@
         <v>17.291529372479239</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1">
+    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -6001,7 +6030,7 @@
         <v>19.298377627116025</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1">
+    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -6012,7 +6041,7 @@
         <v>19.994520027988962</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1">
+    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -6023,7 +6052,7 @@
         <v>20.053064084062015</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1">
+    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -6034,7 +6063,7 @@
         <v>20.605291226534135</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1">
+    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -6045,7 +6074,7 @@
         <v>20.663478905816177</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1">
+    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -6056,7 +6085,7 @@
         <v>22.823619556327209</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1">
+    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -6067,7 +6096,7 @@
         <v>22.169003067598293</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1">
+    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -6078,7 +6107,7 @@
         <v>21.354659111686829</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1">
+    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -6089,7 +6118,7 @@
         <v>21.820178340343087</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1">
+    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -6100,7 +6129,7 @@
         <v>22.393549116817407</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1">
+    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -6111,7 +6140,7 @@
         <v>22.279137663192934</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1">
+    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -6122,7 +6151,7 @@
         <v>25.519480068658879</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1">
+    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -6133,7 +6162,7 @@
         <v>26.190709064034923</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1">
+    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -6144,7 +6173,7 @@
         <v>26.258431067808324</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1">
+    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -6155,7 +6184,7 @@
         <v>26.676444216862848</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1">
+    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -6166,7 +6195,7 @@
         <v>27.386009490594859</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1">
+    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -6177,7 +6206,7 @@
         <v>27.503085938154136</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1">
+    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -6188,7 +6217,7 @@
         <v>27.122085246991258</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1">
+    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -6199,7 +6228,7 @@
         <v>25.4555210002809</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1">
+    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -6210,7 +6239,7 @@
         <v>25.378716080990703</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1">
+    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -6221,7 +6250,7 @@
         <v>24.697698350977436</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1">
+    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -6232,7 +6261,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1">
+    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -6243,7 +6272,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1">
+    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -6254,7 +6283,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1">
+    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -6265,1097 +6294,1127 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1">
-      <c r="A230" s="4"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-    </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1">
-      <c r="A231" s="4"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-    </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1">
-      <c r="A232" s="4"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-    </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1">
-      <c r="A233" s="4"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-    </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1">
-      <c r="A234" s="4"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-    </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1">
+    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>45810</v>
+      </c>
+      <c r="B230" s="7">
+        <v>69.784929775655684</v>
+      </c>
+      <c r="C230" s="7">
+        <v>26.912124642438844</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>45811</v>
+      </c>
+      <c r="B231" s="7">
+        <v>69.436469039223695</v>
+      </c>
+      <c r="C231" s="7">
+        <v>27.486369120997161</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>45812</v>
+      </c>
+      <c r="B232" s="7">
+        <v>68.802273898021213</v>
+      </c>
+      <c r="C232" s="7">
+        <v>27.478009664356971</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>45813</v>
+      </c>
+      <c r="B233" s="7">
+        <v>68.960218220338447</v>
+      </c>
+      <c r="C233" s="7">
+        <v>26.891104315705576</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>45814</v>
+      </c>
+      <c r="B234" s="7">
+        <v>67.790875652764669</v>
+      </c>
+      <c r="C234" s="7">
+        <v>27.907615547091403</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1">
+    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1">
+    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1">
+    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1">
+    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1">
+    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1">
+    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1">
+    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1">
+    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1">
+    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1">
+    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1">
+    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1">
+    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1">
+    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1">
+    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1">
+    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1">
+    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1">
+    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1">
+    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1">
+    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1">
+    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1">
+    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1">
+    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1">
+    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1">
+    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1">
+    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
     </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1">
+    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1">
+    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1">
+    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1">
+    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1">
+    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1">
+    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1">
+    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1">
+    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1">
+    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1">
+    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1">
+    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1">
+    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1">
+    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1">
+    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1">
+    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1">
+    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1">
+    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1">
+    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1">
+    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1">
+    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1">
+    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1">
+    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1">
+    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1">
+    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1">
+    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1">
+    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1">
+    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1">
+    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1">
+    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1">
+    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1">
+    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1">
+    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1">
+    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1">
+    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1">
+    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1">
+    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1">
+    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1">
+    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1">
+    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1">
+    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1">
+    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1">
+    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1">
+    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1">
+    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1">
+    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1">
+    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1">
+    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1">
+    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1">
+    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1">
+    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1">
+    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1">
+    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1">
+    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1">
+    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1">
+    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1">
+    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1">
+    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1">
+    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1">
+    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1">
+    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1">
+    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1">
+    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1">
+    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1">
+    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1">
+    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1">
+    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1">
+    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1">
+    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1">
+    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1">
+    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1">
+    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1">
+    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1">
+    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1">
+    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1">
+    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1">
+    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1">
+    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1">
+    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1">
+    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1">
+    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1">
+    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1">
+    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1">
+    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1">
+    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1">
+    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1">
+    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1">
+    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1">
+    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1">
+    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1">
+    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1">
+    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1">
+    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1">
+    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1">
+    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1">
+    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1">
+    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1">
+    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1">
+    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1">
+    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1">
+    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1">
+    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1">
+    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1">
+    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1">
+    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1">
+    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1">
+    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1">
+    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1">
+    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1">
+    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1">
+    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1">
+    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1">
+    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1">
+    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1">
+    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1">
+    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1">
+    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1">
+    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1">
+    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1">
+    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1">
+    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1">
+    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1">
+    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1">
+    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1">
+    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1">
+    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1">
+    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1">
+    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1">
+    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1">
+    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1">
+    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1">
+    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1">
+    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1">
+    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1">
+    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1">
+    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1">
+    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1">
+    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1">
+    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1">
+    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1">
+    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1">
+    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1">
+    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1">
+    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1">
+    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1">
+    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1">
+    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1">
+    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1">
+    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1">
+    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1">
+    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1">
+    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1">
+    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1">
+    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1">
+    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1">
+    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1">
+    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1">
+    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1">
+    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1">
+    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1">
+    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1">
+    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1">
+    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1">
+    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1">
+    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1">
+    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1">
+    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1">
+    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1">
+    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1">
+    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1">
+    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1">
+    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1">
+    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1">
+    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1">
+    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1">
+    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1">
+    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1">
+    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1">
+    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1">
+    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1">
+    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1">
+    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1">
+    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1">
+    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1">
+    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1">
+    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1">
+    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1">
+    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1">
+    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8834280B-D34A-3E43-8182-EF6EC4ED30B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC50E266-BE08-8542-B769-1CE1ECA4595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15080" yWindow="500" windowWidth="22120" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -478,8 +478,8 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3065,24 +3065,48 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="6"/>
+      <c r="A235" s="4">
+        <v>45818</v>
+      </c>
+      <c r="B235" s="7">
+        <v>67.017331064310923</v>
+      </c>
+      <c r="C235" s="6">
+        <v>19.97</v>
+      </c>
     </row>
     <row r="236" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="6"/>
+      <c r="A236" s="4">
+        <v>45819</v>
+      </c>
+      <c r="B236" s="7">
+        <v>66.758726588102533</v>
+      </c>
+      <c r="C236" s="6">
+        <v>20.09</v>
+      </c>
     </row>
     <row r="237" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="6"/>
+      <c r="A237" s="4">
+        <v>45820</v>
+      </c>
+      <c r="B237" s="7">
+        <v>67.361187343299804</v>
+      </c>
+      <c r="C237" s="6">
+        <v>20.3</v>
+      </c>
     </row>
     <row r="238" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A238" s="4"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="6"/>
+      <c r="A238" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B238" s="7">
+        <v>68.969374477802731</v>
+      </c>
+      <c r="C238" s="6">
+        <v>21.82</v>
+      </c>
     </row>
     <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
@@ -3762,8 +3786,8 @@
   <dimension ref="A1:D448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G227" sqref="G227"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J234" sqref="J234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6350,24 +6374,48 @@
       </c>
     </row>
     <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="4"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
+      <c r="A235" s="4">
+        <v>45818</v>
+      </c>
+      <c r="B235" s="7">
+        <v>67.017331064310923</v>
+      </c>
+      <c r="C235" s="7">
+        <v>28.54238026479058</v>
+      </c>
     </row>
     <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="4"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
+      <c r="A236" s="4">
+        <v>45819</v>
+      </c>
+      <c r="B236" s="7">
+        <v>66.758726588102533</v>
+      </c>
+      <c r="C236" s="7">
+        <v>28.277347808841835</v>
+      </c>
     </row>
     <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="4"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
+      <c r="A237" s="4">
+        <v>45820</v>
+      </c>
+      <c r="B237" s="7">
+        <v>67.361187343299804</v>
+      </c>
+      <c r="C237" s="7">
+        <v>28.616794258054533</v>
+      </c>
     </row>
     <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="4"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
+      <c r="A238" s="4">
+        <v>45821</v>
+      </c>
+      <c r="B238" s="7">
+        <v>68.969374477802731</v>
+      </c>
+      <c r="C238" s="7">
+        <v>28.318805460445123</v>
+      </c>
     </row>
     <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC50E266-BE08-8542-B769-1CE1ECA4595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497C1A8-E4CA-4544-8522-AE79C54EEAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -477,9 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3109,29 +3109,59 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="6"/>
+      <c r="A239" s="4">
+        <v>45824</v>
+      </c>
+      <c r="B239" s="7">
+        <v>67.858878259392853</v>
+      </c>
+      <c r="C239" s="6">
+        <v>20.28</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="6"/>
+      <c r="A240" s="4">
+        <v>45825</v>
+      </c>
+      <c r="B240" s="7">
+        <v>68.751468917503573</v>
+      </c>
+      <c r="C240" s="6">
+        <v>21.41</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="6"/>
+      <c r="A241" s="4">
+        <v>45826</v>
+      </c>
+      <c r="B241" s="7">
+        <v>67.868623845258199</v>
+      </c>
+      <c r="C241" s="6">
+        <v>20.81</v>
+      </c>
     </row>
     <row r="242" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="6"/>
+      <c r="A242" s="4">
+        <v>45827</v>
+      </c>
+      <c r="B242" s="7">
+        <v>67.871421882901132</v>
+      </c>
+      <c r="C242" s="6">
+        <v>21.13</v>
+      </c>
     </row>
     <row r="243" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A243" s="4"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="6"/>
+      <c r="A243" s="4">
+        <v>45828</v>
+      </c>
+      <c r="B243" s="7">
+        <v>67.548723903960422</v>
+      </c>
+      <c r="C243" s="6">
+        <v>21.65</v>
+      </c>
     </row>
     <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
@@ -3785,9 +3815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J234" sqref="J234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I241" sqref="I241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6418,29 +6448,59 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
+      <c r="A239" s="4">
+        <v>45824</v>
+      </c>
+      <c r="B239" s="7">
+        <v>67.858878259392853</v>
+      </c>
+      <c r="C239" s="7">
+        <v>29.279934855722427</v>
+      </c>
     </row>
     <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
+      <c r="A240" s="4">
+        <v>45825</v>
+      </c>
+      <c r="B240" s="7">
+        <v>68.751468917503573</v>
+      </c>
+      <c r="C240" s="7">
+        <v>28.43479553144428</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="4"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
+      <c r="A241" s="4">
+        <v>45826</v>
+      </c>
+      <c r="B241" s="7">
+        <v>67.868623845258199</v>
+      </c>
+      <c r="C241" s="7">
+        <v>28.364389034572181</v>
+      </c>
     </row>
     <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="4"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
+      <c r="A242" s="4">
+        <v>45827</v>
+      </c>
+      <c r="B242" s="7">
+        <v>67.871421882901132</v>
+      </c>
+      <c r="C242" s="7">
+        <v>28.364389034572181</v>
+      </c>
     </row>
     <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="4"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
+      <c r="A243" s="4">
+        <v>45828</v>
+      </c>
+      <c r="B243" s="7">
+        <v>67.548723903960422</v>
+      </c>
+      <c r="C243" s="7">
+        <v>28.094729678900332</v>
+      </c>
     </row>
     <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6497C1A8-E4CA-4544-8522-AE79C54EEAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698DA0A-1F94-8C46-8BFC-CDDEF5C735D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -478,8 +478,8 @@
   <dimension ref="A1:C448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3164,29 +3164,59 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A244" s="4"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="6"/>
+      <c r="A244" s="4">
+        <v>45831</v>
+      </c>
+      <c r="B244" s="7">
+        <v>67.001355482907812</v>
+      </c>
+      <c r="C244" s="6">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A245" s="4"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="6"/>
+      <c r="A245" s="4">
+        <v>45832</v>
+      </c>
+      <c r="B245" s="7">
+        <v>65.638104001112723</v>
+      </c>
+      <c r="C245" s="6">
+        <v>20.45</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A246" s="4"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="6"/>
+      <c r="A246" s="4">
+        <v>45833</v>
+      </c>
+      <c r="B246" s="7">
+        <v>65.107777125176767</v>
+      </c>
+      <c r="C246" s="6">
+        <v>20.239999999999998</v>
+      </c>
     </row>
     <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="6"/>
+      <c r="A247" s="4">
+        <v>45834</v>
+      </c>
+      <c r="B247" s="7">
+        <v>66.169291245136506</v>
+      </c>
+      <c r="C247" s="6">
+        <v>20.12</v>
+      </c>
     </row>
     <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="6"/>
+      <c r="A248" s="4">
+        <v>45835</v>
+      </c>
+      <c r="B248" s="7">
+        <v>66.890408597497199</v>
+      </c>
+      <c r="C248" s="6">
+        <v>20.2</v>
+      </c>
     </row>
     <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
@@ -3816,8 +3846,8 @@
   <dimension ref="A1:D448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I241" sqref="I241"/>
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G241" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6503,29 +6533,59 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="4"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
+      <c r="A244" s="4">
+        <v>45831</v>
+      </c>
+      <c r="B244" s="7">
+        <v>67.001355482907812</v>
+      </c>
+      <c r="C244" s="7">
+        <v>29.070347173436801</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="4"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
+      <c r="A245" s="4">
+        <v>45832</v>
+      </c>
+      <c r="B245" s="7">
+        <v>65.638104001112723</v>
+      </c>
+      <c r="C245" s="7">
+        <v>30.203445832516202</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="4"/>
-      <c r="B246" s="5"/>
-      <c r="C246" s="5"/>
+      <c r="A246" s="4">
+        <v>45833</v>
+      </c>
+      <c r="B246" s="7">
+        <v>65.107777125176767</v>
+      </c>
+      <c r="C246" s="7">
+        <v>30.215647650602236</v>
+      </c>
     </row>
     <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="4"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="5"/>
+      <c r="A247" s="4">
+        <v>45834</v>
+      </c>
+      <c r="B247" s="7">
+        <v>66.169291245136506</v>
+      </c>
+      <c r="C247" s="7">
+        <v>30.993483366225572</v>
+      </c>
     </row>
     <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
-      <c r="B248" s="5"/>
-      <c r="C248" s="5"/>
+      <c r="A248" s="4">
+        <v>45835</v>
+      </c>
+      <c r="B248" s="7">
+        <v>66.890408597497199</v>
+      </c>
+      <c r="C248" s="7">
+        <v>31.456493755540549</v>
+      </c>
     </row>
     <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698DA0A-1F94-8C46-8BFC-CDDEF5C735D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB414D-9D00-2541-AAA8-A3C1F2251C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2280" yWindow="780" windowWidth="10000" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -477,9 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3182,7 +3182,7 @@
         <v>65.638104001112723</v>
       </c>
       <c r="C245" s="6">
-        <v>20.45</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.2">
@@ -3193,7 +3193,7 @@
         <v>65.107777125176767</v>
       </c>
       <c r="C246" s="6">
-        <v>20.239999999999998</v>
+        <v>19.02</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.2">
@@ -3204,7 +3204,7 @@
         <v>66.169291245136506</v>
       </c>
       <c r="C247" s="6">
-        <v>20.12</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
@@ -3215,33 +3215,63 @@
         <v>66.890408597497199</v>
       </c>
       <c r="C248" s="6">
-        <v>20.2</v>
+        <v>18.850000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="6"/>
+      <c r="A249" s="4">
+        <v>45838</v>
+      </c>
+      <c r="B249" s="5">
+        <v>67.233313111778614</v>
+      </c>
+      <c r="C249" s="6">
+        <v>18.71</v>
+      </c>
     </row>
     <row r="250" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="6"/>
+      <c r="A250" s="4">
+        <v>45839</v>
+      </c>
+      <c r="B250" s="5">
+        <v>67.214536589941517</v>
+      </c>
+      <c r="C250" s="6">
+        <v>18.649999999999999</v>
+      </c>
     </row>
     <row r="251" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="6"/>
+      <c r="A251" s="4">
+        <v>45840</v>
+      </c>
+      <c r="B251" s="5">
+        <v>67.56478448657613</v>
+      </c>
+      <c r="C251" s="6">
+        <v>18.559999999999999</v>
+      </c>
     </row>
     <row r="252" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="6"/>
+      <c r="A252" s="4">
+        <v>45841</v>
+      </c>
+      <c r="B252" s="5">
+        <v>68.714790568788928</v>
+      </c>
+      <c r="C252" s="6">
+        <v>18.32</v>
+      </c>
     </row>
     <row r="253" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="6"/>
+      <c r="A253" s="4">
+        <v>45842</v>
+      </c>
+      <c r="B253" s="5">
+        <v>68.710165136310991</v>
+      </c>
+      <c r="C253" s="6">
+        <v>18.75</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
@@ -3845,9 +3875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G241" sqref="G241"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6588,29 +6618,59 @@
       </c>
     </row>
     <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
+      <c r="A249" s="4">
+        <v>45838</v>
+      </c>
+      <c r="B249" s="5">
+        <v>67.233313111778614</v>
+      </c>
+      <c r="C249" s="5">
+        <v>31.937360240142787</v>
+      </c>
     </row>
     <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="5"/>
+      <c r="A250" s="4">
+        <v>45839</v>
+      </c>
+      <c r="B250" s="5">
+        <v>67.214536589941517</v>
+      </c>
+      <c r="C250" s="5">
+        <v>31.857376232679325</v>
+      </c>
     </row>
     <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
-      <c r="B251" s="5"/>
-      <c r="C251" s="5"/>
+      <c r="A251" s="4">
+        <v>45840</v>
+      </c>
+      <c r="B251" s="5">
+        <v>67.56478448657613</v>
+      </c>
+      <c r="C251" s="5">
+        <v>32.276580359899768</v>
+      </c>
     </row>
     <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="4"/>
-      <c r="B252" s="5"/>
-      <c r="C252" s="5"/>
+      <c r="A252" s="4">
+        <v>45841</v>
+      </c>
+      <c r="B252" s="5">
+        <v>68.714790568788928</v>
+      </c>
+      <c r="C252" s="5">
+        <v>33.058376908881797</v>
+      </c>
     </row>
     <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="4"/>
-      <c r="B253" s="5"/>
-      <c r="C253" s="5"/>
+      <c r="A253" s="4">
+        <v>45842</v>
+      </c>
+      <c r="B253" s="5">
+        <v>68.710165136310991</v>
+      </c>
+      <c r="C253" s="5">
+        <v>33.058376908881797</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DB414D-9D00-2541-AAA8-A3C1F2251C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC3ED0-0FAF-A746-B270-260A800E0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="780" windowWidth="10000" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -477,9 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3274,54 +3274,104 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A254" s="4"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="6"/>
+      <c r="A254" s="4">
+        <v>45845</v>
+      </c>
+      <c r="B254" s="5">
+        <v>68.527914666807874</v>
+      </c>
+      <c r="C254" s="6">
+        <v>18.239999999999998</v>
+      </c>
     </row>
     <row r="255" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A255" s="4"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="6"/>
+      <c r="A255" s="4">
+        <v>45846</v>
+      </c>
+      <c r="B255" s="5">
+        <v>67.189588871597664</v>
+      </c>
+      <c r="C255" s="6">
+        <v>17.82</v>
+      </c>
     </row>
     <row r="256" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A256" s="4"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="6"/>
+      <c r="A256" s="4">
+        <v>45847</v>
+      </c>
+      <c r="B256" s="5">
+        <v>66.332864714230965</v>
+      </c>
+      <c r="C256" s="6">
+        <v>17.260000000000002</v>
+      </c>
     </row>
     <row r="257" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A257" s="4"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="6"/>
+      <c r="A257" s="4">
+        <v>45848</v>
+      </c>
+      <c r="B257" s="5">
+        <v>65.709404414818422</v>
+      </c>
+      <c r="C257" s="6">
+        <v>17.11</v>
+      </c>
     </row>
     <row r="258" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="B258" s="5"/>
+      <c r="A258" s="4">
+        <v>45849</v>
+      </c>
+      <c r="B258" s="5">
+        <v>65.617872979491082</v>
+      </c>
+      <c r="C258" s="6">
+        <v>17.190000000000001</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A259" s="4"/>
       <c r="B259" s="5"/>
+      <c r="C259" s="6"/>
     </row>
     <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A260" s="4"/>
       <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
     </row>
     <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A261" s="4"/>
       <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
     </row>
     <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A262" s="4"/>
       <c r="B262" s="5"/>
+      <c r="C262" s="6"/>
     </row>
     <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A263" s="4"/>
       <c r="B263" s="5"/>
+      <c r="C263" s="6"/>
     </row>
     <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A264" s="4"/>
       <c r="B264" s="5"/>
+      <c r="C264" s="6"/>
     </row>
     <row r="265" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A265" s="4"/>
       <c r="B265" s="5"/>
+      <c r="C265" s="6"/>
     </row>
     <row r="266" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A266" s="4"/>
       <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
     </row>
     <row r="267" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A267" s="4"/>
       <c r="B267" s="5"/>
+      <c r="C267" s="6"/>
     </row>
     <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="B268" s="5"/>
@@ -3875,9 +3925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D257" sqref="D257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6673,29 +6723,59 @@
       </c>
     </row>
     <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="4"/>
-      <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
+      <c r="A254" s="4">
+        <v>45845</v>
+      </c>
+      <c r="B254" s="5">
+        <v>68.527914666807874</v>
+      </c>
+      <c r="C254" s="5">
+        <v>32.292515345193621</v>
+      </c>
     </row>
     <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="4"/>
-      <c r="B255" s="5"/>
-      <c r="C255" s="5"/>
+      <c r="A255" s="4">
+        <v>45846</v>
+      </c>
+      <c r="B255" s="5">
+        <v>67.189588871597664</v>
+      </c>
+      <c r="C255" s="5">
+        <v>32.228760162925681</v>
+      </c>
     </row>
     <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4"/>
-      <c r="B256" s="5"/>
-      <c r="C256" s="5"/>
+      <c r="A256" s="4">
+        <v>45847</v>
+      </c>
+      <c r="B256" s="5">
+        <v>66.332864714230965</v>
+      </c>
+      <c r="C256" s="5">
+        <v>32.789208397398802</v>
+      </c>
     </row>
     <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="4"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
+      <c r="A257" s="4">
+        <v>45848</v>
+      </c>
+      <c r="B257" s="5">
+        <v>65.709404414818422</v>
+      </c>
+      <c r="C257" s="5">
+        <v>33.058376908881797</v>
+      </c>
     </row>
     <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="4"/>
-      <c r="B258" s="5"/>
-      <c r="C258" s="5"/>
+      <c r="A258" s="4">
+        <v>45849</v>
+      </c>
+      <c r="B258" s="5">
+        <v>65.617872979491082</v>
+      </c>
+      <c r="C258" s="5">
+        <v>32.674195197863703</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC3ED0-0FAF-A746-B270-260A800E0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFF701-4A29-2144-BE19-EDB06466C79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="500" windowWidth="10000" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="10000" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -477,9 +477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3325,33 +3325,63 @@
         <v>65.617872979491082</v>
       </c>
       <c r="C258" s="6">
-        <v>17.190000000000001</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A259" s="4"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="6"/>
+      <c r="A259" s="4">
+        <v>45852</v>
+      </c>
+      <c r="B259" s="5">
+        <v>65.879358292414565</v>
+      </c>
+      <c r="C259" s="6">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A260" s="4"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="6"/>
+      <c r="A260" s="4">
+        <v>45853</v>
+      </c>
+      <c r="B260" s="5">
+        <v>65.758474987636347</v>
+      </c>
+      <c r="C260" s="6">
+        <v>17.38</v>
+      </c>
     </row>
     <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A261" s="4"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="6"/>
+      <c r="A261" s="4">
+        <v>45854</v>
+      </c>
+      <c r="B261" s="5">
+        <v>65.693671732225781</v>
+      </c>
+      <c r="C261" s="6">
+        <v>17.16</v>
+      </c>
     </row>
     <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A262" s="4"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="6"/>
+      <c r="A262" s="4">
+        <v>45855</v>
+      </c>
+      <c r="B262" s="5">
+        <v>65.418079303865497</v>
+      </c>
+      <c r="C262" s="6">
+        <v>16.52</v>
+      </c>
     </row>
     <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A263" s="4"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="6"/>
+      <c r="A263" s="4">
+        <v>45856</v>
+      </c>
+      <c r="B263" s="5">
+        <v>64.633960576815312</v>
+      </c>
+      <c r="C263" s="6">
+        <v>16.41</v>
+      </c>
     </row>
     <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
@@ -3374,547 +3404,909 @@
       <c r="C267" s="6"/>
     </row>
     <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A268" s="4"/>
       <c r="B268" s="5"/>
+      <c r="C268" s="6"/>
     </row>
     <row r="269" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A269" s="4"/>
       <c r="B269" s="5"/>
+      <c r="C269" s="6"/>
     </row>
     <row r="270" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A270" s="4"/>
       <c r="B270" s="5"/>
+      <c r="C270" s="6"/>
     </row>
     <row r="271" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A271" s="4"/>
       <c r="B271" s="5"/>
+      <c r="C271" s="6"/>
     </row>
     <row r="272" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A272" s="4"/>
       <c r="B272" s="5"/>
-    </row>
-    <row r="273" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C272" s="6"/>
+    </row>
+    <row r="273" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A273" s="4"/>
       <c r="B273" s="5"/>
-    </row>
-    <row r="274" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C273" s="6"/>
+    </row>
+    <row r="274" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A274" s="4"/>
       <c r="B274" s="5"/>
-    </row>
-    <row r="275" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C274" s="6"/>
+    </row>
+    <row r="275" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A275" s="4"/>
       <c r="B275" s="5"/>
-    </row>
-    <row r="276" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C275" s="6"/>
+    </row>
+    <row r="276" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A276" s="4"/>
       <c r="B276" s="5"/>
-    </row>
-    <row r="277" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C276" s="6"/>
+    </row>
+    <row r="277" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A277" s="4"/>
       <c r="B277" s="5"/>
-    </row>
-    <row r="278" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A278" s="4"/>
       <c r="B278" s="5"/>
-    </row>
-    <row r="279" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A279" s="4"/>
       <c r="B279" s="5"/>
-    </row>
-    <row r="280" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A280" s="4"/>
       <c r="B280" s="5"/>
-    </row>
-    <row r="281" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A281" s="4"/>
       <c r="B281" s="5"/>
-    </row>
-    <row r="282" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A282" s="4"/>
       <c r="B282" s="5"/>
-    </row>
-    <row r="283" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A283" s="4"/>
       <c r="B283" s="5"/>
-    </row>
-    <row r="284" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A284" s="4"/>
       <c r="B284" s="5"/>
-    </row>
-    <row r="285" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
       <c r="B285" s="5"/>
-    </row>
-    <row r="286" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A286" s="4"/>
       <c r="B286" s="5"/>
-    </row>
-    <row r="287" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C286" s="6"/>
+    </row>
+    <row r="287" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A287" s="4"/>
       <c r="B287" s="5"/>
-    </row>
-    <row r="288" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C287" s="6"/>
+    </row>
+    <row r="288" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A288" s="4"/>
       <c r="B288" s="5"/>
-    </row>
-    <row r="289" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C288" s="6"/>
+    </row>
+    <row r="289" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A289" s="4"/>
       <c r="B289" s="5"/>
-    </row>
-    <row r="290" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C289" s="6"/>
+    </row>
+    <row r="290" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
       <c r="B290" s="5"/>
-    </row>
-    <row r="291" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C290" s="6"/>
+    </row>
+    <row r="291" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A291" s="4"/>
       <c r="B291" s="5"/>
-    </row>
-    <row r="292" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C291" s="6"/>
+    </row>
+    <row r="292" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A292" s="4"/>
       <c r="B292" s="5"/>
-    </row>
-    <row r="293" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C292" s="6"/>
+    </row>
+    <row r="293" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A293" s="4"/>
       <c r="B293" s="5"/>
-    </row>
-    <row r="294" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C293" s="6"/>
+    </row>
+    <row r="294" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A294" s="4"/>
       <c r="B294" s="5"/>
-    </row>
-    <row r="295" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C294" s="6"/>
+    </row>
+    <row r="295" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A295" s="4"/>
       <c r="B295" s="5"/>
-    </row>
-    <row r="296" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C295" s="6"/>
+    </row>
+    <row r="296" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A296" s="4"/>
       <c r="B296" s="5"/>
-    </row>
-    <row r="297" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C296" s="6"/>
+    </row>
+    <row r="297" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A297" s="4"/>
       <c r="B297" s="5"/>
-    </row>
-    <row r="298" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C297" s="6"/>
+    </row>
+    <row r="298" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A298" s="4"/>
       <c r="B298" s="5"/>
-    </row>
-    <row r="299" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C298" s="6"/>
+    </row>
+    <row r="299" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A299" s="4"/>
       <c r="B299" s="5"/>
-    </row>
-    <row r="300" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C299" s="6"/>
+    </row>
+    <row r="300" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A300" s="4"/>
       <c r="B300" s="5"/>
-    </row>
-    <row r="301" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C300" s="6"/>
+    </row>
+    <row r="301" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A301" s="4"/>
       <c r="B301" s="5"/>
-    </row>
-    <row r="302" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C301" s="6"/>
+    </row>
+    <row r="302" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A302" s="4"/>
       <c r="B302" s="5"/>
-    </row>
-    <row r="303" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C302" s="6"/>
+    </row>
+    <row r="303" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A303" s="4"/>
       <c r="B303" s="5"/>
-    </row>
-    <row r="304" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C303" s="6"/>
+    </row>
+    <row r="304" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A304" s="4"/>
       <c r="B304" s="5"/>
-    </row>
-    <row r="305" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C304" s="6"/>
+    </row>
+    <row r="305" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A305" s="4"/>
       <c r="B305" s="5"/>
-    </row>
-    <row r="306" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C305" s="6"/>
+    </row>
+    <row r="306" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A306" s="4"/>
       <c r="B306" s="5"/>
-    </row>
-    <row r="307" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C306" s="6"/>
+    </row>
+    <row r="307" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A307" s="4"/>
       <c r="B307" s="5"/>
-    </row>
-    <row r="308" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C307" s="6"/>
+    </row>
+    <row r="308" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A308" s="4"/>
       <c r="B308" s="5"/>
-    </row>
-    <row r="309" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C308" s="6"/>
+    </row>
+    <row r="309" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A309" s="4"/>
       <c r="B309" s="5"/>
-    </row>
-    <row r="310" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C309" s="6"/>
+    </row>
+    <row r="310" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A310" s="4"/>
       <c r="B310" s="5"/>
-    </row>
-    <row r="311" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C310" s="6"/>
+    </row>
+    <row r="311" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A311" s="4"/>
       <c r="B311" s="5"/>
-    </row>
-    <row r="312" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C311" s="6"/>
+    </row>
+    <row r="312" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A312" s="4"/>
       <c r="B312" s="5"/>
-    </row>
-    <row r="313" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C312" s="6"/>
+    </row>
+    <row r="313" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A313" s="4"/>
       <c r="B313" s="5"/>
-    </row>
-    <row r="314" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C313" s="6"/>
+    </row>
+    <row r="314" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A314" s="4"/>
       <c r="B314" s="5"/>
-    </row>
-    <row r="315" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C314" s="6"/>
+    </row>
+    <row r="315" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A315" s="4"/>
       <c r="B315" s="5"/>
-    </row>
-    <row r="316" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C315" s="6"/>
+    </row>
+    <row r="316" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A316" s="4"/>
       <c r="B316" s="5"/>
-    </row>
-    <row r="317" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C316" s="6"/>
+    </row>
+    <row r="317" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A317" s="4"/>
       <c r="B317" s="5"/>
-    </row>
-    <row r="318" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C317" s="6"/>
+    </row>
+    <row r="318" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A318" s="4"/>
       <c r="B318" s="5"/>
-    </row>
-    <row r="319" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C318" s="6"/>
+    </row>
+    <row r="319" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A319" s="4"/>
       <c r="B319" s="5"/>
-    </row>
-    <row r="320" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C319" s="6"/>
+    </row>
+    <row r="320" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A320" s="4"/>
       <c r="B320" s="5"/>
-    </row>
-    <row r="321" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C320" s="6"/>
+    </row>
+    <row r="321" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A321" s="4"/>
       <c r="B321" s="5"/>
-    </row>
-    <row r="322" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C321" s="6"/>
+    </row>
+    <row r="322" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A322" s="4"/>
       <c r="B322" s="5"/>
-    </row>
-    <row r="323" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C322" s="6"/>
+    </row>
+    <row r="323" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A323" s="4"/>
       <c r="B323" s="5"/>
-    </row>
-    <row r="324" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C323" s="6"/>
+    </row>
+    <row r="324" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A324" s="4"/>
       <c r="B324" s="5"/>
-    </row>
-    <row r="325" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C324" s="6"/>
+    </row>
+    <row r="325" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A325" s="4"/>
       <c r="B325" s="5"/>
-    </row>
-    <row r="326" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C325" s="6"/>
+    </row>
+    <row r="326" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A326" s="4"/>
       <c r="B326" s="5"/>
-    </row>
-    <row r="327" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C326" s="6"/>
+    </row>
+    <row r="327" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A327" s="4"/>
       <c r="B327" s="5"/>
-    </row>
-    <row r="328" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C327" s="6"/>
+    </row>
+    <row r="328" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A328" s="4"/>
       <c r="B328" s="5"/>
-    </row>
-    <row r="329" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C328" s="6"/>
+    </row>
+    <row r="329" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A329" s="4"/>
       <c r="B329" s="5"/>
-    </row>
-    <row r="330" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C329" s="6"/>
+    </row>
+    <row r="330" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A330" s="4"/>
       <c r="B330" s="5"/>
-    </row>
-    <row r="331" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C330" s="6"/>
+    </row>
+    <row r="331" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A331" s="4"/>
       <c r="B331" s="5"/>
-    </row>
-    <row r="332" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C331" s="6"/>
+    </row>
+    <row r="332" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A332" s="4"/>
       <c r="B332" s="5"/>
-    </row>
-    <row r="333" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C332" s="6"/>
+    </row>
+    <row r="333" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A333" s="4"/>
       <c r="B333" s="5"/>
-    </row>
-    <row r="334" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C333" s="6"/>
+    </row>
+    <row r="334" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A334" s="4"/>
       <c r="B334" s="5"/>
-    </row>
-    <row r="335" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C334" s="6"/>
+    </row>
+    <row r="335" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A335" s="4"/>
       <c r="B335" s="5"/>
-    </row>
-    <row r="336" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C335" s="6"/>
+    </row>
+    <row r="336" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A336" s="4"/>
       <c r="B336" s="5"/>
-    </row>
-    <row r="337" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C336" s="6"/>
+    </row>
+    <row r="337" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A337" s="4"/>
       <c r="B337" s="5"/>
-    </row>
-    <row r="338" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C337" s="6"/>
+    </row>
+    <row r="338" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A338" s="4"/>
       <c r="B338" s="5"/>
-    </row>
-    <row r="339" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C338" s="6"/>
+    </row>
+    <row r="339" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A339" s="4"/>
       <c r="B339" s="5"/>
-    </row>
-    <row r="340" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C339" s="6"/>
+    </row>
+    <row r="340" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A340" s="4"/>
       <c r="B340" s="5"/>
-    </row>
-    <row r="341" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C340" s="6"/>
+    </row>
+    <row r="341" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A341" s="4"/>
       <c r="B341" s="5"/>
-    </row>
-    <row r="342" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C341" s="6"/>
+    </row>
+    <row r="342" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A342" s="4"/>
       <c r="B342" s="5"/>
-    </row>
-    <row r="343" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C342" s="6"/>
+    </row>
+    <row r="343" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A343" s="4"/>
       <c r="B343" s="5"/>
-    </row>
-    <row r="344" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C343" s="6"/>
+    </row>
+    <row r="344" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A344" s="4"/>
       <c r="B344" s="5"/>
-    </row>
-    <row r="345" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C344" s="6"/>
+    </row>
+    <row r="345" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A345" s="4"/>
       <c r="B345" s="5"/>
-    </row>
-    <row r="346" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C345" s="6"/>
+    </row>
+    <row r="346" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A346" s="4"/>
       <c r="B346" s="5"/>
-    </row>
-    <row r="347" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C346" s="6"/>
+    </row>
+    <row r="347" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A347" s="4"/>
       <c r="B347" s="5"/>
-    </row>
-    <row r="348" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C347" s="6"/>
+    </row>
+    <row r="348" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A348" s="4"/>
       <c r="B348" s="5"/>
-    </row>
-    <row r="349" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C348" s="6"/>
+    </row>
+    <row r="349" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A349" s="4"/>
       <c r="B349" s="5"/>
-    </row>
-    <row r="350" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C349" s="6"/>
+    </row>
+    <row r="350" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A350" s="4"/>
       <c r="B350" s="5"/>
-    </row>
-    <row r="351" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C350" s="6"/>
+    </row>
+    <row r="351" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A351" s="4"/>
       <c r="B351" s="5"/>
-    </row>
-    <row r="352" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C351" s="6"/>
+    </row>
+    <row r="352" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A352" s="4"/>
       <c r="B352" s="5"/>
-    </row>
-    <row r="353" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C352" s="6"/>
+    </row>
+    <row r="353" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A353" s="4"/>
       <c r="B353" s="5"/>
-    </row>
-    <row r="354" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C353" s="6"/>
+    </row>
+    <row r="354" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A354" s="4"/>
       <c r="B354" s="5"/>
-    </row>
-    <row r="355" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C354" s="6"/>
+    </row>
+    <row r="355" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A355" s="4"/>
       <c r="B355" s="5"/>
-    </row>
-    <row r="356" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C355" s="6"/>
+    </row>
+    <row r="356" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A356" s="4"/>
       <c r="B356" s="5"/>
-    </row>
-    <row r="357" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C356" s="6"/>
+    </row>
+    <row r="357" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A357" s="4"/>
       <c r="B357" s="5"/>
-    </row>
-    <row r="358" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C357" s="6"/>
+    </row>
+    <row r="358" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A358" s="4"/>
       <c r="B358" s="5"/>
-    </row>
-    <row r="359" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C358" s="6"/>
+    </row>
+    <row r="359" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A359" s="4"/>
       <c r="B359" s="5"/>
-    </row>
-    <row r="360" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C359" s="6"/>
+    </row>
+    <row r="360" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A360" s="4"/>
       <c r="B360" s="5"/>
-    </row>
-    <row r="361" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C360" s="6"/>
+    </row>
+    <row r="361" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A361" s="4"/>
       <c r="B361" s="5"/>
-    </row>
-    <row r="362" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C361" s="6"/>
+    </row>
+    <row r="362" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A362" s="4"/>
       <c r="B362" s="5"/>
-    </row>
-    <row r="363" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C362" s="6"/>
+    </row>
+    <row r="363" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A363" s="4"/>
       <c r="B363" s="5"/>
-    </row>
-    <row r="364" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C363" s="6"/>
+    </row>
+    <row r="364" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A364" s="4"/>
       <c r="B364" s="5"/>
-    </row>
-    <row r="365" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C364" s="6"/>
+    </row>
+    <row r="365" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A365" s="4"/>
       <c r="B365" s="5"/>
-    </row>
-    <row r="366" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C365" s="6"/>
+    </row>
+    <row r="366" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A366" s="4"/>
       <c r="B366" s="5"/>
-    </row>
-    <row r="367" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C366" s="6"/>
+    </row>
+    <row r="367" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A367" s="4"/>
       <c r="B367" s="5"/>
-    </row>
-    <row r="368" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C367" s="6"/>
+    </row>
+    <row r="368" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A368" s="4"/>
       <c r="B368" s="5"/>
-    </row>
-    <row r="369" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C368" s="6"/>
+    </row>
+    <row r="369" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A369" s="4"/>
       <c r="B369" s="5"/>
-    </row>
-    <row r="370" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C369" s="6"/>
+    </row>
+    <row r="370" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A370" s="4"/>
       <c r="B370" s="5"/>
-    </row>
-    <row r="371" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C370" s="6"/>
+    </row>
+    <row r="371" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A371" s="4"/>
       <c r="B371" s="5"/>
-    </row>
-    <row r="372" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C371" s="6"/>
+    </row>
+    <row r="372" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A372" s="4"/>
       <c r="B372" s="5"/>
-    </row>
-    <row r="373" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C372" s="6"/>
+    </row>
+    <row r="373" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A373" s="4"/>
       <c r="B373" s="5"/>
-    </row>
-    <row r="374" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C373" s="6"/>
+    </row>
+    <row r="374" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A374" s="4"/>
       <c r="B374" s="5"/>
-    </row>
-    <row r="375" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C374" s="6"/>
+    </row>
+    <row r="375" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A375" s="4"/>
       <c r="B375" s="5"/>
-    </row>
-    <row r="376" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C375" s="6"/>
+    </row>
+    <row r="376" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A376" s="4"/>
       <c r="B376" s="5"/>
-    </row>
-    <row r="377" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C376" s="6"/>
+    </row>
+    <row r="377" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A377" s="4"/>
       <c r="B377" s="5"/>
-    </row>
-    <row r="378" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C377" s="6"/>
+    </row>
+    <row r="378" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A378" s="4"/>
       <c r="B378" s="5"/>
-    </row>
-    <row r="379" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C378" s="6"/>
+    </row>
+    <row r="379" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A379" s="4"/>
       <c r="B379" s="5"/>
-    </row>
-    <row r="380" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C379" s="6"/>
+    </row>
+    <row r="380" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A380" s="4"/>
       <c r="B380" s="5"/>
-    </row>
-    <row r="381" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C380" s="6"/>
+    </row>
+    <row r="381" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A381" s="4"/>
       <c r="B381" s="5"/>
-    </row>
-    <row r="382" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C381" s="6"/>
+    </row>
+    <row r="382" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A382" s="4"/>
       <c r="B382" s="5"/>
-    </row>
-    <row r="383" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C382" s="6"/>
+    </row>
+    <row r="383" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A383" s="4"/>
       <c r="B383" s="5"/>
-    </row>
-    <row r="384" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C383" s="6"/>
+    </row>
+    <row r="384" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A384" s="4"/>
       <c r="B384" s="5"/>
-    </row>
-    <row r="385" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C384" s="6"/>
+    </row>
+    <row r="385" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A385" s="4"/>
       <c r="B385" s="5"/>
-    </row>
-    <row r="386" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C385" s="6"/>
+    </row>
+    <row r="386" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A386" s="4"/>
       <c r="B386" s="5"/>
-    </row>
-    <row r="387" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C386" s="6"/>
+    </row>
+    <row r="387" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A387" s="4"/>
       <c r="B387" s="5"/>
-    </row>
-    <row r="388" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C387" s="6"/>
+    </row>
+    <row r="388" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A388" s="4"/>
       <c r="B388" s="5"/>
-    </row>
-    <row r="389" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C388" s="6"/>
+    </row>
+    <row r="389" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A389" s="4"/>
       <c r="B389" s="5"/>
-    </row>
-    <row r="390" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C389" s="6"/>
+    </row>
+    <row r="390" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A390" s="4"/>
       <c r="B390" s="5"/>
-    </row>
-    <row r="391" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C390" s="6"/>
+    </row>
+    <row r="391" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A391" s="4"/>
       <c r="B391" s="5"/>
-    </row>
-    <row r="392" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C391" s="6"/>
+    </row>
+    <row r="392" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A392" s="4"/>
       <c r="B392" s="5"/>
-    </row>
-    <row r="393" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C392" s="6"/>
+    </row>
+    <row r="393" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A393" s="4"/>
       <c r="B393" s="5"/>
-    </row>
-    <row r="394" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C393" s="6"/>
+    </row>
+    <row r="394" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A394" s="4"/>
       <c r="B394" s="5"/>
-    </row>
-    <row r="395" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C394" s="6"/>
+    </row>
+    <row r="395" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A395" s="4"/>
       <c r="B395" s="5"/>
-    </row>
-    <row r="396" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C395" s="6"/>
+    </row>
+    <row r="396" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A396" s="4"/>
       <c r="B396" s="5"/>
-    </row>
-    <row r="397" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C396" s="6"/>
+    </row>
+    <row r="397" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A397" s="4"/>
       <c r="B397" s="5"/>
-    </row>
-    <row r="398" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C397" s="6"/>
+    </row>
+    <row r="398" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A398" s="4"/>
       <c r="B398" s="5"/>
-    </row>
-    <row r="399" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C398" s="6"/>
+    </row>
+    <row r="399" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A399" s="4"/>
       <c r="B399" s="5"/>
-    </row>
-    <row r="400" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C399" s="6"/>
+    </row>
+    <row r="400" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A400" s="4"/>
       <c r="B400" s="5"/>
-    </row>
-    <row r="401" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C400" s="6"/>
+    </row>
+    <row r="401" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A401" s="4"/>
       <c r="B401" s="5"/>
-    </row>
-    <row r="402" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C401" s="6"/>
+    </row>
+    <row r="402" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A402" s="4"/>
       <c r="B402" s="5"/>
-    </row>
-    <row r="403" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C402" s="6"/>
+    </row>
+    <row r="403" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A403" s="4"/>
       <c r="B403" s="5"/>
-    </row>
-    <row r="404" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C403" s="6"/>
+    </row>
+    <row r="404" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A404" s="4"/>
       <c r="B404" s="5"/>
-    </row>
-    <row r="405" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C404" s="6"/>
+    </row>
+    <row r="405" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A405" s="4"/>
       <c r="B405" s="5"/>
-    </row>
-    <row r="406" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C405" s="6"/>
+    </row>
+    <row r="406" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A406" s="4"/>
       <c r="B406" s="5"/>
-    </row>
-    <row r="407" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C406" s="6"/>
+    </row>
+    <row r="407" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A407" s="4"/>
       <c r="B407" s="5"/>
-    </row>
-    <row r="408" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C407" s="6"/>
+    </row>
+    <row r="408" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A408" s="4"/>
       <c r="B408" s="5"/>
-    </row>
-    <row r="409" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C408" s="6"/>
+    </row>
+    <row r="409" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A409" s="4"/>
       <c r="B409" s="5"/>
-    </row>
-    <row r="410" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C409" s="6"/>
+    </row>
+    <row r="410" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A410" s="4"/>
       <c r="B410" s="5"/>
-    </row>
-    <row r="411" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C410" s="6"/>
+    </row>
+    <row r="411" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A411" s="4"/>
       <c r="B411" s="5"/>
-    </row>
-    <row r="412" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C411" s="6"/>
+    </row>
+    <row r="412" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A412" s="4"/>
       <c r="B412" s="5"/>
-    </row>
-    <row r="413" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C412" s="6"/>
+    </row>
+    <row r="413" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A413" s="4"/>
       <c r="B413" s="5"/>
-    </row>
-    <row r="414" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C413" s="6"/>
+    </row>
+    <row r="414" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A414" s="4"/>
       <c r="B414" s="5"/>
-    </row>
-    <row r="415" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C414" s="6"/>
+    </row>
+    <row r="415" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A415" s="4"/>
       <c r="B415" s="5"/>
-    </row>
-    <row r="416" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C415" s="6"/>
+    </row>
+    <row r="416" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A416" s="4"/>
       <c r="B416" s="5"/>
-    </row>
-    <row r="417" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C416" s="6"/>
+    </row>
+    <row r="417" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A417" s="4"/>
       <c r="B417" s="5"/>
-    </row>
-    <row r="418" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C417" s="6"/>
+    </row>
+    <row r="418" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A418" s="4"/>
       <c r="B418" s="5"/>
-    </row>
-    <row r="419" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C418" s="6"/>
+    </row>
+    <row r="419" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A419" s="4"/>
       <c r="B419" s="5"/>
-    </row>
-    <row r="420" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C419" s="6"/>
+    </row>
+    <row r="420" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A420" s="4"/>
       <c r="B420" s="5"/>
-    </row>
-    <row r="421" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C420" s="6"/>
+    </row>
+    <row r="421" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A421" s="4"/>
       <c r="B421" s="5"/>
-    </row>
-    <row r="422" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C421" s="6"/>
+    </row>
+    <row r="422" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A422" s="4"/>
       <c r="B422" s="5"/>
-    </row>
-    <row r="423" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C422" s="6"/>
+    </row>
+    <row r="423" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A423" s="4"/>
       <c r="B423" s="5"/>
-    </row>
-    <row r="424" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C423" s="6"/>
+    </row>
+    <row r="424" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A424" s="4"/>
       <c r="B424" s="5"/>
-    </row>
-    <row r="425" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C424" s="6"/>
+    </row>
+    <row r="425" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A425" s="4"/>
       <c r="B425" s="5"/>
-    </row>
-    <row r="426" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C425" s="6"/>
+    </row>
+    <row r="426" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A426" s="4"/>
       <c r="B426" s="5"/>
-    </row>
-    <row r="427" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C426" s="6"/>
+    </row>
+    <row r="427" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A427" s="4"/>
       <c r="B427" s="5"/>
-    </row>
-    <row r="428" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C427" s="6"/>
+    </row>
+    <row r="428" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A428" s="4"/>
       <c r="B428" s="5"/>
-    </row>
-    <row r="429" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C428" s="6"/>
+    </row>
+    <row r="429" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A429" s="4"/>
       <c r="B429" s="5"/>
-    </row>
-    <row r="430" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C429" s="6"/>
+    </row>
+    <row r="430" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A430" s="4"/>
       <c r="B430" s="5"/>
-    </row>
-    <row r="431" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C430" s="6"/>
+    </row>
+    <row r="431" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A431" s="4"/>
       <c r="B431" s="5"/>
-    </row>
-    <row r="432" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C431" s="6"/>
+    </row>
+    <row r="432" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A432" s="4"/>
       <c r="B432" s="5"/>
-    </row>
-    <row r="433" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C432" s="6"/>
+    </row>
+    <row r="433" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A433" s="4"/>
       <c r="B433" s="5"/>
-    </row>
-    <row r="434" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C433" s="6"/>
+    </row>
+    <row r="434" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A434" s="4"/>
       <c r="B434" s="5"/>
-    </row>
-    <row r="435" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C434" s="6"/>
+    </row>
+    <row r="435" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A435" s="4"/>
       <c r="B435" s="5"/>
-    </row>
-    <row r="436" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C435" s="6"/>
+    </row>
+    <row r="436" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A436" s="4"/>
       <c r="B436" s="5"/>
-    </row>
-    <row r="437" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C436" s="6"/>
+    </row>
+    <row r="437" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A437" s="4"/>
       <c r="B437" s="5"/>
-    </row>
-    <row r="438" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C437" s="6"/>
+    </row>
+    <row r="438" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A438" s="4"/>
       <c r="B438" s="5"/>
-    </row>
-    <row r="439" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C438" s="6"/>
+    </row>
+    <row r="439" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A439" s="4"/>
       <c r="B439" s="5"/>
-    </row>
-    <row r="440" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C439" s="6"/>
+    </row>
+    <row r="440" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A440" s="4"/>
       <c r="B440" s="5"/>
-    </row>
-    <row r="441" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C440" s="6"/>
+    </row>
+    <row r="441" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A441" s="4"/>
       <c r="B441" s="5"/>
-    </row>
-    <row r="442" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C441" s="6"/>
+    </row>
+    <row r="442" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A442" s="4"/>
       <c r="B442" s="5"/>
-    </row>
-    <row r="443" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C442" s="6"/>
+    </row>
+    <row r="443" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A443" s="4"/>
       <c r="B443" s="5"/>
-    </row>
-    <row r="444" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C443" s="6"/>
+    </row>
+    <row r="444" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A444" s="4"/>
       <c r="B444" s="5"/>
-    </row>
-    <row r="445" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C444" s="6"/>
+    </row>
+    <row r="445" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A445" s="4"/>
       <c r="B445" s="5"/>
-    </row>
-    <row r="446" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C445" s="6"/>
+    </row>
+    <row r="446" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A446" s="4"/>
       <c r="B446" s="5"/>
-    </row>
-    <row r="447" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C446" s="6"/>
+    </row>
+    <row r="447" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A447" s="4"/>
       <c r="B447" s="5"/>
-    </row>
-    <row r="448" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="C447" s="6"/>
+    </row>
+    <row r="448" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A448" s="4"/>
       <c r="B448" s="5"/>
+      <c r="C448" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3925,9 +4317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D257" sqref="D257"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A259" sqref="A259:C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6778,29 +7170,59 @@
       </c>
     </row>
     <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="4"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
+      <c r="A259" s="4">
+        <v>45852</v>
+      </c>
+      <c r="B259" s="5">
+        <v>65.879358292414565</v>
+      </c>
+      <c r="C259" s="5">
+        <v>32.848646118325256</v>
+      </c>
     </row>
     <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="4"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="5"/>
+      <c r="A260" s="4">
+        <v>45853</v>
+      </c>
+      <c r="B260" s="5">
+        <v>65.758474987636347</v>
+      </c>
+      <c r="C260" s="5">
+        <v>32.419903897452485</v>
+      </c>
     </row>
     <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="4"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
+      <c r="A261" s="4">
+        <v>45854</v>
+      </c>
+      <c r="B261" s="5">
+        <v>65.693671732225781</v>
+      </c>
+      <c r="C261" s="5">
+        <v>32.725769197777041</v>
+      </c>
     </row>
     <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="4"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
+      <c r="A262" s="4">
+        <v>45855</v>
+      </c>
+      <c r="B262" s="5">
+        <v>65.418079303865497</v>
+      </c>
+      <c r="C262" s="5">
+        <v>33.314994827396724</v>
+      </c>
     </row>
     <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="4"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
+      <c r="A263" s="4">
+        <v>45856</v>
+      </c>
+      <c r="B263" s="5">
+        <v>64.633960576815312</v>
+      </c>
+      <c r="C263" s="5">
+        <v>33.22426682764241</v>
+      </c>
     </row>
     <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFF701-4A29-2144-BE19-EDB06466C79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD280D49-3187-1E4C-9019-33DEC7256BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="500" windowWidth="10000" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="2280" yWindow="500" windowWidth="19960" windowHeight="21860" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,12 +477,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -490,7 +490,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="40" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="40" customHeight="1">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -512,7 +512,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -523,7 +523,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="40" customHeight="1">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -534,7 +534,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -545,7 +545,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="40" customHeight="1">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -556,7 +556,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="40" customHeight="1">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -567,7 +567,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="40" customHeight="1">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -578,7 +578,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -589,7 +589,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="40" customHeight="1">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -600,7 +600,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -611,7 +611,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="40" customHeight="1">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -622,7 +622,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -633,7 +633,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="40" customHeight="1">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -644,7 +644,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -655,7 +655,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="40" customHeight="1">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -677,7 +677,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -699,7 +699,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -710,7 +710,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -732,7 +732,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -743,7 +743,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -765,7 +765,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -776,7 +776,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -787,7 +787,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -798,7 +798,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -809,7 +809,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -820,7 +820,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -831,7 +831,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -842,7 +842,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -875,7 +875,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -897,7 +897,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -908,7 +908,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -919,7 +919,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -930,7 +930,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -941,7 +941,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -952,7 +952,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -963,7 +963,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -974,7 +974,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -985,7 +985,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -996,7 +996,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="24">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="24">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="24">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="24">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="24">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="24">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="24">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="24">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="24">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="24">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="24">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="24">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="24">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="24">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="24">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="24">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="24">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="24">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="24">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="24">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="24">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="24">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="24">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="24">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="24">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="24">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="24">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="24">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="24">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="24">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="24">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="24">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="24">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="24">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="24">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="24">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="24">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="24">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="24">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="24">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="24">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="24">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="24">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="24">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="24">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="24">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="24">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="24">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="24">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>31.91</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="24">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="24">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="24">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="24">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="24">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="24">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="24">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="24">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="24">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="24">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="24">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="24">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="24">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="24">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="24">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="24">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="24">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="24">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="24">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="24">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="24">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="24">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="24">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="24">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>22.28</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="24">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="24">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="24">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="24">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="24">
       <c r="A230" s="4">
         <v>45810</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="24">
       <c r="A231" s="4">
         <v>45811</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="24">
       <c r="A232" s="4">
         <v>45812</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="24">
       <c r="A233" s="4">
         <v>45813</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="24">
       <c r="A234" s="4">
         <v>45814</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="24">
       <c r="A235" s="4">
         <v>45818</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="24">
       <c r="A236" s="4">
         <v>45819</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="24">
       <c r="A237" s="4">
         <v>45820</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="24">
       <c r="A238" s="4">
         <v>45821</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="24">
       <c r="A239" s="4">
         <v>45824</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="24">
       <c r="A240" s="4">
         <v>45825</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="24">
       <c r="A241" s="4">
         <v>45826</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="24">
       <c r="A242" s="4">
         <v>45827</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="24">
       <c r="A243" s="4">
         <v>45828</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="24">
       <c r="A244" s="4">
         <v>45831</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="24">
       <c r="A245" s="4">
         <v>45832</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="24">
       <c r="A246" s="4">
         <v>45833</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="24">
       <c r="A247" s="4">
         <v>45834</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="24">
       <c r="A248" s="4">
         <v>45835</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="24">
       <c r="A249" s="4">
         <v>45838</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="24">
       <c r="A250" s="4">
         <v>45839</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="24">
       <c r="A251" s="4">
         <v>45840</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="24">
       <c r="A252" s="4">
         <v>45841</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="24">
       <c r="A253" s="4">
         <v>45842</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="24">
       <c r="A254" s="4">
         <v>45845</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="24">
       <c r="A255" s="4">
         <v>45846</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="24">
       <c r="A256" s="4">
         <v>45847</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="24">
       <c r="A257" s="4">
         <v>45848</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="24">
       <c r="A258" s="4">
         <v>45849</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="24">
       <c r="A259" s="4">
         <v>45852</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="24">
       <c r="A260" s="4">
         <v>45853</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="24">
       <c r="A261" s="4">
         <v>45854</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="24">
       <c r="A262" s="4">
         <v>45855</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="24">
       <c r="A263" s="4">
         <v>45856</v>
       </c>
@@ -3383,927 +3383,927 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="24">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="6"/>
     </row>
-    <row r="265" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="24">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="6"/>
     </row>
-    <row r="266" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="24">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="6"/>
     </row>
-    <row r="267" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="24">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
     </row>
-    <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="24">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="6"/>
     </row>
-    <row r="269" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="24">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="24">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="24">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="24">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="24">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="24">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="24">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="24">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="24">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="24">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="24">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="24">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="24">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="24">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="24">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="24">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="23">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="23">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="23">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="23">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="23">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="23">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="23">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="23">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="23">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="23">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="23">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="23">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="23">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="23">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="23">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="23">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="23">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="23">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="23">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="23">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="23">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="23">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="23">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="23">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="23">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="23">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="23">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="23">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="23">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="23">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="23">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="23">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="23">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="23">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="23">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="23">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="23">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="23">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="23">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="23">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="23">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="23">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="23">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="23">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="23">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="23">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="23">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="23">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="23">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="23">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="23">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="23">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="23">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="23">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="23">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="23">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="23">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="23">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="23">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="23">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="23">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="23">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="23">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="23">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="23">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="23">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="23">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="23">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="23">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="23">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="23">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="23">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="23">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="23">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="23">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="23">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="23">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="23">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="23">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="23">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="23">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="23">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="23">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="23">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="23">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="23">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="23">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="23">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="23">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="23">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="23">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="23">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="23">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="23">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="23">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="23">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="23">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="23">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="23">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="23">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="23">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="23">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="23">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="23">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="23">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="23">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="23">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="23">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="23">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="23">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="23">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="23">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="23">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="23">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="23">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="23">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="23">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="23">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="23">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="23">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="23">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="23">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="23">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="23">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="23">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="23">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="23">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="23">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="23">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="23">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="23">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="23">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="23">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="23">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="23">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="23">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="23">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="23">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="23">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="23">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="23">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="23">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="23">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="23">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="23">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="23">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="23">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="23">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="23">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" ht="23">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" ht="23">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="23">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="23">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="23">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="23">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="23">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="23">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="23">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="23">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="23">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" ht="23">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" ht="23">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" ht="23">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="23">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -4317,12 +4317,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A259" sqref="A259:C263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -4330,7 +4330,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="40" customHeight="1">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" customHeight="1">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="40" customHeight="1">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="40" customHeight="1">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="40" customHeight="1">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="40" customHeight="1">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="40" customHeight="1">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="40" customHeight="1">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="40" customHeight="1">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="40" customHeight="1">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="40" customHeight="1">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="40" customHeight="1">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="40" customHeight="1">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="40" customHeight="1">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="40" customHeight="1">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -5398,7 +5398,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -5618,7 +5618,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -5893,7 +5893,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="40" customHeight="1">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="40" customHeight="1">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="40" customHeight="1">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="40" customHeight="1">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="40" customHeight="1">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="40" customHeight="1">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="40" customHeight="1">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="40" customHeight="1">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="40" customHeight="1">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="40" customHeight="1">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="40" customHeight="1">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="40" customHeight="1">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="40" customHeight="1">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="40" customHeight="1">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="40" customHeight="1">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="40" customHeight="1">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="40" customHeight="1">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -6190,7 +6190,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="40" customHeight="1">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="40" customHeight="1">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>25.284763221329332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="40" customHeight="1">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>23.473978671945069</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="40" customHeight="1">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>23.99037201716752</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="40" customHeight="1">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>21.265742554012483</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="40" customHeight="1">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>20.484331598856667</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="40" customHeight="1">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>20.980677107752204</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="40" customHeight="1">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>19.592795233061427</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="40" customHeight="1">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>21.60763840911175</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="40" customHeight="1">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>22.318756443012568</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="40" customHeight="1">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>22.124915243940873</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="40" customHeight="1">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>23.186421833852929</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="40" customHeight="1">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>22.889283752002022</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="40" customHeight="1">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>22.985513310648209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="40" customHeight="1">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="40" customHeight="1">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="40" customHeight="1">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="40" customHeight="1">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="40" customHeight="1">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="40" customHeight="1">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>21.842291960211625</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="40" customHeight="1">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>22.217477234020642</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="40" customHeight="1">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>22.880531016766646</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="40" customHeight="1">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>17.863776999885843</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="40" customHeight="1">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>11.74406452790994</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="40" customHeight="1">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="40" customHeight="1">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="40" customHeight="1">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="40" customHeight="1">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="40" customHeight="1">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="40" customHeight="1">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>18.010923759318938</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="40" customHeight="1">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>17.780911697289426</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="40" customHeight="1">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>15.498345671476349</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="40" customHeight="1">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>15.630191054798287</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="40" customHeight="1">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>15.667829258018443</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="40" customHeight="1">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>17.291529372479239</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="40" customHeight="1">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>19.298377627116025</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="40" customHeight="1">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>19.994520027988962</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="40" customHeight="1">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>20.053064084062015</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="40" customHeight="1">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>20.605291226534135</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="40" customHeight="1">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>20.663478905816177</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="40" customHeight="1">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>22.823619556327209</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="40" customHeight="1">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>22.169003067598293</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="40" customHeight="1">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>21.354659111686829</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="40" customHeight="1">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>21.820178340343087</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="40" customHeight="1">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>22.393549116817407</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="40" customHeight="1">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>22.279137663192934</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="40" customHeight="1">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>25.519480068658879</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="40" customHeight="1">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>26.190709064034923</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="40" customHeight="1">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>26.258431067808324</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="40" customHeight="1">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>26.676444216862848</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="40" customHeight="1">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>27.386009490594859</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="40" customHeight="1">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>27.503085938154136</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="40" customHeight="1">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>27.122085246991258</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="40" customHeight="1">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>25.4555210002809</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="40" customHeight="1">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>25.378716080990703</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="40" customHeight="1">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>24.697698350977436</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="40" customHeight="1">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="40" customHeight="1">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="40" customHeight="1">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="40" customHeight="1">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="40" customHeight="1">
       <c r="A230" s="4">
         <v>45810</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>26.912124642438844</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="40" customHeight="1">
       <c r="A231" s="4">
         <v>45811</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>27.486369120997161</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="40" customHeight="1">
       <c r="A232" s="4">
         <v>45812</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>27.478009664356971</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="40" customHeight="1">
       <c r="A233" s="4">
         <v>45813</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>26.891104315705576</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="40" customHeight="1">
       <c r="A234" s="4">
         <v>45814</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>27.907615547091403</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="40" customHeight="1">
       <c r="A235" s="4">
         <v>45818</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>28.54238026479058</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="40" customHeight="1">
       <c r="A236" s="4">
         <v>45819</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>28.277347808841835</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="40" customHeight="1">
       <c r="A237" s="4">
         <v>45820</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>28.616794258054533</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="40" customHeight="1">
       <c r="A238" s="4">
         <v>45821</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>28.318805460445123</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="40" customHeight="1">
       <c r="A239" s="4">
         <v>45824</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>29.279934855722427</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="40" customHeight="1">
       <c r="A240" s="4">
         <v>45825</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>28.43479553144428</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="40" customHeight="1">
       <c r="A241" s="4">
         <v>45826</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>28.364389034572181</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="40" customHeight="1">
       <c r="A242" s="4">
         <v>45827</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>28.364389034572181</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="40" customHeight="1">
       <c r="A243" s="4">
         <v>45828</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>28.094729678900332</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="40" customHeight="1">
       <c r="A244" s="4">
         <v>45831</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>29.070347173436801</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="40" customHeight="1">
       <c r="A245" s="4">
         <v>45832</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>30.203445832516202</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="40" customHeight="1">
       <c r="A246" s="4">
         <v>45833</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>30.215647650602236</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="40" customHeight="1">
       <c r="A247" s="4">
         <v>45834</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>30.993483366225572</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="40" customHeight="1">
       <c r="A248" s="4">
         <v>45835</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>31.456493755540549</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="40" customHeight="1">
       <c r="A249" s="4">
         <v>45838</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>31.937360240142787</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="40" customHeight="1">
       <c r="A250" s="4">
         <v>45839</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>31.857376232679325</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="40" customHeight="1">
       <c r="A251" s="4">
         <v>45840</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>32.276580359899768</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="40" customHeight="1">
       <c r="A252" s="4">
         <v>45841</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>33.058376908881797</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="40" customHeight="1">
       <c r="A253" s="4">
         <v>45842</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>33.058376908881797</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="40" customHeight="1">
       <c r="A254" s="4">
         <v>45845</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>32.292515345193621</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="40" customHeight="1">
       <c r="A255" s="4">
         <v>45846</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>32.228760162925681</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="40" customHeight="1">
       <c r="A256" s="4">
         <v>45847</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>32.789208397398802</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="40" customHeight="1">
       <c r="A257" s="4">
         <v>45848</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>33.058376908881797</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="40" customHeight="1">
       <c r="A258" s="4">
         <v>45849</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>32.674195197863703</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="40" customHeight="1">
       <c r="A259" s="4">
         <v>45852</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>32.848646118325256</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="40" customHeight="1">
       <c r="A260" s="4">
         <v>45853</v>
       </c>
@@ -7188,10 +7188,10 @@
         <v>65.758474987636347</v>
       </c>
       <c r="C260" s="5">
-        <v>32.419903897452485</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32.4199038974525</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="40" customHeight="1">
       <c r="A261" s="4">
         <v>45854</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>32.725769197777041</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="40" customHeight="1">
       <c r="A262" s="4">
         <v>45855</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>33.314994827396724</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="40" customHeight="1">
       <c r="A263" s="4">
         <v>45856</v>
       </c>
@@ -7224,927 +7224,927 @@
         <v>33.22426682764241</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="40" customHeight="1">
       <c r="A264" s="4"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
     </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="40" customHeight="1">
       <c r="A265" s="4"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
     </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="40" customHeight="1">
       <c r="A266" s="4"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
     </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="40" customHeight="1">
       <c r="A267" s="4"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
     </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="40" customHeight="1">
       <c r="A268" s="4"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
     </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="40" customHeight="1">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" ht="40" customHeight="1">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" ht="40" customHeight="1">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="40" customHeight="1">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" ht="40" customHeight="1">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="40" customHeight="1">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="40" customHeight="1">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="40" customHeight="1">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="40" customHeight="1">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="40" customHeight="1">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="40" customHeight="1">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="40" customHeight="1">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="40" customHeight="1">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="40" customHeight="1">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="40" customHeight="1">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="40" customHeight="1">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="40" customHeight="1">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="40" customHeight="1">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="40" customHeight="1">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="40" customHeight="1">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="40" customHeight="1">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="40" customHeight="1">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="40" customHeight="1">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="40" customHeight="1">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="40" customHeight="1">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="40" customHeight="1">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="40" customHeight="1">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="40" customHeight="1">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="40" customHeight="1">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="40" customHeight="1">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="40" customHeight="1">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="40" customHeight="1">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="40" customHeight="1">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="40" customHeight="1">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="40" customHeight="1">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="40" customHeight="1">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="40" customHeight="1">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="40" customHeight="1">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="40" customHeight="1">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="40" customHeight="1">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="40" customHeight="1">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="40" customHeight="1">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="40" customHeight="1">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="40" customHeight="1">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="40" customHeight="1">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="40" customHeight="1">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="40" customHeight="1">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="40" customHeight="1">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="40" customHeight="1">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="40" customHeight="1">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="40" customHeight="1">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="40" customHeight="1">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="40" customHeight="1">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="40" customHeight="1">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="40" customHeight="1">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="40" customHeight="1">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="40" customHeight="1">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="40" customHeight="1">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="40" customHeight="1">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="40" customHeight="1">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="40" customHeight="1">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="40" customHeight="1">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="40" customHeight="1">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="40" customHeight="1">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="40" customHeight="1">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="40" customHeight="1">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="40" customHeight="1">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="40" customHeight="1">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="40" customHeight="1">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="40" customHeight="1">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="40" customHeight="1">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="40" customHeight="1">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="40" customHeight="1">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="40" customHeight="1">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="40" customHeight="1">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="40" customHeight="1">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="40" customHeight="1">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="40" customHeight="1">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="40" customHeight="1">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="40" customHeight="1">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="40" customHeight="1">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="40" customHeight="1">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="40" customHeight="1">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="40" customHeight="1">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="40" customHeight="1">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="40" customHeight="1">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="40" customHeight="1">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="40" customHeight="1">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="40" customHeight="1">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="40" customHeight="1">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="40" customHeight="1">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="40" customHeight="1">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="40" customHeight="1">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="40" customHeight="1">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="40" customHeight="1">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="40" customHeight="1">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="40" customHeight="1">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="40" customHeight="1">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="40" customHeight="1">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="40" customHeight="1">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="40" customHeight="1">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="40" customHeight="1">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="40" customHeight="1">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="40" customHeight="1">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="40" customHeight="1">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="40" customHeight="1">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="40" customHeight="1">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="40" customHeight="1">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="40" customHeight="1">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="40" customHeight="1">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="40" customHeight="1">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="40" customHeight="1">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="40" customHeight="1">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="40" customHeight="1">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="40" customHeight="1">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="40" customHeight="1">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="40" customHeight="1">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="40" customHeight="1">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="40" customHeight="1">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" ht="40" customHeight="1">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" ht="40" customHeight="1">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" ht="40" customHeight="1">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" ht="40" customHeight="1">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" ht="40" customHeight="1">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" ht="40" customHeight="1">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" ht="40" customHeight="1">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" ht="40" customHeight="1">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:3" ht="40" customHeight="1">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" ht="40" customHeight="1">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" ht="40" customHeight="1">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" ht="40" customHeight="1">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" ht="40" customHeight="1">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3" ht="40" customHeight="1">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3" ht="40" customHeight="1">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" ht="40" customHeight="1">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" ht="40" customHeight="1">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" ht="40" customHeight="1">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" ht="40" customHeight="1">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:3" ht="40" customHeight="1">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" ht="40" customHeight="1">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" ht="40" customHeight="1">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" ht="40" customHeight="1">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" ht="40" customHeight="1">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" ht="40" customHeight="1">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" ht="40" customHeight="1">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" ht="40" customHeight="1">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" ht="40" customHeight="1">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" ht="40" customHeight="1">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" ht="40" customHeight="1">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3" ht="40" customHeight="1">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" ht="40" customHeight="1">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" ht="40" customHeight="1">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" ht="40" customHeight="1">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" ht="40" customHeight="1">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" ht="40" customHeight="1">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" ht="40" customHeight="1">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3" ht="40" customHeight="1">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" ht="40" customHeight="1">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" ht="40" customHeight="1">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" ht="40" customHeight="1">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3" ht="40" customHeight="1">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" ht="40" customHeight="1">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" ht="40" customHeight="1">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" ht="40" customHeight="1">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="40" customHeight="1">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" ht="40" customHeight="1">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" ht="40" customHeight="1">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" ht="40" customHeight="1">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" ht="40" customHeight="1">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" ht="40" customHeight="1">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" ht="40" customHeight="1">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" ht="40" customHeight="1">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" ht="40" customHeight="1">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" ht="40" customHeight="1">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" ht="40" customHeight="1">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" ht="40" customHeight="1">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" ht="40" customHeight="1">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" ht="40" customHeight="1">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" ht="40" customHeight="1">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" ht="40" customHeight="1">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD280D49-3187-1E4C-9019-33DEC7256BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F2D1F-16F5-3F4A-A5D2-9CD55E236C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="500" windowWidth="19960" windowHeight="21860" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="18760" yWindow="540" windowWidth="10300" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -477,12 +477,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -490,7 +490,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40" customHeight="1">
+    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1">
+    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -512,7 +512,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1">
+    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -523,7 +523,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40" customHeight="1">
+    <row r="4" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -534,7 +534,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1">
+    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -545,7 +545,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40" customHeight="1">
+    <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -556,7 +556,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40" customHeight="1">
+    <row r="7" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -567,7 +567,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40" customHeight="1">
+    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -578,7 +578,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1">
+    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -589,7 +589,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="40" customHeight="1">
+    <row r="10" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -600,7 +600,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1">
+    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -611,7 +611,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" customHeight="1">
+    <row r="12" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -622,7 +622,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1">
+    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -633,7 +633,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40" customHeight="1">
+    <row r="14" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -644,7 +644,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1">
+    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -655,7 +655,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="40" customHeight="1">
+    <row r="16" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -677,7 +677,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -699,7 +699,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -710,7 +710,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -732,7 +732,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -743,7 +743,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -765,7 +765,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -776,7 +776,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -787,7 +787,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -798,7 +798,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -809,7 +809,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -820,7 +820,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -831,7 +831,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -842,7 +842,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -875,7 +875,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -897,7 +897,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -908,7 +908,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -919,7 +919,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -930,7 +930,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -941,7 +941,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -952,7 +952,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -963,7 +963,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -974,7 +974,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -985,7 +985,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -996,7 +996,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24">
+    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24">
+    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24">
+    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24">
+    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24">
+    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24">
+    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24">
+    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24">
+    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24">
+    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24">
+    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24">
+    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24">
+    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24">
+    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24">
+    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24">
+    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24">
+    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24">
+    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24">
+    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24">
+    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24">
+    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24">
+    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24">
+    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="24">
+    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24">
+    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="24">
+    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24">
+    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="24">
+    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="24">
+    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24">
+    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="24">
+    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="24">
+    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="24">
+    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="24">
+    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24">
+    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="24">
+    <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="24">
+    <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="24">
+    <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="24">
+    <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="24">
+    <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="24">
+    <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="24">
+    <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="24">
+    <row r="194" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="24">
+    <row r="195" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="24">
+    <row r="196" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="24">
+    <row r="197" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="24">
+    <row r="198" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="24">
+    <row r="199" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="24">
+    <row r="200" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="24">
+    <row r="201" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>31.91</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="24">
+    <row r="202" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="24">
+    <row r="203" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="24">
+    <row r="204" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="24">
+    <row r="205" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="24">
+    <row r="206" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="24">
+    <row r="207" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="24">
+    <row r="208" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="24">
+    <row r="209" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="24">
+    <row r="210" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="24">
+    <row r="211" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="24">
+    <row r="212" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="24">
+    <row r="213" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="24">
+    <row r="214" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="24">
+    <row r="215" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="24">
+    <row r="216" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="24">
+    <row r="217" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="24">
+    <row r="218" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="24">
+    <row r="219" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="24">
+    <row r="220" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="24">
+    <row r="221" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="24">
+    <row r="222" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="24">
+    <row r="223" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="24">
+    <row r="224" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="24">
+    <row r="225" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>22.28</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="24">
+    <row r="226" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="24">
+    <row r="227" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="24">
+    <row r="228" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="24">
+    <row r="229" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="24">
+    <row r="230" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>45810</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="24">
+    <row r="231" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>45811</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="24">
+    <row r="232" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>45812</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="24">
+    <row r="233" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>45813</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="24">
+    <row r="234" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>45814</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="24">
+    <row r="235" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>45818</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="24">
+    <row r="236" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>45819</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="24">
+    <row r="237" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>45820</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="24">
+    <row r="238" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>45821</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="24">
+    <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>45824</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="24">
+    <row r="240" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>45825</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="24">
+    <row r="241" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>45826</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="24">
+    <row r="242" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>45827</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="24">
+    <row r="243" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>45828</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="24">
+    <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>45831</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="24">
+    <row r="245" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>45832</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="24">
+    <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>45833</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="24">
+    <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>45834</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="24">
+    <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>45835</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="24">
+    <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>45838</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="24">
+    <row r="250" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>45839</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="24">
+    <row r="251" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>45840</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="24">
+    <row r="252" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>45841</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="24">
+    <row r="253" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>45842</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="24">
+    <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>45845</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="24">
+    <row r="255" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>45846</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="24">
+    <row r="256" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>45847</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="24">
+    <row r="257" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>45848</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="24">
+    <row r="258" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>45849</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="24">
+    <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>45852</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="24">
+    <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>45853</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="24">
+    <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>45854</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="24">
+    <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>45855</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="24">
+    <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>45856</v>
       </c>
@@ -3383,927 +3383,957 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="24">
-      <c r="A264" s="4"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="6"/>
-    </row>
-    <row r="265" spans="1:3" ht="24">
-      <c r="A265" s="4"/>
-      <c r="B265" s="5"/>
-      <c r="C265" s="6"/>
-    </row>
-    <row r="266" spans="1:3" ht="24">
-      <c r="A266" s="4"/>
-      <c r="B266" s="5"/>
-      <c r="C266" s="6"/>
-    </row>
-    <row r="267" spans="1:3" ht="24">
-      <c r="A267" s="4"/>
-      <c r="B267" s="5"/>
-      <c r="C267" s="6"/>
-    </row>
-    <row r="268" spans="1:3" ht="24">
-      <c r="A268" s="4"/>
-      <c r="B268" s="5"/>
-      <c r="C268" s="6"/>
-    </row>
-    <row r="269" spans="1:3" ht="24">
+    <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>45859</v>
+      </c>
+      <c r="B264" s="5">
+        <v>63.820513643625901</v>
+      </c>
+      <c r="C264" s="6">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>45860</v>
+      </c>
+      <c r="B265" s="5">
+        <v>63.033433419745307</v>
+      </c>
+      <c r="C265" s="6">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B266" s="5">
+        <v>62.483003457550645</v>
+      </c>
+      <c r="C266" s="6">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>45862</v>
+      </c>
+      <c r="B267" s="5">
+        <v>61.873391481974529</v>
+      </c>
+      <c r="C267" s="6">
+        <v>15.39</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>45863</v>
+      </c>
+      <c r="B268" s="5">
+        <v>61.295711910824799</v>
+      </c>
+      <c r="C268" s="6">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="6"/>
     </row>
-    <row r="270" spans="1:3" ht="24">
+    <row r="270" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="6"/>
     </row>
-    <row r="271" spans="1:3" ht="24">
+    <row r="271" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="6"/>
     </row>
-    <row r="272" spans="1:3" ht="24">
+    <row r="272" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="6"/>
     </row>
-    <row r="273" spans="1:3" ht="24">
+    <row r="273" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="24">
+    <row r="274" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="24">
+    <row r="275" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="24">
+    <row r="276" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="24">
+    <row r="277" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="24">
+    <row r="278" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="24">
+    <row r="279" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="24">
+    <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="24">
+    <row r="281" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="24">
+    <row r="282" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="24">
+    <row r="283" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="24">
+    <row r="284" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="23">
+    <row r="285" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="23">
+    <row r="286" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="23">
+    <row r="287" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="23">
+    <row r="288" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="23">
+    <row r="289" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="23">
+    <row r="290" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="23">
+    <row r="291" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="23">
+    <row r="292" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="23">
+    <row r="293" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="23">
+    <row r="294" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="23">
+    <row r="295" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="23">
+    <row r="296" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="23">
+    <row r="297" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="23">
+    <row r="298" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="23">
+    <row r="299" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="23">
+    <row r="300" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="23">
+    <row r="301" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="23">
+    <row r="302" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="23">
+    <row r="303" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="23">
+    <row r="304" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="23">
+    <row r="305" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="23">
+    <row r="306" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="23">
+    <row r="307" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="23">
+    <row r="308" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="23">
+    <row r="309" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="23">
+    <row r="310" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="23">
+    <row r="311" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="23">
+    <row r="312" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="23">
+    <row r="313" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="23">
+    <row r="314" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="23">
+    <row r="315" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="23">
+    <row r="316" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="23">
+    <row r="317" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="23">
+    <row r="318" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="23">
+    <row r="319" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="23">
+    <row r="320" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="23">
+    <row r="321" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="23">
+    <row r="322" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="23">
+    <row r="323" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="23">
+    <row r="324" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="23">
+    <row r="325" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="23">
+    <row r="326" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="23">
+    <row r="327" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="23">
+    <row r="328" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="23">
+    <row r="329" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="23">
+    <row r="330" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="23">
+    <row r="331" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="23">
+    <row r="332" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="23">
+    <row r="333" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="23">
+    <row r="334" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="23">
+    <row r="335" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="23">
+    <row r="336" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="23">
+    <row r="337" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="23">
+    <row r="338" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="23">
+    <row r="339" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="23">
+    <row r="340" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="23">
+    <row r="341" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="23">
+    <row r="342" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="23">
+    <row r="343" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="23">
+    <row r="344" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="23">
+    <row r="345" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="23">
+    <row r="346" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="23">
+    <row r="347" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="23">
+    <row r="348" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="23">
+    <row r="349" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="23">
+    <row r="350" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="23">
+    <row r="351" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="23">
+    <row r="352" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="23">
+    <row r="353" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="23">
+    <row r="354" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="23">
+    <row r="355" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="23">
+    <row r="356" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="23">
+    <row r="357" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="23">
+    <row r="358" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="23">
+    <row r="359" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="23">
+    <row r="360" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="23">
+    <row r="361" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="23">
+    <row r="362" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="23">
+    <row r="363" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="23">
+    <row r="364" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="23">
+    <row r="365" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="23">
+    <row r="366" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="23">
+    <row r="367" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="23">
+    <row r="368" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="23">
+    <row r="369" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="23">
+    <row r="370" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="23">
+    <row r="371" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="23">
+    <row r="372" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="23">
+    <row r="373" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="23">
+    <row r="374" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="23">
+    <row r="375" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="23">
+    <row r="376" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="23">
+    <row r="377" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="23">
+    <row r="378" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="23">
+    <row r="379" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="23">
+    <row r="380" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="23">
+    <row r="381" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="23">
+    <row r="382" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="23">
+    <row r="383" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="23">
+    <row r="384" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="23">
+    <row r="385" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="23">
+    <row r="386" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="23">
+    <row r="387" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="23">
+    <row r="388" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="6"/>
     </row>
-    <row r="389" spans="1:3" ht="23">
+    <row r="389" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="6"/>
     </row>
-    <row r="390" spans="1:3" ht="23">
+    <row r="390" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="6"/>
     </row>
-    <row r="391" spans="1:3" ht="23">
+    <row r="391" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="6"/>
     </row>
-    <row r="392" spans="1:3" ht="23">
+    <row r="392" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
     </row>
-    <row r="393" spans="1:3" ht="23">
+    <row r="393" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="6"/>
     </row>
-    <row r="394" spans="1:3" ht="23">
+    <row r="394" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="6"/>
     </row>
-    <row r="395" spans="1:3" ht="23">
+    <row r="395" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="6"/>
     </row>
-    <row r="396" spans="1:3" ht="23">
+    <row r="396" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="6"/>
     </row>
-    <row r="397" spans="1:3" ht="23">
+    <row r="397" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="6"/>
     </row>
-    <row r="398" spans="1:3" ht="23">
+    <row r="398" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="6"/>
     </row>
-    <row r="399" spans="1:3" ht="23">
+    <row r="399" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="6"/>
     </row>
-    <row r="400" spans="1:3" ht="23">
+    <row r="400" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="6"/>
     </row>
-    <row r="401" spans="1:3" ht="23">
+    <row r="401" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="6"/>
     </row>
-    <row r="402" spans="1:3" ht="23">
+    <row r="402" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="6"/>
     </row>
-    <row r="403" spans="1:3" ht="23">
+    <row r="403" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="6"/>
     </row>
-    <row r="404" spans="1:3" ht="23">
+    <row r="404" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="6"/>
     </row>
-    <row r="405" spans="1:3" ht="23">
+    <row r="405" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
     </row>
-    <row r="406" spans="1:3" ht="23">
+    <row r="406" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="6"/>
     </row>
-    <row r="407" spans="1:3" ht="23">
+    <row r="407" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="6"/>
     </row>
-    <row r="408" spans="1:3" ht="23">
+    <row r="408" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="6"/>
     </row>
-    <row r="409" spans="1:3" ht="23">
+    <row r="409" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="6"/>
     </row>
-    <row r="410" spans="1:3" ht="23">
+    <row r="410" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="6"/>
     </row>
-    <row r="411" spans="1:3" ht="23">
+    <row r="411" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="6"/>
     </row>
-    <row r="412" spans="1:3" ht="23">
+    <row r="412" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
     </row>
-    <row r="413" spans="1:3" ht="23">
+    <row r="413" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="6"/>
     </row>
-    <row r="414" spans="1:3" ht="23">
+    <row r="414" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="6"/>
     </row>
-    <row r="415" spans="1:3" ht="23">
+    <row r="415" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="6"/>
     </row>
-    <row r="416" spans="1:3" ht="23">
+    <row r="416" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="6"/>
     </row>
-    <row r="417" spans="1:3" ht="23">
+    <row r="417" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="6"/>
     </row>
-    <row r="418" spans="1:3" ht="23">
+    <row r="418" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="6"/>
     </row>
-    <row r="419" spans="1:3" ht="23">
+    <row r="419" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="6"/>
     </row>
-    <row r="420" spans="1:3" ht="23">
+    <row r="420" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="6"/>
     </row>
-    <row r="421" spans="1:3" ht="23">
+    <row r="421" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="6"/>
     </row>
-    <row r="422" spans="1:3" ht="23">
+    <row r="422" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="6"/>
     </row>
-    <row r="423" spans="1:3" ht="23">
+    <row r="423" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="6"/>
     </row>
-    <row r="424" spans="1:3" ht="23">
+    <row r="424" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="6"/>
     </row>
-    <row r="425" spans="1:3" ht="23">
+    <row r="425" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="6"/>
     </row>
-    <row r="426" spans="1:3" ht="23">
+    <row r="426" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="6"/>
     </row>
-    <row r="427" spans="1:3" ht="23">
+    <row r="427" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="6"/>
     </row>
-    <row r="428" spans="1:3" ht="23">
+    <row r="428" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
     </row>
-    <row r="429" spans="1:3" ht="23">
+    <row r="429" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="6"/>
     </row>
-    <row r="430" spans="1:3" ht="23">
+    <row r="430" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="6"/>
     </row>
-    <row r="431" spans="1:3" ht="23">
+    <row r="431" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="6"/>
     </row>
-    <row r="432" spans="1:3" ht="23">
+    <row r="432" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="6"/>
     </row>
-    <row r="433" spans="1:3" ht="23">
+    <row r="433" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
     </row>
-    <row r="434" spans="1:3" ht="23">
+    <row r="434" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="6"/>
     </row>
-    <row r="435" spans="1:3" ht="23">
+    <row r="435" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="6"/>
     </row>
-    <row r="436" spans="1:3" ht="23">
+    <row r="436" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="6"/>
     </row>
-    <row r="437" spans="1:3" ht="23">
+    <row r="437" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="6"/>
     </row>
-    <row r="438" spans="1:3" ht="23">
+    <row r="438" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="6"/>
     </row>
-    <row r="439" spans="1:3" ht="23">
+    <row r="439" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="6"/>
     </row>
-    <row r="440" spans="1:3" ht="23">
+    <row r="440" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="6"/>
     </row>
-    <row r="441" spans="1:3" ht="23">
+    <row r="441" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
     </row>
-    <row r="442" spans="1:3" ht="23">
+    <row r="442" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="6"/>
     </row>
-    <row r="443" spans="1:3" ht="23">
+    <row r="443" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="6"/>
     </row>
-    <row r="444" spans="1:3" ht="23">
+    <row r="444" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="6"/>
     </row>
-    <row r="445" spans="1:3" ht="23">
+    <row r="445" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="6"/>
     </row>
-    <row r="446" spans="1:3" ht="23">
+    <row r="446" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="6"/>
     </row>
-    <row r="447" spans="1:3" ht="23">
+    <row r="447" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="6"/>
     </row>
-    <row r="448" spans="1:3" ht="23">
+    <row r="448" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="6"/>
@@ -4317,12 +4347,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -4330,7 +4360,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40" customHeight="1">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4341,7 +4371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="40" customHeight="1">
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -4353,7 +4383,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="40" customHeight="1">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -4364,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="40" customHeight="1">
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -4375,7 +4405,7 @@
         <v>-1.2456</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="40" customHeight="1">
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -4386,7 +4416,7 @@
         <v>-2.0286</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="40" customHeight="1">
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -4397,7 +4427,7 @@
         <v>-3.0272999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="40" customHeight="1">
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -4408,7 +4438,7 @@
         <v>-2.5295000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="40" customHeight="1">
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -4419,7 +4449,7 @@
         <v>-1.5078</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="40" customHeight="1">
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -4430,7 +4460,7 @@
         <v>-0.45219999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="40" customHeight="1">
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -4441,7 +4471,7 @@
         <v>-2.1015999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="40" customHeight="1">
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -4452,7 +4482,7 @@
         <v>9.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="40" customHeight="1">
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -4463,7 +4493,7 @@
         <v>-0.7621</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40" customHeight="1">
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -4474,7 +4504,7 @@
         <v>-1.6418999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="40" customHeight="1">
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -4485,7 +4515,7 @@
         <v>-3.2090000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40" customHeight="1">
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -4496,7 +4526,7 @@
         <v>-3.4251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="40" customHeight="1">
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -4507,7 +4537,7 @@
         <v>-4.5069999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1">
+    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -4518,7 +4548,7 @@
         <v>-5.3798000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1">
+    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -4529,7 +4559,7 @@
         <v>-4.4207000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1">
+    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -4540,7 +4570,7 @@
         <v>-5.1189</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1">
+    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -4551,7 +4581,7 @@
         <v>-6.3071999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1">
+    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -4562,7 +4592,7 @@
         <v>-4.9684999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1">
+    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -4573,7 +4603,7 @@
         <v>-3.2317</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1">
+    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -4584,7 +4614,7 @@
         <v>-3.9274</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1">
+    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -4595,7 +4625,7 @@
         <v>-2.8403999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1">
+    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -4606,7 +4636,7 @@
         <v>-3.8610000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1">
+    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -4617,7 +4647,7 @@
         <v>-6.3483000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1">
+    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -4628,7 +4658,7 @@
         <v>-8.4063999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1">
+    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -4639,7 +4669,7 @@
         <v>-7.3262</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1">
+    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -4650,7 +4680,7 @@
         <v>-5.1478999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1">
+    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -4661,7 +4691,7 @@
         <v>-3.6587999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1">
+    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -4672,7 +4702,7 @@
         <v>-3.3113000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1">
+    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -4683,7 +4713,7 @@
         <v>-2.7271999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1">
+    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -4694,7 +4724,7 @@
         <v>-0.56830000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1">
+    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -4705,7 +4735,7 @@
         <v>-0.81030000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1">
+    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -4716,7 +4746,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1">
+    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -4727,7 +4757,7 @@
         <v>0.5706</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1">
+    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -4738,7 +4768,7 @@
         <v>1.4257</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1">
+    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -4749,7 +4779,7 @@
         <v>5.0162000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1">
+    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -4760,7 +4790,7 @@
         <v>5.7617000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1">
+    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -4771,7 +4801,7 @@
         <v>4.7279999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1">
+    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -4782,7 +4812,7 @@
         <v>5.6628999999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1">
+    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -4793,7 +4823,7 @@
         <v>4.5598999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1">
+    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -4804,7 +4834,7 @@
         <v>5.4307999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1">
+    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -4815,7 +4845,7 @@
         <v>4.9009999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1">
+    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -4826,7 +4856,7 @@
         <v>5.3244999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1">
+    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -4837,7 +4867,7 @@
         <v>6.1246</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1">
+    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -4848,7 +4878,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1">
+    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -4859,7 +4889,7 @@
         <v>7.0568999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1">
+    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -4870,7 +4900,7 @@
         <v>8.0669000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1">
+    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -4881,7 +4911,7 @@
         <v>8.5023999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1">
+    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -4892,7 +4922,7 @@
         <v>7.6855000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1">
+    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -4903,7 +4933,7 @@
         <v>8.7094000000000005</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1">
+    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -4914,7 +4944,7 @@
         <v>9.8277000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1">
+    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -4925,7 +4955,7 @@
         <v>10.5977</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1">
+    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -4936,7 +4966,7 @@
         <v>9.1773000000000007</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1">
+    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -4947,7 +4977,7 @@
         <v>10.046900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1">
+    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -4958,7 +4988,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1">
+    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -4969,7 +4999,7 @@
         <v>10.9582</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1">
+    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -4980,7 +5010,7 @@
         <v>12.8368</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1">
+    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -4991,7 +5021,7 @@
         <v>13.5024</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1">
+    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -5002,7 +5032,7 @@
         <v>12.6159</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1">
+    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -5013,7 +5043,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1">
+    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -5024,7 +5054,7 @@
         <v>14.451599999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1">
+    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -5035,7 +5065,7 @@
         <v>13.0746</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1">
+    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -5046,7 +5076,7 @@
         <v>14.0412</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1">
+    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -5057,7 +5087,7 @@
         <v>13.119</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1">
+    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -5068,7 +5098,7 @@
         <v>13.926399999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1">
+    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -5079,7 +5109,7 @@
         <v>15.7384</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1">
+    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -5090,7 +5120,7 @@
         <v>14.2514</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1">
+    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -5101,7 +5131,7 @@
         <v>15.3805</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1">
+    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -5112,7 +5142,7 @@
         <v>14.3849</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1">
+    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -5123,7 +5153,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1">
+    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -5134,7 +5164,7 @@
         <v>13.2926</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1">
+    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -5145,7 +5175,7 @@
         <v>11.327400000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1">
+    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -5156,7 +5186,7 @@
         <v>9.8026999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1">
+    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -5167,7 +5197,7 @@
         <v>11.631500000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1">
+    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -5178,7 +5208,7 @@
         <v>10.3102</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1">
+    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -5189,7 +5219,7 @@
         <v>12.246700000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1">
+    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -5200,7 +5230,7 @@
         <v>10.7065</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1">
+    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -5211,7 +5241,7 @@
         <v>12.2126</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1">
+    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -5222,7 +5252,7 @@
         <v>13.181800000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1">
+    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -5233,7 +5263,7 @@
         <v>13.912100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1">
+    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -5244,7 +5274,7 @@
         <v>14.513400000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1">
+    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -5255,7 +5285,7 @@
         <v>15.517200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1">
+    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -5266,7 +5296,7 @@
         <v>16.2821</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1">
+    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -5277,7 +5307,7 @@
         <v>14.079499999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1">
+    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -5288,7 +5318,7 @@
         <v>15.035500000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1">
+    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -5299,7 +5329,7 @@
         <v>15.945</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1">
+    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -5310,7 +5340,7 @@
         <v>16.5809</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1">
+    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -5321,7 +5351,7 @@
         <v>18.098199999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1">
+    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -5332,7 +5362,7 @@
         <v>20.316400000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1">
+    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -5343,7 +5373,7 @@
         <v>20.1206</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1">
+    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -5354,7 +5384,7 @@
         <v>19.330100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1">
+    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -5365,7 +5395,7 @@
         <v>20.4709</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1">
+    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -5376,7 +5406,7 @@
         <v>21.372399999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1">
+    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -5387,7 +5417,7 @@
         <v>21.913</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1">
+    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -5398,7 +5428,7 @@
         <v>20.962800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1">
+    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -5409,7 +5439,7 @@
         <v>19.348299999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1">
+    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -5420,7 +5450,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1">
+    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -5431,7 +5461,7 @@
         <v>20.178999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1">
+    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -5442,7 +5472,7 @@
         <v>19.343699999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1">
+    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -5453,7 +5483,7 @@
         <v>17.222100000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1">
+    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -5464,7 +5494,7 @@
         <v>13.5562</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1">
+    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -5475,7 +5505,7 @@
         <v>15.361599999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1">
+    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -5486,7 +5516,7 @@
         <v>17.434899999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1">
+    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -5497,7 +5527,7 @@
         <v>18.364100000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1">
+    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -5508,7 +5538,7 @@
         <v>20.053100000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1">
+    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -5519,7 +5549,7 @@
         <v>20.949400000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1">
+    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -5530,7 +5560,7 @@
         <v>21.479900000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1">
+    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -5541,7 +5571,7 @@
         <v>21.815799999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1">
+    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -5552,7 +5582,7 @@
         <v>20.439499999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1">
+    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -5563,7 +5593,7 @@
         <v>19.8187</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1">
+    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -5574,7 +5604,7 @@
         <v>19.0304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1">
+    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -5585,7 +5615,7 @@
         <v>17.813099999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1">
+    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -5596,7 +5626,7 @@
         <v>18.766200000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1">
+    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -5607,7 +5637,7 @@
         <v>17.886800000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1">
+    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -5618,7 +5648,7 @@
         <v>21.3324</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1">
+    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -5629,7 +5659,7 @@
         <v>22.613199999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1">
+    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -5640,7 +5670,7 @@
         <v>23.851800000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1">
+    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -5651,7 +5681,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1">
+    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -5662,7 +5692,7 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1">
+    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -5673,7 +5703,7 @@
         <v>24.18</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1">
+    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -5684,7 +5714,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1">
+    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -5695,7 +5725,7 @@
         <v>25.41</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1">
+    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -5706,7 +5736,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1">
+    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -5717,7 +5747,7 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1">
+    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -5728,7 +5758,7 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1">
+    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -5739,7 +5769,7 @@
         <v>23.62</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1">
+    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -5750,7 +5780,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1">
+    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -5761,7 +5791,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1">
+    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -5772,7 +5802,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1">
+    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -5783,7 +5813,7 @@
         <v>26.11</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1">
+    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -5794,7 +5824,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1">
+    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -5805,7 +5835,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1">
+    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -5816,7 +5846,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1">
+    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -5827,7 +5857,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1">
+    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -5838,7 +5868,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1">
+    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -5849,7 +5879,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1">
+    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -5860,7 +5890,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1">
+    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -5871,7 +5901,7 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1">
+    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -5882,7 +5912,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1">
+    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -5893,7 +5923,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1">
+    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -5904,7 +5934,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1">
+    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -5915,7 +5945,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1">
+    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -5926,7 +5956,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1">
+    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -5937,7 +5967,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1">
+    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -5948,7 +5978,7 @@
         <v>28.32</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1">
+    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -5959,7 +5989,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1">
+    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -5970,7 +6000,7 @@
         <v>30.04</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1">
+    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -5981,7 +6011,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1">
+    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -5992,7 +6022,7 @@
         <v>28.72</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1">
+    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -6003,7 +6033,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="40" customHeight="1">
+    <row r="153" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -6014,7 +6044,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="40" customHeight="1">
+    <row r="154" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -6025,7 +6055,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="40" customHeight="1">
+    <row r="155" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -6036,7 +6066,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="40" customHeight="1">
+    <row r="156" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -6047,7 +6077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="40" customHeight="1">
+    <row r="157" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -6058,7 +6088,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="40" customHeight="1">
+    <row r="158" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -6069,7 +6099,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="40" customHeight="1">
+    <row r="159" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -6080,7 +6110,7 @@
         <v>29.971327959071754</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1">
+    <row r="160" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -6091,7 +6121,7 @@
         <v>30.211580543331717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="40" customHeight="1">
+    <row r="161" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -6102,7 +6132,7 @@
         <v>30.475599056125596</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="40" customHeight="1">
+    <row r="162" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -6113,7 +6143,7 @@
         <v>30.044686563657574</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="40" customHeight="1">
+    <row r="163" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -6124,7 +6154,7 @@
         <v>28.277347808841842</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="40" customHeight="1">
+    <row r="164" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -6135,7 +6165,7 @@
         <v>27.807677999735585</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="40" customHeight="1">
+    <row r="165" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -6146,7 +6176,7 @@
         <v>27.293924598566065</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="40" customHeight="1">
+    <row r="166" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -6157,7 +6187,7 @@
         <v>27.306486623581023</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="40" customHeight="1">
+    <row r="167" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -6168,7 +6198,7 @@
         <v>25.711112193735332</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="40" customHeight="1">
+    <row r="168" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -6179,7 +6209,7 @@
         <v>27.180795304871548</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="40" customHeight="1">
+    <row r="169" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -6190,7 +6220,7 @@
         <v>25.446990032864019</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="40" customHeight="1">
+    <row r="170" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -6201,7 +6231,7 @@
         <v>24.223825065134069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="40" customHeight="1">
+    <row r="171" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -6212,7 +6242,7 @@
         <v>25.284763221329332</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="40" customHeight="1">
+    <row r="172" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -6223,7 +6253,7 @@
         <v>23.473978671945069</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="40" customHeight="1">
+    <row r="173" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -6234,7 +6264,7 @@
         <v>23.99037201716752</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="40" customHeight="1">
+    <row r="174" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -6245,7 +6275,7 @@
         <v>21.265742554012483</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="40" customHeight="1">
+    <row r="175" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -6256,7 +6286,7 @@
         <v>20.484331598856667</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="40" customHeight="1">
+    <row r="176" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -6267,7 +6297,7 @@
         <v>20.980677107752204</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="40" customHeight="1">
+    <row r="177" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -6278,7 +6308,7 @@
         <v>19.592795233061427</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="40" customHeight="1">
+    <row r="178" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -6289,7 +6319,7 @@
         <v>21.60763840911175</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="40" customHeight="1">
+    <row r="179" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -6300,7 +6330,7 @@
         <v>22.318756443012568</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="40" customHeight="1">
+    <row r="180" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -6311,7 +6341,7 @@
         <v>22.124915243940873</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="40" customHeight="1">
+    <row r="181" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -6322,7 +6352,7 @@
         <v>23.186421833852929</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="40" customHeight="1">
+    <row r="182" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -6333,7 +6363,7 @@
         <v>22.889283752002022</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="40" customHeight="1">
+    <row r="183" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -6344,7 +6374,7 @@
         <v>22.985513310648209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="40" customHeight="1">
+    <row r="184" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -6355,7 +6385,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="40" customHeight="1">
+    <row r="185" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -6366,7 +6396,7 @@
         <v>24.86</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="40" customHeight="1">
+    <row r="186" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -6377,7 +6407,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="40" customHeight="1">
+    <row r="187" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -6388,7 +6418,7 @@
         <v>23.35</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="40" customHeight="1">
+    <row r="188" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -6399,7 +6429,7 @@
         <v>21.31</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="40" customHeight="1">
+    <row r="189" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -6410,7 +6440,7 @@
         <v>21.842291960211625</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="40" customHeight="1">
+    <row r="190" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -6421,7 +6451,7 @@
         <v>22.217477234020642</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="40" customHeight="1">
+    <row r="191" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -6432,7 +6462,7 @@
         <v>22.880531016766646</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="40" customHeight="1">
+    <row r="192" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -6443,7 +6473,7 @@
         <v>17.863776999885843</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="40" customHeight="1">
+    <row r="193" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -6454,7 +6484,7 @@
         <v>11.74406452790994</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="40" customHeight="1">
+    <row r="194" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -6465,7 +6495,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="40" customHeight="1">
+    <row r="195" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -6476,7 +6506,7 @@
         <v>9.9700000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="40" customHeight="1">
+    <row r="196" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -6487,7 +6517,7 @@
         <v>18.93</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="40" customHeight="1">
+    <row r="197" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -6498,7 +6528,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="40" customHeight="1">
+    <row r="198" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -6509,7 +6539,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="40" customHeight="1">
+    <row r="199" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -6520,7 +6550,7 @@
         <v>18.010923759318938</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="40" customHeight="1">
+    <row r="200" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -6531,7 +6561,7 @@
         <v>17.780911697289426</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="40" customHeight="1">
+    <row r="201" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -6542,7 +6572,7 @@
         <v>15.498345671476349</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="40" customHeight="1">
+    <row r="202" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -6553,7 +6583,7 @@
         <v>15.630191054798287</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="40" customHeight="1">
+    <row r="203" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -6564,7 +6594,7 @@
         <v>15.667829258018443</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="40" customHeight="1">
+    <row r="204" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -6575,7 +6605,7 @@
         <v>17.291529372479239</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="40" customHeight="1">
+    <row r="205" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -6586,7 +6616,7 @@
         <v>19.298377627116025</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="40" customHeight="1">
+    <row r="206" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -6597,7 +6627,7 @@
         <v>19.994520027988962</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="40" customHeight="1">
+    <row r="207" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -6608,7 +6638,7 @@
         <v>20.053064084062015</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="40" customHeight="1">
+    <row r="208" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -6619,7 +6649,7 @@
         <v>20.605291226534135</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="40" customHeight="1">
+    <row r="209" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -6630,7 +6660,7 @@
         <v>20.663478905816177</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="40" customHeight="1">
+    <row r="210" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -6641,7 +6671,7 @@
         <v>22.823619556327209</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="40" customHeight="1">
+    <row r="211" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -6652,7 +6682,7 @@
         <v>22.169003067598293</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="40" customHeight="1">
+    <row r="212" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -6663,7 +6693,7 @@
         <v>21.354659111686829</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="40" customHeight="1">
+    <row r="213" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -6674,7 +6704,7 @@
         <v>21.820178340343087</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="40" customHeight="1">
+    <row r="214" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -6685,7 +6715,7 @@
         <v>22.393549116817407</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="40" customHeight="1">
+    <row r="215" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -6696,7 +6726,7 @@
         <v>22.279137663192934</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="40" customHeight="1">
+    <row r="216" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -6707,7 +6737,7 @@
         <v>25.519480068658879</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="40" customHeight="1">
+    <row r="217" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -6718,7 +6748,7 @@
         <v>26.190709064034923</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="40" customHeight="1">
+    <row r="218" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -6729,7 +6759,7 @@
         <v>26.258431067808324</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="40" customHeight="1">
+    <row r="219" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -6740,7 +6770,7 @@
         <v>26.676444216862848</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="40" customHeight="1">
+    <row r="220" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -6751,7 +6781,7 @@
         <v>27.386009490594859</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="40" customHeight="1">
+    <row r="221" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -6762,7 +6792,7 @@
         <v>27.503085938154136</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="40" customHeight="1">
+    <row r="222" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -6773,7 +6803,7 @@
         <v>27.122085246991258</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="40" customHeight="1">
+    <row r="223" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -6784,7 +6814,7 @@
         <v>25.4555210002809</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="40" customHeight="1">
+    <row r="224" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -6795,7 +6825,7 @@
         <v>25.378716080990703</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="40" customHeight="1">
+    <row r="225" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -6806,7 +6836,7 @@
         <v>24.697698350977436</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="40" customHeight="1">
+    <row r="226" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -6817,7 +6847,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="40" customHeight="1">
+    <row r="227" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -6828,7 +6858,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="40" customHeight="1">
+    <row r="228" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -6839,7 +6869,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="40" customHeight="1">
+    <row r="229" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -6850,7 +6880,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="40" customHeight="1">
+    <row r="230" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>45810</v>
       </c>
@@ -6861,7 +6891,7 @@
         <v>26.912124642438844</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="40" customHeight="1">
+    <row r="231" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
         <v>45811</v>
       </c>
@@ -6872,7 +6902,7 @@
         <v>27.486369120997161</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="40" customHeight="1">
+    <row r="232" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>45812</v>
       </c>
@@ -6883,7 +6913,7 @@
         <v>27.478009664356971</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="40" customHeight="1">
+    <row r="233" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
         <v>45813</v>
       </c>
@@ -6894,7 +6924,7 @@
         <v>26.891104315705576</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="40" customHeight="1">
+    <row r="234" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>45814</v>
       </c>
@@ -6905,7 +6935,7 @@
         <v>27.907615547091403</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="40" customHeight="1">
+    <row r="235" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
         <v>45818</v>
       </c>
@@ -6916,7 +6946,7 @@
         <v>28.54238026479058</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="40" customHeight="1">
+    <row r="236" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>45819</v>
       </c>
@@ -6927,7 +6957,7 @@
         <v>28.277347808841835</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="40" customHeight="1">
+    <row r="237" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>45820</v>
       </c>
@@ -6938,7 +6968,7 @@
         <v>28.616794258054533</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="40" customHeight="1">
+    <row r="238" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
         <v>45821</v>
       </c>
@@ -6949,7 +6979,7 @@
         <v>28.318805460445123</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="40" customHeight="1">
+    <row r="239" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>45824</v>
       </c>
@@ -6960,7 +6990,7 @@
         <v>29.279934855722427</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="40" customHeight="1">
+    <row r="240" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
         <v>45825</v>
       </c>
@@ -6971,7 +7001,7 @@
         <v>28.43479553144428</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="40" customHeight="1">
+    <row r="241" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>45826</v>
       </c>
@@ -6982,7 +7012,7 @@
         <v>28.364389034572181</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="40" customHeight="1">
+    <row r="242" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>45827</v>
       </c>
@@ -6993,7 +7023,7 @@
         <v>28.364389034572181</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="40" customHeight="1">
+    <row r="243" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
         <v>45828</v>
       </c>
@@ -7004,7 +7034,7 @@
         <v>28.094729678900332</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="40" customHeight="1">
+    <row r="244" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>45831</v>
       </c>
@@ -7015,7 +7045,7 @@
         <v>29.070347173436801</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="40" customHeight="1">
+    <row r="245" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4">
         <v>45832</v>
       </c>
@@ -7026,7 +7056,7 @@
         <v>30.203445832516202</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="40" customHeight="1">
+    <row r="246" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>45833</v>
       </c>
@@ -7037,7 +7067,7 @@
         <v>30.215647650602236</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="40" customHeight="1">
+    <row r="247" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4">
         <v>45834</v>
       </c>
@@ -7048,7 +7078,7 @@
         <v>30.993483366225572</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="40" customHeight="1">
+    <row r="248" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4">
         <v>45835</v>
       </c>
@@ -7059,7 +7089,7 @@
         <v>31.456493755540549</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="40" customHeight="1">
+    <row r="249" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4">
         <v>45838</v>
       </c>
@@ -7070,7 +7100,7 @@
         <v>31.937360240142787</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="40" customHeight="1">
+    <row r="250" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4">
         <v>45839</v>
       </c>
@@ -7081,7 +7111,7 @@
         <v>31.857376232679325</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="40" customHeight="1">
+    <row r="251" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4">
         <v>45840</v>
       </c>
@@ -7092,7 +7122,7 @@
         <v>32.276580359899768</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="40" customHeight="1">
+    <row r="252" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>45841</v>
       </c>
@@ -7103,7 +7133,7 @@
         <v>33.058376908881797</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="40" customHeight="1">
+    <row r="253" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>45842</v>
       </c>
@@ -7114,7 +7144,7 @@
         <v>33.058376908881797</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="40" customHeight="1">
+    <row r="254" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="4">
         <v>45845</v>
       </c>
@@ -7125,7 +7155,7 @@
         <v>32.292515345193621</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="40" customHeight="1">
+    <row r="255" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>45846</v>
       </c>
@@ -7136,7 +7166,7 @@
         <v>32.228760162925681</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="40" customHeight="1">
+    <row r="256" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>45847</v>
       </c>
@@ -7147,7 +7177,7 @@
         <v>32.789208397398802</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="40" customHeight="1">
+    <row r="257" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>45848</v>
       </c>
@@ -7158,7 +7188,7 @@
         <v>33.058376908881797</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="40" customHeight="1">
+    <row r="258" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>45849</v>
       </c>
@@ -7169,7 +7199,7 @@
         <v>32.674195197863703</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="40" customHeight="1">
+    <row r="259" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>45852</v>
       </c>
@@ -7180,7 +7210,7 @@
         <v>32.848646118325256</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="40" customHeight="1">
+    <row r="260" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>45853</v>
       </c>
@@ -7191,7 +7221,7 @@
         <v>32.4199038974525</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="40" customHeight="1">
+    <row r="261" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>45854</v>
       </c>
@@ -7202,7 +7232,7 @@
         <v>32.725769197777041</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="40" customHeight="1">
+    <row r="262" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>45855</v>
       </c>
@@ -7213,7 +7243,7 @@
         <v>33.314994827396724</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="40" customHeight="1">
+    <row r="263" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>45856</v>
       </c>
@@ -7224,927 +7254,957 @@
         <v>33.22426682764241</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="40" customHeight="1">
-      <c r="A264" s="4"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-    </row>
-    <row r="265" spans="1:3" ht="40" customHeight="1">
-      <c r="A265" s="4"/>
-      <c r="B265" s="5"/>
-      <c r="C265" s="5"/>
-    </row>
-    <row r="266" spans="1:3" ht="40" customHeight="1">
-      <c r="A266" s="4"/>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-    </row>
-    <row r="267" spans="1:3" ht="40" customHeight="1">
-      <c r="A267" s="4"/>
-      <c r="B267" s="5"/>
-      <c r="C267" s="5"/>
-    </row>
-    <row r="268" spans="1:3" ht="40" customHeight="1">
-      <c r="A268" s="4"/>
-      <c r="B268" s="5"/>
-      <c r="C268" s="5"/>
-    </row>
-    <row r="269" spans="1:3" ht="40" customHeight="1">
+    <row r="264" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="4">
+        <v>45859</v>
+      </c>
+      <c r="B264" s="5">
+        <v>63.820513643625901</v>
+      </c>
+      <c r="C264" s="5">
+        <v>33.382001786802618</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>45860</v>
+      </c>
+      <c r="B265" s="5">
+        <v>63.033433419745307</v>
+      </c>
+      <c r="C265" s="5">
+        <v>33.413518944215923</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="4">
+        <v>45861</v>
+      </c>
+      <c r="B266" s="5">
+        <v>62.483003457550645</v>
+      </c>
+      <c r="C266" s="5">
+        <v>34.190419971831439</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="4">
+        <v>45862</v>
+      </c>
+      <c r="B267" s="5">
+        <v>61.873391481974529</v>
+      </c>
+      <c r="C267" s="5">
+        <v>34.272465648524658</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="4">
+        <v>45863</v>
+      </c>
+      <c r="B268" s="5">
+        <v>61.295711910824799</v>
+      </c>
+      <c r="C268" s="5">
+        <v>34.638894936243346</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
-    <row r="270" spans="1:3" ht="40" customHeight="1">
+    <row r="270" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
     </row>
-    <row r="271" spans="1:3" ht="40" customHeight="1">
+    <row r="271" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
     </row>
-    <row r="272" spans="1:3" ht="40" customHeight="1">
+    <row r="272" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
     </row>
-    <row r="273" spans="1:3" ht="40" customHeight="1">
+    <row r="273" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274" spans="1:3" ht="40" customHeight="1">
+    <row r="274" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275" spans="1:3" ht="40" customHeight="1">
+    <row r="275" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
     </row>
-    <row r="276" spans="1:3" ht="40" customHeight="1">
+    <row r="276" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
     </row>
-    <row r="277" spans="1:3" ht="40" customHeight="1">
+    <row r="277" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
     </row>
-    <row r="278" spans="1:3" ht="40" customHeight="1">
+    <row r="278" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
     </row>
-    <row r="279" spans="1:3" ht="40" customHeight="1">
+    <row r="279" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
     </row>
-    <row r="280" spans="1:3" ht="40" customHeight="1">
+    <row r="280" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
     </row>
-    <row r="281" spans="1:3" ht="40" customHeight="1">
+    <row r="281" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
     </row>
-    <row r="282" spans="1:3" ht="40" customHeight="1">
+    <row r="282" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
     </row>
-    <row r="283" spans="1:3" ht="40" customHeight="1">
+    <row r="283" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
     </row>
-    <row r="284" spans="1:3" ht="40" customHeight="1">
+    <row r="284" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
     </row>
-    <row r="285" spans="1:3" ht="40" customHeight="1">
+    <row r="285" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
     </row>
-    <row r="286" spans="1:3" ht="40" customHeight="1">
+    <row r="286" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
     </row>
-    <row r="287" spans="1:3" ht="40" customHeight="1">
+    <row r="287" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
     </row>
-    <row r="288" spans="1:3" ht="40" customHeight="1">
+    <row r="288" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
     </row>
-    <row r="289" spans="1:3" ht="40" customHeight="1">
+    <row r="289" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
     </row>
-    <row r="290" spans="1:3" ht="40" customHeight="1">
+    <row r="290" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
     </row>
-    <row r="291" spans="1:3" ht="40" customHeight="1">
+    <row r="291" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
     </row>
-    <row r="292" spans="1:3" ht="40" customHeight="1">
+    <row r="292" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
     </row>
-    <row r="293" spans="1:3" ht="40" customHeight="1">
+    <row r="293" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
     </row>
-    <row r="294" spans="1:3" ht="40" customHeight="1">
+    <row r="294" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295" spans="1:3" ht="40" customHeight="1">
+    <row r="295" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296" spans="1:3" ht="40" customHeight="1">
+    <row r="296" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
     </row>
-    <row r="297" spans="1:3" ht="40" customHeight="1">
+    <row r="297" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
     </row>
-    <row r="298" spans="1:3" ht="40" customHeight="1">
+    <row r="298" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
     </row>
-    <row r="299" spans="1:3" ht="40" customHeight="1">
+    <row r="299" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
     </row>
-    <row r="300" spans="1:3" ht="40" customHeight="1">
+    <row r="300" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
     </row>
-    <row r="301" spans="1:3" ht="40" customHeight="1">
+    <row r="301" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
     </row>
-    <row r="302" spans="1:3" ht="40" customHeight="1">
+    <row r="302" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
     </row>
-    <row r="303" spans="1:3" ht="40" customHeight="1">
+    <row r="303" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
     </row>
-    <row r="304" spans="1:3" ht="40" customHeight="1">
+    <row r="304" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
     </row>
-    <row r="305" spans="1:3" ht="40" customHeight="1">
+    <row r="305" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
     </row>
-    <row r="306" spans="1:3" ht="40" customHeight="1">
+    <row r="306" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
     </row>
-    <row r="307" spans="1:3" ht="40" customHeight="1">
+    <row r="307" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
     </row>
-    <row r="308" spans="1:3" ht="40" customHeight="1">
+    <row r="308" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
     </row>
-    <row r="309" spans="1:3" ht="40" customHeight="1">
+    <row r="309" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
     </row>
-    <row r="310" spans="1:3" ht="40" customHeight="1">
+    <row r="310" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
     </row>
-    <row r="311" spans="1:3" ht="40" customHeight="1">
+    <row r="311" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
     </row>
-    <row r="312" spans="1:3" ht="40" customHeight="1">
+    <row r="312" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
     </row>
-    <row r="313" spans="1:3" ht="40" customHeight="1">
+    <row r="313" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
     </row>
-    <row r="314" spans="1:3" ht="40" customHeight="1">
+    <row r="314" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
     </row>
-    <row r="315" spans="1:3" ht="40" customHeight="1">
+    <row r="315" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
     </row>
-    <row r="316" spans="1:3" ht="40" customHeight="1">
+    <row r="316" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
     </row>
-    <row r="317" spans="1:3" ht="40" customHeight="1">
+    <row r="317" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
     </row>
-    <row r="318" spans="1:3" ht="40" customHeight="1">
+    <row r="318" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
     </row>
-    <row r="319" spans="1:3" ht="40" customHeight="1">
+    <row r="319" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
     </row>
-    <row r="320" spans="1:3" ht="40" customHeight="1">
+    <row r="320" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
     </row>
-    <row r="321" spans="1:3" ht="40" customHeight="1">
+    <row r="321" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
     </row>
-    <row r="322" spans="1:3" ht="40" customHeight="1">
+    <row r="322" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
     </row>
-    <row r="323" spans="1:3" ht="40" customHeight="1">
+    <row r="323" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
     </row>
-    <row r="324" spans="1:3" ht="40" customHeight="1">
+    <row r="324" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
     </row>
-    <row r="325" spans="1:3" ht="40" customHeight="1">
+    <row r="325" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
     </row>
-    <row r="326" spans="1:3" ht="40" customHeight="1">
+    <row r="326" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
     </row>
-    <row r="327" spans="1:3" ht="40" customHeight="1">
+    <row r="327" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
     </row>
-    <row r="328" spans="1:3" ht="40" customHeight="1">
+    <row r="328" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
     </row>
-    <row r="329" spans="1:3" ht="40" customHeight="1">
+    <row r="329" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
     </row>
-    <row r="330" spans="1:3" ht="40" customHeight="1">
+    <row r="330" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
     </row>
-    <row r="331" spans="1:3" ht="40" customHeight="1">
+    <row r="331" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
     </row>
-    <row r="332" spans="1:3" ht="40" customHeight="1">
+    <row r="332" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
     </row>
-    <row r="333" spans="1:3" ht="40" customHeight="1">
+    <row r="333" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
     </row>
-    <row r="334" spans="1:3" ht="40" customHeight="1">
+    <row r="334" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335" spans="1:3" ht="40" customHeight="1">
+    <row r="335" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336" spans="1:3" ht="40" customHeight="1">
+    <row r="336" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
     </row>
-    <row r="337" spans="1:3" ht="40" customHeight="1">
+    <row r="337" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:3" ht="40" customHeight="1">
+    <row r="338" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:3" ht="40" customHeight="1">
+    <row r="339" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:3" ht="40" customHeight="1">
+    <row r="340" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:3" ht="40" customHeight="1">
+    <row r="341" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
     </row>
-    <row r="342" spans="1:3" ht="40" customHeight="1">
+    <row r="342" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
     </row>
-    <row r="343" spans="1:3" ht="40" customHeight="1">
+    <row r="343" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
     </row>
-    <row r="344" spans="1:3" ht="40" customHeight="1">
+    <row r="344" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
     </row>
-    <row r="345" spans="1:3" ht="40" customHeight="1">
+    <row r="345" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:3" ht="40" customHeight="1">
+    <row r="346" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:3" ht="40" customHeight="1">
+    <row r="347" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:3" ht="40" customHeight="1">
+    <row r="348" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:3" ht="40" customHeight="1">
+    <row r="349" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:3" ht="40" customHeight="1">
+    <row r="350" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
     </row>
-    <row r="351" spans="1:3" ht="40" customHeight="1">
+    <row r="351" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
     </row>
-    <row r="352" spans="1:3" ht="40" customHeight="1">
+    <row r="352" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
     </row>
-    <row r="353" spans="1:3" ht="40" customHeight="1">
+    <row r="353" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
     </row>
-    <row r="354" spans="1:3" ht="40" customHeight="1">
+    <row r="354" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355" spans="1:3" ht="40" customHeight="1">
+    <row r="355" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356" spans="1:3" ht="40" customHeight="1">
+    <row r="356" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
     </row>
-    <row r="357" spans="1:3" ht="40" customHeight="1">
+    <row r="357" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
     </row>
-    <row r="358" spans="1:3" ht="40" customHeight="1">
+    <row r="358" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
     </row>
-    <row r="359" spans="1:3" ht="40" customHeight="1">
+    <row r="359" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
     </row>
-    <row r="360" spans="1:3" ht="40" customHeight="1">
+    <row r="360" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
     </row>
-    <row r="361" spans="1:3" ht="40" customHeight="1">
+    <row r="361" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
     </row>
-    <row r="362" spans="1:3" ht="40" customHeight="1">
+    <row r="362" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
     </row>
-    <row r="363" spans="1:3" ht="40" customHeight="1">
+    <row r="363" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
     </row>
-    <row r="364" spans="1:3" ht="40" customHeight="1">
+    <row r="364" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
     </row>
-    <row r="365" spans="1:3" ht="40" customHeight="1">
+    <row r="365" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
     </row>
-    <row r="366" spans="1:3" ht="40" customHeight="1">
+    <row r="366" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
     </row>
-    <row r="367" spans="1:3" ht="40" customHeight="1">
+    <row r="367" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
     </row>
-    <row r="368" spans="1:3" ht="40" customHeight="1">
+    <row r="368" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
     </row>
-    <row r="369" spans="1:3" ht="40" customHeight="1">
+    <row r="369" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
     </row>
-    <row r="370" spans="1:3" ht="40" customHeight="1">
+    <row r="370" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
     </row>
-    <row r="371" spans="1:3" ht="40" customHeight="1">
+    <row r="371" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
     </row>
-    <row r="372" spans="1:3" ht="40" customHeight="1">
+    <row r="372" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
     </row>
-    <row r="373" spans="1:3" ht="40" customHeight="1">
+    <row r="373" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
     </row>
-    <row r="374" spans="1:3" ht="40" customHeight="1">
+    <row r="374" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
     </row>
-    <row r="375" spans="1:3" ht="40" customHeight="1">
+    <row r="375" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
     </row>
-    <row r="376" spans="1:3" ht="40" customHeight="1">
+    <row r="376" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
     </row>
-    <row r="377" spans="1:3" ht="40" customHeight="1">
+    <row r="377" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
     </row>
-    <row r="378" spans="1:3" ht="40" customHeight="1">
+    <row r="378" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
     </row>
-    <row r="379" spans="1:3" ht="40" customHeight="1">
+    <row r="379" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
     </row>
-    <row r="380" spans="1:3" ht="40" customHeight="1">
+    <row r="380" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
     </row>
-    <row r="381" spans="1:3" ht="40" customHeight="1">
+    <row r="381" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
     </row>
-    <row r="382" spans="1:3" ht="40" customHeight="1">
+    <row r="382" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
     </row>
-    <row r="383" spans="1:3" ht="40" customHeight="1">
+    <row r="383" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
     </row>
-    <row r="384" spans="1:3" ht="40" customHeight="1">
+    <row r="384" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
     </row>
-    <row r="385" spans="1:3" ht="40" customHeight="1">
+    <row r="385" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
     </row>
-    <row r="386" spans="1:3" ht="40" customHeight="1">
+    <row r="386" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
     </row>
-    <row r="387" spans="1:3" ht="40" customHeight="1">
+    <row r="387" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
     </row>
-    <row r="388" spans="1:3" ht="40" customHeight="1">
+    <row r="388" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
     </row>
-    <row r="389" spans="1:3" ht="40" customHeight="1">
+    <row r="389" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
     </row>
-    <row r="390" spans="1:3" ht="40" customHeight="1">
+    <row r="390" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
     </row>
-    <row r="391" spans="1:3" ht="40" customHeight="1">
+    <row r="391" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
     </row>
-    <row r="392" spans="1:3" ht="40" customHeight="1">
+    <row r="392" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
     </row>
-    <row r="393" spans="1:3" ht="40" customHeight="1">
+    <row r="393" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
     </row>
-    <row r="394" spans="1:3" ht="40" customHeight="1">
+    <row r="394" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
     </row>
-    <row r="395" spans="1:3" ht="40" customHeight="1">
+    <row r="395" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
     </row>
-    <row r="396" spans="1:3" ht="40" customHeight="1">
+    <row r="396" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
     </row>
-    <row r="397" spans="1:3" ht="40" customHeight="1">
+    <row r="397" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
     </row>
-    <row r="398" spans="1:3" ht="40" customHeight="1">
+    <row r="398" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
     </row>
-    <row r="399" spans="1:3" ht="40" customHeight="1">
+    <row r="399" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
     </row>
-    <row r="400" spans="1:3" ht="40" customHeight="1">
+    <row r="400" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401" spans="1:3" ht="40" customHeight="1">
+    <row r="401" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402" spans="1:3" ht="40" customHeight="1">
+    <row r="402" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
     </row>
-    <row r="403" spans="1:3" ht="40" customHeight="1">
+    <row r="403" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
     </row>
-    <row r="404" spans="1:3" ht="40" customHeight="1">
+    <row r="404" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
     </row>
-    <row r="405" spans="1:3" ht="40" customHeight="1">
+    <row r="405" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
     </row>
-    <row r="406" spans="1:3" ht="40" customHeight="1">
+    <row r="406" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
     </row>
-    <row r="407" spans="1:3" ht="40" customHeight="1">
+    <row r="407" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
     </row>
-    <row r="408" spans="1:3" ht="40" customHeight="1">
+    <row r="408" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409" spans="1:3" ht="40" customHeight="1">
+    <row r="409" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410" spans="1:3" ht="40" customHeight="1">
+    <row r="410" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
     </row>
-    <row r="411" spans="1:3" ht="40" customHeight="1">
+    <row r="411" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
     </row>
-    <row r="412" spans="1:3" ht="40" customHeight="1">
+    <row r="412" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
     </row>
-    <row r="413" spans="1:3" ht="40" customHeight="1">
+    <row r="413" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
     </row>
-    <row r="414" spans="1:3" ht="40" customHeight="1">
+    <row r="414" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
     </row>
-    <row r="415" spans="1:3" ht="40" customHeight="1">
+    <row r="415" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
     </row>
-    <row r="416" spans="1:3" ht="40" customHeight="1">
+    <row r="416" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
     </row>
-    <row r="417" spans="1:3" ht="40" customHeight="1">
+    <row r="417" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
     </row>
-    <row r="418" spans="1:3" ht="40" customHeight="1">
+    <row r="418" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
     </row>
-    <row r="419" spans="1:3" ht="40" customHeight="1">
+    <row r="419" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
     </row>
-    <row r="420" spans="1:3" ht="40" customHeight="1">
+    <row r="420" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
     </row>
-    <row r="421" spans="1:3" ht="40" customHeight="1">
+    <row r="421" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
     </row>
-    <row r="422" spans="1:3" ht="40" customHeight="1">
+    <row r="422" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
     </row>
-    <row r="423" spans="1:3" ht="40" customHeight="1">
+    <row r="423" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
     </row>
-    <row r="424" spans="1:3" ht="40" customHeight="1">
+    <row r="424" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
     </row>
-    <row r="425" spans="1:3" ht="40" customHeight="1">
+    <row r="425" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
     </row>
-    <row r="426" spans="1:3" ht="40" customHeight="1">
+    <row r="426" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
     </row>
-    <row r="427" spans="1:3" ht="40" customHeight="1">
+    <row r="427" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
     </row>
-    <row r="428" spans="1:3" ht="40" customHeight="1">
+    <row r="428" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
     </row>
-    <row r="429" spans="1:3" ht="40" customHeight="1">
+    <row r="429" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
     </row>
-    <row r="430" spans="1:3" ht="40" customHeight="1">
+    <row r="430" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
     </row>
-    <row r="431" spans="1:3" ht="40" customHeight="1">
+    <row r="431" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
     </row>
-    <row r="432" spans="1:3" ht="40" customHeight="1">
+    <row r="432" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
     </row>
-    <row r="433" spans="1:3" ht="40" customHeight="1">
+    <row r="433" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
     </row>
-    <row r="434" spans="1:3" ht="40" customHeight="1">
+    <row r="434" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
     </row>
-    <row r="435" spans="1:3" ht="40" customHeight="1">
+    <row r="435" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
     </row>
-    <row r="436" spans="1:3" ht="40" customHeight="1">
+    <row r="436" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
     </row>
-    <row r="437" spans="1:3" ht="40" customHeight="1">
+    <row r="437" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
     </row>
-    <row r="438" spans="1:3" ht="40" customHeight="1">
+    <row r="438" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
     </row>
-    <row r="439" spans="1:3" ht="40" customHeight="1">
+    <row r="439" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
     </row>
-    <row r="440" spans="1:3" ht="40" customHeight="1">
+    <row r="440" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
     </row>
-    <row r="441" spans="1:3" ht="40" customHeight="1">
+    <row r="441" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
     </row>
-    <row r="442" spans="1:3" ht="40" customHeight="1">
+    <row r="442" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
     </row>
-    <row r="443" spans="1:3" ht="40" customHeight="1">
+    <row r="443" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
     </row>
-    <row r="444" spans="1:3" ht="40" customHeight="1">
+    <row r="444" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
     </row>
-    <row r="445" spans="1:3" ht="40" customHeight="1">
+    <row r="445" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
     </row>
-    <row r="446" spans="1:3" ht="40" customHeight="1">
+    <row r="446" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
     </row>
-    <row r="447" spans="1:3" ht="40" customHeight="1">
+    <row r="447" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
     </row>
-    <row r="448" spans="1:3" ht="40" customHeight="1">
+    <row r="448" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totoferro21/Desktop/salvatore non toccare/monitoraggio/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrara/Desktop/salvatore non toccare/monitoraggio/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3F2D1F-16F5-3F4A-A5D2-9CD55E236C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B61D1AF-1223-C843-B553-58EE7FFBD3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18760" yWindow="540" windowWidth="10300" windowHeight="16320" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="9180" yWindow="700" windowWidth="10300" windowHeight="16320" activeTab="1" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="vix" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -143,7 +143,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,12 +477,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
   <dimension ref="A1:C448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
+      <selection pane="bottomLeft" activeCell="E266" sqref="E266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -490,7 +490,7 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="40" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="40" customHeight="1">
       <c r="A2" s="4">
         <v>45138</v>
       </c>
@@ -512,7 +512,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="40" customHeight="1">
       <c r="A3" s="4">
         <v>45140</v>
       </c>
@@ -523,7 +523,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="40" customHeight="1">
       <c r="A4" s="4">
         <v>45146</v>
       </c>
@@ -534,7 +534,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="40" customHeight="1">
       <c r="A5" s="4">
         <v>45154</v>
       </c>
@@ -545,7 +545,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="40" customHeight="1">
       <c r="A6" s="4">
         <v>45162</v>
       </c>
@@ -556,7 +556,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="40" customHeight="1">
       <c r="A7" s="4">
         <v>45166</v>
       </c>
@@ -567,7 +567,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="40" customHeight="1">
       <c r="A8" s="4">
         <v>45167</v>
       </c>
@@ -578,7 +578,7 @@
         <v>16.38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="40" customHeight="1">
       <c r="A9" s="4">
         <v>45168</v>
       </c>
@@ -589,7 +589,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="40" customHeight="1">
       <c r="A10" s="4">
         <v>45176</v>
       </c>
@@ -600,7 +600,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="40" customHeight="1">
       <c r="A11" s="4">
         <v>45183</v>
       </c>
@@ -611,7 +611,7 @@
         <v>13.58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="40" customHeight="1">
       <c r="A12" s="4">
         <v>45184</v>
       </c>
@@ -622,7 +622,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="40" customHeight="1">
       <c r="A13" s="4">
         <v>45188</v>
       </c>
@@ -633,7 +633,7 @@
         <v>15.93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="40" customHeight="1">
       <c r="A14" s="4">
         <v>45190</v>
       </c>
@@ -644,7 +644,7 @@
         <v>17.13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="40" customHeight="1">
       <c r="A15" s="4">
         <v>45191</v>
       </c>
@@ -655,7 +655,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="40" customHeight="1">
       <c r="A16" s="4">
         <v>45195</v>
       </c>
@@ -666,7 +666,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="40" customHeight="1">
       <c r="A17" s="4">
         <v>45196</v>
       </c>
@@ -677,7 +677,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="40" customHeight="1">
       <c r="A18" s="4">
         <v>45197</v>
       </c>
@@ -688,7 +688,7 @@
         <v>17.43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="40" customHeight="1">
       <c r="A19" s="4">
         <v>45201</v>
       </c>
@@ -699,7 +699,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="40" customHeight="1">
       <c r="A20" s="4">
         <v>45202</v>
       </c>
@@ -710,7 +710,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="40" customHeight="1">
       <c r="A21" s="4">
         <v>45205</v>
       </c>
@@ -721,7 +721,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="40" customHeight="1">
       <c r="A22" s="4">
         <v>45209</v>
       </c>
@@ -732,7 +732,7 @@
         <v>16.88</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="40" customHeight="1">
       <c r="A23" s="4">
         <v>45212</v>
       </c>
@@ -743,7 +743,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="40" customHeight="1">
       <c r="A24" s="4">
         <v>45216</v>
       </c>
@@ -754,7 +754,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="40" customHeight="1">
       <c r="A25" s="4">
         <v>45217</v>
       </c>
@@ -765,7 +765,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="40" customHeight="1">
       <c r="A26" s="4">
         <v>45219</v>
       </c>
@@ -776,7 +776,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="40" customHeight="1">
       <c r="A27" s="4">
         <v>45225</v>
       </c>
@@ -787,7 +787,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="40" customHeight="1">
       <c r="A28" s="4">
         <v>45231</v>
       </c>
@@ -798,7 +798,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="40" customHeight="1">
       <c r="A29" s="4">
         <v>45232</v>
       </c>
@@ -809,7 +809,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="40" customHeight="1">
       <c r="A30" s="4">
         <v>45233</v>
       </c>
@@ -820,7 +820,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="40" customHeight="1">
       <c r="A31" s="4">
         <v>45237</v>
       </c>
@@ -831,7 +831,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="40" customHeight="1">
       <c r="A32" s="4">
         <v>45243</v>
       </c>
@@ -842,7 +842,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="40" customHeight="1">
       <c r="A33" s="4">
         <v>45244</v>
       </c>
@@ -853,7 +853,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="40" customHeight="1">
       <c r="A34" s="4">
         <v>45246</v>
       </c>
@@ -864,7 +864,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="40" customHeight="1">
       <c r="A35" s="4">
         <v>45252</v>
       </c>
@@ -875,7 +875,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="40" customHeight="1">
       <c r="A36" s="4">
         <v>45260</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="40" customHeight="1">
       <c r="A37" s="4">
         <v>45271</v>
       </c>
@@ -897,7 +897,7 @@
         <v>13.04</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="40" customHeight="1">
       <c r="A38" s="4">
         <v>45274</v>
       </c>
@@ -908,7 +908,7 @@
         <v>12.23</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="40" customHeight="1">
       <c r="A39" s="4">
         <v>45279</v>
       </c>
@@ -919,7 +919,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="40" customHeight="1">
       <c r="A40" s="4">
         <v>45281</v>
       </c>
@@ -930,7 +930,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="40" customHeight="1">
       <c r="A41" s="4">
         <v>45282</v>
       </c>
@@ -941,7 +941,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="40" customHeight="1">
       <c r="A42" s="4">
         <v>45294</v>
       </c>
@@ -952,7 +952,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="40" customHeight="1">
       <c r="A43" s="4">
         <v>45301</v>
       </c>
@@ -963,7 +963,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="40" customHeight="1">
       <c r="A44" s="4">
         <v>45308</v>
       </c>
@@ -974,7 +974,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="40" customHeight="1">
       <c r="A45" s="4">
         <v>45309</v>
       </c>
@@ -985,7 +985,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="40" customHeight="1">
       <c r="A46" s="4">
         <v>45310</v>
       </c>
@@ -996,7 +996,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="40" customHeight="1">
       <c r="A47" s="4">
         <v>45313</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="40" customHeight="1">
       <c r="A48" s="4">
         <v>45314</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="40" customHeight="1">
       <c r="A49" s="4">
         <v>45315</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>13.63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="40" customHeight="1">
       <c r="A50" s="4">
         <v>45321</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>14.13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="40" customHeight="1">
       <c r="A51" s="4">
         <v>45322</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="40" customHeight="1">
       <c r="A52" s="4">
         <v>45324</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="40" customHeight="1">
       <c r="A53" s="4">
         <v>45330</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>13.43</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="40" customHeight="1">
       <c r="A54" s="4">
         <v>45334</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="40" customHeight="1">
       <c r="A55" s="4">
         <v>45335</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="40" customHeight="1">
       <c r="A56" s="4">
         <v>45337</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="40" customHeight="1">
       <c r="A57" s="4">
         <v>45342</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>15.58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="40" customHeight="1">
       <c r="A58" s="4">
         <v>45344</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>14.67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="40" customHeight="1">
       <c r="A59" s="4">
         <v>45345</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="40" customHeight="1">
       <c r="A60" s="4">
         <v>45355</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="40" customHeight="1">
       <c r="A61" s="4">
         <v>45356</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="40" customHeight="1">
       <c r="A62" s="4">
         <v>45357</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>14.68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="40" customHeight="1">
       <c r="A63" s="4">
         <v>45359</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>14.37</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="40" customHeight="1">
       <c r="A64" s="4">
         <v>45362</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15.18</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="40" customHeight="1">
       <c r="A65" s="4">
         <v>45363</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>14.08</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="40" customHeight="1">
       <c r="A66" s="4">
         <v>45366</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="40" customHeight="1">
       <c r="A67" s="4">
         <v>45370</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>14.98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="40" customHeight="1">
       <c r="A68" s="4">
         <v>45372</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>14.53</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="40" customHeight="1">
       <c r="A69" s="4">
         <v>45384</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="40" customHeight="1">
       <c r="A70" s="4">
         <v>45386</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>14.58</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="40" customHeight="1">
       <c r="A71" s="4">
         <v>45387</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="40" customHeight="1">
       <c r="A72" s="4">
         <v>45393</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>15.97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="40" customHeight="1">
       <c r="A73" s="4">
         <v>45394</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17.23</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="40" customHeight="1">
       <c r="A74" s="4">
         <v>45398</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="40" customHeight="1">
       <c r="A75" s="4">
         <v>45404</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="40" customHeight="1">
       <c r="A76" s="4">
         <v>45405</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>15.98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="40" customHeight="1">
       <c r="A77" s="4">
         <v>45407</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="40" customHeight="1">
       <c r="A78" s="4">
         <v>45408</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>15.54</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="40" customHeight="1">
       <c r="A79" s="4">
         <v>45413</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="40" customHeight="1">
       <c r="A80" s="4">
         <v>45415</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>14.73</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="40" customHeight="1">
       <c r="A81" s="4">
         <v>45418</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>14.33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="40" customHeight="1">
       <c r="A82" s="4">
         <v>45419</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="40" customHeight="1">
       <c r="A83" s="4">
         <v>45422</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>13.83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="40" customHeight="1">
       <c r="A84" s="4">
         <v>45427</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="40" customHeight="1">
       <c r="A85" s="4">
         <v>45428</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>12.88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="40" customHeight="1">
       <c r="A86" s="4">
         <v>45443</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>14.23</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="40" customHeight="1">
       <c r="A87" s="4">
         <v>45446</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="40" customHeight="1">
       <c r="A88" s="4">
         <v>45448</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="40" customHeight="1">
       <c r="A89" s="4">
         <v>45449</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="40" customHeight="1">
       <c r="A90" s="4">
         <v>45455</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="40" customHeight="1">
       <c r="A91" s="4">
         <v>45463</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="40" customHeight="1">
       <c r="A92" s="4">
         <v>45471</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>14.48</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="40" customHeight="1">
       <c r="A93" s="4">
         <v>45474</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>13.87</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="40" customHeight="1">
       <c r="A94" s="4">
         <v>45476</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>13.18</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="40" customHeight="1">
       <c r="A95" s="4">
         <v>45481</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="40" customHeight="1">
       <c r="A96" s="4">
         <v>45484</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="40" customHeight="1">
       <c r="A97" s="4">
         <v>45491</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="40" customHeight="1">
       <c r="A98" s="4">
         <v>45497</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="40" customHeight="1">
       <c r="A99" s="4">
         <v>45503</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>16.63</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="40" customHeight="1">
       <c r="A100" s="4">
         <v>45504</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="40" customHeight="1">
       <c r="A101" s="4">
         <v>45505</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>16.98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="40" customHeight="1">
       <c r="A102" s="4">
         <v>45506</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="40" customHeight="1">
       <c r="A103" s="4">
         <v>45509</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="40" customHeight="1">
       <c r="A104" s="4">
         <v>45510</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>25.03</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="40" customHeight="1">
       <c r="A105" s="4">
         <v>45517</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="40" customHeight="1">
       <c r="A106" s="4">
         <v>45518</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="40" customHeight="1">
       <c r="A107" s="4">
         <v>45519</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15.13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="40" customHeight="1">
       <c r="A108" s="4">
         <v>45523</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="40" customHeight="1">
       <c r="A109" s="4">
         <v>45525</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>16.34</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="40" customHeight="1">
       <c r="A110" s="4">
         <v>45533</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>15.78</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="40" customHeight="1">
       <c r="A111" s="4">
         <v>45538</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="40" customHeight="1">
       <c r="A112" s="4">
         <v>45539</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>18.760000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="40" customHeight="1">
       <c r="A113" s="4">
         <v>45540</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="40" customHeight="1">
       <c r="A114" s="4">
         <v>45541</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="40" customHeight="1">
       <c r="A115" s="4">
         <v>45544</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="40" customHeight="1">
       <c r="A116" s="4">
         <v>45546</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="40" customHeight="1">
       <c r="A117" s="4">
         <v>45547</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>17.45</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="40" customHeight="1">
       <c r="A118" s="4">
         <v>45548</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="40" customHeight="1">
       <c r="A119" s="4">
         <v>45554</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="40" customHeight="1">
       <c r="A120" s="4">
         <v>45562</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>18.45</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="40" customHeight="1">
       <c r="A121" s="4">
         <v>45566</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="40" customHeight="1">
       <c r="A122" s="4">
         <v>45573</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>21.35</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="40" customHeight="1">
       <c r="A123" s="4">
         <v>45574</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>20.85</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="40" customHeight="1">
       <c r="A124" s="4">
         <v>45576</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>21.07</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="40" customHeight="1">
       <c r="A125" s="4">
         <v>45579</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="40" customHeight="1">
       <c r="A126" s="4">
         <v>45589</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>19.440000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="40" customHeight="1">
       <c r="A127" s="4">
         <v>45590</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="40" customHeight="1">
       <c r="A128" s="4">
         <v>45596</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>20.78</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="40" customHeight="1">
       <c r="A129" s="4">
         <v>45601</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="40" customHeight="1">
       <c r="A130" s="4">
         <v>45602</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>16.43</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="40" customHeight="1">
       <c r="A131" s="4">
         <v>45603</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="40" customHeight="1">
       <c r="A132" s="4">
         <v>45611</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="40" customHeight="1">
       <c r="A133" s="4">
         <v>45615</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="40" customHeight="1">
       <c r="A134" s="4">
         <v>45617</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="40" customHeight="1">
       <c r="A135" s="4">
         <v>45622</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="40" customHeight="1">
       <c r="A136" s="4">
         <v>45625</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="40" customHeight="1">
       <c r="A137" s="4">
         <v>45630</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="40" customHeight="1">
       <c r="A138" s="4">
         <v>45645</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>19.329999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="40" customHeight="1">
       <c r="A139" s="4">
         <v>45646</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="40" customHeight="1">
       <c r="A140" s="4">
         <v>45663</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="40" customHeight="1">
       <c r="A141" s="4">
         <v>45664</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="40" customHeight="1">
       <c r="A142" s="4">
         <v>45667</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="40" customHeight="1">
       <c r="A143" s="4">
         <v>45670</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="40" customHeight="1">
       <c r="A144" s="4">
         <v>45672</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>16.55</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="40" customHeight="1">
       <c r="A145" s="4">
         <v>45674</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>15.88</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="40" customHeight="1">
       <c r="A146" s="4">
         <v>45679</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="40" customHeight="1">
       <c r="A147" s="4">
         <v>45684</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17.829999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="40" customHeight="1">
       <c r="A148" s="4">
         <v>45685</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="40" customHeight="1">
       <c r="A149" s="4">
         <v>45688</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="40" customHeight="1">
       <c r="A150" s="4">
         <v>45691</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="40" customHeight="1">
       <c r="A151" s="4">
         <v>45692</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="40" customHeight="1">
       <c r="A152" s="4">
         <v>45694</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>16.68</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="24">
       <c r="A153" s="4">
         <v>45695</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>17.350000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="24">
       <c r="A154" s="4">
         <v>45698</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="24">
       <c r="A155" s="4">
         <v>45699</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="24">
       <c r="A156" s="4">
         <v>45700</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="24">
       <c r="A157" s="4">
         <v>45701</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="24">
       <c r="A158" s="4">
         <v>45702</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="24">
       <c r="A159" s="4">
         <v>45705</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="24">
       <c r="A160" s="4">
         <v>45706</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>15.66</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="24">
       <c r="A161" s="4">
         <v>45707</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="24">
       <c r="A162" s="4">
         <v>45708</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>17.03</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="24">
       <c r="A163" s="4">
         <v>45709</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="24">
       <c r="A164" s="4">
         <v>45712</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>18.43</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="24">
       <c r="A165" s="4">
         <v>45713</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18.48</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="24">
       <c r="A166" s="4">
         <v>45714</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="24">
       <c r="A167" s="4">
         <v>45715</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="24">
       <c r="A168" s="4">
         <v>45716</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>18.829999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="24">
       <c r="A169" s="4">
         <v>45719</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>20.66</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="24">
       <c r="A170" s="4">
         <v>45720</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="24">
       <c r="A171" s="4">
         <v>45721</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>20.13</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="24">
       <c r="A172" s="4">
         <v>45722</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="24">
       <c r="A173" s="4">
         <v>45723</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>21.63</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="24">
       <c r="A174" s="4">
         <v>45726</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>25.33</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="24">
       <c r="A175" s="4">
         <v>45727</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="24">
       <c r="A176" s="4">
         <v>45728</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>22.98</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="24">
       <c r="A177" s="4">
         <v>45729</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>24.41</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="24">
       <c r="A178" s="4">
         <v>45730</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>21.52</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="24">
       <c r="A179" s="4">
         <v>45733</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="24">
       <c r="A180" s="4">
         <v>45734</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="24">
       <c r="A181" s="4">
         <v>45735</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="24">
       <c r="A182" s="4">
         <v>45736</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="24">
       <c r="A183" s="4">
         <v>45737</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="24">
       <c r="A184" s="4">
         <v>45740</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="24">
       <c r="A185" s="4">
         <v>45741</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="24">
       <c r="A186" s="4">
         <v>45742</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="24">
       <c r="A187" s="4">
         <v>45743</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>19.16</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="24">
       <c r="A188" s="4">
         <v>45744</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="24">
       <c r="A189" s="4">
         <v>45747</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="24">
       <c r="A190" s="4">
         <v>45748</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>20.51</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="24">
       <c r="A191" s="4">
         <v>45749</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>20.02</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="24">
       <c r="A192" s="4">
         <v>45750</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>24.19</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="24">
       <c r="A193" s="4">
         <v>45751</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="24">
       <c r="A194" s="4">
         <v>45754</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="24">
       <c r="A195" s="4">
         <v>45755</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>27.91</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="24">
       <c r="A196" s="4">
         <v>45756</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>23.83</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="24">
       <c r="A197" s="4">
         <v>45757</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="24">
       <c r="A198" s="4">
         <v>45758</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="24">
       <c r="A199" s="4">
         <v>45761</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="24">
       <c r="A200" s="4">
         <v>45762</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="24">
       <c r="A201" s="4">
         <v>45763</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>31.91</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" ht="24">
       <c r="A202" s="4">
         <v>45764</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>26.73</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" ht="24">
       <c r="A203" s="4">
         <v>45769</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>26.54</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" ht="24">
       <c r="A204" s="4">
         <v>45770</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" ht="24">
       <c r="A205" s="4">
         <v>45771</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="24">
       <c r="A206" s="4">
         <v>45772</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" ht="24">
       <c r="A207" s="4">
         <v>45775</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" ht="24">
       <c r="A208" s="4">
         <v>45776</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>23.38</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" ht="24">
       <c r="A209" s="4">
         <v>45777</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" ht="24">
       <c r="A210" s="4">
         <v>45779</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>22.48</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="24">
       <c r="A211" s="4">
         <v>45782</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>23.18</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" ht="24">
       <c r="A212" s="4">
         <v>45783</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="24">
       <c r="A213" s="4">
         <v>45784</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" ht="24">
       <c r="A214" s="4">
         <v>45785</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>22.29</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" ht="24">
       <c r="A215" s="4">
         <v>45786</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>22.01</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="24">
       <c r="A216" s="4">
         <v>45789</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>18.57</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" ht="24">
       <c r="A217" s="4">
         <v>45790</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="24">
       <c r="A218" s="4">
         <v>45791</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="24">
       <c r="A219" s="4">
         <v>45792</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>18.23</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="24">
       <c r="A220" s="4">
         <v>45793</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>17.93</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="24">
       <c r="A221" s="4">
         <v>45796</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" ht="24">
       <c r="A222" s="4">
         <v>45797</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" ht="24">
       <c r="A223" s="4">
         <v>45798</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" ht="24">
       <c r="A224" s="4">
         <v>45799</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>21.24</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="24">
       <c r="A225" s="4">
         <v>45800</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>22.28</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" ht="24">
       <c r="A226" s="4">
         <v>45803</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>20.93</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" ht="24">
       <c r="A227" s="4">
         <v>45804</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" ht="24">
       <c r="A228" s="4">
         <v>45805</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>20.79</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" ht="24">
       <c r="A229" s="4">
         <v>45807</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>21.04</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" ht="24">
       <c r="A230" s="4">
         <v>45810</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="24">
       <c r="A231" s="4">
         <v>45811</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" ht="24">
       <c r="A232" s="4">
         <v>45812</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" ht="24">
       <c r="A233" s="4">
         <v>45813</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>20.89</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="24">
       <c r="A234" s="4">
         <v>45814</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" ht="24">
       <c r="A235" s="4">
         <v>45818</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>19.97</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" ht="24">
       <c r="A236" s="4">
         <v>45819</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>20.09</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="24">
       <c r="A237" s="4">
         <v>45820</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" ht="24">
       <c r="A238" s="4">
         <v>45821</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="24">
       <c r="A239" s="4">
         <v>45824</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="24">
       <c r="A240" s="4">
         <v>45825</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" ht="24">
       <c r="A241" s="4">
         <v>45826</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>20.81</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" ht="24">
       <c r="A242" s="4">
         <v>45827</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" ht="24">
       <c r="A243" s="4">
         <v>45828</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" ht="24">
       <c r="A244" s="4">
         <v>45831</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" ht="24">
       <c r="A245" s="4">
         <v>45832</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" ht="24">
       <c r="A246" s="4">
         <v>45833</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>19.02</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="24">
       <c r="A247" s="4">
         <v>45834</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>18.91</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="24">
       <c r="A248" s="4">
         <v>45835</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>18.850000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" ht="24">
       <c r="A249" s="4">
         <v>45838</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" ht="24">
       <c r="A250" s="4">
         <v>45839</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" ht="24">
       <c r="A251" s="4">
         <v>45840</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="24">
       <c r="A252" s="4">
         <v>45841</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="24">
       <c r="A253" s="4">
         <v>45842</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="24">
       <c r="A254" s="4">
         <v>45845</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" ht="24">
       <c r="A255" s="4">
         <v>45846</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>17.82</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" ht="24">
       <c r="A256" s="4">
         <v>45847</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" ht="24">
       <c r="A257" s="4">
         <v>45848</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>17.11</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" ht="24">
       <c r="A258" s="4">
         <v>45849</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="24">
       <c r="A259" s="4">
         <v>45852</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" ht="24">
       <c r="A260" s="4">
         <v>45853</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" ht="24">
       <c r="A261" s="4">
         <v>45854</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" ht="24">
       <c r="A262" s="4">
         <v>45855</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>16.52</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="24">
       <c r="A263" s="4">
         <v>45856</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>16.41</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" ht="24">
       <c r="A264" s="4">
         <v>45859</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="24">
       <c r="A265" s="4">
         <v>45860</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" ht="24">
       <c r="A266" s="4">
         <v>45861</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>15.37</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" ht="24">
       <c r="A267" s="4">
         <v>45862</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>15.39</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" ht="24">
       <c r="A268" s="4">
         <v>45863</v>
       </c>
@@ -3438,902 +3438,926 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A269" s="4"/>
-      <c r="B269" s="5"/>
-      <c r="C269" s="6"/>
-    </row>
-    <row r="270" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A270" s="4"/>
-      <c r="B270" s="5"/>
-      <c r="C270" s="6"/>
-    </row>
-    <row r="271" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A271" s="4"/>
-      <c r="B271" s="5"/>
-      <c r="C271" s="6"/>
-    </row>
-    <row r="272" spans="1:3" ht="24" x14ac:dyDescent="0.2">
-      <c r="A272" s="4"/>
-      <c r="B272" s="5"/>
-      <c r="C272" s="6"/>
-    </row>
-    <row r="273" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" ht="23">
+      <c r="A269" s="4">
+        <v>45866</v>
+      </c>
+      <c r="B269" s="5">
+        <v>60.463524703585271</v>
+      </c>
+      <c r="C269" s="6">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="23">
+      <c r="A270" s="4">
+        <v>45867</v>
+      </c>
+      <c r="B270" s="5">
+        <v>60.79517299559658</v>
+      </c>
+      <c r="C270" s="6">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="23">
+      <c r="A271" s="4">
+        <v>45868</v>
+      </c>
+      <c r="B271" s="5">
+        <v>60.519712977366133</v>
+      </c>
+      <c r="C271" s="6">
+        <v>15.48</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="23">
+      <c r="A272" s="4">
+        <v>45869</v>
+      </c>
+      <c r="B272" s="5">
+        <v>60.477526513194491</v>
+      </c>
+      <c r="C272" s="6">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="24">
       <c r="A273" s="4"/>
       <c r="B273" s="5"/>
       <c r="C273" s="6"/>
     </row>
-    <row r="274" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="24">
       <c r="A274" s="4"/>
       <c r="B274" s="5"/>
       <c r="C274" s="6"/>
     </row>
-    <row r="275" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="24">
       <c r="A275" s="4"/>
       <c r="B275" s="5"/>
       <c r="C275" s="6"/>
     </row>
-    <row r="276" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" ht="24">
       <c r="A276" s="4"/>
       <c r="B276" s="5"/>
       <c r="C276" s="6"/>
     </row>
-    <row r="277" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="24">
       <c r="A277" s="4"/>
       <c r="B277" s="5"/>
       <c r="C277" s="6"/>
     </row>
-    <row r="278" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="24">
       <c r="A278" s="4"/>
       <c r="B278" s="5"/>
       <c r="C278" s="6"/>
     </row>
-    <row r="279" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="24">
       <c r="A279" s="4"/>
       <c r="B279" s="5"/>
       <c r="C279" s="6"/>
     </row>
-    <row r="280" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" ht="24">
       <c r="A280" s="4"/>
       <c r="B280" s="5"/>
       <c r="C280" s="6"/>
     </row>
-    <row r="281" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" ht="24">
       <c r="A281" s="4"/>
       <c r="B281" s="5"/>
       <c r="C281" s="6"/>
     </row>
-    <row r="282" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" ht="24">
       <c r="A282" s="4"/>
       <c r="B282" s="5"/>
       <c r="C282" s="6"/>
     </row>
-    <row r="283" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" ht="24">
       <c r="A283" s="4"/>
       <c r="B283" s="5"/>
       <c r="C283" s="6"/>
     </row>
-    <row r="284" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" ht="24">
       <c r="A284" s="4"/>
       <c r="B284" s="5"/>
       <c r="C284" s="6"/>
     </row>
-    <row r="285" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" ht="24">
       <c r="A285" s="4"/>
       <c r="B285" s="5"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="24">
       <c r="A286" s="4"/>
       <c r="B286" s="5"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" ht="24">
       <c r="A287" s="4"/>
       <c r="B287" s="5"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" ht="24">
       <c r="A288" s="4"/>
       <c r="B288" s="5"/>
       <c r="C288" s="6"/>
     </row>
-    <row r="289" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" ht="24">
       <c r="A289" s="4"/>
       <c r="B289" s="5"/>
       <c r="C289" s="6"/>
     </row>
-    <row r="290" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" ht="24">
       <c r="A290" s="4"/>
       <c r="B290" s="5"/>
       <c r="C290" s="6"/>
     </row>
-    <row r="291" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" ht="23">
       <c r="A291" s="4"/>
       <c r="B291" s="5"/>
       <c r="C291" s="6"/>
     </row>
-    <row r="292" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="23">
       <c r="A292" s="4"/>
       <c r="B292" s="5"/>
       <c r="C292" s="6"/>
     </row>
-    <row r="293" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" ht="23">
       <c r="A293" s="4"/>
       <c r="B293" s="5"/>
       <c r="C293" s="6"/>
     </row>
-    <row r="294" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" ht="23">
       <c r="A294" s="4"/>
       <c r="B294" s="5"/>
       <c r="C294" s="6"/>
     </row>
-    <row r="295" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="23">
       <c r="A295" s="4"/>
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
     </row>
-    <row r="296" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" ht="23">
       <c r="A296" s="4"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
     </row>
-    <row r="297" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" ht="23">
       <c r="A297" s="4"/>
       <c r="B297" s="5"/>
       <c r="C297" s="6"/>
     </row>
-    <row r="298" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" ht="23">
       <c r="A298" s="4"/>
       <c r="B298" s="5"/>
       <c r="C298" s="6"/>
     </row>
-    <row r="299" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" ht="23">
       <c r="A299" s="4"/>
       <c r="B299" s="5"/>
       <c r="C299" s="6"/>
     </row>
-    <row r="300" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="23">
       <c r="A300" s="4"/>
       <c r="B300" s="5"/>
       <c r="C300" s="6"/>
     </row>
-    <row r="301" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" ht="23">
       <c r="A301" s="4"/>
       <c r="B301" s="5"/>
       <c r="C301" s="6"/>
     </row>
-    <row r="302" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" ht="23">
       <c r="A302" s="4"/>
       <c r="B302" s="5"/>
       <c r="C302" s="6"/>
     </row>
-    <row r="303" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" ht="23">
       <c r="A303" s="4"/>
       <c r="B303" s="5"/>
       <c r="C303" s="6"/>
     </row>
-    <row r="304" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" ht="23">
       <c r="A304" s="4"/>
       <c r="B304" s="5"/>
       <c r="C304" s="6"/>
     </row>
-    <row r="305" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" ht="23">
       <c r="A305" s="4"/>
       <c r="B305" s="5"/>
       <c r="C305" s="6"/>
     </row>
-    <row r="306" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" ht="23">
       <c r="A306" s="4"/>
       <c r="B306" s="5"/>
       <c r="C306" s="6"/>
     </row>
-    <row r="307" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" ht="23">
       <c r="A307" s="4"/>
       <c r="B307" s="5"/>
       <c r="C307" s="6"/>
     </row>
-    <row r="308" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" ht="23">
       <c r="A308" s="4"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
     </row>
-    <row r="309" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" ht="23">
       <c r="A309" s="4"/>
       <c r="B309" s="5"/>
       <c r="C309" s="6"/>
     </row>
-    <row r="310" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" ht="23">
       <c r="A310" s="4"/>
       <c r="B310" s="5"/>
       <c r="C310" s="6"/>
     </row>
-    <row r="311" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" ht="23">
       <c r="A311" s="4"/>
       <c r="B311" s="5"/>
       <c r="C311" s="6"/>
     </row>
-    <row r="312" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" ht="23">
       <c r="A312" s="4"/>
       <c r="B312" s="5"/>
       <c r="C312" s="6"/>
     </row>
-    <row r="313" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" ht="23">
       <c r="A313" s="4"/>
       <c r="B313" s="5"/>
       <c r="C313" s="6"/>
     </row>
-    <row r="314" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" ht="23">
       <c r="A314" s="4"/>
       <c r="B314" s="5"/>
       <c r="C314" s="6"/>
     </row>
-    <row r="315" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" ht="23">
       <c r="A315" s="4"/>
       <c r="B315" s="5"/>
       <c r="C315" s="6"/>
     </row>
-    <row r="316" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" ht="23">
       <c r="A316" s="4"/>
       <c r="B316" s="5"/>
       <c r="C316" s="6"/>
     </row>
-    <row r="317" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" ht="23">
       <c r="A317" s="4"/>
       <c r="B317" s="5"/>
       <c r="C317" s="6"/>
     </row>
-    <row r="318" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" ht="23">
       <c r="A318" s="4"/>
       <c r="B318" s="5"/>
       <c r="C318" s="6"/>
     </row>
-    <row r="319" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" ht="23">
       <c r="A319" s="4"/>
       <c r="B319" s="5"/>
       <c r="C319" s="6"/>
     </row>
-    <row r="320" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" ht="23">
       <c r="A320" s="4"/>
       <c r="B320" s="5"/>
       <c r="C320" s="6"/>
     </row>
-    <row r="321" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" ht="23">
       <c r="A321" s="4"/>
       <c r="B321" s="5"/>
       <c r="C321" s="6"/>
     </row>
-    <row r="322" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" ht="23">
       <c r="A322" s="4"/>
       <c r="B322" s="5"/>
       <c r="C322" s="6"/>
     </row>
-    <row r="323" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" ht="23">
       <c r="A323" s="4"/>
       <c r="B323" s="5"/>
       <c r="C323" s="6"/>
     </row>
-    <row r="324" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" ht="23">
       <c r="A324" s="4"/>
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
     </row>
-    <row r="325" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" ht="23">
       <c r="A325" s="4"/>
       <c r="B325" s="5"/>
       <c r="C325" s="6"/>
     </row>
-    <row r="326" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" ht="23">
       <c r="A326" s="4"/>
       <c r="B326" s="5"/>
       <c r="C326" s="6"/>
     </row>
-    <row r="327" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" ht="23">
       <c r="A327" s="4"/>
       <c r="B327" s="5"/>
       <c r="C327" s="6"/>
     </row>
-    <row r="328" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" ht="23">
       <c r="A328" s="4"/>
       <c r="B328" s="5"/>
       <c r="C328" s="6"/>
     </row>
-    <row r="329" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" ht="23">
       <c r="A329" s="4"/>
       <c r="B329" s="5"/>
       <c r="C329" s="6"/>
     </row>
-    <row r="330" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" ht="23">
       <c r="A330" s="4"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
     </row>
-    <row r="331" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" ht="23">
       <c r="A331" s="4"/>
       <c r="B331" s="5"/>
       <c r="C331" s="6"/>
     </row>
-    <row r="332" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" ht="23">
       <c r="A332" s="4"/>
       <c r="B332" s="5"/>
       <c r="C332" s="6"/>
     </row>
-    <row r="333" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" ht="23">
       <c r="A333" s="4"/>
       <c r="B333" s="5"/>
       <c r="C333" s="6"/>
     </row>
-    <row r="334" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" ht="23">
       <c r="A334" s="4"/>
       <c r="B334" s="5"/>
       <c r="C334" s="6"/>
     </row>
-    <row r="335" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" ht="23">
       <c r="A335" s="4"/>
       <c r="B335" s="5"/>
       <c r="C335" s="6"/>
     </row>
-    <row r="336" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" ht="23">
       <c r="A336" s="4"/>
       <c r="B336" s="5"/>
       <c r="C336" s="6"/>
     </row>
-    <row r="337" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" ht="23">
       <c r="A337" s="4"/>
       <c r="B337" s="5"/>
       <c r="C337" s="6"/>
     </row>
-    <row r="338" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" ht="23">
       <c r="A338" s="4"/>
       <c r="B338" s="5"/>
       <c r="C338" s="6"/>
     </row>
-    <row r="339" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" ht="23">
       <c r="A339" s="4"/>
       <c r="B339" s="5"/>
       <c r="C339" s="6"/>
     </row>
-    <row r="340" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" ht="23">
       <c r="A340" s="4"/>
       <c r="B340" s="5"/>
       <c r="C340" s="6"/>
     </row>
-    <row r="341" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" ht="23">
       <c r="A341" s="4"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
     </row>
-    <row r="342" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" ht="23">
       <c r="A342" s="4"/>
       <c r="B342" s="5"/>
       <c r="C342" s="6"/>
     </row>
-    <row r="343" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" ht="23">
       <c r="A343" s="4"/>
       <c r="B343" s="5"/>
       <c r="C343" s="6"/>
     </row>
-    <row r="344" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" ht="23">
       <c r="A344" s="4"/>
       <c r="B344" s="5"/>
       <c r="C344" s="6"/>
     </row>
-    <row r="345" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" ht="23">
       <c r="A345" s="4"/>
       <c r="B345" s="5"/>
       <c r="C345" s="6"/>
     </row>
-    <row r="346" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" ht="23">
       <c r="A346" s="4"/>
       <c r="B346" s="5"/>
       <c r="C346" s="6"/>
     </row>
-    <row r="347" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" ht="23">
       <c r="A347" s="4"/>
       <c r="B347" s="5"/>
       <c r="C347" s="6"/>
     </row>
-    <row r="348" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" ht="23">
       <c r="A348" s="4"/>
       <c r="B348" s="5"/>
       <c r="C348" s="6"/>
     </row>
-    <row r="349" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" ht="23">
       <c r="A349" s="4"/>
       <c r="B349" s="5"/>
       <c r="C349" s="6"/>
     </row>
-    <row r="350" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" ht="23">
       <c r="A350" s="4"/>
       <c r="B350" s="5"/>
       <c r="C350" s="6"/>
     </row>
-    <row r="351" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" ht="23">
       <c r="A351" s="4"/>
       <c r="B351" s="5"/>
       <c r="C351" s="6"/>
     </row>
-    <row r="352" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" ht="23">
       <c r="A352" s="4"/>
       <c r="B352" s="5"/>
       <c r="C352" s="6"/>
     </row>
-    <row r="353" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" ht="23">
       <c r="A353" s="4"/>
       <c r="B353" s="5"/>
       <c r="C353" s="6"/>
     </row>
-    <row r="354" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" ht="23">
       <c r="A354" s="4"/>
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
     </row>
-    <row r="355" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" ht="23">
       <c r="A355" s="4"/>
       <c r="B355" s="5"/>
       <c r="C355" s="6"/>
     </row>
-    <row r="356" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" ht="23">
       <c r="A356" s="4"/>
       <c r="B356" s="5"/>
       <c r="C356" s="6"/>
     </row>
-    <row r="357" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" ht="23">
       <c r="A357" s="4"/>
       <c r="B357" s="5"/>
       <c r="C357" s="6"/>
     </row>
-    <row r="358" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" ht="23">
       <c r="A358" s="4"/>
       <c r="B358" s="5"/>
       <c r="C358" s="6"/>
     </row>
-    <row r="359" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" ht="23">
       <c r="A359" s="4"/>
       <c r="B359" s="5"/>
       <c r="C359" s="6"/>
     </row>
-    <row r="360" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" ht="23">
       <c r="A360" s="4"/>
       <c r="B360" s="5"/>
       <c r="C360" s="6"/>
     </row>
-    <row r="361" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" ht="23">
       <c r="A361" s="4"/>
       <c r="B361" s="5"/>
       <c r="C361" s="6"/>
     </row>
-    <row r="362" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" ht="23">
       <c r="A362" s="4"/>
       <c r="B362" s="5"/>
       <c r="C362" s="6"/>
     </row>
-    <row r="363" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" ht="23">
       <c r="A363" s="4"/>
       <c r="B363" s="5"/>
       <c r="C363" s="6"/>
     </row>
-    <row r="364" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" ht="23">
       <c r="A364" s="4"/>
       <c r="B364" s="5"/>
       <c r="C364" s="6"/>
     </row>
-    <row r="365" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" ht="23">
       <c r="A365" s="4"/>
       <c r="B365" s="5"/>
       <c r="C365" s="6"/>
     </row>
-    <row r="366" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" ht="23">
       <c r="A366" s="4"/>
       <c r="B366" s="5"/>
       <c r="C366" s="6"/>
     </row>
-    <row r="367" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" ht="23">
       <c r="A367" s="4"/>
       <c r="B367" s="5"/>
       <c r="C367" s="6"/>
     </row>
-    <row r="368" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" ht="23">
       <c r="A368" s="4"/>
       <c r="B368" s="5"/>
       <c r="C368" s="6"/>
     </row>
-    <row r="369" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" ht="23">
       <c r="A369" s="4"/>
       <c r="B369" s="5"/>
       <c r="C369" s="6"/>
     </row>
-    <row r="370" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" ht="23">
       <c r="A370" s="4"/>
       <c r="B370" s="5"/>
       <c r="C370" s="6"/>
     </row>
-    <row r="371" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" ht="23">
       <c r="A371" s="4"/>
       <c r="B371" s="5"/>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" ht="23">
       <c r="A372" s="4"/>
       <c r="B372" s="5"/>
       <c r="C372" s="6"/>
     </row>
-    <row r="373" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" ht="23">
       <c r="A373" s="4"/>
       <c r="B373" s="5"/>
       <c r="C373" s="6"/>
     </row>
-    <row r="374" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" ht="23">
       <c r="A374" s="4"/>
       <c r="B374" s="5"/>
       <c r="C374" s="6"/>
     </row>
-    <row r="375" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" ht="23">
       <c r="A375" s="4"/>
       <c r="B375" s="5"/>
       <c r="C375" s="6"/>
     </row>
-    <row r="376" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" ht="23">
       <c r="A376" s="4"/>
       <c r="B376" s="5"/>
       <c r="C376" s="6"/>
     </row>
-    <row r="377" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" ht="23">
       <c r="A377" s="4"/>
       <c r="B377" s="5"/>
       <c r="C377" s="6"/>
     </row>
-    <row r="378" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" ht="23">
       <c r="A378" s="4"/>
       <c r="B378" s="5"/>
       <c r="C378" s="6"/>
     </row>
-    <row r="379" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" ht="23">
       <c r="A379" s="4"/>
       <c r="B379" s="5"/>
       <c r="C379" s="6"/>
     </row>
-    <row r="380" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" ht="23">
       <c r="A380" s="4"/>
       <c r="B380" s="5"/>
       <c r="C380" s="6"/>
     </row>
-    <row r="381" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" ht="23">
       <c r="A381" s="4"/>
       <c r="B381" s="5"/>
       <c r="C381" s="6"/>
     </row>
-    <row r="382" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" ht="23">
       <c r="A382" s="4"/>
       <c r="B382" s="5"/>
       <c r="C382" s="6"/>
     </row>
-    <row r="383" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" ht="23">
       <c r="A383" s="4"/>
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
     </row>
-    <row r="384" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" ht="23">
       <c r="A384" s="4"/>
       <c r="B384" s="5"/>
       <c r="C384" s="6"/>
     </row>
-    <row r="385" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" ht="23">
       <c r="A385" s="4"/>
       <c r="B385" s="5"/>
       <c r="C385" s="6"/>
     </row>
-    <row r="386" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" ht="23">
       <c r="A386" s="4"/>
       <c r="B386" s="5"/>
       <c r="C386" s="6"/>
     </row>
-    <row r="387" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3" ht="23">
       <c r="A387" s="4"/>
       <c r="B387" s="5"/>
       <c r="C387" s="6"/>
     </row>
-    <row r="388" spans="1:3" ht="24" x14ac:dyDescent="0.2">
+    <row r="388" spans="1